--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\eclipse-workspace\Dynamics-CRM\TestNG\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\eclipse-workspace\Dynamics-CRM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE658F19-B38D-4972-9C34-D07C49A9C3F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F58DC2-8120-48C0-AB5E-2B673B4CA9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="442">
   <si>
     <t>UserName</t>
   </si>
@@ -1335,36 +1335,12 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>7000560096</t>
-  </si>
-  <si>
-    <t>7000560097</t>
-  </si>
-  <si>
-    <t>7000560098</t>
-  </si>
-  <si>
     <t>OLM</t>
   </si>
   <si>
-    <t>2021_08_09_07_45_12</t>
-  </si>
-  <si>
-    <t>2021_08_09_07_47_46</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2021_08_10_04_10_59</t>
-  </si>
-  <si>
-    <t>2000487384</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_14_32</t>
-  </si>
-  <si>
     <t>Affiliate</t>
   </si>
   <si>
@@ -1420,6 +1396,9 @@
   </si>
   <si>
     <t>2021_08_10_04_55_40</t>
+  </si>
+  <si>
+    <t>2021_09_02_10_51_40</t>
   </si>
 </sst>
 </file>
@@ -2117,10 +2096,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2136,7 +2116,7 @@
     <col min="9" max="9" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
@@ -2165,7 +2145,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -2192,7 +2172,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -2217,7 +2197,7 @@
       <c r="H3" s="23"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -2242,7 +2222,7 @@
       <c r="H4" s="23"/>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -2284,15 +2264,15 @@
         <v>62</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -2325,7 +2305,7 @@
         <v>74</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>9</v>
@@ -2334,17 +2314,17 @@
         <v>62</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -2369,7 +2349,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -2394,7 +2374,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -2419,7 +2399,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -2444,7 +2424,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -2477,7 +2457,7 @@
         <v>369</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>9</v>
@@ -2486,15 +2466,15 @@
         <v>62</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="47"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -2519,7 +2499,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -2544,7 +2524,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -2569,7 +2549,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -2594,7 +2574,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -2627,7 +2607,7 @@
         <v>370</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>9</v>
@@ -2636,15 +2616,15 @@
         <v>62</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>20</v>
       </c>
@@ -2669,7 +2649,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>21</v>
       </c>
@@ -2694,7 +2674,7 @@
       <c r="H22" s="23"/>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>22</v>
       </c>
@@ -2719,7 +2699,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>23</v>
       </c>
@@ -2744,7 +2724,7 @@
       <c r="H24" s="23"/>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>24</v>
       </c>
@@ -2769,7 +2749,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>25</v>
       </c>
@@ -2794,7 +2774,7 @@
       <c r="H26" s="23"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>26</v>
       </c>
@@ -2819,7 +2799,7 @@
       <c r="H27" s="23"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>27</v>
       </c>
@@ -2844,7 +2824,7 @@
       <c r="H28" s="23"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>28</v>
       </c>
@@ -2877,7 +2857,7 @@
         <v>51</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="48" t="s">
         <v>48</v>
@@ -2886,15 +2866,15 @@
         <v>62</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="H30" s="48"/>
       <c r="I30" s="49"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <v>30</v>
       </c>
@@ -2919,7 +2899,7 @@
       <c r="H31" s="30"/>
       <c r="I31" s="29"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -2944,7 +2924,7 @@
       <c r="H32" s="30"/>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30">
         <v>32</v>
       </c>
@@ -2977,7 +2957,7 @@
         <v>144</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="48" t="s">
         <v>48</v>
@@ -2986,10 +2966,10 @@
         <v>62</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="H34" s="48"/>
       <c r="I34" s="49"/>
@@ -3002,7 +2982,7 @@
         <v>149</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35" s="48" t="s">
         <v>48</v>
@@ -3011,15 +2991,15 @@
         <v>62</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="H35" s="48"/>
       <c r="I35" s="49"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>35</v>
       </c>
@@ -3044,7 +3024,7 @@
       <c r="H36" s="30"/>
       <c r="I36" s="29"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>36</v>
       </c>
@@ -3077,7 +3057,7 @@
         <v>161</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D38" s="48" t="s">
         <v>48</v>
@@ -3086,10 +3066,10 @@
         <v>62</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="49"/>
@@ -3102,7 +3082,7 @@
         <v>164</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D39" s="48" t="s">
         <v>48</v>
@@ -3111,15 +3091,15 @@
         <v>62</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="H39" s="48"/>
       <c r="I39" s="49"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>39</v>
       </c>
@@ -3144,7 +3124,7 @@
       <c r="H40" s="30"/>
       <c r="I40" s="29"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>40</v>
       </c>
@@ -3177,7 +3157,7 @@
         <v>183</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42" s="48" t="s">
         <v>48</v>
@@ -3186,10 +3166,10 @@
         <v>62</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="H42" s="48"/>
       <c r="I42" s="49"/>
@@ -3202,7 +3182,7 @@
         <v>383</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43" s="52" t="s">
         <v>48</v>
@@ -3211,15 +3191,15 @@
         <v>62</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="67">
         <v>43</v>
       </c>
@@ -3252,7 +3232,7 @@
         <v>309</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45" s="50" t="s">
         <v>307</v>
@@ -3261,13 +3241,13 @@
         <v>308</v>
       </c>
       <c r="F45" s="50" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="H45" s="50" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="I45" s="51"/>
     </row>
@@ -3279,7 +3259,7 @@
         <v>313</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D46" s="50" t="s">
         <v>307</v>
@@ -3288,13 +3268,13 @@
         <v>308</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="I46" s="51"/>
     </row>
@@ -3306,7 +3286,7 @@
         <v>312</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" s="50" t="s">
         <v>307</v>
@@ -3315,17 +3295,17 @@
         <v>308</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I47" s="51"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27">
         <v>47</v>
       </c>
@@ -3350,7 +3330,7 @@
       <c r="H48" s="27"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27">
         <v>48</v>
       </c>
@@ -3375,7 +3355,7 @@
       <c r="H49" s="27"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27">
         <v>49</v>
       </c>
@@ -3400,7 +3380,7 @@
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27">
         <v>50</v>
       </c>
@@ -3425,7 +3405,7 @@
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27">
         <v>51</v>
       </c>
@@ -3450,7 +3430,7 @@
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27">
         <v>52</v>
       </c>
@@ -3476,7 +3456,13 @@
       <c r="I53" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I53" xr:uid="{82E42E5A-9B39-4AEF-85C9-780A007CE908}"/>
+  <autoFilter ref="A1:I53" xr:uid="{82E42E5A-9B39-4AEF-85C9-780A007CE908}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C53" xr:uid="{8A698568-7FFB-4AF9-B5EF-DFF4FBACDD2D}">
       <formula1>"Yes,No"</formula1>
@@ -3494,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:DB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3963,7 +3949,7 @@
         <v>350</v>
       </c>
       <c r="AF2" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG2" s="55" t="s">
         <v>350</v>
@@ -4074,7 +4060,7 @@
         <v>395</v>
       </c>
       <c r="AF3" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG3" s="55" t="s">
         <v>395</v>
@@ -4292,7 +4278,7 @@
         <v>99</v>
       </c>
       <c r="AF5" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG5" s="55" t="s">
         <v>350</v>
@@ -4413,7 +4399,7 @@
         <v>99</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG6" s="55" t="s">
         <v>350</v>
@@ -4529,7 +4515,7 @@
         <v>350</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG7" s="55" t="s">
         <v>350</v>
@@ -4641,7 +4627,7 @@
         <v>350</v>
       </c>
       <c r="AF8" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG8" s="32" t="s">
         <v>350</v>
@@ -4750,7 +4736,7 @@
         <v>350</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG9" s="32" t="s">
         <v>350</v>
@@ -4857,7 +4843,7 @@
         <v>350</v>
       </c>
       <c r="AF10" s="16" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AG10" s="55" t="s">
         <v>350</v>
@@ -4973,7 +4959,7 @@
         <v>350</v>
       </c>
       <c r="AF11" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG11" s="55" t="s">
         <v>350</v>
@@ -5103,7 +5089,7 @@
         <v>350</v>
       </c>
       <c r="AF12" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG12" s="55" t="s">
         <v>350</v>
@@ -5225,7 +5211,7 @@
         <v>99</v>
       </c>
       <c r="AF13" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG13" s="55" t="s">
         <v>350</v>
@@ -5346,7 +5332,7 @@
         <v>350</v>
       </c>
       <c r="AF14" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG14" s="55" t="s">
         <v>350</v>
@@ -5461,7 +5447,7 @@
         <v>350</v>
       </c>
       <c r="AF15" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG15" s="55" t="s">
         <v>350</v>
@@ -5576,7 +5562,7 @@
         <v>350</v>
       </c>
       <c r="AF16" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG16" s="55" t="s">
         <v>350</v>
@@ -5691,7 +5677,7 @@
         <v>350</v>
       </c>
       <c r="AF17" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG17" s="55" t="s">
         <v>350</v>
@@ -5811,7 +5797,7 @@
         <v>350</v>
       </c>
       <c r="AF18" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG18" s="55" t="s">
         <v>350</v>
@@ -5949,7 +5935,7 @@
       </c>
       <c r="AE19" s="16"/>
       <c r="AF19" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG19" s="55" t="s">
         <v>350</v>
@@ -6172,7 +6158,7 @@
         <v>99</v>
       </c>
       <c r="AF22" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG22" s="55" t="s">
         <v>350</v>
@@ -6608,7 +6594,7 @@
         <v>350</v>
       </c>
       <c r="AF29" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG29" s="55" t="s">
         <v>350</v>
@@ -8356,6 +8342,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8589,32 +8593,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0be14d6d-d8a1-45f7-9f98-2db40f8691c4"/>
+    <ds:schemaRef ds:uri="567c5c99-f8da-409a-bc28-51b94ad9a241"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -3,27 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\eclipse-workspace\Dynamics-CRM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F58DC2-8120-48C0-AB5E-2B673B4CA9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237CC3E8-DA6D-49AE-8E64-353F3F9EAA57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
-    <sheet name="Member" sheetId="2" r:id="rId2"/>
-    <sheet name="Supplier" sheetId="3" r:id="rId3"/>
-    <sheet name="Contact" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Member" sheetId="2" r:id="rId3"/>
+    <sheet name="Supplier" sheetId="3" r:id="rId4"/>
+    <sheet name="Contact" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$I$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,42 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Chandrasekar, Suthamani</author>
-  </authors>
-  <commentList>
-    <comment ref="AF3" authorId="0" shapeId="0" xr:uid="{E88032BA-8AB1-460B-8BEC-EDA0D77F03E6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chandrasekar, Suthamani:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Getting "TPR has to be affiliated"error if OLM is selected</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="520">
   <si>
     <t>UserName</t>
   </si>
@@ -1332,73 +1299,307 @@
     <t>AffiliateGroupAfterReactivation</t>
   </si>
   <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Affiliate</t>
+  </si>
+  <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>OLM</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>Affiliate</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_25_13</t>
-  </si>
-  <si>
-    <t>2000487386</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_27_07</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_30_53</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_36_19</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_37_32</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_38_43</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_40_00</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_41_18</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_42_35</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_43_46</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_47_02</t>
-  </si>
-  <si>
-    <t>7000560102</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_49_22</t>
-  </si>
-  <si>
-    <t>7000560103</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_53_01</t>
-  </si>
-  <si>
-    <t>7000560104</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_55_40</t>
-  </si>
-  <si>
-    <t>2021_09_02_10_51_40</t>
+    <t>2000488044</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_13_21</t>
+  </si>
+  <si>
+    <t>2000488045</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_17_27</t>
+  </si>
+  <si>
+    <t>2000488046</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_21_24</t>
+  </si>
+  <si>
+    <t>2000488047</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_25_08</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_28_48</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_32_32</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_33_23</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_34_14</t>
+  </si>
+  <si>
+    <t>2000488050</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_36_45</t>
+  </si>
+  <si>
+    <t>2000488051</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_40_10</t>
+  </si>
+  <si>
+    <t>2000488052</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_42_39</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_44_49</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_47_05</t>
+  </si>
+  <si>
+    <t>2000488055</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_49_12</t>
+  </si>
+  <si>
+    <t>2000488056</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_51_47</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_54_42</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_56_49</t>
+  </si>
+  <si>
+    <t>2021_09_30_01_57_56</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_07_11</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_10_20</t>
+  </si>
+  <si>
+    <t>2000488060</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_11_56</t>
+  </si>
+  <si>
+    <t>2000488061</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_13_33</t>
+  </si>
+  <si>
+    <t>2000488062</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_15_09</t>
+  </si>
+  <si>
+    <t>2000488063</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_16_46</t>
+  </si>
+  <si>
+    <t>2000488064</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_18_01</t>
+  </si>
+  <si>
+    <t>2000488065</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_19_07</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_20_06</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_21_18</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_22_39</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_23_54</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_24_52</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_26_03</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_27_19</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_28_06</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_29_23</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_30_40</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_31_57</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_33_08</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_34_11</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_35_23</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_41_04</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_42_28</t>
+  </si>
+  <si>
+    <t>7000560606</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_44_48</t>
+  </si>
+  <si>
+    <t>7000560607</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_48_29</t>
+  </si>
+  <si>
+    <t>7000560608</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_51_08</t>
+  </si>
+  <si>
+    <t>7000560609</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_53_08</t>
+  </si>
+  <si>
+    <t>7000560610</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_56_44</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_57_47</t>
+  </si>
+  <si>
+    <t>2021_09_30_02_58_45</t>
+  </si>
+  <si>
+    <t>7000560611</t>
+  </si>
+  <si>
+    <t>2021_09_30_03_02_10</t>
+  </si>
+  <si>
+    <t>7000560612</t>
+  </si>
+  <si>
+    <t>2021_09_30_03_05_41</t>
+  </si>
+  <si>
+    <t>2000502573</t>
+  </si>
+  <si>
+    <t>2000502574</t>
+  </si>
+  <si>
+    <t>2000502575</t>
+  </si>
+  <si>
+    <t>2000502576</t>
+  </si>
+  <si>
+    <t>2000502579</t>
+  </si>
+  <si>
+    <t>2000502580</t>
+  </si>
+  <si>
+    <t>2000502581</t>
+  </si>
+  <si>
+    <t>2000502584</t>
+  </si>
+  <si>
+    <t>2000502585</t>
+  </si>
+  <si>
+    <t>7000563661</t>
+  </si>
+  <si>
+    <t>2021_10_18_03_14_04</t>
+  </si>
+  <si>
+    <t>7000563662</t>
+  </si>
+  <si>
+    <t>2021_10_18_03_17_48</t>
+  </si>
+  <si>
+    <t>7000563663</t>
+  </si>
+  <si>
+    <t>2021_10_18_03_20_25</t>
+  </si>
+  <si>
+    <t>7000563664</t>
+  </si>
+  <si>
+    <t>2021_10_18_03_22_24</t>
+  </si>
+  <si>
+    <t>7000563665</t>
+  </si>
+  <si>
+    <t>2021_10_18_03_25_58</t>
+  </si>
+  <si>
+    <t>2021_10_18_03_27_00</t>
+  </si>
+  <si>
+    <t>2021_10_18_03_27_58</t>
+  </si>
+  <si>
+    <t>7000563666</t>
+  </si>
+  <si>
+    <t>2021_10_18_03_31_14</t>
+  </si>
+  <si>
+    <t>7000563667</t>
+  </si>
+  <si>
+    <t>2021_10_18_03_34_45</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1609,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1512,19 +1713,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1774,7 +1962,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2096,27 +2284,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="93.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="93.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
@@ -2145,7 +2332,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -2167,12 +2354,14 @@
       <c r="G2" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="21" t="s">
+        <v>495</v>
+      </c>
       <c r="I2" s="64" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -2194,10 +2383,12 @@
       <c r="G3" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="23" t="s">
+        <v>496</v>
+      </c>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -2219,10 +2410,12 @@
       <c r="G4" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="23" t="s">
+        <v>497</v>
+      </c>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -2244,7 +2437,9 @@
       <c r="G5" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>498</v>
+      </c>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2255,7 +2450,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>9</v>
@@ -2264,15 +2459,15 @@
         <v>62</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="47"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -2320,11 +2515,11 @@
         <v>393</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -2349,7 +2544,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -2371,10 +2566,12 @@
       <c r="G10" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="23" t="s">
+        <v>499</v>
+      </c>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -2396,10 +2593,12 @@
       <c r="G11" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="23" t="s">
+        <v>500</v>
+      </c>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -2421,10 +2620,12 @@
       <c r="G12" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="23" t="s">
+        <v>501</v>
+      </c>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -2474,7 +2675,7 @@
       <c r="H14" s="46"/>
       <c r="I14" s="47"/>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -2496,10 +2697,12 @@
       <c r="G15" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="23" t="s">
+        <v>502</v>
+      </c>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -2521,10 +2724,12 @@
       <c r="G16" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="23" t="s">
+        <v>503</v>
+      </c>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -2549,7 +2754,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -2574,7 +2779,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -2624,7 +2829,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>20</v>
       </c>
@@ -2649,7 +2854,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>21</v>
       </c>
@@ -2671,10 +2876,12 @@
       <c r="G22" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="23" t="s">
+        <v>451</v>
+      </c>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>22</v>
       </c>
@@ -2696,10 +2903,12 @@
       <c r="G23" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>453</v>
+      </c>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>23</v>
       </c>
@@ -2721,10 +2930,12 @@
       <c r="G24" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="23" t="s">
+        <v>455</v>
+      </c>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>24</v>
       </c>
@@ -2746,10 +2957,12 @@
       <c r="G25" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H25" s="23"/>
+      <c r="H25" s="23" t="s">
+        <v>457</v>
+      </c>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>25</v>
       </c>
@@ -2771,10 +2984,12 @@
       <c r="G26" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="23" t="s">
+        <v>459</v>
+      </c>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>26</v>
       </c>
@@ -2796,10 +3011,12 @@
       <c r="G27" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="23" t="s">
+        <v>461</v>
+      </c>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>27</v>
       </c>
@@ -2824,7 +3041,7 @@
       <c r="H28" s="23"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>28</v>
       </c>
@@ -2874,7 +3091,7 @@
       <c r="H30" s="48"/>
       <c r="I30" s="49"/>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <v>30</v>
       </c>
@@ -2899,7 +3116,7 @@
       <c r="H31" s="30"/>
       <c r="I31" s="29"/>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -2924,7 +3141,7 @@
       <c r="H32" s="30"/>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="30">
         <v>32</v>
       </c>
@@ -2999,7 +3216,7 @@
       <c r="H35" s="48"/>
       <c r="I35" s="49"/>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>35</v>
       </c>
@@ -3024,7 +3241,7 @@
       <c r="H36" s="30"/>
       <c r="I36" s="29"/>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>36</v>
       </c>
@@ -3099,7 +3316,7 @@
       <c r="H39" s="48"/>
       <c r="I39" s="49"/>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>39</v>
       </c>
@@ -3124,7 +3341,7 @@
       <c r="H40" s="30"/>
       <c r="I40" s="29"/>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>40</v>
       </c>
@@ -3199,7 +3416,7 @@
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="67">
         <v>43</v>
       </c>
@@ -3232,7 +3449,7 @@
         <v>309</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="50" t="s">
         <v>307</v>
@@ -3241,13 +3458,13 @@
         <v>308</v>
       </c>
       <c r="F45" s="50" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>393</v>
+        <v>505</v>
       </c>
       <c r="H45" s="50" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
       <c r="I45" s="51"/>
     </row>
@@ -3259,7 +3476,7 @@
         <v>313</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" s="50" t="s">
         <v>307</v>
@@ -3268,13 +3485,13 @@
         <v>308</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>393</v>
+        <v>507</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>437</v>
+        <v>506</v>
       </c>
       <c r="I46" s="51"/>
     </row>
@@ -3286,7 +3503,7 @@
         <v>312</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="50" t="s">
         <v>307</v>
@@ -3295,17 +3512,17 @@
         <v>308</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>393</v>
+        <v>509</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="I47" s="51"/>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="27">
         <v>47</v>
       </c>
@@ -3313,7 +3530,7 @@
         <v>327</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="27" t="s">
         <v>307</v>
@@ -3322,15 +3539,17 @@
         <v>308</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="H48" s="27"/>
+        <v>511</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>510</v>
+      </c>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="27">
         <v>48</v>
       </c>
@@ -3338,7 +3557,7 @@
         <v>337</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>307</v>
@@ -3347,15 +3566,17 @@
         <v>308</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="H49" s="27"/>
+        <v>513</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>512</v>
+      </c>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="27">
         <v>49</v>
       </c>
@@ -3363,7 +3584,7 @@
         <v>336</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>307</v>
@@ -3372,15 +3593,15 @@
         <v>308</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>393</v>
+        <v>514</v>
       </c>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="27">
         <v>50</v>
       </c>
@@ -3388,7 +3609,7 @@
         <v>333</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>307</v>
@@ -3397,15 +3618,15 @@
         <v>308</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>393</v>
+        <v>515</v>
       </c>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="27">
         <v>51</v>
       </c>
@@ -3413,7 +3634,7 @@
         <v>343</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="27" t="s">
         <v>307</v>
@@ -3422,15 +3643,17 @@
         <v>308</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="H52" s="27"/>
+        <v>517</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>516</v>
+      </c>
       <c r="I52" s="27"/>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="27">
         <v>52</v>
       </c>
@@ -3438,7 +3661,7 @@
         <v>344</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>307</v>
@@ -3447,22 +3670,18 @@
         <v>308</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="H53" s="27"/>
+        <v>519</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>518</v>
+      </c>
       <c r="I53" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I53" xr:uid="{82E42E5A-9B39-4AEF-85C9-780A007CE908}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I53" xr:uid="{82E42E5A-9B39-4AEF-85C9-780A007CE908}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C53" xr:uid="{8A698568-7FFB-4AF9-B5EF-DFF4FBACDD2D}">
       <formula1>"Yes,No"</formula1>
@@ -3477,99 +3696,1510 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A986E7C0-4737-400A-A429-5FAB64F40F29}">
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="93.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="46">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="46">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="46">
+        <v>13</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="46">
+        <v>19</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>449</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="48">
+        <v>29</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="30">
+        <v>30</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H31" s="30"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="30">
+        <v>31</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H32" s="30"/>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="30">
+        <v>32</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="H33" s="30"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="48">
+        <v>33</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="48">
+        <v>34</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="30">
+        <v>35</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="29"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="30">
+        <v>36</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="H37" s="30"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="48">
+        <v>37</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="H38" s="48"/>
+      <c r="I38" s="49"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="48">
+        <v>38</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="H39" s="48"/>
+      <c r="I39" s="49"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="30">
+        <v>39</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="H40" s="30"/>
+      <c r="I40" s="29"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="30">
+        <v>40</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="H41" s="30"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="48">
+        <v>41</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="48">
+        <v>42</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+    </row>
+    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="67">
+        <v>43</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="67" t="s">
+        <v>421</v>
+      </c>
+      <c r="G44" s="67" t="s">
+        <v>478</v>
+      </c>
+      <c r="H44" s="67"/>
+      <c r="I44" s="68"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="50">
+        <v>44</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="G45" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="H45" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="I45" s="51"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="50">
+        <v>45</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="H46" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="I46" s="51"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="50">
+        <v>46</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="H47" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="I47" s="51"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="27">
+        <v>47</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="27">
+        <v>48</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="27">
+        <v>49</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="27">
+        <v>50</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="27">
+        <v>51</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="27">
+        <v>52</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="I53" s="27"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C53" xr:uid="{282047DF-70B9-4C27-92F1-FFFCFE623E22}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{F90A6277-E1AE-408D-94DE-A690F0FD71FD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:DB29"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView topLeftCell="AD32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF60" sqref="AF60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="5.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="102.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="14.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="12.88671875" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="6" width="12.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="69.109375" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" style="6" width="36.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="20.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="20.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="15.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="16.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="14.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="20.109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="6" width="21.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="6" width="27.109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="6" width="18.5546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="6" width="10.44140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="6" width="4.44140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="6" width="8.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="6" width="7.33203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="6" width="8.33203125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="6" width="12.109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="6" width="19.88671875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="6" width="24.109375" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="6" width="24.109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="6" width="9.88671875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="6" width="22.109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="6" width="9.5546875" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="6" width="21.88671875" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="6" width="26.33203125" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="6" width="30.44140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="6" width="23.33203125" collapsed="true"/>
-    <col min="39" max="41" customWidth="true" style="6" width="23.33203125" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="6" width="7.33203125" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="6" width="22.33203125" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="6" width="24.5546875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="6" width="8.88671875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="6" width="16.6640625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="6" width="6.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="6" width="20.5546875" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="6" width="20.33203125" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="6" width="26.44140625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="6" width="24.33203125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="6" width="27.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="6" width="25.0" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="6" width="29.0" collapsed="true"/>
-    <col min="55" max="56" bestFit="true" customWidth="true" style="6" width="15.109375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="6" width="25.5546875" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="6" width="15.6640625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="6" width="17.88671875" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="6" width="14.5546875" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="6" width="11.88671875" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="6" width="17.33203125" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="6" width="15.33203125" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="6" width="19.88671875" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="6" width="19.44140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="6" width="14.44140625" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="6" width="14.6640625" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" style="6" width="10.6640625" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" style="6" width="19.44140625" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" style="6" width="12.33203125" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" style="6" width="9.33203125" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" style="6" width="14.109375" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" style="6" width="32.0" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" style="6" width="16.33203125" collapsed="true"/>
-    <col min="76" max="82" style="6" width="9.109375" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" style="6" width="10.0" collapsed="true"/>
-    <col min="84" max="95" style="6" width="9.109375" collapsed="true"/>
-    <col min="96" max="96" customWidth="true" style="6" width="28.33203125" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" style="6" width="22.109375" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" style="6" width="26.109375" collapsed="true"/>
-    <col min="99" max="99" customWidth="true" style="6" width="26.109375" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
-    <col min="101" max="101" customWidth="true" style="6" width="12.6640625" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" style="6" width="22.88671875" collapsed="true"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" style="6" width="18.109375" collapsed="true"/>
-    <col min="104" max="104" customWidth="true" style="6" width="18.109375" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" style="6" width="18.21875" collapsed="true"/>
-    <col min="106" max="16384" style="6" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="5.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="102.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12.88671875" style="6" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="69.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="36.5546875" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="27.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="4.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="7.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="24.109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="22.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="21.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="26.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="30.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="23.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="41" width="23.33203125" style="6" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="7.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="22.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="24.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="16.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="6" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="20.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="20.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="26.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="24.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="27" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="25" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="29" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="56" width="15.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="25.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="15.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="14.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="11.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="17.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="12.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="15.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="19.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="19.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="14.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="14.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="10.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="19.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="12.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="9.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="14.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="32" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="16.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="82" width="9.109375" style="6" collapsed="1"/>
+    <col min="83" max="83" width="10" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="95" width="9.109375" style="6" collapsed="1"/>
+    <col min="96" max="96" width="28.33203125" style="6" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="22.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="26.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="26.109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="12.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="12.6640625" style="6" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="22.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="18.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="18.109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="18.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="16384" width="9.109375" style="6" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.3">
@@ -4843,7 +6473,7 @@
         <v>350</v>
       </c>
       <c r="AF10" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AG10" s="55" t="s">
         <v>350</v>
@@ -6613,71 +8243,70 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BB17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="82.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="30" max="32" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="4.109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="82.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="34.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="9.5546875" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="4.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="6.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.3">
@@ -7721,7 +9350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
@@ -7731,25 +9360,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="113.77734375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="65.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="73.88671875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="113.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="65.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="73.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
@@ -8342,15 +9971,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8359,7 +9979,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8593,17 +10213,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -8611,7 +10230,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8629,4 +10248,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\eclipse-workspace\Dynamics-CRM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\OnPremise\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF8DE6-470C-4BF7-BA82-B7E145584C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3314F2-52B1-4479-91EE-893A7DBB78E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" activeTab="2" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="Contact" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$I$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$I$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="459">
   <si>
     <t>UserName</t>
   </si>
@@ -926,9 +926,6 @@
     <t>2000424828</t>
   </si>
   <si>
-    <t>corp\crmtest10</t>
-  </si>
-  <si>
     <t>TFS ID_ 7485:Verify on "Update" following fields in Limited Member ,"Record status" should get changed to Need Approval.</t>
   </si>
   <si>
@@ -1106,9 +1103,6 @@
     <t>TC4547</t>
   </si>
   <si>
-    <t>https://crmstage.premierinc.com/</t>
-  </si>
-  <si>
     <t>GroupSource</t>
   </si>
   <si>
@@ -1208,229 +1202,220 @@
     <t>Bessert, Jennifer</t>
   </si>
   <si>
+    <t>8/20/2021</t>
+  </si>
+  <si>
+    <t>7/23/2021</t>
+  </si>
+  <si>
+    <t>7137_CreateMemberProspectFirst</t>
+  </si>
+  <si>
+    <t>8218_ReactivateTerminatedMem</t>
+  </si>
+  <si>
+    <t>7138_SubAccProspectFirst</t>
+  </si>
+  <si>
+    <t>7139_EntryFormSubAccProsFirst</t>
+  </si>
+  <si>
+    <t>7491_New Business Partner</t>
+  </si>
+  <si>
+    <t>1141_Validate Business Key</t>
+  </si>
+  <si>
+    <t>7312_UpdatePrimaryContact</t>
+  </si>
+  <si>
+    <t>7152_MailToAccProspectFirst</t>
+  </si>
+  <si>
+    <t>7151_BillToAccProspectFirst</t>
+  </si>
+  <si>
+    <t>7150_ShipToAccProspectFirst</t>
+  </si>
+  <si>
+    <t>7150_MemberEntryShipToAccProspectFirst</t>
+  </si>
+  <si>
+    <t>7147_SubAccShipToAccProspectFirst</t>
+  </si>
+  <si>
+    <t>7150_ShipToMainAccConversion</t>
+  </si>
+  <si>
+    <t>7149_ShipToAccForConversion</t>
+  </si>
+  <si>
+    <t>TP_7144_MemberFirst</t>
+  </si>
+  <si>
+    <t>TP_7143_ProspectFirst</t>
+  </si>
+  <si>
+    <t>7142_MemberEntryMemberFirst</t>
+  </si>
+  <si>
+    <t>7141_MemberFirst</t>
+  </si>
+  <si>
+    <t>7140_MemberEntryProspectFirst</t>
+  </si>
+  <si>
+    <t>9/30/2021</t>
+  </si>
+  <si>
+    <t>GroupSource NonAcute</t>
+  </si>
+  <si>
+    <t>Non Premier NonAcute</t>
+  </si>
+  <si>
+    <t>AffiliateGroupAfterReactivation</t>
+  </si>
+  <si>
+    <t>Affiliate</t>
+  </si>
+  <si>
+    <t>OLM</t>
+  </si>
+  <si>
+    <t>TFS ID_7111:CreateSubAccountUnderAccount</t>
+  </si>
+  <si>
+    <t>SubAccount</t>
+  </si>
+  <si>
+    <t>SubAccountcount</t>
+  </si>
+  <si>
+    <t>2000092265</t>
+  </si>
+  <si>
+    <t>Avera @ Home</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>UserName2</t>
+  </si>
+  <si>
+    <t>corp\crmtest05</t>
+  </si>
+  <si>
+    <t>2000531540</t>
+  </si>
+  <si>
+    <t>2000531679</t>
+  </si>
+  <si>
+    <t>2000531680</t>
+  </si>
+  <si>
+    <t>2000531681</t>
+  </si>
+  <si>
+    <t>2000531682</t>
+  </si>
+  <si>
+    <t>2000531685</t>
+  </si>
+  <si>
+    <t>2000531687</t>
+  </si>
+  <si>
+    <t>2000531688</t>
+  </si>
+  <si>
+    <t>2000531689</t>
+  </si>
+  <si>
+    <t>2000531692</t>
+  </si>
+  <si>
+    <t>2000531693</t>
+  </si>
+  <si>
+    <t>2000531696</t>
+  </si>
+  <si>
+    <t>551726561</t>
+  </si>
+  <si>
+    <t>hf1741188</t>
+  </si>
+  <si>
+    <t>2000531697</t>
+  </si>
+  <si>
+    <t>2000531698</t>
+  </si>
+  <si>
+    <t>2000531699</t>
+  </si>
+  <si>
+    <t>2000531700</t>
+  </si>
+  <si>
+    <t>2000531701</t>
+  </si>
+  <si>
+    <t>2000531702</t>
+  </si>
+  <si>
+    <t>2000531703</t>
+  </si>
+  <si>
+    <t>2000531704</t>
+  </si>
+  <si>
+    <t>7000572471</t>
+  </si>
+  <si>
+    <t>7000572472</t>
+  </si>
+  <si>
+    <t>7000572473</t>
+  </si>
+  <si>
+    <t>7000572474</t>
+  </si>
+  <si>
+    <t>7000572475</t>
+  </si>
+  <si>
+    <t>7000572476</t>
+  </si>
+  <si>
+    <t>7000572477</t>
+  </si>
+  <si>
+    <t>http://c3dicrmv9app1/CRMDevV9/main.aspx#</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7112:Verify if primary account of a contact has been changed then other associated Contact account association should not get end dated/terminated</t>
+  </si>
+  <si>
     <t>No Run</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>8/20/2021</t>
-  </si>
-  <si>
-    <t>7/23/2021</t>
-  </si>
-  <si>
-    <t>7137_CreateMemberProspectFirst</t>
-  </si>
-  <si>
-    <t>8218_ReactivateTerminatedMem</t>
-  </si>
-  <si>
-    <t>7138_SubAccProspectFirst</t>
-  </si>
-  <si>
-    <t>7139_EntryFormSubAccProsFirst</t>
-  </si>
-  <si>
-    <t>7491_New Business Partner</t>
-  </si>
-  <si>
-    <t>1141_Validate Business Key</t>
-  </si>
-  <si>
-    <t>7312_UpdatePrimaryContact</t>
-  </si>
-  <si>
-    <t>7152_MailToAccProspectFirst</t>
-  </si>
-  <si>
-    <t>7151_BillToAccProspectFirst</t>
-  </si>
-  <si>
-    <t>7150_ShipToAccProspectFirst</t>
-  </si>
-  <si>
-    <t>7150_MemberEntryShipToAccProspectFirst</t>
-  </si>
-  <si>
-    <t>7147_SubAccShipToAccProspectFirst</t>
-  </si>
-  <si>
-    <t>7150_ShipToMainAccConversion</t>
-  </si>
-  <si>
-    <t>7149_ShipToAccForConversion</t>
-  </si>
-  <si>
-    <t>TP_7144_MemberFirst</t>
-  </si>
-  <si>
-    <t>TP_7143_ProspectFirst</t>
-  </si>
-  <si>
-    <t>7142_MemberEntryMemberFirst</t>
-  </si>
-  <si>
-    <t>7141_MemberFirst</t>
-  </si>
-  <si>
-    <t>7140_MemberEntryProspectFirst</t>
-  </si>
-  <si>
-    <t>9/30/2021</t>
-  </si>
-  <si>
-    <t>GroupSource NonAcute</t>
-  </si>
-  <si>
-    <t>Non Premier NonAcute</t>
-  </si>
-  <si>
-    <t>AffiliateGroupAfterReactivation</t>
-  </si>
-  <si>
-    <t>2000488060</t>
-  </si>
-  <si>
-    <t>2000488061</t>
-  </si>
-  <si>
-    <t>2000488062</t>
-  </si>
-  <si>
-    <t>2000488063</t>
-  </si>
-  <si>
-    <t>2000488064</t>
-  </si>
-  <si>
-    <t>2000488065</t>
-  </si>
-  <si>
-    <t>Affiliate</t>
-  </si>
-  <si>
-    <t>OLM</t>
-  </si>
-  <si>
-    <t>7000564154</t>
-  </si>
-  <si>
-    <t>7000564155</t>
-  </si>
-  <si>
-    <t>7000564156</t>
-  </si>
-  <si>
-    <t>7000564157</t>
-  </si>
-  <si>
-    <t>7000564158</t>
-  </si>
-  <si>
-    <t>7000564159</t>
-  </si>
-  <si>
-    <t>7000564160</t>
-  </si>
-  <si>
-    <t>2000505086</t>
-  </si>
-  <si>
-    <t>379187184</t>
-  </si>
-  <si>
-    <t>cf2031211</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>2000505092</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_17_24</t>
-  </si>
-  <si>
-    <t>2000505093</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_21_20</t>
-  </si>
-  <si>
-    <t>2000505094</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_24_56</t>
-  </si>
-  <si>
-    <t>2000505095</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_28_29</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_31_46</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_35_06</t>
-  </si>
-  <si>
-    <t>2000505098</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_38_47</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_42_10</t>
-  </si>
-  <si>
-    <t>2000505100</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_44_22</t>
-  </si>
-  <si>
-    <t>2000505101</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_47_15</t>
-  </si>
-  <si>
-    <t>2000505102</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_49_29</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_51_25</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_55_06</t>
-  </si>
-  <si>
-    <t>2000505107</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_57_18</t>
-  </si>
-  <si>
-    <t>2000505109</t>
-  </si>
-  <si>
-    <t>2021_10_29_05_59_32</t>
-  </si>
-  <si>
-    <t>2021_10_29_06_02_17</t>
-  </si>
-  <si>
-    <t>2021_10_29_06_06_50</t>
-  </si>
-  <si>
-    <t>2021_10_29_06_07_34</t>
-  </si>
-  <si>
-    <t>2021_10_29_06_13_01</t>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2022_04_13_03_36_07</t>
+  </si>
+  <si>
+    <t>2022_04_13_03_36_47</t>
+  </si>
+  <si>
+    <t>2022_04_19_11_08_52</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1636,12 +1621,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1756,6 +1752,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2077,26 +2079,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="93.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="93.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>53</v>
@@ -2125,7 +2127,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -2138,23 +2140,23 @@
       <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>434</v>
+      <c r="F2" s="63" t="s">
+        <v>455</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -2162,26 +2164,26 @@
         <v>59</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>434</v>
+      <c r="F3" s="63" t="s">
+        <v>453</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="I3" s="61"/>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -2189,7 +2191,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>9</v>
@@ -2198,17 +2200,17 @@
         <v>62</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>9</v>
@@ -2225,17 +2227,17 @@
         <v>62</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -2243,24 +2245,24 @@
         <v>71</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>434</v>
+      <c r="F6" s="63" t="s">
+        <v>453</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -2268,7 +2270,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>9</v>
@@ -2277,15 +2279,15 @@
         <v>62</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -2293,26 +2295,26 @@
         <v>74</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="63" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -2320,24 +2322,24 @@
         <v>75</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>434</v>
+      <c r="F9" s="63" t="s">
+        <v>453</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -2345,26 +2347,26 @@
         <v>93</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>434</v>
+      <c r="F10" s="63" t="s">
+        <v>453</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -2372,26 +2374,26 @@
         <v>96</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>434</v>
+      <c r="F11" s="63" t="s">
+        <v>453</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -2399,26 +2401,26 @@
         <v>95</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>434</v>
+      <c r="F12" s="63" t="s">
+        <v>453</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -2426,16 +2428,16 @@
         <v>100</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>434</v>
+      <c r="F13" s="63" t="s">
+        <v>453</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>454</v>
@@ -2443,32 +2445,32 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>434</v>
+      <c r="F14" s="63" t="s">
+        <v>453</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -2476,26 +2478,26 @@
         <v>91</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>434</v>
+      <c r="F15" s="63" t="s">
+        <v>453</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -2503,26 +2505,26 @@
         <v>90</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>434</v>
+      <c r="F16" s="63" t="s">
+        <v>453</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>189</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>9</v>
@@ -2539,15 +2541,15 @@
         <v>110</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -2555,24 +2557,24 @@
         <v>101</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="63" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -2580,7 +2582,7 @@
         <v>109</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>9</v>
@@ -2589,45 +2591,45 @@
         <v>110</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="63" t="s">
         <v>62</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>57</v>
@@ -2635,21 +2637,21 @@
       <c r="D21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="63" t="s">
         <v>62</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -2666,17 +2668,17 @@
         <v>62</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -2693,17 +2695,17 @@
         <v>62</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -2720,17 +2722,17 @@
         <v>62</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -2747,17 +2749,17 @@
         <v>62</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -2774,17 +2776,17 @@
         <v>62</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -2801,17 +2803,17 @@
         <v>62</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -2824,24 +2826,26 @@
       <c r="D28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="63" t="s">
         <v>62</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="H28" s="19"/>
+        <v>454</v>
+      </c>
+      <c r="H28" s="65" t="s">
+        <v>442</v>
+      </c>
       <c r="I28" s="19"/>
     </row>
-    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>57</v>
@@ -2849,49 +2853,51 @@
       <c r="D29" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="63" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
     </row>
-    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
+    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>29</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
-        <v>30</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>57</v>
@@ -2903,20 +2909,20 @@
         <v>62</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>57</v>
@@ -2927,21 +2933,21 @@
       <c r="E32" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>389</v>
+      <c r="F32" s="63" t="s">
+        <v>453</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>57</v>
@@ -2953,20 +2959,20 @@
         <v>62</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>57</v>
@@ -2977,21 +2983,21 @@
       <c r="E34" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>389</v>
+      <c r="F34" s="63" t="s">
+        <v>453</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>57</v>
@@ -3002,21 +3008,21 @@
       <c r="E35" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>389</v>
+      <c r="F35" s="63" t="s">
+        <v>453</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>57</v>
@@ -3028,20 +3034,20 @@
         <v>62</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>57</v>
@@ -3053,20 +3059,20 @@
         <v>62</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>57</v>
@@ -3078,20 +3084,20 @@
         <v>62</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>57</v>
@@ -3103,20 +3109,20 @@
         <v>62</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>57</v>
@@ -3128,20 +3134,20 @@
         <v>62</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>57</v>
@@ -3153,20 +3159,20 @@
         <v>62</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>57</v>
@@ -3178,20 +3184,20 @@
         <v>62</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>380</v>
+        <v>183</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>57</v>
@@ -3203,20 +3209,20 @@
         <v>62</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>268</v>
+        <v>378</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>57</v>
@@ -3228,71 +3234,69 @@
         <v>62</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="62">
+    <row r="45" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
+        <v>43</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="62">
         <v>44</v>
       </c>
-      <c r="B45" s="62" t="s">
-        <v>308</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="62" t="s">
+      <c r="B46" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E46" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E45" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="F45" s="62" t="s">
-        <v>389</v>
-      </c>
-      <c r="G45" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H45" s="62" t="s">
-        <v>424</v>
-      </c>
-      <c r="I45" s="62"/>
-    </row>
-    <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="62">
+      <c r="F46" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="G46" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="H46" s="62" t="s">
+        <v>444</v>
+      </c>
+      <c r="I46" s="62"/>
+    </row>
+    <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="62">
         <v>45</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="E46" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="F46" s="62" t="s">
-        <v>389</v>
-      </c>
-      <c r="G46" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H46" s="62" t="s">
-        <v>425</v>
-      </c>
-      <c r="I46" s="62"/>
-    </row>
-    <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="62">
-        <v>46</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>311</v>
@@ -3301,79 +3305,79 @@
         <v>57</v>
       </c>
       <c r="D47" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E47" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E47" s="62" t="s">
-        <v>307</v>
-      </c>
       <c r="F47" s="62" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G47" s="62" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H47" s="62" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="I47" s="62"/>
     </row>
-    <row r="48" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62">
+        <v>46</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="G48" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="H48" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="I48" s="62"/>
+    </row>
+    <row r="49" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="62">
         <v>47</v>
       </c>
-      <c r="B48" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="62" t="s">
+      <c r="B49" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E49" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E48" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="F48" s="62" t="s">
-        <v>389</v>
-      </c>
-      <c r="G48" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H48" s="62" t="s">
-        <v>427</v>
-      </c>
-      <c r="I48" s="62"/>
-    </row>
-    <row r="49" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="62">
+      <c r="F49" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="G49" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="H49" s="62" t="s">
+        <v>447</v>
+      </c>
+      <c r="I49" s="62"/>
+    </row>
+    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="62">
         <v>48</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="E49" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="F49" s="62" t="s">
-        <v>389</v>
-      </c>
-      <c r="G49" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H49" s="62" t="s">
-        <v>428</v>
-      </c>
-      <c r="I49" s="62"/>
-    </row>
-    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="62">
-        <v>49</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>335</v>
@@ -3382,103 +3386,153 @@
         <v>57</v>
       </c>
       <c r="D50" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E50" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E50" s="62" t="s">
-        <v>307</v>
-      </c>
       <c r="F50" s="62" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G50" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H50" s="62"/>
+        <v>454</v>
+      </c>
+      <c r="H50" s="62" t="s">
+        <v>448</v>
+      </c>
       <c r="I50" s="62"/>
     </row>
-    <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="62">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D51" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E51" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E51" s="62" t="s">
-        <v>307</v>
-      </c>
       <c r="F51" s="62" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="G51" s="62" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="H51" s="62"/>
       <c r="I51" s="62"/>
     </row>
-    <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="62">
+        <v>50</v>
+      </c>
+      <c r="B52" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E52" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="F52" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="G52" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+    </row>
+    <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="62">
         <v>51</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B53" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E53" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="F53" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="G53" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="H53" s="62" t="s">
+        <v>449</v>
+      </c>
+      <c r="I53" s="62"/>
+    </row>
+    <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="62">
+        <v>52</v>
+      </c>
+      <c r="B54" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="C52" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="62" t="s">
+      <c r="C54" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E54" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E52" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="F52" s="62" t="s">
-        <v>389</v>
-      </c>
-      <c r="G52" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H52" s="62" t="s">
-        <v>429</v>
-      </c>
-      <c r="I52" s="62"/>
-    </row>
-    <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="62">
-        <v>52</v>
-      </c>
-      <c r="B53" s="63" t="s">
-        <v>343</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="62" t="s">
+      <c r="F54" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="G54" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="H54" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="I54" s="62"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="66">
+        <v>53</v>
+      </c>
+      <c r="B55" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E53" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="F53" s="62" t="s">
-        <v>389</v>
-      </c>
-      <c r="G53" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H53" s="62" t="s">
-        <v>430</v>
-      </c>
-      <c r="I53" s="62"/>
+      <c r="F55" s="66" t="s">
+        <v>455</v>
+      </c>
+      <c r="G55" t="s">
+        <v>457</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I53" xr:uid="{82E42E5A-9B39-4AEF-85C9-780A007CE908}"/>
+  <autoFilter ref="A1:I54" xr:uid="{82E42E5A-9B39-4AEF-85C9-780A007CE908}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C53" xr:uid="{8A698568-7FFB-4AF9-B5EF-DFF4FBACDD2D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C54" xr:uid="{8A698568-7FFB-4AF9-B5EF-DFF4FBACDD2D}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3492,101 +3546,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:DB29"/>
+  <dimension ref="A1:DC31"/>
   <sheetViews>
-    <sheetView topLeftCell="T16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="102.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="12.88671875" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="69.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="36.5546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.44140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="27.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.44140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="4.44140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="7.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="24.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="24.109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="17.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="22.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="26.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="30.44140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="23.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="41" width="23.33203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="7.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="22.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="24.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="16.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="6" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="20.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="20.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="26.44140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="24.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="29" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="56" width="15.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="25.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="15.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="17.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="14.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="11.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="17.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="12.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="15.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="19.44140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="14.44140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="14.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="10.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="19.44140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="12.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="9.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="14.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="32" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="16.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="82" width="9.109375" style="3" collapsed="1"/>
-    <col min="83" max="83" width="10" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="95" width="9.109375" style="3" collapsed="1"/>
-    <col min="96" max="96" width="28.33203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="22.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="26.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="26.109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="12.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="12.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="22.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="18.109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="18.109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="18.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="16384" width="9.109375" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="102.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="12.85546875" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="3" width="12.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="69.140625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="3" width="36.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="3" width="14.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="3" width="20.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="3" width="21.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="3" width="27.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="3" width="18.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="3" width="10.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="3" width="4.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="3" width="8.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="3" width="7.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="3" width="8.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="3" width="24.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="3" width="24.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="3" width="9.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="3" width="22.140625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="3" width="9.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="3" width="30.42578125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="3" width="23.28515625" collapsed="true"/>
+    <col min="39" max="41" customWidth="true" style="3" width="23.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="3" width="7.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="3" width="22.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="3" width="8.85546875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="3" width="6.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="3" width="20.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="3" width="24.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="3" width="29.0" collapsed="true"/>
+    <col min="55" max="56" bestFit="true" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="3" width="25.5703125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="3" width="14.5703125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="3" width="11.85546875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="3" width="17.28515625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="3" width="14.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="3" width="14.7109375" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" style="3" width="12.28515625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="3" width="9.28515625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" style="3" width="14.140625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="3" width="32.0" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="76" max="82" style="3" width="9.140625" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="84" max="95" style="3" width="9.140625" collapsed="true"/>
+    <col min="96" max="96" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="3" width="22.140625" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="3" width="26.140625" collapsed="true"/>
+    <col min="99" max="99" customWidth="true" style="3" width="26.140625" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="101" max="101" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" style="3" width="22.85546875" collapsed="true"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="104" max="104" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="106" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
@@ -3606,19 +3658,19 @@
         <v>191</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>298</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>299</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>192</v>
@@ -3675,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="AD1" s="24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AE1" s="24" t="s">
         <v>13</v>
@@ -3702,13 +3754,13 @@
         <v>29</v>
       </c>
       <c r="AM1" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="AN1" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="AO1" s="24" t="s">
         <v>373</v>
-      </c>
-      <c r="AN1" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="AO1" s="24" t="s">
-        <v>375</v>
       </c>
       <c r="AP1" s="13" t="s">
         <v>76</v>
@@ -3732,7 +3784,7 @@
         <v>87</v>
       </c>
       <c r="AW1" s="24" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AX1" s="24" t="s">
         <v>88</v>
@@ -3882,31 +3934,34 @@
         <v>253</v>
       </c>
       <c r="CU1" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="CV1" s="4" t="s">
         <v>263</v>
       </c>
       <c r="CW1" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="CX1" s="4" t="s">
         <v>292</v>
       </c>
       <c r="CY1" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="CZ1" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="DA1" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="DB1" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="DC1" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -3924,7 +3979,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -3933,7 +3988,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>287</v>
@@ -3962,23 +4017,25 @@
         <v>24</v>
       </c>
       <c r="AA2" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB2" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC2" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD2" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="AE2" s="26"/>
+        <v>347</v>
+      </c>
+      <c r="AE2" s="26" t="s">
+        <v>99</v>
+      </c>
       <c r="AF2" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG2" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH2" s="26"/>
       <c r="AI2" s="26" t="s">
@@ -3991,7 +4048,7 @@
         <v>37</v>
       </c>
       <c r="AL2" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM2" s="27"/>
       <c r="AN2" s="27"/>
@@ -4011,16 +4068,16 @@
         <v>57</v>
       </c>
       <c r="AZ2" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA2" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB2" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC2" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD2" s="26" t="s">
         <v>57</v>
@@ -4028,7 +4085,7 @@
       <c r="BE2" s="26"/>
       <c r="BF2" s="26"/>
       <c r="BG2" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH2" s="26"/>
       <c r="BI2" s="26"/>
@@ -4068,28 +4125,28 @@
       <c r="CQ2" s="26"/>
       <c r="CR2" s="26"/>
       <c r="CS2" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT2" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU2" s="27"/>
       <c r="CV2" s="26"/>
       <c r="CW2" s="26"/>
       <c r="CX2" s="26"/>
       <c r="CY2" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ2" s="26"/>
       <c r="DA2" s="26"/>
       <c r="DB2" s="26"/>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>28</v>
@@ -4102,7 +4159,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
@@ -4111,10 +4168,10 @@
         <v>5</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
@@ -4140,23 +4197,23 @@
         <v>24</v>
       </c>
       <c r="AA3" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB3" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC3" s="27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AD3" s="27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AE3" s="31"/>
       <c r="AF3" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG3" s="27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AH3" s="31"/>
       <c r="AI3" s="26" t="s">
@@ -4169,7 +4226,7 @@
         <v>37</v>
       </c>
       <c r="AL3" s="27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AM3" s="27" t="s">
         <v>77</v>
@@ -4178,7 +4235,7 @@
         <v>77</v>
       </c>
       <c r="AO3" s="27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AP3" s="31"/>
       <c r="AQ3" s="31"/>
@@ -4189,10 +4246,10 @@
         <v>57</v>
       </c>
       <c r="AV3" s="32" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AW3" s="26" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AX3" s="31"/>
       <c r="AY3" s="31"/>
@@ -4204,7 +4261,7 @@
       <c r="BE3" s="31"/>
       <c r="BF3" s="31"/>
       <c r="BG3" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH3" s="31"/>
       <c r="BI3" s="31"/>
@@ -4244,13 +4301,13 @@
       <c r="CQ3" s="31"/>
       <c r="CR3" s="31"/>
       <c r="CS3" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT3" s="27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CU3" s="27" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="CV3" s="28" t="s">
         <v>264</v>
@@ -4260,32 +4317,34 @@
       </c>
       <c r="CX3" s="31"/>
       <c r="CY3" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ3" s="26" t="s">
         <v>77</v>
       </c>
       <c r="DA3" s="27" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="DB3" s="31" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="34" t="s">
+        <v>422</v>
+      </c>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
@@ -4325,10 +4384,12 @@
       <c r="AB4" s="31"/>
       <c r="AC4" s="31"/>
       <c r="AD4" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
+      <c r="AF4" s="26" t="s">
+        <v>413</v>
+      </c>
       <c r="AG4" s="31"/>
       <c r="AH4" s="31"/>
       <c r="AI4" s="31"/>
@@ -4358,7 +4419,7 @@
       <c r="BE4" s="31"/>
       <c r="BF4" s="31"/>
       <c r="BG4" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH4" s="26" t="s">
         <v>289</v>
@@ -4386,7 +4447,7 @@
         <v>238</v>
       </c>
       <c r="CA4" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="CB4" s="26"/>
       <c r="CC4" s="18" t="s">
@@ -4408,23 +4469,25 @@
       <c r="CQ4" s="31"/>
       <c r="CR4" s="31"/>
       <c r="CS4" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT4" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU4" s="27"/>
       <c r="CV4" s="31"/>
       <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
+      <c r="CX4" s="31" t="s">
+        <v>181</v>
+      </c>
       <c r="CY4" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ4" s="26"/>
       <c r="DA4" s="31"/>
       <c r="DB4" s="31"/>
     </row>
-    <row r="5" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -4442,7 +4505,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -4451,7 +4514,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>287</v>
@@ -4480,25 +4543,25 @@
         <v>24</v>
       </c>
       <c r="AA5" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB5" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC5" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD5" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE5" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AF5" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG5" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH5" s="26" t="s">
         <v>99</v>
@@ -4513,7 +4576,7 @@
         <v>37</v>
       </c>
       <c r="AL5" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM5" s="27"/>
       <c r="AN5" s="27"/>
@@ -4533,26 +4596,26 @@
         <v>57</v>
       </c>
       <c r="AZ5" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA5" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB5" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC5" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD5" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE5" s="26"/>
       <c r="BF5" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BG5" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH5" s="26"/>
       <c r="BI5" s="26"/>
@@ -4592,23 +4655,23 @@
       <c r="CQ5" s="26"/>
       <c r="CR5" s="26"/>
       <c r="CS5" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT5" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU5" s="27"/>
       <c r="CV5" s="26"/>
       <c r="CW5" s="26"/>
       <c r="CX5" s="26"/>
       <c r="CY5" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ5" s="26"/>
       <c r="DA5" s="26"/>
       <c r="DB5" s="26"/>
     </row>
-    <row r="6" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -4626,7 +4689,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -4635,7 +4698,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>287</v>
@@ -4664,25 +4727,25 @@
         <v>24</v>
       </c>
       <c r="AA6" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB6" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC6" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD6" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE6" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AF6" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG6" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH6" s="26" t="s">
         <v>99</v>
@@ -4697,7 +4760,7 @@
         <v>37</v>
       </c>
       <c r="AL6" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM6" s="27"/>
       <c r="AN6" s="27"/>
@@ -4717,26 +4780,26 @@
         <v>57</v>
       </c>
       <c r="AZ6" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA6" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB6" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC6" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD6" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE6" s="26"/>
       <c r="BF6" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BG6" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH6" s="26"/>
       <c r="BI6" s="26"/>
@@ -4776,23 +4839,23 @@
       <c r="CQ6" s="26"/>
       <c r="CR6" s="26"/>
       <c r="CS6" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT6" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU6" s="27"/>
       <c r="CV6" s="26"/>
       <c r="CW6" s="26"/>
       <c r="CX6" s="26"/>
       <c r="CY6" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ6" s="26"/>
       <c r="DA6" s="26"/>
       <c r="DB6" s="26"/>
     </row>
-    <row r="7" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -4810,7 +4873,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
@@ -4819,7 +4882,7 @@
         <v>5</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>287</v>
@@ -4846,23 +4909,23 @@
         <v>24</v>
       </c>
       <c r="AA7" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB7" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC7" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD7" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE7" s="26"/>
       <c r="AF7" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG7" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH7" s="26"/>
       <c r="AI7" s="26" t="s">
@@ -4875,7 +4938,7 @@
         <v>37</v>
       </c>
       <c r="AL7" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM7" s="27"/>
       <c r="AN7" s="27"/>
@@ -4895,16 +4958,16 @@
         <v>57</v>
       </c>
       <c r="AZ7" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA7" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB7" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC7" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD7" s="26" t="s">
         <v>57</v>
@@ -4912,7 +4975,7 @@
       <c r="BE7" s="26"/>
       <c r="BF7" s="26"/>
       <c r="BG7" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH7" s="26"/>
       <c r="BI7" s="26"/>
@@ -4952,23 +5015,23 @@
       <c r="CQ7" s="26"/>
       <c r="CR7" s="26"/>
       <c r="CS7" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT7" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU7" s="27"/>
       <c r="CV7" s="26"/>
       <c r="CW7" s="26"/>
       <c r="CX7" s="26"/>
       <c r="CY7" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ7" s="26"/>
       <c r="DA7" s="26"/>
       <c r="DB7" s="26"/>
     </row>
-    <row r="8" spans="1:106" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:107" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -4986,7 +5049,7 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -4995,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O8" s="37" t="s">
         <v>287</v>
@@ -5024,23 +5087,23 @@
         <v>24</v>
       </c>
       <c r="AA8" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB8" s="33" t="s">
         <v>30</v>
       </c>
       <c r="AC8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE8" s="33"/>
       <c r="AF8" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH8" s="33"/>
       <c r="AI8" s="33" t="s">
@@ -5053,7 +5116,7 @@
         <v>37</v>
       </c>
       <c r="AL8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM8" s="36"/>
       <c r="AN8" s="36"/>
@@ -5073,16 +5136,16 @@
         <v>57</v>
       </c>
       <c r="AZ8" s="33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA8" s="33" t="s">
         <v>57</v>
       </c>
       <c r="BB8" s="33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC8" s="33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD8" s="33" t="s">
         <v>57</v>
@@ -5090,7 +5153,7 @@
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
       <c r="BG8" s="33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH8" s="33"/>
       <c r="BI8" s="33"/>
@@ -5130,23 +5193,23 @@
       <c r="CQ8" s="33"/>
       <c r="CR8" s="33"/>
       <c r="CS8" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU8" s="36"/>
       <c r="CV8" s="33"/>
       <c r="CW8" s="33"/>
       <c r="CX8" s="33"/>
       <c r="CY8" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ8" s="33"/>
       <c r="DA8" s="33"/>
       <c r="DB8" s="33"/>
     </row>
-    <row r="9" spans="1:106" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:107" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>8</v>
       </c>
@@ -5164,7 +5227,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
@@ -5173,10 +5236,10 @@
         <v>5</v>
       </c>
       <c r="N9" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
@@ -5200,23 +5263,23 @@
         <v>24</v>
       </c>
       <c r="AA9" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB9" s="33" t="s">
         <v>30</v>
       </c>
       <c r="AC9" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD9" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE9" s="33"/>
       <c r="AF9" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG9" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH9" s="33"/>
       <c r="AI9" s="33" t="s">
@@ -5229,7 +5292,7 @@
         <v>37</v>
       </c>
       <c r="AL9" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM9" s="36"/>
       <c r="AN9" s="36"/>
@@ -5249,16 +5312,16 @@
         <v>57</v>
       </c>
       <c r="AZ9" s="33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA9" s="33" t="s">
         <v>57</v>
       </c>
       <c r="BB9" s="33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC9" s="33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD9" s="33" t="s">
         <v>57</v>
@@ -5266,7 +5329,7 @@
       <c r="BE9" s="33"/>
       <c r="BF9" s="33"/>
       <c r="BG9" s="33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH9" s="33"/>
       <c r="BI9" s="33"/>
@@ -5306,23 +5369,23 @@
       <c r="CQ9" s="33"/>
       <c r="CR9" s="33"/>
       <c r="CS9" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT9" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU9" s="36"/>
       <c r="CV9" s="33"/>
       <c r="CW9" s="33"/>
       <c r="CX9" s="33"/>
       <c r="CY9" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ9" s="33"/>
       <c r="DA9" s="33"/>
       <c r="DB9" s="33"/>
     </row>
-    <row r="10" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>9</v>
       </c>
@@ -5340,7 +5403,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
@@ -5349,7 +5412,7 @@
         <v>5</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O10" s="28" t="s">
         <v>287</v>
@@ -5383,14 +5446,14 @@
       </c>
       <c r="AC10" s="26"/>
       <c r="AD10" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE10" s="26"/>
       <c r="AF10" s="26" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="AG10" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH10" s="26"/>
       <c r="AI10" s="26" t="s">
@@ -5403,7 +5466,7 @@
         <v>37</v>
       </c>
       <c r="AL10" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM10" s="27"/>
       <c r="AN10" s="27"/>
@@ -5421,13 +5484,13 @@
         <v>79</v>
       </c>
       <c r="AT10" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AU10" s="26" t="s">
         <v>56</v>
       </c>
       <c r="AV10" s="39" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AW10" s="26" t="s">
         <v>86</v>
@@ -5452,7 +5515,7 @@
       </c>
       <c r="BF10" s="26"/>
       <c r="BG10" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH10" s="26"/>
       <c r="BI10" s="26"/>
@@ -5492,23 +5555,23 @@
       <c r="CQ10" s="26"/>
       <c r="CR10" s="26"/>
       <c r="CS10" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT10" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU10" s="27"/>
       <c r="CV10" s="26"/>
       <c r="CW10" s="26"/>
       <c r="CX10" s="26"/>
       <c r="CY10" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ10" s="26"/>
       <c r="DA10" s="26"/>
       <c r="DB10" s="26"/>
     </row>
-    <row r="11" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>10</v>
       </c>
@@ -5526,7 +5589,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -5535,7 +5598,7 @@
         <v>5</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>287</v>
@@ -5569,14 +5632,14 @@
       </c>
       <c r="AC11" s="26"/>
       <c r="AD11" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE11" s="26"/>
       <c r="AF11" s="26" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="AG11" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH11" s="26"/>
       <c r="AI11" s="26" t="s">
@@ -5589,7 +5652,7 @@
         <v>37</v>
       </c>
       <c r="AL11" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM11" s="27"/>
       <c r="AN11" s="27"/>
@@ -5607,13 +5670,13 @@
         <v>79</v>
       </c>
       <c r="AT11" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AU11" s="26" t="s">
         <v>56</v>
       </c>
       <c r="AV11" s="39" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AW11" s="26" t="s">
         <v>86</v>
@@ -5638,7 +5701,7 @@
       </c>
       <c r="BF11" s="26"/>
       <c r="BG11" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH11" s="26"/>
       <c r="BI11" s="26"/>
@@ -5678,23 +5741,23 @@
       <c r="CQ11" s="26"/>
       <c r="CR11" s="26"/>
       <c r="CS11" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT11" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU11" s="27"/>
       <c r="CV11" s="26"/>
       <c r="CW11" s="26"/>
       <c r="CX11" s="26"/>
       <c r="CY11" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ11" s="26"/>
       <c r="DA11" s="26"/>
       <c r="DB11" s="26"/>
     </row>
-    <row r="12" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>11</v>
       </c>
@@ -5712,7 +5775,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
@@ -5721,7 +5784,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O12" s="28" t="s">
         <v>287</v>
@@ -5752,23 +5815,23 @@
         <v>24</v>
       </c>
       <c r="AA12" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB12" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC12" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD12" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE12" s="26"/>
       <c r="AF12" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG12" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH12" s="26"/>
       <c r="AI12" s="26" t="s">
@@ -5781,7 +5844,7 @@
         <v>37</v>
       </c>
       <c r="AL12" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM12" s="27"/>
       <c r="AN12" s="27"/>
@@ -5801,26 +5864,26 @@
         <v>57</v>
       </c>
       <c r="AZ12" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA12" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB12" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC12" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD12" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE12" s="26"/>
       <c r="BF12" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BG12" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH12" s="26"/>
       <c r="BI12" s="26"/>
@@ -5860,23 +5923,23 @@
       <c r="CQ12" s="26"/>
       <c r="CR12" s="26"/>
       <c r="CS12" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT12" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU12" s="27"/>
       <c r="CV12" s="26"/>
       <c r="CW12" s="26"/>
       <c r="CX12" s="26"/>
       <c r="CY12" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ12" s="26"/>
       <c r="DA12" s="26"/>
       <c r="DB12" s="26"/>
     </row>
-    <row r="13" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>12</v>
       </c>
@@ -5894,7 +5957,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
@@ -5903,7 +5966,7 @@
         <v>5</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O13" s="28" t="s">
         <v>287</v>
@@ -5934,25 +5997,25 @@
         <v>24</v>
       </c>
       <c r="AA13" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC13" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD13" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE13" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AF13" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG13" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH13" s="26" t="s">
         <v>99</v>
@@ -5967,7 +6030,7 @@
         <v>37</v>
       </c>
       <c r="AL13" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM13" s="27"/>
       <c r="AN13" s="27"/>
@@ -5987,26 +6050,26 @@
         <v>57</v>
       </c>
       <c r="AZ13" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA13" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB13" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC13" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD13" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE13" s="26"/>
       <c r="BF13" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BG13" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH13" s="26"/>
       <c r="BI13" s="26"/>
@@ -6046,23 +6109,23 @@
       <c r="CQ13" s="26"/>
       <c r="CR13" s="26"/>
       <c r="CS13" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT13" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU13" s="27"/>
       <c r="CV13" s="26"/>
       <c r="CW13" s="26"/>
       <c r="CX13" s="26"/>
       <c r="CY13" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ13" s="26"/>
       <c r="DA13" s="26"/>
       <c r="DB13" s="26"/>
     </row>
-    <row r="14" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>13</v>
       </c>
@@ -6080,7 +6143,7 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -6089,7 +6152,7 @@
         <v>5</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O14" s="28" t="s">
         <v>287</v>
@@ -6120,23 +6183,23 @@
         <v>24</v>
       </c>
       <c r="AA14" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB14" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE14" s="26"/>
       <c r="AF14" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH14" s="26"/>
       <c r="AI14" s="26" t="s">
@@ -6149,7 +6212,7 @@
         <v>37</v>
       </c>
       <c r="AL14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM14" s="27"/>
       <c r="AN14" s="27"/>
@@ -6169,16 +6232,16 @@
         <v>57</v>
       </c>
       <c r="AZ14" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA14" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB14" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC14" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD14" s="26" t="s">
         <v>57</v>
@@ -6186,7 +6249,7 @@
       <c r="BE14" s="26"/>
       <c r="BF14" s="26"/>
       <c r="BG14" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH14" s="26"/>
       <c r="BI14" s="26"/>
@@ -6226,23 +6289,23 @@
       <c r="CQ14" s="26"/>
       <c r="CR14" s="26"/>
       <c r="CS14" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU14" s="27"/>
       <c r="CV14" s="26"/>
       <c r="CW14" s="26"/>
       <c r="CX14" s="26"/>
       <c r="CY14" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ14" s="26"/>
       <c r="DA14" s="26"/>
       <c r="DB14" s="26"/>
     </row>
-    <row r="15" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>14</v>
       </c>
@@ -6260,7 +6323,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -6269,7 +6332,7 @@
         <v>5</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O15" s="28" t="s">
         <v>287</v>
@@ -6300,23 +6363,23 @@
         <v>24</v>
       </c>
       <c r="AA15" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC15" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD15" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE15" s="26"/>
       <c r="AF15" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG15" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH15" s="26"/>
       <c r="AI15" s="26" t="s">
@@ -6329,7 +6392,7 @@
         <v>37</v>
       </c>
       <c r="AL15" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM15" s="27"/>
       <c r="AN15" s="27"/>
@@ -6349,16 +6412,16 @@
         <v>57</v>
       </c>
       <c r="AZ15" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA15" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB15" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC15" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD15" s="26" t="s">
         <v>57</v>
@@ -6366,7 +6429,7 @@
       <c r="BE15" s="26"/>
       <c r="BF15" s="26"/>
       <c r="BG15" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH15" s="26"/>
       <c r="BI15" s="26"/>
@@ -6406,28 +6469,28 @@
       <c r="CQ15" s="26"/>
       <c r="CR15" s="26"/>
       <c r="CS15" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT15" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU15" s="27"/>
       <c r="CV15" s="26"/>
       <c r="CW15" s="26"/>
       <c r="CX15" s="26"/>
       <c r="CY15" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ15" s="26"/>
       <c r="DA15" s="26"/>
       <c r="DB15" s="26"/>
     </row>
-    <row r="16" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>15</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>28</v>
@@ -6440,7 +6503,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
@@ -6449,7 +6512,7 @@
         <v>5</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O16" s="28" t="s">
         <v>287</v>
@@ -6480,23 +6543,23 @@
         <v>24</v>
       </c>
       <c r="AA16" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB16" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC16" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD16" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE16" s="26"/>
       <c r="AF16" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG16" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH16" s="26"/>
       <c r="AI16" s="26" t="s">
@@ -6509,7 +6572,7 @@
         <v>37</v>
       </c>
       <c r="AL16" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM16" s="27"/>
       <c r="AN16" s="27"/>
@@ -6529,16 +6592,16 @@
         <v>57</v>
       </c>
       <c r="AZ16" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA16" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB16" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC16" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD16" s="26" t="s">
         <v>57</v>
@@ -6546,7 +6609,7 @@
       <c r="BE16" s="26"/>
       <c r="BF16" s="26"/>
       <c r="BG16" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH16" s="26"/>
       <c r="BI16" s="26"/>
@@ -6586,23 +6649,23 @@
       <c r="CQ16" s="26"/>
       <c r="CR16" s="26"/>
       <c r="CS16" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT16" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU16" s="27"/>
       <c r="CV16" s="26"/>
       <c r="CW16" s="26"/>
       <c r="CX16" s="26"/>
       <c r="CY16" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ16" s="26"/>
       <c r="DA16" s="26"/>
       <c r="DB16" s="26"/>
     </row>
-    <row r="17" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -6620,7 +6683,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
@@ -6629,7 +6692,7 @@
         <v>5</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O17" s="28" t="s">
         <v>287</v>
@@ -6660,23 +6723,23 @@
         <v>24</v>
       </c>
       <c r="AA17" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB17" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC17" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD17" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE17" s="26"/>
       <c r="AF17" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG17" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH17" s="26"/>
       <c r="AI17" s="26" t="s">
@@ -6689,7 +6752,7 @@
         <v>37</v>
       </c>
       <c r="AL17" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM17" s="27"/>
       <c r="AN17" s="27"/>
@@ -6709,26 +6772,26 @@
         <v>57</v>
       </c>
       <c r="AZ17" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA17" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB17" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC17" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD17" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE17" s="26"/>
       <c r="BF17" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BG17" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH17" s="26"/>
       <c r="BI17" s="26"/>
@@ -6768,23 +6831,23 @@
       <c r="CQ17" s="26"/>
       <c r="CR17" s="26"/>
       <c r="CS17" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT17" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU17" s="27"/>
       <c r="CV17" s="26"/>
       <c r="CW17" s="26"/>
       <c r="CX17" s="26"/>
       <c r="CY17" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ17" s="26"/>
       <c r="DA17" s="26"/>
       <c r="DB17" s="26"/>
     </row>
-    <row r="18" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>17</v>
       </c>
@@ -6802,7 +6865,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
@@ -6811,7 +6874,7 @@
         <v>5</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O18" s="28" t="s">
         <v>287</v>
@@ -6842,23 +6905,23 @@
         <v>24</v>
       </c>
       <c r="AA18" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB18" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC18" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD18" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE18" s="26"/>
       <c r="AF18" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG18" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH18" s="26"/>
       <c r="AI18" s="26" t="s">
@@ -6871,7 +6934,7 @@
         <v>37</v>
       </c>
       <c r="AL18" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM18" s="27"/>
       <c r="AN18" s="27"/>
@@ -6891,26 +6954,26 @@
         <v>57</v>
       </c>
       <c r="AZ18" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA18" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB18" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC18" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD18" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE18" s="26"/>
       <c r="BF18" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BG18" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH18" s="26"/>
       <c r="BI18" s="26"/>
@@ -6950,23 +7013,23 @@
       <c r="CQ18" s="26"/>
       <c r="CR18" s="26"/>
       <c r="CS18" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT18" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU18" s="27"/>
       <c r="CV18" s="26"/>
       <c r="CW18" s="26"/>
       <c r="CX18" s="26"/>
       <c r="CY18" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ18" s="26"/>
       <c r="DA18" s="26"/>
       <c r="DB18" s="26"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>18</v>
       </c>
@@ -6984,7 +7047,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
@@ -6993,7 +7056,7 @@
         <v>5</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O19" s="28" t="s">
         <v>287</v>
@@ -7009,7 +7072,7 @@
         <v>108</v>
       </c>
       <c r="T19" s="28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="U19" s="26" t="s">
         <v>9</v>
@@ -7030,23 +7093,23 @@
         <v>24</v>
       </c>
       <c r="AA19" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC19" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD19" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE19" s="26"/>
       <c r="AF19" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG19" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH19" s="26"/>
       <c r="AI19" s="26" t="s">
@@ -7059,7 +7122,7 @@
         <v>37</v>
       </c>
       <c r="AL19" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM19" s="27"/>
       <c r="AN19" s="27"/>
@@ -7084,7 +7147,7 @@
       <c r="BE19" s="31"/>
       <c r="BF19" s="26"/>
       <c r="BG19" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH19" s="31"/>
       <c r="BI19" s="31"/>
@@ -7124,23 +7187,23 @@
       <c r="CQ19" s="31"/>
       <c r="CR19" s="31"/>
       <c r="CS19" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT19" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU19" s="27"/>
       <c r="CV19" s="31"/>
       <c r="CW19" s="31"/>
       <c r="CX19" s="31"/>
       <c r="CY19" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ19" s="26"/>
       <c r="DA19" s="31"/>
       <c r="DB19" s="31"/>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -7179,7 +7242,7 @@
       <c r="AB20" s="31"/>
       <c r="AC20" s="31"/>
       <c r="AD20" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE20" s="31"/>
       <c r="AF20" s="31"/>
@@ -7212,7 +7275,7 @@
       <c r="BE20" s="31"/>
       <c r="BF20" s="26"/>
       <c r="BG20" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH20" s="31"/>
       <c r="BI20" s="31"/>
@@ -7252,23 +7315,23 @@
       <c r="CQ20" s="31"/>
       <c r="CR20" s="31"/>
       <c r="CS20" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT20" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU20" s="27"/>
       <c r="CV20" s="31"/>
       <c r="CW20" s="31"/>
       <c r="CX20" s="31"/>
       <c r="CY20" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ20" s="26"/>
       <c r="DA20" s="31"/>
       <c r="DB20" s="31"/>
     </row>
-    <row r="21" spans="1:106" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:107" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>20</v>
       </c>
@@ -7288,19 +7351,19 @@
         <v>294</v>
       </c>
       <c r="G21" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="H21" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="I21" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="I21" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>302</v>
-      </c>
       <c r="K21" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
@@ -7321,7 +7384,7 @@
       <c r="AB21" s="43"/>
       <c r="AC21" s="43"/>
       <c r="AD21" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE21" s="43"/>
       <c r="AF21" s="43"/>
@@ -7354,7 +7417,7 @@
       <c r="BE21" s="43"/>
       <c r="BF21" s="43"/>
       <c r="BG21" s="33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH21" s="43"/>
       <c r="BI21" s="43"/>
@@ -7394,28 +7457,28 @@
       <c r="CQ21" s="43"/>
       <c r="CR21" s="43"/>
       <c r="CS21" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT21" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU21" s="36"/>
       <c r="CV21" s="43"/>
       <c r="CW21" s="43"/>
       <c r="CX21" s="43"/>
       <c r="CY21" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ21" s="33"/>
       <c r="DA21" s="43"/>
       <c r="DB21" s="43"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>28</v>
@@ -7439,7 +7502,7 @@
         <v>5</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O22" s="28" t="s">
         <v>287</v>
@@ -7472,25 +7535,25 @@
         <v>24</v>
       </c>
       <c r="AA22" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB22" s="26" t="s">
         <v>85</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD22" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE22" s="31" t="s">
         <v>99</v>
       </c>
       <c r="AF22" s="26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AG22" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH22" s="26" t="s">
         <v>99</v>
@@ -7515,7 +7578,7 @@
         <v>79</v>
       </c>
       <c r="AT22" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AU22" s="26" t="s">
         <v>57</v>
@@ -7531,16 +7594,16 @@
         <v>57</v>
       </c>
       <c r="AZ22" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BA22" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB22" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BC22" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD22" s="26" t="s">
         <v>57</v>
@@ -7549,10 +7612,10 @@
         <v>85</v>
       </c>
       <c r="BF22" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BG22" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BH22" s="16" t="s">
         <v>217</v>
@@ -7612,7 +7675,7 @@
         <v>239</v>
       </c>
       <c r="CA22" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="CB22" s="16" t="s">
         <v>241</v>
@@ -7651,10 +7714,10 @@
         <v>57</v>
       </c>
       <c r="CN22" s="16" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="CO22" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="CP22" s="31" t="s">
         <v>57</v>
@@ -7664,23 +7727,23 @@
       </c>
       <c r="CR22" s="31"/>
       <c r="CS22" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT22" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU22" s="27"/>
       <c r="CV22" s="31"/>
       <c r="CW22" s="31"/>
       <c r="CX22" s="31"/>
       <c r="CY22" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ22" s="26"/>
       <c r="DA22" s="31"/>
       <c r="DB22" s="31"/>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>22</v>
       </c>
@@ -7688,7 +7751,7 @@
         <v>259</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
@@ -7700,7 +7763,7 @@
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
@@ -7797,7 +7860,7 @@
         <v>256</v>
       </c>
       <c r="CT23" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU23" s="27"/>
       <c r="CV23" s="31"/>
@@ -7808,7 +7871,7 @@
       <c r="DA23" s="31"/>
       <c r="DB23" s="31"/>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>23</v>
       </c>
@@ -7816,7 +7879,7 @@
         <v>258</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
@@ -7828,7 +7891,7 @@
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
@@ -7925,7 +7988,7 @@
         <v>255</v>
       </c>
       <c r="CT24" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU24" s="27"/>
       <c r="CV24" s="31"/>
@@ -7936,7 +7999,7 @@
       <c r="DA24" s="31"/>
       <c r="DB24" s="31"/>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>24</v>
       </c>
@@ -7944,7 +8007,7 @@
         <v>248</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
@@ -7956,7 +8019,7 @@
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
@@ -8053,7 +8116,7 @@
         <v>251</v>
       </c>
       <c r="CT25" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU25" s="27"/>
       <c r="CV25" s="31"/>
@@ -8064,7 +8127,7 @@
       <c r="DA25" s="31"/>
       <c r="DB25" s="31"/>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>25</v>
       </c>
@@ -8072,7 +8135,7 @@
         <v>260</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
@@ -8084,7 +8147,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
@@ -8181,7 +8244,7 @@
         <v>257</v>
       </c>
       <c r="CT26" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU26" s="27"/>
       <c r="CV26" s="31"/>
@@ -8192,7 +8255,7 @@
       <c r="DA26" s="31"/>
       <c r="DB26" s="31"/>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -8200,7 +8263,7 @@
         <v>261</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
@@ -8212,7 +8275,7 @@
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
@@ -8309,7 +8372,7 @@
         <v>257</v>
       </c>
       <c r="CT27" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU27" s="27"/>
       <c r="CV27" s="28" t="s">
@@ -8322,7 +8385,7 @@
       <c r="DA27" s="31"/>
       <c r="DB27" s="31"/>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>27</v>
       </c>
@@ -8330,7 +8393,7 @@
         <v>262</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
@@ -8342,7 +8405,7 @@
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
       <c r="I28" s="31" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="31"/>
@@ -8439,7 +8502,7 @@
         <v>251</v>
       </c>
       <c r="CT28" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU28" s="27"/>
       <c r="CV28" s="28" t="s">
@@ -8452,7 +8515,7 @@
       <c r="DA28" s="31"/>
       <c r="DB28" s="31"/>
     </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>28</v>
       </c>
@@ -8460,7 +8523,7 @@
         <v>266</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
@@ -8470,7 +8533,7 @@
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J29" s="31"/>
       <c r="K29" s="31"/>
@@ -8502,21 +8565,21 @@
         <v>24</v>
       </c>
       <c r="AA29" s="45" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AB29" s="31"/>
       <c r="AC29" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD29" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE29" s="31"/>
       <c r="AF29" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG29" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH29" s="31"/>
       <c r="AI29" s="26" t="s">
@@ -8596,6 +8659,122 @@
       <c r="DA29" s="31"/>
       <c r="DB29" s="31"/>
     </row>
+    <row r="30" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="O30" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="U30" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="V30" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="W30" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="X30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA30" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC30" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD30" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE30" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG30" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ30" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK30" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL30" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="AU30" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY30" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF30" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="BG30" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="CS30" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="CT30" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="CY30" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="DC30" s="64" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8608,68 +8787,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
-  <dimension ref="A1:BB17"/>
+  <dimension ref="A1:BC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="82.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="9.5546875" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="4.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="6.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="31" max="33" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -8680,158 +8859,161 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="AD1" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="AH1" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="BB1" s="2"/>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BC1" s="2"/>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -8841,49 +9023,49 @@
       <c r="C2" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="17"/>
+      <c r="R2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
       <c r="W2" s="17"/>
       <c r="X2" s="17"/>
       <c r="Y2" s="17"/>
-      <c r="Z2" s="16"/>
+      <c r="Z2" s="17"/>
       <c r="AA2" s="16"/>
       <c r="AB2" s="16"/>
       <c r="AC2" s="16"/>
@@ -8911,8 +9093,9 @@
       <c r="AY2" s="16"/>
       <c r="AZ2" s="16"/>
       <c r="BA2" s="16"/>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BB2" s="16"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -8922,52 +9105,52 @@
       <c r="C3" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="L3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="17"/>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="S3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
@@ -8994,8 +9177,9 @@
       <c r="AY3" s="16"/>
       <c r="AZ3" s="16"/>
       <c r="BA3" s="16"/>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BB3" s="16"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -9005,54 +9189,54 @@
       <c r="C4" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="M4" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="N4" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="S4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="T4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="T4" s="17"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
-      <c r="Y4" s="17" t="s">
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="16"/>
+      <c r="AA4" s="17"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
@@ -9079,8 +9263,9 @@
       <c r="AY4" s="16"/>
       <c r="AZ4" s="16"/>
       <c r="BA4" s="16"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BB4" s="16"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -9090,49 +9275,49 @@
       <c r="C5" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="L5" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="M5" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="N5" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="17"/>
+      <c r="R5" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="S5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
       <c r="X5" s="17"/>
       <c r="Y5" s="17"/>
-      <c r="Z5" s="16"/>
+      <c r="Z5" s="17"/>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
@@ -9160,8 +9345,9 @@
       <c r="AY5" s="16"/>
       <c r="AZ5" s="16"/>
       <c r="BA5" s="16"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BB5" s="16"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -9171,57 +9357,57 @@
       <c r="C6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="L6" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="N6" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="O6" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="P6" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="S6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16" t="s">
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
       <c r="AE6" s="16"/>
@@ -9247,8 +9433,9 @@
       <c r="AY6" s="16"/>
       <c r="AZ6" s="16"/>
       <c r="BA6" s="16"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BB6" s="16"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -9258,57 +9445,57 @@
       <c r="C7" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="L7" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="M7" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="N7" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="O7" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="O7" s="46" t="s">
+      <c r="P7" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="17"/>
+      <c r="R7" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="S7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16" t="s">
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AB7" s="16"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
       <c r="AE7" s="16"/>
@@ -9334,8 +9521,9 @@
       <c r="AY7" s="16"/>
       <c r="AZ7" s="16"/>
       <c r="BA7" s="16"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BB7" s="16"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -9345,46 +9533,46 @@
       <c r="C8" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="L8" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="46" t="s">
+      <c r="M8" s="16"/>
+      <c r="N8" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="46"/>
       <c r="Q8" s="16"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="18" t="s">
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="U8" s="18"/>
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
-      <c r="X8" s="16" t="s">
+      <c r="X8" s="18"/>
+      <c r="Y8" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="16"/>
       <c r="AB8" s="16"/>
@@ -9413,8 +9601,9 @@
       <c r="AY8" s="16"/>
       <c r="AZ8" s="16"/>
       <c r="BA8" s="16"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BB8" s="16"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -9424,61 +9613,61 @@
       <c r="C9" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="K9" s="47">
+      <c r="L9" s="47">
         <v>44201</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="M9" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="N9" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="O9" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="P9" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="Q9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="R9" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="S9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="17" t="s">
+      <c r="T9" s="16"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="V9" s="17"/>
       <c r="W9" s="17"/>
-      <c r="X9" s="16"/>
+      <c r="X9" s="17"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
-      <c r="AA9" s="16" t="s">
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AB9" s="16"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
       <c r="AE9" s="16"/>
@@ -9504,8 +9693,9 @@
       <c r="AY9" s="16"/>
       <c r="AZ9" s="16"/>
       <c r="BA9" s="16"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BB9" s="16"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -9515,50 +9705,50 @@
       <c r="C10" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="L10" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="16"/>
+      <c r="N10" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="16" t="s">
+      <c r="O10" s="18"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="18" t="s">
+      <c r="R10" s="16"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="V10" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="V10" s="18"/>
       <c r="W10" s="18"/>
-      <c r="X10" s="16" t="s">
+      <c r="X10" s="18"/>
+      <c r="Y10" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
@@ -9587,8 +9777,9 @@
       <c r="AY10" s="16"/>
       <c r="AZ10" s="16"/>
       <c r="BA10" s="16"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BB10" s="16"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -9598,46 +9789,46 @@
       <c r="C11" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="16" t="s">
+      <c r="L11" s="47"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="18" t="s">
+      <c r="R11" s="16"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="U11" s="17" t="s">
+      <c r="V11" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="V11" s="17"/>
       <c r="W11" s="17"/>
-      <c r="X11" s="16" t="s">
+      <c r="X11" s="17"/>
+      <c r="Y11" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
@@ -9666,8 +9857,9 @@
       <c r="AY11" s="16"/>
       <c r="AZ11" s="16"/>
       <c r="BA11" s="16"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BB11" s="16"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -9677,52 +9869,52 @@
       <c r="C12" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="I12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="J12" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="K12" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="R12" s="17" t="s">
+      <c r="S12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S12" s="16"/>
-      <c r="T12" s="18" t="s">
+      <c r="T12" s="16"/>
+      <c r="U12" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="U12" s="18" t="s">
+      <c r="V12" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18" t="s">
+      <c r="W12" s="18"/>
+      <c r="X12" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="X12" s="16" t="s">
+      <c r="Y12" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
@@ -9751,8 +9943,9 @@
       <c r="AY12" s="16"/>
       <c r="AZ12" s="16"/>
       <c r="BA12" s="16"/>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BB12" s="16"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -9763,53 +9956,55 @@
         <v>140</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="I13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="J13" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="K13" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="R13" s="17" t="s">
+      <c r="S13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="18" t="s">
+      <c r="T13" s="16"/>
+      <c r="U13" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="U13" s="18" t="s">
+      <c r="V13" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="V13" s="18" t="s">
+      <c r="W13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="18" t="s">
+      <c r="X13" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="X13" s="16" t="s">
+      <c r="Y13" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
@@ -9838,8 +10033,9 @@
       <c r="AY13" s="16"/>
       <c r="AZ13" s="16"/>
       <c r="BA13" s="16"/>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BB13" s="16"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -9849,52 +10045,52 @@
       <c r="C14" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="J14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="K14" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
-      <c r="Q14" s="16" t="s">
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="R14" s="17" t="s">
+      <c r="S14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="16"/>
-      <c r="T14" s="18" t="s">
+      <c r="T14" s="16"/>
+      <c r="U14" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="U14" s="18" t="s">
+      <c r="V14" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18" t="s">
+      <c r="W14" s="18"/>
+      <c r="X14" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="X14" s="16" t="s">
+      <c r="Y14" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
@@ -9923,8 +10119,9 @@
       <c r="AY14" s="16"/>
       <c r="AZ14" s="16"/>
       <c r="BA14" s="16"/>
-    </row>
-    <row r="15" spans="1:54" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BB14" s="16"/>
+    </row>
+    <row r="15" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>14</v>
       </c>
@@ -9934,116 +10131,114 @@
       <c r="C15" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="F15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="I15" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="J15" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="K15" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="L15" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="M15" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="M15" s="36" t="s">
+      <c r="N15" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="N15" s="42" t="s">
+      <c r="O15" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="O15" s="36" t="s">
+      <c r="P15" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="Q15" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" s="40" t="s">
+      <c r="R15" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="R15" s="42" t="s">
+      <c r="S15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="S15" s="42" t="s">
+      <c r="T15" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="T15" s="40"/>
       <c r="U15" s="40"/>
-      <c r="V15" s="48" t="s">
+      <c r="V15" s="40"/>
+      <c r="W15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="W15" s="48" t="s">
+      <c r="X15" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="X15" s="40"/>
       <c r="Y15" s="40"/>
       <c r="Z15" s="40"/>
-      <c r="AA15" s="40" t="s">
-        <v>148</v>
-      </c>
+      <c r="AA15" s="40"/>
       <c r="AB15" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="AC15" s="40"/>
+      <c r="AC15" s="40" t="s">
+        <v>148</v>
+      </c>
       <c r="AD15" s="40"/>
       <c r="AE15" s="40"/>
       <c r="AF15" s="40"/>
       <c r="AG15" s="40"/>
-      <c r="AH15" s="40" t="s">
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="AI15" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ15" s="49" t="s">
+      <c r="AJ15" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK15" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="AK15" s="40" t="s">
+      <c r="AL15" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="AL15" s="40" t="s">
+      <c r="AM15" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="AM15" s="40" t="s">
+      <c r="AN15" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="AN15" s="40" t="s">
+      <c r="AO15" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="AO15" s="40" t="s">
+      <c r="AP15" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="AP15" s="40" t="s">
+      <c r="AQ15" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="AQ15" s="40" t="s">
+      <c r="AR15" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AR15" s="48" t="s">
+      <c r="AS15" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="AS15" s="48" t="s">
+      <c r="AT15" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="AT15" s="50" t="s">
+      <c r="AU15" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="AU15" s="40" t="s">
-        <v>57</v>
-      </c>
       <c r="AV15" s="40" t="s">
         <v>57</v>
       </c>
@@ -10051,72 +10246,75 @@
         <v>57</v>
       </c>
       <c r="AX15" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY15" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="AY15" s="51" t="s">
+      <c r="AZ15" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="AZ15" s="40" t="s">
-        <v>57</v>
-      </c>
       <c r="BA15" s="40" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="BB15" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="L16" s="16" t="s">
+      <c r="K16" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="M16" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M16" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16" t="s">
+      <c r="N16" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="R16" s="17" t="s">
+      <c r="S16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S16" s="16"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
@@ -10126,22 +10324,22 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
       <c r="AB16" s="16"/>
-      <c r="AC16" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="AD16" s="53" t="s">
-        <v>337</v>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="27" t="s">
+        <v>387</v>
       </c>
       <c r="AE16" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="AF16" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="AG16" s="53" t="s">
-        <v>384</v>
-      </c>
-      <c r="AH16" s="16"/>
+        <v>336</v>
+      </c>
+      <c r="AF16" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG16" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="AH16" s="53" t="s">
+        <v>382</v>
+      </c>
       <c r="AI16" s="16"/>
       <c r="AJ16" s="16"/>
       <c r="AK16" s="16"/>
@@ -10161,14 +10359,15 @@
       <c r="AY16" s="16"/>
       <c r="AZ16" s="16"/>
       <c r="BA16" s="16"/>
-    </row>
-    <row r="17" spans="29:29" x14ac:dyDescent="0.3">
-      <c r="AC17" s="14"/>
+      <c r="BB16" s="16"/>
+    </row>
+    <row r="17" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD17" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AT15" r:id="rId1" xr:uid="{8A19EDCF-BD59-40A9-B1BB-CA280508B1BC}"/>
-    <hyperlink ref="J16" r:id="rId2" display="http://10.32.6.121:8080/tfs/MSDynamics/MSDynamicsCRM/_workitems/edit/5906" xr:uid="{887959FD-2E54-4DD2-BB21-81D978BEC156}"/>
+    <hyperlink ref="AU15" r:id="rId1" xr:uid="{8A19EDCF-BD59-40A9-B1BB-CA280508B1BC}"/>
+    <hyperlink ref="K16" r:id="rId2" display="http://10.32.6.121:8080/tfs/MSDynamics/MSDynamicsCRM/_workitems/edit/5906" xr:uid="{887959FD-2E54-4DD2-BB21-81D978BEC156}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -10183,30 +10382,30 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="113.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="65.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="73.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="113.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
@@ -10220,57 +10419,57 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="N1" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="54">
         <v>1</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>28</v>
@@ -10280,23 +10479,23 @@
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I2" s="55"/>
       <c r="J2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L2" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
@@ -10319,12 +10518,12 @@
       <c r="AE2" s="11"/>
       <c r="AF2" s="11"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>2</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>28</v>
@@ -10334,23 +10533,23 @@
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I3" s="55"/>
       <c r="J3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L3" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M3" s="57">
         <v>44562</v>
@@ -10365,7 +10564,7 @@
       <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="S3" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T3" s="11"/>
       <c r="U3" s="12"/>
@@ -10381,12 +10580,12 @@
       <c r="AE3" s="11"/>
       <c r="AF3" s="11"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>28</v>
@@ -10396,23 +10595,23 @@
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M4" s="57">
         <v>44562</v>
@@ -10441,12 +10640,12 @@
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>4</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>28</v>
@@ -10456,13 +10655,13 @@
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I5" s="55"/>
       <c r="J5" s="26" t="s">
@@ -10474,10 +10673,10 @@
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
       <c r="P5" s="54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R5" s="54"/>
       <c r="S5" s="54"/>
@@ -10495,12 +10694,12 @@
       <c r="AE5" s="11"/>
       <c r="AF5" s="11"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>5</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>28</v>
@@ -10510,23 +10709,23 @@
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I6" s="55"/>
       <c r="J6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
@@ -10549,12 +10748,12 @@
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>6</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>28</v>
@@ -10563,7 +10762,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
@@ -10593,12 +10792,12 @@
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>7</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>28</v>
@@ -10607,7 +10806,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
@@ -10637,12 +10836,12 @@
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>8</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>28</v>
@@ -10652,23 +10851,23 @@
       </c>
       <c r="E9" s="54"/>
       <c r="F9" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54" t="s">
@@ -10677,10 +10876,10 @@
       <c r="O9" s="54"/>
       <c r="P9" s="54"/>
       <c r="Q9" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="11"/>
@@ -10697,12 +10896,12 @@
       <c r="AE9" s="11"/>
       <c r="AF9" s="11"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>9</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>28</v>
@@ -10712,25 +10911,25 @@
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G10" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="I10" s="55" t="s">
         <v>354</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>315</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>356</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M10" s="54"/>
       <c r="N10" s="54" t="s">
@@ -10755,7 +10954,7 @@
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>

--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\OnPremise\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3314F2-52B1-4479-91EE-893A7DBB78E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA73FD5-CA8E-4B8F-BE9C-31487DB4A5C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="482">
   <si>
     <t>UserName</t>
   </si>
@@ -1310,93 +1310,9 @@
     <t>2000531540</t>
   </si>
   <si>
-    <t>2000531679</t>
-  </si>
-  <si>
-    <t>2000531680</t>
-  </si>
-  <si>
-    <t>2000531681</t>
-  </si>
-  <si>
-    <t>2000531682</t>
-  </si>
-  <si>
-    <t>2000531685</t>
-  </si>
-  <si>
-    <t>2000531687</t>
-  </si>
-  <si>
-    <t>2000531688</t>
-  </si>
-  <si>
-    <t>2000531689</t>
-  </si>
-  <si>
-    <t>2000531692</t>
-  </si>
-  <si>
-    <t>2000531693</t>
-  </si>
-  <si>
-    <t>2000531696</t>
-  </si>
-  <si>
-    <t>551726561</t>
-  </si>
-  <si>
-    <t>hf1741188</t>
-  </si>
-  <si>
-    <t>2000531697</t>
-  </si>
-  <si>
-    <t>2000531698</t>
-  </si>
-  <si>
-    <t>2000531699</t>
-  </si>
-  <si>
-    <t>2000531700</t>
-  </si>
-  <si>
-    <t>2000531701</t>
-  </si>
-  <si>
-    <t>2000531702</t>
-  </si>
-  <si>
-    <t>2000531703</t>
-  </si>
-  <si>
     <t>2000531704</t>
   </si>
   <si>
-    <t>7000572471</t>
-  </si>
-  <si>
-    <t>7000572472</t>
-  </si>
-  <si>
-    <t>7000572473</t>
-  </si>
-  <si>
-    <t>7000572474</t>
-  </si>
-  <si>
-    <t>7000572475</t>
-  </si>
-  <si>
-    <t>7000572476</t>
-  </si>
-  <si>
-    <t>7000572477</t>
-  </si>
-  <si>
-    <t>http://c3dicrmv9app1/CRMDevV9/main.aspx#</t>
-  </si>
-  <si>
     <t>TFS ID_ 7112:Verify if primary account of a contact has been changed then other associated Contact account association should not get end dated/terminated</t>
   </si>
   <si>
@@ -1406,16 +1322,169 @@
     <t/>
   </si>
   <si>
+    <t>https://crmstage.premierinc.com/main.aspx#7815483</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>2000533106</t>
+  </si>
+  <si>
+    <t>2000533107</t>
+  </si>
+  <si>
+    <t>2000533108</t>
+  </si>
+  <si>
+    <t>2000533109</t>
+  </si>
+  <si>
+    <t>2000533112</t>
+  </si>
+  <si>
+    <t>2000533114</t>
+  </si>
+  <si>
+    <t>2000533118</t>
+  </si>
+  <si>
+    <t>2000533120</t>
+  </si>
+  <si>
+    <t>2000533124</t>
+  </si>
+  <si>
+    <t>806388670</t>
+  </si>
+  <si>
+    <t>cf8233998</t>
+  </si>
+  <si>
+    <t>2000533125</t>
+  </si>
+  <si>
+    <t>2000533126</t>
+  </si>
+  <si>
+    <t>2000533127</t>
+  </si>
+  <si>
+    <t>2000533129</t>
+  </si>
+  <si>
+    <t>2000533130</t>
+  </si>
+  <si>
+    <t>2000533131</t>
+  </si>
+  <si>
+    <t>2000533132</t>
+  </si>
+  <si>
+    <t>7000572993</t>
+  </si>
+  <si>
+    <t>7000572994</t>
+  </si>
+  <si>
+    <t>7000572995</t>
+  </si>
+  <si>
+    <t>7000572996</t>
+  </si>
+  <si>
+    <t>7000572997</t>
+  </si>
+  <si>
+    <t>7000572998</t>
+  </si>
+  <si>
+    <t>7000572999</t>
+  </si>
+  <si>
+    <t>2000533147</t>
+  </si>
+  <si>
+    <t>2000533152</t>
+  </si>
+  <si>
+    <t>2022_05_30_04_34_45</t>
+  </si>
+  <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>2022_04_13_03_36_07</t>
-  </si>
-  <si>
-    <t>2022_04_13_03_36_47</t>
-  </si>
-  <si>
-    <t>2022_04_19_11_08_52</t>
+    <t>2022_05_30_05_15_22</t>
+  </si>
+  <si>
+    <t>2000533156</t>
+  </si>
+  <si>
+    <t>2022_05_30_05_24_42</t>
+  </si>
+  <si>
+    <t>2000533157</t>
+  </si>
+  <si>
+    <t>2022_05_30_05_33_00</t>
+  </si>
+  <si>
+    <t>2000533160</t>
+  </si>
+  <si>
+    <t>2022_05_30_06_00_55</t>
+  </si>
+  <si>
+    <t>2000533162</t>
+  </si>
+  <si>
+    <t>2000533163</t>
+  </si>
+  <si>
+    <t>2022_05_30_06_09_11</t>
+  </si>
+  <si>
+    <t>2000533164</t>
+  </si>
+  <si>
+    <t>2000533165</t>
+  </si>
+  <si>
+    <t>2022_05_30_06_43_41</t>
+  </si>
+  <si>
+    <t>2000533166</t>
+  </si>
+  <si>
+    <t>2000533167</t>
+  </si>
+  <si>
+    <t>2022_05_30_06_56_05</t>
+  </si>
+  <si>
+    <t>2000533168</t>
+  </si>
+  <si>
+    <t>2022_05_30_07_14_51</t>
+  </si>
+  <si>
+    <t>2000533169</t>
+  </si>
+  <si>
+    <t>2022_05_30_07_24_57</t>
+  </si>
+  <si>
+    <t>2000533170</t>
+  </si>
+  <si>
+    <t>2022_05_30_07_43_14</t>
+  </si>
+  <si>
+    <t>2000533171</t>
+  </si>
+  <si>
+    <t>2022_05_30_08_04_09</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1621,23 +1690,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1756,8 +1814,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2079,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,7 +2191,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>9</v>
@@ -2144,16 +2200,16 @@
         <v>62</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2173,13 +2229,13 @@
         <v>62</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="I3" s="61"/>
     </row>
@@ -2200,13 +2256,13 @@
         <v>62</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="I4" s="19"/>
     </row>
@@ -2227,13 +2283,13 @@
         <v>62</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I5" s="19"/>
     </row>
@@ -2254,10 +2310,10 @@
         <v>62</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -2279,10 +2335,10 @@
         <v>62</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -2304,13 +2360,13 @@
         <v>62</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="I8" s="19"/>
     </row>
@@ -2331,10 +2387,10 @@
         <v>62</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -2356,13 +2412,13 @@
         <v>62</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -2383,13 +2439,13 @@
         <v>62</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G11" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>454</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>429</v>
       </c>
       <c r="I11" s="19"/>
     </row>
@@ -2410,13 +2466,13 @@
         <v>62</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="I12" s="19"/>
     </row>
@@ -2437,10 +2493,10 @@
         <v>62</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -2462,10 +2518,10 @@
         <v>62</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -2487,13 +2543,13 @@
         <v>62</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="I15" s="19"/>
     </row>
@@ -2514,13 +2570,13 @@
         <v>62</v>
       </c>
       <c r="F16" s="63" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="I16" s="19"/>
     </row>
@@ -2541,10 +2597,10 @@
         <v>110</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -2566,10 +2622,10 @@
         <v>110</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -2591,10 +2647,10 @@
         <v>110</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -2616,10 +2672,10 @@
         <v>62</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -2641,13 +2697,13 @@
         <v>62</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I21" s="19"/>
     </row>
@@ -2668,13 +2724,13 @@
         <v>62</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I22" s="19"/>
     </row>
@@ -2695,13 +2751,13 @@
         <v>62</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I23" s="19"/>
     </row>
@@ -2722,13 +2778,13 @@
         <v>62</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="I24" s="19"/>
     </row>
@@ -2749,13 +2805,13 @@
         <v>62</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="I25" s="19"/>
     </row>
@@ -2776,13 +2832,13 @@
         <v>62</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="I26" s="19"/>
     </row>
@@ -2803,13 +2859,13 @@
         <v>62</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="I27" s="19"/>
     </row>
@@ -2830,13 +2886,13 @@
         <v>62</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H28" s="65" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="I28" s="19"/>
     </row>
@@ -2857,10 +2913,10 @@
         <v>62</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -2873,7 +2929,7 @@
         <v>414</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>9</v>
@@ -2882,19 +2938,19 @@
         <v>62</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
-        <v>29</v>
+      <c r="A31" s="19">
+        <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>51</v>
@@ -2909,17 +2965,17 @@
         <v>62</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
-        <v>30</v>
+      <c r="A32" s="19">
+        <v>31</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>127</v>
@@ -2934,17 +2990,17 @@
         <v>62</v>
       </c>
       <c r="F32" s="63" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
-        <v>31</v>
+      <c r="A33" s="19">
+        <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>132</v>
@@ -2959,17 +3015,17 @@
         <v>62</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
-        <v>32</v>
+      <c r="A34" s="19">
+        <v>33</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>139</v>
@@ -2984,17 +3040,17 @@
         <v>62</v>
       </c>
       <c r="F34" s="63" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
-        <v>33</v>
+      <c r="A35" s="19">
+        <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>144</v>
@@ -3009,17 +3065,17 @@
         <v>62</v>
       </c>
       <c r="F35" s="63" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="22"/>
     </row>
     <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
-        <v>34</v>
+      <c r="A36" s="19">
+        <v>35</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>149</v>
@@ -3034,17 +3090,17 @@
         <v>62</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
-        <v>35</v>
+      <c r="A37" s="19">
+        <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>153</v>
@@ -3059,17 +3115,17 @@
         <v>62</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
-        <v>36</v>
+      <c r="A38" s="19">
+        <v>37</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>158</v>
@@ -3084,17 +3140,17 @@
         <v>62</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
-        <v>37</v>
+      <c r="A39" s="19">
+        <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>161</v>
@@ -3109,17 +3165,17 @@
         <v>62</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="22"/>
     </row>
     <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
-        <v>38</v>
+      <c r="A40" s="19">
+        <v>39</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>164</v>
@@ -3134,17 +3190,17 @@
         <v>62</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>39</v>
+      <c r="A41" s="19">
+        <v>40</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>169</v>
@@ -3159,17 +3215,17 @@
         <v>62</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="22"/>
     </row>
     <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
-        <v>40</v>
+      <c r="A42" s="19">
+        <v>41</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>176</v>
@@ -3184,17 +3240,17 @@
         <v>62</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
-        <v>41</v>
+      <c r="A43" s="19">
+        <v>42</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>183</v>
@@ -3209,17 +3265,17 @@
         <v>62</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="22"/>
     </row>
     <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
-        <v>42</v>
+      <c r="A44" s="19">
+        <v>43</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>378</v>
@@ -3234,17 +3290,17 @@
         <v>62</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="22"/>
     </row>
     <row r="45" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
-        <v>43</v>
+      <c r="A45" s="19">
+        <v>44</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>268</v>
@@ -3259,17 +3315,17 @@
         <v>62</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="22"/>
     </row>
     <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="62">
-        <v>44</v>
+      <c r="A46" s="19">
+        <v>45</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>307</v>
@@ -3284,19 +3340,19 @@
         <v>306</v>
       </c>
       <c r="F46" s="62" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G46" s="62" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H46" s="62" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="62">
-        <v>45</v>
+      <c r="A47" s="19">
+        <v>46</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>311</v>
@@ -3311,19 +3367,19 @@
         <v>306</v>
       </c>
       <c r="F47" s="62" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G47" s="62" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H47" s="62" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="I47" s="62"/>
     </row>
     <row r="48" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="62">
-        <v>46</v>
+      <c r="A48" s="19">
+        <v>47</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>310</v>
@@ -3338,19 +3394,19 @@
         <v>306</v>
       </c>
       <c r="F48" s="62" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G48" s="62" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H48" s="62" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I48" s="62"/>
     </row>
     <row r="49" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="62">
-        <v>47</v>
+      <c r="A49" s="19">
+        <v>48</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>325</v>
@@ -3365,19 +3421,19 @@
         <v>306</v>
       </c>
       <c r="F49" s="62" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G49" s="62" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H49" s="62" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="I49" s="62"/>
     </row>
     <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="62">
-        <v>48</v>
+      <c r="A50" s="19">
+        <v>49</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>335</v>
@@ -3392,19 +3448,19 @@
         <v>306</v>
       </c>
       <c r="F50" s="62" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G50" s="62" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H50" s="62" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="I50" s="62"/>
     </row>
     <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="62">
-        <v>49</v>
+      <c r="A51" s="19">
+        <v>50</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>334</v>
@@ -3419,17 +3475,17 @@
         <v>306</v>
       </c>
       <c r="F51" s="62" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G51" s="62" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H51" s="62"/>
       <c r="I51" s="62"/>
     </row>
     <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="62">
-        <v>50</v>
+      <c r="A52" s="19">
+        <v>51</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>331</v>
@@ -3444,17 +3500,17 @@
         <v>306</v>
       </c>
       <c r="F52" s="62" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G52" s="62" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H52" s="62"/>
       <c r="I52" s="62"/>
     </row>
     <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="62">
-        <v>51</v>
+      <c r="A53" s="19">
+        <v>52</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>341</v>
@@ -3469,19 +3525,19 @@
         <v>306</v>
       </c>
       <c r="F53" s="62" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G53" s="62" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="H53" s="62" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I53" s="62"/>
     </row>
     <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="62">
-        <v>52</v>
+      <c r="A54" s="19">
+        <v>53</v>
       </c>
       <c r="B54" s="63" t="s">
         <v>342</v>
@@ -3496,38 +3552,15 @@
         <v>306</v>
       </c>
       <c r="F54" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="G54" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="H54" s="62" t="s">
         <v>453</v>
       </c>
-      <c r="G54" s="62" t="s">
-        <v>454</v>
-      </c>
-      <c r="H54" s="62" t="s">
-        <v>450</v>
-      </c>
       <c r="I54" s="62"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="66">
-        <v>53</v>
-      </c>
-      <c r="B55" s="63" t="s">
-        <v>452</v>
-      </c>
-      <c r="C55" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="F55" s="66" t="s">
-        <v>455</v>
-      </c>
-      <c r="G55" t="s">
-        <v>457</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I54" xr:uid="{82E42E5A-9B39-4AEF-85C9-780A007CE908}"/>
@@ -3537,7 +3570,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{1B330AB7-A328-42B1-9088-FD495E692864}"/>
+    <hyperlink ref="I2" r:id="rId1" location="7815483" xr:uid="{1B330AB7-A328-42B1-9088-FD495E692864}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7714,10 +7747,10 @@
         <v>57</v>
       </c>
       <c r="CN22" s="16" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="CO22" s="16" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="CP22" s="31" t="s">
         <v>57</v>
@@ -8766,7 +8799,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>84</v>

--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\OnPremise\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA73FD5-CA8E-4B8F-BE9C-31487DB4A5C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EB7015-9F87-47DD-ACD3-01FB61ECEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="474">
   <si>
     <t>UserName</t>
   </si>
@@ -1091,9 +1091,6 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>corp\crmtest06</t>
-  </si>
-  <si>
     <t>RunMode</t>
   </si>
   <si>
@@ -1304,187 +1301,166 @@
     <t>UserName2</t>
   </si>
   <si>
+    <t>TFS ID_ 7112:Verify if primary account of a contact has been changed then other associated Contact account association should not get end dated/terminated</t>
+  </si>
+  <si>
+    <t>No Run</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://crmstage.premierinc.com/main.aspx#7815483</t>
+  </si>
+  <si>
+    <t>corp\crmtest07</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
     <t>corp\crmtest05</t>
   </si>
   <si>
-    <t>2000531540</t>
-  </si>
-  <si>
-    <t>2000531704</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7112:Verify if primary account of a contact has been changed then other associated Contact account association should not get end dated/terminated</t>
-  </si>
-  <si>
-    <t>No Run</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>https://crmstage.premierinc.com/main.aspx#7815483</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>2000533106</t>
-  </si>
-  <si>
-    <t>2000533107</t>
-  </si>
-  <si>
-    <t>2000533108</t>
-  </si>
-  <si>
-    <t>2000533109</t>
-  </si>
-  <si>
-    <t>2000533112</t>
-  </si>
-  <si>
-    <t>2000533114</t>
-  </si>
-  <si>
-    <t>2000533118</t>
-  </si>
-  <si>
-    <t>2000533120</t>
-  </si>
-  <si>
-    <t>2000533124</t>
-  </si>
-  <si>
-    <t>806388670</t>
-  </si>
-  <si>
-    <t>cf8233998</t>
-  </si>
-  <si>
-    <t>2000533125</t>
-  </si>
-  <si>
-    <t>2000533126</t>
-  </si>
-  <si>
-    <t>2000533127</t>
-  </si>
-  <si>
-    <t>2000533129</t>
-  </si>
-  <si>
-    <t>2000533130</t>
-  </si>
-  <si>
-    <t>2000533131</t>
-  </si>
-  <si>
-    <t>2000533132</t>
-  </si>
-  <si>
-    <t>7000572993</t>
-  </si>
-  <si>
-    <t>7000572994</t>
-  </si>
-  <si>
-    <t>7000572995</t>
-  </si>
-  <si>
-    <t>7000572996</t>
-  </si>
-  <si>
-    <t>7000572997</t>
-  </si>
-  <si>
-    <t>7000572998</t>
-  </si>
-  <si>
-    <t>7000572999</t>
-  </si>
-  <si>
-    <t>2000533147</t>
-  </si>
-  <si>
-    <t>2000533152</t>
-  </si>
-  <si>
-    <t>2022_05_30_04_34_45</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>2022_05_30_05_15_22</t>
-  </si>
-  <si>
-    <t>2000533156</t>
-  </si>
-  <si>
-    <t>2022_05_30_05_24_42</t>
-  </si>
-  <si>
-    <t>2000533157</t>
-  </si>
-  <si>
-    <t>2022_05_30_05_33_00</t>
-  </si>
-  <si>
-    <t>2000533160</t>
-  </si>
-  <si>
-    <t>2022_05_30_06_00_55</t>
-  </si>
-  <si>
-    <t>2000533162</t>
-  </si>
-  <si>
-    <t>2000533163</t>
-  </si>
-  <si>
-    <t>2022_05_30_06_09_11</t>
-  </si>
-  <si>
-    <t>2000533164</t>
-  </si>
-  <si>
-    <t>2000533165</t>
-  </si>
-  <si>
-    <t>2022_05_30_06_43_41</t>
-  </si>
-  <si>
-    <t>2000533166</t>
-  </si>
-  <si>
-    <t>2000533167</t>
-  </si>
-  <si>
-    <t>2022_05_30_06_56_05</t>
-  </si>
-  <si>
-    <t>2000533168</t>
-  </si>
-  <si>
-    <t>2022_05_30_07_14_51</t>
-  </si>
-  <si>
-    <t>2000533169</t>
-  </si>
-  <si>
-    <t>2022_05_30_07_24_57</t>
-  </si>
-  <si>
-    <t>2000533170</t>
-  </si>
-  <si>
-    <t>2022_05_30_07_43_14</t>
-  </si>
-  <si>
-    <t>2000533171</t>
-  </si>
-  <si>
-    <t>2022_05_30_08_04_09</t>
+    <t>2000472471</t>
+  </si>
+  <si>
+    <t>2000540868</t>
+  </si>
+  <si>
+    <t>7000573835</t>
+  </si>
+  <si>
+    <t>7000573836</t>
+  </si>
+  <si>
+    <t>7000573837</t>
+  </si>
+  <si>
+    <t>7000573838</t>
+  </si>
+  <si>
+    <t>7000573839</t>
+  </si>
+  <si>
+    <t>7000573840</t>
+  </si>
+  <si>
+    <t>7000573841</t>
+  </si>
+  <si>
+    <t>2000540938</t>
+  </si>
+  <si>
+    <t>2000540940</t>
+  </si>
+  <si>
+    <t>2000540941</t>
+  </si>
+  <si>
+    <t>2000540944</t>
+  </si>
+  <si>
+    <t>2000540946</t>
+  </si>
+  <si>
+    <t>2000540948</t>
+  </si>
+  <si>
+    <t>2000540951</t>
+  </si>
+  <si>
+    <t>2000540952</t>
+  </si>
+  <si>
+    <t>2000540955</t>
+  </si>
+  <si>
+    <t>246797772</t>
+  </si>
+  <si>
+    <t>df5122940</t>
+  </si>
+  <si>
+    <t>2000540958</t>
+  </si>
+  <si>
+    <t>2000540960</t>
+  </si>
+  <si>
+    <t>2000540961</t>
+  </si>
+  <si>
+    <t>2000540962</t>
+  </si>
+  <si>
+    <t>2000540963</t>
+  </si>
+  <si>
+    <t>2000540964</t>
+  </si>
+  <si>
+    <t>2000540965</t>
+  </si>
+  <si>
+    <t>2000540966</t>
+  </si>
+  <si>
+    <t>2022_06_15_10_21_50</t>
+  </si>
+  <si>
+    <t>2000540967</t>
+  </si>
+  <si>
+    <t>2022_06_15_10_25_38</t>
+  </si>
+  <si>
+    <t>7000573882</t>
+  </si>
+  <si>
+    <t>2022_06_15_07_30_40</t>
+  </si>
+  <si>
+    <t>7000573883</t>
+  </si>
+  <si>
+    <t>2022_06_15_07_34_20</t>
+  </si>
+  <si>
+    <t>7000573884</t>
+  </si>
+  <si>
+    <t>2022_06_15_07_36_59</t>
+  </si>
+  <si>
+    <t>7000573885</t>
+  </si>
+  <si>
+    <t>2022_06_15_07_38_59</t>
+  </si>
+  <si>
+    <t>7000573886</t>
+  </si>
+  <si>
+    <t>2022_06_15_07_42_35</t>
+  </si>
+  <si>
+    <t>2022_06_15_07_43_40</t>
+  </si>
+  <si>
+    <t>2022_06_15_07_44_40</t>
+  </si>
+  <si>
+    <t>7000573887</t>
+  </si>
+  <si>
+    <t>2022_06_15_07_47_58</t>
+  </si>
+  <si>
+    <t>7000573888</t>
+  </si>
+  <si>
+    <t>2022_06_15_07_51_46</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1595,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1641,6 +1617,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,7 +1683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1814,6 +1802,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2137,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,7 +2152,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>53</v>
@@ -2200,16 +2190,16 @@
         <v>62</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2229,13 +2219,13 @@
         <v>62</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="I3" s="61"/>
     </row>
@@ -2243,7 +2233,7 @@
       <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="66" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2256,13 +2246,13 @@
         <v>62</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="I4" s="19"/>
     </row>
@@ -2283,13 +2273,13 @@
         <v>62</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="I5" s="19"/>
     </row>
@@ -2297,7 +2287,7 @@
       <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="66" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -2310,10 +2300,10 @@
         <v>62</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -2322,7 +2312,7 @@
       <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="66" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -2335,10 +2325,10 @@
         <v>62</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -2347,7 +2337,7 @@
       <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="66" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2360,13 +2350,13 @@
         <v>62</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="I8" s="19"/>
     </row>
@@ -2374,7 +2364,7 @@
       <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="66" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -2387,10 +2377,10 @@
         <v>62</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -2412,13 +2402,13 @@
         <v>62</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -2439,13 +2429,13 @@
         <v>62</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I11" s="19"/>
     </row>
@@ -2466,13 +2456,13 @@
         <v>62</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="I12" s="19"/>
     </row>
@@ -2493,10 +2483,10 @@
         <v>62</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -2506,7 +2496,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>57</v>
@@ -2518,10 +2508,10 @@
         <v>62</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -2530,7 +2520,7 @@
       <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="67" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2543,13 +2533,13 @@
         <v>62</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="I15" s="19"/>
     </row>
@@ -2570,13 +2560,13 @@
         <v>62</v>
       </c>
       <c r="F16" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="I16" s="19"/>
     </row>
@@ -2597,10 +2587,10 @@
         <v>110</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -2609,7 +2599,7 @@
       <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="66" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -2622,10 +2612,10 @@
         <v>110</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -2634,7 +2624,7 @@
       <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="66" t="s">
         <v>109</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -2647,10 +2637,10 @@
         <v>110</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -2659,8 +2649,8 @@
       <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>365</v>
+      <c r="B20" s="66" t="s">
+        <v>364</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>57</v>
@@ -2672,10 +2662,10 @@
         <v>62</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -2697,13 +2687,13 @@
         <v>62</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="I21" s="19"/>
     </row>
@@ -2711,7 +2701,7 @@
       <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="66" t="s">
         <v>259</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -2724,13 +2714,13 @@
         <v>62</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="I22" s="19"/>
     </row>
@@ -2738,7 +2728,7 @@
       <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="66" t="s">
         <v>258</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -2751,13 +2741,13 @@
         <v>62</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="I23" s="19"/>
     </row>
@@ -2765,7 +2755,7 @@
       <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C24" s="19" t="s">
@@ -2778,13 +2768,13 @@
         <v>62</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="I24" s="19"/>
     </row>
@@ -2792,7 +2782,7 @@
       <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="66" t="s">
         <v>260</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -2805,13 +2795,13 @@
         <v>62</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="I25" s="19"/>
     </row>
@@ -2819,7 +2809,7 @@
       <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="66" t="s">
         <v>261</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -2832,13 +2822,13 @@
         <v>62</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="I26" s="19"/>
     </row>
@@ -2846,7 +2836,7 @@
       <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="66" t="s">
         <v>262</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -2859,13 +2849,13 @@
         <v>62</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="I27" s="19"/>
     </row>
@@ -2873,7 +2863,7 @@
       <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C28" s="19" t="s">
@@ -2886,13 +2876,13 @@
         <v>62</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H28" s="65" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="I28" s="19"/>
     </row>
@@ -2900,7 +2890,7 @@
       <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="66" t="s">
         <v>295</v>
       </c>
       <c r="C29" s="19" t="s">
@@ -2913,10 +2903,10 @@
         <v>62</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -2925,11 +2915,11 @@
       <c r="A30" s="19">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>414</v>
+      <c r="B30" s="66" t="s">
+        <v>413</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>9</v>
@@ -2938,13 +2928,13 @@
         <v>62</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>481</v>
+        <v>422</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>480</v>
+        <v>428</v>
       </c>
       <c r="I30" s="19"/>
     </row>
@@ -2965,10 +2955,10 @@
         <v>62</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="22"/>
@@ -2990,10 +2980,10 @@
         <v>62</v>
       </c>
       <c r="F32" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="22"/>
@@ -3015,10 +3005,10 @@
         <v>62</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="22"/>
@@ -3040,10 +3030,10 @@
         <v>62</v>
       </c>
       <c r="F34" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="22"/>
@@ -3065,10 +3055,10 @@
         <v>62</v>
       </c>
       <c r="F35" s="63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="22"/>
@@ -3090,10 +3080,10 @@
         <v>62</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="22"/>
@@ -3115,10 +3105,10 @@
         <v>62</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="22"/>
@@ -3140,10 +3130,10 @@
         <v>62</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="22"/>
@@ -3165,10 +3155,10 @@
         <v>62</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="22"/>
@@ -3190,10 +3180,10 @@
         <v>62</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="22"/>
@@ -3215,10 +3205,10 @@
         <v>62</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="22"/>
@@ -3240,10 +3230,10 @@
         <v>62</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="22"/>
@@ -3265,10 +3255,10 @@
         <v>62</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="22"/>
@@ -3278,7 +3268,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>57</v>
@@ -3290,10 +3280,10 @@
         <v>62</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="22"/>
@@ -3315,10 +3305,10 @@
         <v>62</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="22"/>
@@ -3331,7 +3321,7 @@
         <v>307</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" s="62" t="s">
         <v>305</v>
@@ -3343,10 +3333,10 @@
         <v>425</v>
       </c>
       <c r="G46" s="62" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="H46" s="62" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="I46" s="62"/>
     </row>
@@ -3358,7 +3348,7 @@
         <v>311</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="62" t="s">
         <v>305</v>
@@ -3370,10 +3360,10 @@
         <v>425</v>
       </c>
       <c r="G47" s="62" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="H47" s="62" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="I47" s="62"/>
     </row>
@@ -3385,7 +3375,7 @@
         <v>310</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="62" t="s">
         <v>305</v>
@@ -3397,10 +3387,10 @@
         <v>425</v>
       </c>
       <c r="G48" s="62" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="H48" s="62" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="I48" s="62"/>
     </row>
@@ -3412,7 +3402,7 @@
         <v>325</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" s="62" t="s">
         <v>305</v>
@@ -3424,10 +3414,10 @@
         <v>425</v>
       </c>
       <c r="G49" s="62" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="H49" s="62" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="I49" s="62"/>
     </row>
@@ -3439,7 +3429,7 @@
         <v>335</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" s="62" t="s">
         <v>305</v>
@@ -3451,10 +3441,10 @@
         <v>425</v>
       </c>
       <c r="G50" s="62" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="H50" s="62" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="I50" s="62"/>
     </row>
@@ -3466,7 +3456,7 @@
         <v>334</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="62" t="s">
         <v>305</v>
@@ -3478,7 +3468,7 @@
         <v>425</v>
       </c>
       <c r="G51" s="62" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="H51" s="62"/>
       <c r="I51" s="62"/>
@@ -3491,7 +3481,7 @@
         <v>331</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="62" t="s">
         <v>305</v>
@@ -3503,7 +3493,7 @@
         <v>425</v>
       </c>
       <c r="G52" s="62" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="H52" s="62"/>
       <c r="I52" s="62"/>
@@ -3516,7 +3506,7 @@
         <v>341</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="62" t="s">
         <v>305</v>
@@ -3528,10 +3518,10 @@
         <v>425</v>
       </c>
       <c r="G53" s="62" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="H53" s="62" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="I53" s="62"/>
     </row>
@@ -3543,7 +3533,7 @@
         <v>342</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" s="62" t="s">
         <v>305</v>
@@ -3555,10 +3545,10 @@
         <v>425</v>
       </c>
       <c r="G54" s="62" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="H54" s="62" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="I54" s="62"/>
     </row>
@@ -3581,7 +3571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:DC31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3760,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="AD1" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AE1" s="24" t="s">
         <v>13</v>
@@ -3787,13 +3779,13 @@
         <v>29</v>
       </c>
       <c r="AM1" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="AN1" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AO1" s="24" t="s">
         <v>372</v>
-      </c>
-      <c r="AO1" s="24" t="s">
-        <v>373</v>
       </c>
       <c r="AP1" s="13" t="s">
         <v>76</v>
@@ -3817,7 +3809,7 @@
         <v>87</v>
       </c>
       <c r="AW1" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AX1" s="24" t="s">
         <v>88</v>
@@ -3967,13 +3959,13 @@
         <v>253</v>
       </c>
       <c r="CU1" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="CV1" s="4" t="s">
         <v>263</v>
       </c>
       <c r="CW1" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="CX1" s="4" t="s">
         <v>292</v>
@@ -3982,16 +3974,16 @@
         <v>337</v>
       </c>
       <c r="CZ1" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="DA1" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="DB1" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="DB1" s="4" t="s">
-        <v>367</v>
-      </c>
       <c r="DC1" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4012,7 +4004,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -4050,7 +4042,7 @@
         <v>24</v>
       </c>
       <c r="AA2" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB2" s="26" t="s">
         <v>30</v>
@@ -4065,7 +4057,7 @@
         <v>99</v>
       </c>
       <c r="AF2" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG2" s="27" t="s">
         <v>347</v>
@@ -4101,16 +4093,16 @@
         <v>57</v>
       </c>
       <c r="AZ2" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA2" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB2" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC2" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD2" s="26" t="s">
         <v>57</v>
@@ -4118,7 +4110,7 @@
       <c r="BE2" s="26"/>
       <c r="BF2" s="26"/>
       <c r="BG2" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH2" s="26"/>
       <c r="BI2" s="26"/>
@@ -4179,7 +4171,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>28</v>
@@ -4192,7 +4184,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
@@ -4230,23 +4222,23 @@
         <v>24</v>
       </c>
       <c r="AA3" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB3" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC3" s="27" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="AD3" s="27" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="AE3" s="31"/>
       <c r="AF3" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG3" s="27" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="AH3" s="31"/>
       <c r="AI3" s="26" t="s">
@@ -4259,7 +4251,7 @@
         <v>37</v>
       </c>
       <c r="AL3" s="27" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="AM3" s="27" t="s">
         <v>77</v>
@@ -4268,7 +4260,7 @@
         <v>77</v>
       </c>
       <c r="AO3" s="27" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="AP3" s="31"/>
       <c r="AQ3" s="31"/>
@@ -4279,10 +4271,10 @@
         <v>57</v>
       </c>
       <c r="AV3" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AW3" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AX3" s="31"/>
       <c r="AY3" s="31"/>
@@ -4294,7 +4286,7 @@
       <c r="BE3" s="31"/>
       <c r="BF3" s="31"/>
       <c r="BG3" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH3" s="31"/>
       <c r="BI3" s="31"/>
@@ -4337,10 +4329,10 @@
         <v>336</v>
       </c>
       <c r="CT3" s="27" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="CU3" s="27" t="s">
-        <v>408</v>
+        <v>347</v>
       </c>
       <c r="CV3" s="28" t="s">
         <v>264</v>
@@ -4356,10 +4348,10 @@
         <v>77</v>
       </c>
       <c r="DA3" s="27" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="DB3" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:107" x14ac:dyDescent="0.25">
@@ -4370,13 +4362,13 @@
         <v>295</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
@@ -4421,7 +4413,7 @@
       </c>
       <c r="AE4" s="31"/>
       <c r="AF4" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG4" s="31"/>
       <c r="AH4" s="31"/>
@@ -4452,7 +4444,7 @@
       <c r="BE4" s="31"/>
       <c r="BF4" s="31"/>
       <c r="BG4" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH4" s="26" t="s">
         <v>289</v>
@@ -4538,7 +4530,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -4576,7 +4568,7 @@
         <v>24</v>
       </c>
       <c r="AA5" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB5" s="26" t="s">
         <v>30</v>
@@ -4591,7 +4583,7 @@
         <v>99</v>
       </c>
       <c r="AF5" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG5" s="27" t="s">
         <v>347</v>
@@ -4629,26 +4621,26 @@
         <v>57</v>
       </c>
       <c r="AZ5" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA5" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB5" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC5" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD5" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE5" s="26"/>
       <c r="BF5" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BG5" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH5" s="26"/>
       <c r="BI5" s="26"/>
@@ -4722,7 +4714,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -4760,7 +4752,7 @@
         <v>24</v>
       </c>
       <c r="AA6" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB6" s="26" t="s">
         <v>30</v>
@@ -4775,7 +4767,7 @@
         <v>99</v>
       </c>
       <c r="AF6" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG6" s="27" t="s">
         <v>347</v>
@@ -4813,26 +4805,26 @@
         <v>57</v>
       </c>
       <c r="AZ6" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA6" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB6" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC6" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD6" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE6" s="26"/>
       <c r="BF6" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BG6" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH6" s="26"/>
       <c r="BI6" s="26"/>
@@ -4906,7 +4898,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
@@ -4942,7 +4934,7 @@
         <v>24</v>
       </c>
       <c r="AA7" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB7" s="26" t="s">
         <v>30</v>
@@ -4955,7 +4947,7 @@
       </c>
       <c r="AE7" s="26"/>
       <c r="AF7" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG7" s="27" t="s">
         <v>347</v>
@@ -4991,16 +4983,16 @@
         <v>57</v>
       </c>
       <c r="AZ7" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA7" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB7" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC7" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD7" s="26" t="s">
         <v>57</v>
@@ -5008,7 +5000,7 @@
       <c r="BE7" s="26"/>
       <c r="BF7" s="26"/>
       <c r="BG7" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH7" s="26"/>
       <c r="BI7" s="26"/>
@@ -5082,7 +5074,7 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -5120,7 +5112,7 @@
         <v>24</v>
       </c>
       <c r="AA8" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB8" s="33" t="s">
         <v>30</v>
@@ -5133,7 +5125,7 @@
       </c>
       <c r="AE8" s="33"/>
       <c r="AF8" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG8" s="36" t="s">
         <v>347</v>
@@ -5169,16 +5161,16 @@
         <v>57</v>
       </c>
       <c r="AZ8" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA8" s="33" t="s">
         <v>57</v>
       </c>
       <c r="BB8" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC8" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD8" s="33" t="s">
         <v>57</v>
@@ -5186,7 +5178,7 @@
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
       <c r="BG8" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH8" s="33"/>
       <c r="BI8" s="33"/>
@@ -5260,7 +5252,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
@@ -5296,7 +5288,7 @@
         <v>24</v>
       </c>
       <c r="AA9" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB9" s="33" t="s">
         <v>30</v>
@@ -5309,7 +5301,7 @@
       </c>
       <c r="AE9" s="33"/>
       <c r="AF9" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG9" s="36" t="s">
         <v>347</v>
@@ -5345,16 +5337,16 @@
         <v>57</v>
       </c>
       <c r="AZ9" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA9" s="33" t="s">
         <v>57</v>
       </c>
       <c r="BB9" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC9" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD9" s="33" t="s">
         <v>57</v>
@@ -5362,7 +5354,7 @@
       <c r="BE9" s="33"/>
       <c r="BF9" s="33"/>
       <c r="BG9" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH9" s="33"/>
       <c r="BI9" s="33"/>
@@ -5436,7 +5428,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
@@ -5483,7 +5475,7 @@
       </c>
       <c r="AE10" s="26"/>
       <c r="AF10" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG10" s="27" t="s">
         <v>347</v>
@@ -5523,7 +5515,7 @@
         <v>56</v>
       </c>
       <c r="AV10" s="39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AW10" s="26" t="s">
         <v>86</v>
@@ -5548,7 +5540,7 @@
       </c>
       <c r="BF10" s="26"/>
       <c r="BG10" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH10" s="26"/>
       <c r="BI10" s="26"/>
@@ -5622,7 +5614,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -5669,7 +5661,7 @@
       </c>
       <c r="AE11" s="26"/>
       <c r="AF11" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG11" s="27" t="s">
         <v>347</v>
@@ -5709,7 +5701,7 @@
         <v>56</v>
       </c>
       <c r="AV11" s="39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AW11" s="26" t="s">
         <v>86</v>
@@ -5734,7 +5726,7 @@
       </c>
       <c r="BF11" s="26"/>
       <c r="BG11" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH11" s="26"/>
       <c r="BI11" s="26"/>
@@ -5808,7 +5800,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
@@ -5848,7 +5840,7 @@
         <v>24</v>
       </c>
       <c r="AA12" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB12" s="26" t="s">
         <v>30</v>
@@ -5861,7 +5853,7 @@
       </c>
       <c r="AE12" s="26"/>
       <c r="AF12" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG12" s="27" t="s">
         <v>347</v>
@@ -5897,26 +5889,26 @@
         <v>57</v>
       </c>
       <c r="AZ12" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA12" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB12" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC12" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD12" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE12" s="26"/>
       <c r="BF12" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BG12" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH12" s="26"/>
       <c r="BI12" s="26"/>
@@ -5990,7 +5982,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
@@ -6030,7 +6022,7 @@
         <v>24</v>
       </c>
       <c r="AA13" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB13" s="26" t="s">
         <v>30</v>
@@ -6045,7 +6037,7 @@
         <v>99</v>
       </c>
       <c r="AF13" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG13" s="27" t="s">
         <v>347</v>
@@ -6083,26 +6075,26 @@
         <v>57</v>
       </c>
       <c r="AZ13" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA13" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB13" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC13" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD13" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE13" s="26"/>
       <c r="BF13" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BG13" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH13" s="26"/>
       <c r="BI13" s="26"/>
@@ -6176,7 +6168,7 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -6216,7 +6208,7 @@
         <v>24</v>
       </c>
       <c r="AA14" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB14" s="26" t="s">
         <v>30</v>
@@ -6229,7 +6221,7 @@
       </c>
       <c r="AE14" s="26"/>
       <c r="AF14" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG14" s="27" t="s">
         <v>347</v>
@@ -6265,16 +6257,16 @@
         <v>57</v>
       </c>
       <c r="AZ14" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA14" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB14" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC14" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD14" s="26" t="s">
         <v>57</v>
@@ -6282,7 +6274,7 @@
       <c r="BE14" s="26"/>
       <c r="BF14" s="26"/>
       <c r="BG14" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH14" s="26"/>
       <c r="BI14" s="26"/>
@@ -6356,7 +6348,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -6396,7 +6388,7 @@
         <v>24</v>
       </c>
       <c r="AA15" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB15" s="26" t="s">
         <v>30</v>
@@ -6409,7 +6401,7 @@
       </c>
       <c r="AE15" s="26"/>
       <c r="AF15" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG15" s="27" t="s">
         <v>347</v>
@@ -6445,16 +6437,16 @@
         <v>57</v>
       </c>
       <c r="AZ15" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA15" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB15" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC15" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD15" s="26" t="s">
         <v>57</v>
@@ -6462,7 +6454,7 @@
       <c r="BE15" s="26"/>
       <c r="BF15" s="26"/>
       <c r="BG15" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH15" s="26"/>
       <c r="BI15" s="26"/>
@@ -6523,7 +6515,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>28</v>
@@ -6536,7 +6528,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
@@ -6545,7 +6537,7 @@
         <v>5</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O16" s="28" t="s">
         <v>287</v>
@@ -6576,7 +6568,7 @@
         <v>24</v>
       </c>
       <c r="AA16" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB16" s="26" t="s">
         <v>30</v>
@@ -6589,7 +6581,7 @@
       </c>
       <c r="AE16" s="26"/>
       <c r="AF16" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG16" s="27" t="s">
         <v>347</v>
@@ -6625,16 +6617,16 @@
         <v>57</v>
       </c>
       <c r="AZ16" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA16" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB16" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC16" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD16" s="26" t="s">
         <v>57</v>
@@ -6642,7 +6634,7 @@
       <c r="BE16" s="26"/>
       <c r="BF16" s="26"/>
       <c r="BG16" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH16" s="26"/>
       <c r="BI16" s="26"/>
@@ -6716,7 +6708,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
@@ -6756,7 +6748,7 @@
         <v>24</v>
       </c>
       <c r="AA17" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB17" s="26" t="s">
         <v>30</v>
@@ -6769,7 +6761,7 @@
       </c>
       <c r="AE17" s="26"/>
       <c r="AF17" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG17" s="27" t="s">
         <v>347</v>
@@ -6805,26 +6797,26 @@
         <v>57</v>
       </c>
       <c r="AZ17" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA17" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB17" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC17" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD17" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE17" s="26"/>
       <c r="BF17" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BG17" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH17" s="26"/>
       <c r="BI17" s="26"/>
@@ -6898,7 +6890,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
@@ -6938,7 +6930,7 @@
         <v>24</v>
       </c>
       <c r="AA18" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB18" s="26" t="s">
         <v>30</v>
@@ -6951,7 +6943,7 @@
       </c>
       <c r="AE18" s="26"/>
       <c r="AF18" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG18" s="27" t="s">
         <v>347</v>
@@ -6987,26 +6979,26 @@
         <v>57</v>
       </c>
       <c r="AZ18" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA18" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB18" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC18" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD18" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE18" s="26"/>
       <c r="BF18" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BG18" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH18" s="26"/>
       <c r="BI18" s="26"/>
@@ -7080,7 +7072,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
@@ -7105,7 +7097,7 @@
         <v>108</v>
       </c>
       <c r="T19" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U19" s="26" t="s">
         <v>9</v>
@@ -7126,7 +7118,7 @@
         <v>24</v>
       </c>
       <c r="AA19" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB19" s="26" t="s">
         <v>30</v>
@@ -7139,7 +7131,7 @@
       </c>
       <c r="AE19" s="26"/>
       <c r="AF19" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG19" s="27" t="s">
         <v>347</v>
@@ -7180,7 +7172,7 @@
       <c r="BE19" s="31"/>
       <c r="BF19" s="26"/>
       <c r="BG19" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH19" s="31"/>
       <c r="BI19" s="31"/>
@@ -7308,7 +7300,7 @@
       <c r="BE20" s="31"/>
       <c r="BF20" s="26"/>
       <c r="BG20" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH20" s="31"/>
       <c r="BI20" s="31"/>
@@ -7390,7 +7382,7 @@
         <v>300</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J21" s="42" t="s">
         <v>301</v>
@@ -7450,7 +7442,7 @@
       <c r="BE21" s="43"/>
       <c r="BF21" s="43"/>
       <c r="BG21" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH21" s="43"/>
       <c r="BI21" s="43"/>
@@ -7568,7 +7560,7 @@
         <v>24</v>
       </c>
       <c r="AA22" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB22" s="26" t="s">
         <v>85</v>
@@ -7583,7 +7575,7 @@
         <v>99</v>
       </c>
       <c r="AF22" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG22" s="27" t="s">
         <v>347</v>
@@ -7627,16 +7619,16 @@
         <v>57</v>
       </c>
       <c r="AZ22" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA22" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB22" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BC22" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BD22" s="26" t="s">
         <v>57</v>
@@ -7645,10 +7637,10 @@
         <v>85</v>
       </c>
       <c r="BF22" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BG22" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BH22" s="16" t="s">
         <v>217</v>
@@ -7747,10 +7739,10 @@
         <v>57</v>
       </c>
       <c r="CN22" s="16" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="CO22" s="16" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="CP22" s="31" t="s">
         <v>57</v>
@@ -7784,7 +7776,7 @@
         <v>259</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
@@ -7796,7 +7788,7 @@
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
@@ -7912,7 +7904,7 @@
         <v>258</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
@@ -7924,7 +7916,7 @@
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
@@ -8040,7 +8032,7 @@
         <v>248</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
@@ -8052,7 +8044,7 @@
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
@@ -8168,7 +8160,7 @@
         <v>260</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
@@ -8180,7 +8172,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
@@ -8296,7 +8288,7 @@
         <v>261</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
@@ -8308,7 +8300,7 @@
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
@@ -8426,7 +8418,7 @@
         <v>262</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
@@ -8438,7 +8430,7 @@
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
       <c r="I28" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="31"/>
@@ -8556,7 +8548,7 @@
         <v>266</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
@@ -8566,7 +8558,7 @@
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J29" s="31"/>
       <c r="K29" s="31"/>
@@ -8598,7 +8590,7 @@
         <v>24</v>
       </c>
       <c r="AA29" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AB29" s="31"/>
       <c r="AC29" s="27" t="s">
@@ -8609,7 +8601,7 @@
       </c>
       <c r="AE29" s="31"/>
       <c r="AF29" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG29" s="27" t="s">
         <v>347</v>
@@ -8697,7 +8689,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>84</v>
@@ -8706,7 +8698,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M30" s="26" t="s">
         <v>5</v>
@@ -8736,7 +8728,7 @@
         <v>24</v>
       </c>
       <c r="AA30" s="64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AB30" s="3" t="s">
         <v>85</v>
@@ -8751,7 +8743,7 @@
         <v>99</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG30" s="27" t="s">
         <v>347</v>
@@ -8776,10 +8768,10 @@
         <v>57</v>
       </c>
       <c r="BF30" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="BG30" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CS30" s="26" t="s">
         <v>336</v>
@@ -8791,7 +8783,7 @@
         <v>338</v>
       </c>
       <c r="DC30" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:107" x14ac:dyDescent="0.25">
@@ -8799,7 +8791,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>84</v>
@@ -8822,8 +8814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BC17"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8892,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -8901,7 +8893,7 @@
         <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>39</v>
@@ -8970,19 +8962,19 @@
         <v>286</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="AH1" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>270</v>
@@ -10299,7 +10291,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>125</v>
@@ -10324,7 +10316,7 @@
         <v>170</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L16" s="27" t="s">
         <v>347</v>
@@ -10333,13 +10325,13 @@
         <v>135</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P16" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="16" t="s">
@@ -10359,7 +10351,7 @@
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE16" s="53" t="s">
         <v>336</v>
@@ -10368,10 +10360,10 @@
         <v>338</v>
       </c>
       <c r="AG16" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AH16" s="53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AI16" s="16"/>
       <c r="AJ16" s="16"/>
@@ -10887,7 +10879,7 @@
         <v>305</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H9" s="55" t="s">
         <v>314</v>
@@ -10947,13 +10939,13 @@
         <v>305</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H10" s="55" t="s">
         <v>314</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>22</v>
@@ -11028,15 +11020,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11270,6 +11253,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11280,14 +11272,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11307,6 +11291,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
   <ds:schemaRefs>

--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\OnPremise\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF20FA0-6930-46CB-9F1B-04134F278AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A52895-34A8-4E1D-9A8C-E4939E0BC7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="510">
   <si>
     <t>UserName</t>
   </si>
@@ -1325,15 +1325,6 @@
     <t/>
   </si>
   <si>
-    <t>2000554807</t>
-  </si>
-  <si>
-    <t>2000554808</t>
-  </si>
-  <si>
-    <t>2000554810</t>
-  </si>
-  <si>
     <t>2000554812</t>
   </si>
   <si>
@@ -1367,9 +1358,6 @@
     <t>7000578829</t>
   </si>
   <si>
-    <t>2000554839</t>
-  </si>
-  <si>
     <t>2000554844</t>
   </si>
   <si>
@@ -1382,12 +1370,6 @@
     <t>bf9746162</t>
   </si>
   <si>
-    <t>2000555255</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
     <t>2000555263</t>
   </si>
   <si>
@@ -1412,19 +1394,181 @@
     <t>corp\crmtest10</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2000555450</t>
-  </si>
-  <si>
-    <t>2022_10_19_06_02_50</t>
-  </si>
-  <si>
-    <t>2000555556</t>
-  </si>
-  <si>
-    <t>Mani sub 26OCT_</t>
+    <t>10/30/2022</t>
+  </si>
+  <si>
+    <t>2000555818</t>
+  </si>
+  <si>
+    <t>2000555819</t>
+  </si>
+  <si>
+    <t>2000555820</t>
+  </si>
+  <si>
+    <t>2000555823</t>
+  </si>
+  <si>
+    <t>TFS ID_45306:Verify Prospect accounts can not be published</t>
+  </si>
+  <si>
+    <t>45306_PublishProspectAccount</t>
+  </si>
+  <si>
+    <t>2000555831</t>
+  </si>
+  <si>
+    <t>You should not publish the prospect If you contact support, please provide the technical details.</t>
+  </si>
+  <si>
+    <t>TFS ID_45307:Verify if Accounts cannot be created directly in Terminated Status.</t>
+  </si>
+  <si>
+    <t>2000555837</t>
+  </si>
+  <si>
+    <t>Please do not create account with Terminated Account status If you contact support, please provide the technical details.</t>
+  </si>
+  <si>
+    <t>45307_CreateTerminateAccount</t>
+  </si>
+  <si>
+    <t>Please terminate the account by end dating the membership If you contact support, please provide the technical details.</t>
+  </si>
+  <si>
+    <t>2000316252</t>
+  </si>
+  <si>
+    <t>2000555870</t>
+  </si>
+  <si>
+    <t>45332_VerifyParticipationType</t>
+  </si>
+  <si>
+    <t>Cater</t>
+  </si>
+  <si>
+    <t>TFS ID_45332:Verify whether "Cater" is available in the "Participation Type" Field in Member Form and Member Entry Form.</t>
+  </si>
+  <si>
+    <t>TFS ID_45311:Verify whether child Account cannot be published if DP does not have entity code</t>
+  </si>
+  <si>
+    <t>1000190617</t>
+  </si>
+  <si>
+    <t>45311_SubAccWithoutEntity</t>
+  </si>
+  <si>
+    <t>You cannot publish the Member since Direct Parent has no Entity code If you contact support, please provide the technical details.</t>
+  </si>
+  <si>
+    <t>2000555900</t>
+  </si>
+  <si>
+    <t>TFS ID_45308:Verify user should not be allowed to change the account status to Active manually when Premier End date is present</t>
+  </si>
+  <si>
+    <t>1000031212</t>
+  </si>
+  <si>
+    <t>Please re-activate the account by creating the membership If you contact support, please provide the technical details.</t>
+  </si>
+  <si>
+    <t>TFS ID_45304:Verify if the State field in address only accept two characters or blank values, no numeric and/or special characters</t>
+  </si>
+  <si>
+    <t>TFS ID_45292:Verify whether user is able to "deactivate" Premier Membership in Published state when there is no other active Premier Membership.</t>
+  </si>
+  <si>
+    <t>1000003540</t>
+  </si>
+  <si>
+    <t>State/Province must be 2 Characters long or Empty</t>
+  </si>
+  <si>
+    <t>State/Province must contain only characters</t>
+  </si>
+  <si>
+    <t>Can't deactivate the premier membership since there is no other active premier membership</t>
+  </si>
+  <si>
+    <t>TFS ID_45309: Verify whether DP Exception Reason is not required, while creating new account from sub account entity</t>
+  </si>
+  <si>
+    <t>45309_CreateSubAccountwithoutDPException</t>
+  </si>
+  <si>
+    <t>2000555965</t>
+  </si>
+  <si>
+    <t>TFS ID_45321:Verify DP Relation Date is cleared if Is Top Parent Is Set to Yes</t>
+  </si>
+  <si>
+    <t>TFS ID_43707: Cloud: Verify Top Parent Relation should be OLM for Top parent</t>
+  </si>
+  <si>
+    <t>CreateTopParent</t>
+  </si>
+  <si>
+    <t>LOB Status</t>
+  </si>
+  <si>
+    <t>TFS ID_43702: 11223_Cloud: Verify corresponding LOB is getting deactivated when end dated membership is deactivated</t>
+  </si>
+  <si>
+    <t>Top Parent Relationship for Top Parent must be OLM If you contact support, please provide the technical details.</t>
+  </si>
+  <si>
+    <t>Aparna sub Nov3_</t>
+  </si>
+  <si>
+    <t>2000555522</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5/4/2021</t>
+  </si>
+  <si>
+    <t>2000556059</t>
+  </si>
+  <si>
+    <t>11/5/2022</t>
+  </si>
+  <si>
+    <t>11/3/2022</t>
+  </si>
+  <si>
+    <t>2000556107</t>
+  </si>
+  <si>
+    <t>2022_11_03_09_51_54</t>
+  </si>
+  <si>
+    <t>TFS ID_44710:Verify when ship to account converted to main account, CP and FSP updated.</t>
+  </si>
+  <si>
+    <t>44710_LocationtoMember</t>
+  </si>
+  <si>
+    <t>2000556112</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2022_11_04_11_16_30</t>
+  </si>
+  <si>
+    <t>2000556113</t>
+  </si>
+  <si>
+    <t>2000556114</t>
+  </si>
+  <si>
+    <t>2022_11_04_01_49_12</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1791,6 +1935,12 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2112,24 +2262,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="93.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="7" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="93.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="7" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="32.0" collapsed="true"/>
+    <col min="10" max="16384" style="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2184,7 +2334,7 @@
         <v>427</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="I2" s="46" t="s">
         <v>416</v>
@@ -2216,7 +2366,7 @@
         <v>427</v>
       </c>
       <c r="H3" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2242,7 +2392,7 @@
         <v>427</v>
       </c>
       <c r="H4" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>425</v>
@@ -2271,7 +2421,7 @@
         <v>427</v>
       </c>
       <c r="H5" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2343,7 +2493,7 @@
         <v>427</v>
       </c>
       <c r="H8" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2392,7 +2542,7 @@
         <v>427</v>
       </c>
       <c r="H10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2418,7 +2568,7 @@
         <v>427</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2444,7 +2594,7 @@
         <v>427</v>
       </c>
       <c r="H12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2516,7 +2666,7 @@
         <v>427</v>
       </c>
       <c r="H15" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2542,7 +2692,7 @@
         <v>427</v>
       </c>
       <c r="H16" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -2660,7 +2810,7 @@
         <v>427</v>
       </c>
       <c r="H21" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2686,7 +2836,7 @@
         <v>427</v>
       </c>
       <c r="H22" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2712,7 +2862,7 @@
         <v>427</v>
       </c>
       <c r="H23" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2738,7 +2888,7 @@
         <v>427</v>
       </c>
       <c r="H24" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2764,7 +2914,7 @@
         <v>427</v>
       </c>
       <c r="H25" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2790,7 +2940,7 @@
         <v>427</v>
       </c>
       <c r="H26" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2816,7 +2966,7 @@
         <v>427</v>
       </c>
       <c r="H27" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2842,7 +2992,7 @@
         <v>427</v>
       </c>
       <c r="H28" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -2876,7 +3026,7 @@
         <v>411</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="60" t="s">
         <v>8</v>
@@ -2885,13 +3035,13 @@
         <v>109</v>
       </c>
       <c r="F30" s="60" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="G30" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="H30" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
@@ -3292,7 +3442,7 @@
         <v>427</v>
       </c>
       <c r="H46" s="69" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I46" s="69"/>
     </row>
@@ -3319,7 +3469,7 @@
         <v>427</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I47" s="69"/>
     </row>
@@ -3346,7 +3496,7 @@
         <v>427</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I48" s="69"/>
     </row>
@@ -3373,7 +3523,7 @@
         <v>427</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I49" s="69"/>
     </row>
@@ -3400,7 +3550,7 @@
         <v>427</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I50" s="69"/>
     </row>
@@ -3477,7 +3627,7 @@
         <v>427</v>
       </c>
       <c r="H53" s="69" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I53" s="69"/>
     </row>
@@ -3504,13 +3654,307 @@
         <v>427</v>
       </c>
       <c r="H54" s="69" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I54" s="69"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G55" t="s">
+        <v>427</v>
+      </c>
+      <c r="H55" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G56" t="s">
+        <v>427</v>
+      </c>
+      <c r="H56" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G57" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G58" t="s">
+        <v>427</v>
+      </c>
+      <c r="H58" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G59" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G60" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G62" t="s">
+        <v>427</v>
+      </c>
+      <c r="H62" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G63" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="73" t="s">
+        <v>488</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G64" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="74" t="s">
+        <v>491</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G65" t="s">
+        <v>427</v>
+      </c>
+      <c r="H65" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="G66" t="s">
+        <v>509</v>
+      </c>
+      <c r="H66" t="s">
+        <v>508</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C54" xr:uid="{A24E4840-CF83-45B5-8B9C-FAE6253DDB86}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C66" xr:uid="{A24E4840-CF83-45B5-8B9C-FAE6253DDB86}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3526,98 +3970,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:DC31"/>
+  <dimension ref="A1:DZ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="102.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="12.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="41" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="6" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="29" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="56" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="82" width="9.140625" style="2" collapsed="1"/>
-    <col min="83" max="83" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="95" width="9.140625" style="2" collapsed="1"/>
-    <col min="96" max="96" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="26.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="102.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="39" max="41" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="6.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="27.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="29.0" collapsed="true"/>
+    <col min="55" max="56" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="76" max="82" style="2" width="9.140625" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
+    <col min="84" max="95" style="2" width="9.140625" collapsed="true"/>
+    <col min="96" max="96" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="99" max="99" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="101" max="101" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="104" max="104" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="106" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:107" x14ac:dyDescent="0.25">
@@ -4329,7 +4773,7 @@
         <v>293</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>424</v>
@@ -6681,7 +7125,7 @@
       <c r="DA16" s="23"/>
       <c r="DB16" s="23"/>
     </row>
-    <row r="17" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -6863,7 +7307,7 @@
       <c r="DA17" s="23"/>
       <c r="DB17" s="23"/>
     </row>
-    <row r="18" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>17</v>
       </c>
@@ -7045,7 +7489,7 @@
       <c r="DA18" s="23"/>
       <c r="DB18" s="23"/>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -7221,7 +7665,7 @@
       <c r="DA19" s="28"/>
       <c r="DB19" s="28"/>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>19</v>
       </c>
@@ -7351,7 +7795,7 @@
       <c r="DA20" s="28"/>
       <c r="DB20" s="28"/>
     </row>
-    <row r="21" spans="1:107" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:109" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>20</v>
       </c>
@@ -7495,7 +7939,7 @@
       <c r="DA21" s="39"/>
       <c r="DB21" s="39"/>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>21</v>
       </c>
@@ -7736,10 +8180,10 @@
         <v>56</v>
       </c>
       <c r="CN22" s="15" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="CO22" s="15" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="CP22" s="28" t="s">
         <v>56</v>
@@ -7765,7 +8209,7 @@
       <c r="DA22" s="28"/>
       <c r="DB22" s="28"/>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>22</v>
       </c>
@@ -7893,7 +8337,7 @@
       <c r="DA23" s="28"/>
       <c r="DB23" s="28"/>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>23</v>
       </c>
@@ -8021,7 +8465,7 @@
       <c r="DA24" s="28"/>
       <c r="DB24" s="28"/>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>24</v>
       </c>
@@ -8149,7 +8593,7 @@
       <c r="DA25" s="28"/>
       <c r="DB25" s="28"/>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -8277,7 +8721,7 @@
       <c r="DA26" s="28"/>
       <c r="DB26" s="28"/>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>26</v>
       </c>
@@ -8407,7 +8851,7 @@
       <c r="DA27" s="28"/>
       <c r="DB27" s="28"/>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>27</v>
       </c>
@@ -8537,7 +8981,7 @@
       <c r="DA28" s="28"/>
       <c r="DB28" s="28"/>
     </row>
-    <row r="29" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>28</v>
       </c>
@@ -8681,7 +9125,7 @@
       <c r="DA29" s="28"/>
       <c r="DB29" s="28"/>
     </row>
-    <row r="30" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -8695,7 +9139,7 @@
         <v>424</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="M30" s="23" t="s">
         <v>4</v>
@@ -8725,13 +9169,13 @@
         <v>23</v>
       </c>
       <c r="AA30" s="58" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="AB30" s="2" t="s">
         <v>84</v>
       </c>
       <c r="AC30" s="24" t="s">
-        <v>345</v>
+        <v>451</v>
       </c>
       <c r="AD30" s="24" t="s">
         <v>345</v>
@@ -8740,10 +9184,10 @@
         <v>98</v>
       </c>
       <c r="AF30" s="23" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG30" s="24" t="s">
-        <v>345</v>
+        <v>496</v>
       </c>
       <c r="AH30" s="23"/>
       <c r="AI30" s="23" t="s">
@@ -8780,10 +9224,10 @@
         <v>336</v>
       </c>
       <c r="DC30" s="58" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="31" spans="1:107" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -8796,6 +9240,1506 @@
       <c r="D31" s="23" t="s">
         <v>424</v>
       </c>
+    </row>
+    <row r="32" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W32" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X32" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y32" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z32" s="23">
+        <v>11010</v>
+      </c>
+      <c r="AA32" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB32" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC32" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD32" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE32" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF32" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG32" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL32" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="23"/>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="23"/>
+      <c r="AS32" s="23"/>
+      <c r="AT32" s="23"/>
+      <c r="AU32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV32" s="23"/>
+      <c r="AW32" s="23"/>
+      <c r="AX32" s="23"/>
+      <c r="AY32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ32" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BA32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB32" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC32" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE32" s="23"/>
+      <c r="BF32" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG32" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH32" s="23"/>
+      <c r="BI32" s="23"/>
+      <c r="BJ32" s="23"/>
+      <c r="BK32" s="23"/>
+      <c r="BL32" s="23"/>
+      <c r="BM32" s="23"/>
+      <c r="BN32" s="23"/>
+      <c r="BO32" s="23"/>
+      <c r="BP32" s="23"/>
+      <c r="BQ32" s="23"/>
+      <c r="BR32" s="23"/>
+      <c r="BS32" s="23"/>
+      <c r="BT32" s="23"/>
+      <c r="BU32" s="23"/>
+      <c r="BV32" s="23"/>
+      <c r="BW32" s="23"/>
+      <c r="BX32" s="23"/>
+      <c r="BY32" s="23"/>
+      <c r="BZ32" s="23"/>
+      <c r="CA32" s="23"/>
+      <c r="CB32" s="23"/>
+      <c r="CC32" s="23"/>
+      <c r="CD32" s="23"/>
+      <c r="CE32" s="23"/>
+      <c r="CF32" s="23"/>
+      <c r="CG32" s="23"/>
+      <c r="CH32" s="23"/>
+      <c r="CI32" s="23"/>
+      <c r="CJ32" s="23"/>
+      <c r="CK32" s="23"/>
+      <c r="CL32" s="23"/>
+      <c r="CM32" s="23"/>
+      <c r="CN32" s="23"/>
+      <c r="CO32" s="23"/>
+      <c r="CP32" s="23"/>
+      <c r="CQ32" s="23"/>
+      <c r="CR32" s="23"/>
+      <c r="CS32" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="CT32" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="CU32" s="24"/>
+      <c r="CV32" s="23"/>
+      <c r="CW32" s="23"/>
+      <c r="CX32" s="23"/>
+      <c r="CY32" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="CZ32" s="23"/>
+      <c r="DA32" s="23"/>
+      <c r="DB32" s="23"/>
+      <c r="DC32" s="6"/>
+      <c r="DD32" s="6"/>
+      <c r="DE32" s="6"/>
+    </row>
+    <row r="33" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="I33" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="L33" s="24"/>
+      <c r="M33" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="O33" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W33" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X33" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y33" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z33" s="23">
+        <v>11010</v>
+      </c>
+      <c r="AA33" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB33" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC33" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD33" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE33" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF33" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG33" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL33" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="24"/>
+      <c r="AP33" s="23"/>
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
+      <c r="AS33" s="23"/>
+      <c r="AT33" s="23"/>
+      <c r="AU33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV33" s="23"/>
+      <c r="AW33" s="23"/>
+      <c r="AX33" s="23"/>
+      <c r="AY33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ33" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BA33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB33" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC33" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE33" s="23"/>
+      <c r="BF33" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG33" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH33" s="23"/>
+      <c r="BI33" s="23"/>
+      <c r="BJ33" s="23"/>
+      <c r="BK33" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="O34" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W34" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X34" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y34" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z34" s="23">
+        <v>11010</v>
+      </c>
+      <c r="AA34" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC34" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD34" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE34" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF34" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG34" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL34" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="24"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23"/>
+      <c r="AU34" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV34" s="23"/>
+      <c r="AW34" s="23"/>
+      <c r="AX34" s="23"/>
+      <c r="AY34" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ34" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BA34" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB34" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC34" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD34" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE34" s="23"/>
+      <c r="BF34" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG34" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH34" s="23"/>
+      <c r="BI34" s="23"/>
+      <c r="BJ34" s="23"/>
+      <c r="BK34" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:130" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="O35" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W35" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X35" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y35" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z35" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA35" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB35" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC35" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD35" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE35" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF35" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG35" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH35" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI35" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL35" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="24"/>
+      <c r="AP35" s="23"/>
+      <c r="AQ35" s="23"/>
+      <c r="AR35" s="23"/>
+      <c r="AS35" s="23"/>
+      <c r="AT35" s="23"/>
+      <c r="AU35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV35" s="23"/>
+      <c r="AW35" s="23"/>
+      <c r="AX35" s="23"/>
+      <c r="AY35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ35" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BA35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB35" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC35" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE35" s="23"/>
+      <c r="BF35" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG35" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH35" s="23"/>
+      <c r="BI35" s="23"/>
+      <c r="BJ35" s="23"/>
+      <c r="BK35" s="23"/>
+      <c r="BL35" s="23"/>
+      <c r="BM35" s="23"/>
+      <c r="BN35" s="23"/>
+      <c r="BO35" s="23"/>
+      <c r="BP35" s="23"/>
+      <c r="BQ35" s="23"/>
+      <c r="BR35" s="23"/>
+      <c r="BS35" s="23"/>
+      <c r="BT35" s="23"/>
+      <c r="BU35" s="23"/>
+      <c r="BV35" s="23"/>
+      <c r="BW35" s="23"/>
+      <c r="BX35" s="23"/>
+      <c r="BY35" s="23"/>
+      <c r="BZ35" s="23"/>
+      <c r="CA35" s="23"/>
+      <c r="CB35" s="23"/>
+      <c r="CC35" s="23"/>
+      <c r="CD35" s="23"/>
+      <c r="CE35" s="23"/>
+      <c r="CF35" s="23"/>
+      <c r="CG35" s="23"/>
+      <c r="CH35" s="23"/>
+      <c r="CI35" s="23"/>
+      <c r="CJ35" s="23"/>
+      <c r="CK35" s="23"/>
+      <c r="CL35" s="23"/>
+      <c r="CM35" s="23"/>
+      <c r="CN35" s="23"/>
+      <c r="CO35" s="23"/>
+      <c r="CP35" s="23"/>
+      <c r="CQ35" s="23"/>
+      <c r="CR35" s="23"/>
+      <c r="CS35" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="CT35" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="CU35" s="24"/>
+      <c r="CV35" s="23"/>
+      <c r="CW35" s="23"/>
+      <c r="CX35" s="23"/>
+      <c r="CY35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="CZ35" s="23"/>
+      <c r="DA35" s="23"/>
+      <c r="DB35" s="23"/>
+    </row>
+    <row r="36" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>476</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N39" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="O39" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V39" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W39" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X39" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y39" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z39" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA39" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB39" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC39" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD39" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG39" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH39" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI39" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL39" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM39" s="24"/>
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="24"/>
+      <c r="AP39" s="23"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="23"/>
+      <c r="AS39" s="23"/>
+      <c r="AT39" s="23"/>
+      <c r="AU39" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV39" s="23"/>
+      <c r="AW39" s="23"/>
+      <c r="AX39" s="23"/>
+      <c r="AY39" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ39" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BA39" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB39" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC39" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD39" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE39" s="23"/>
+      <c r="BF39" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG39" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH39" s="23"/>
+      <c r="BI39" s="23"/>
+      <c r="BJ39" s="23"/>
+      <c r="BK39" s="23"/>
+      <c r="BL39" s="23"/>
+      <c r="BM39" s="23"/>
+      <c r="BN39" s="23"/>
+      <c r="BO39" s="23"/>
+      <c r="BP39" s="23"/>
+      <c r="BQ39" s="23"/>
+      <c r="BR39" s="23"/>
+      <c r="BS39" s="23"/>
+      <c r="BT39" s="23"/>
+      <c r="BU39" s="23"/>
+      <c r="BV39" s="23"/>
+      <c r="BW39" s="23"/>
+      <c r="BX39" s="23"/>
+      <c r="BY39" s="23"/>
+      <c r="BZ39" s="23"/>
+      <c r="CA39" s="23"/>
+      <c r="CB39" s="23"/>
+      <c r="CC39" s="23"/>
+      <c r="CD39" s="23"/>
+      <c r="CE39" s="23"/>
+      <c r="CF39" s="23"/>
+      <c r="CG39" s="23"/>
+      <c r="CH39" s="23"/>
+      <c r="CI39" s="23"/>
+      <c r="CJ39" s="23"/>
+      <c r="CK39" s="23"/>
+      <c r="CL39" s="23"/>
+      <c r="CM39" s="23"/>
+      <c r="CN39" s="23"/>
+      <c r="CO39" s="23"/>
+      <c r="CP39" s="23"/>
+      <c r="CQ39" s="23"/>
+      <c r="CR39" s="23"/>
+      <c r="CS39" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="CT39" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="CU39" s="24"/>
+      <c r="CV39" s="23"/>
+      <c r="CW39" s="23"/>
+      <c r="CX39" s="23"/>
+      <c r="CY39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="CZ39" s="23"/>
+      <c r="DA39" s="23"/>
+      <c r="DB39" s="23"/>
+      <c r="DC39" s="6"/>
+      <c r="DD39" s="6"/>
+      <c r="DE39" s="6"/>
+      <c r="DF39" s="6"/>
+      <c r="DG39" s="6"/>
+      <c r="DH39" s="6"/>
+      <c r="DI39" s="6"/>
+      <c r="DJ39" s="6"/>
+      <c r="DK39" s="6"/>
+      <c r="DL39" s="6"/>
+      <c r="DM39" s="6"/>
+      <c r="DN39" s="6"/>
+      <c r="DO39" s="6"/>
+      <c r="DP39" s="6"/>
+      <c r="DQ39" s="6"/>
+      <c r="DR39" s="6"/>
+      <c r="DS39" s="6"/>
+      <c r="DT39" s="6"/>
+      <c r="DU39" s="6"/>
+      <c r="DV39" s="6"/>
+      <c r="DW39" s="6"/>
+      <c r="DX39" s="6"/>
+      <c r="DY39" s="6"/>
+      <c r="DZ39" s="6"/>
+    </row>
+    <row r="40" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:130" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
+        <v>40</v>
+      </c>
+      <c r="B41" s="73" t="s">
+        <v>488</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="K41" s="23"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="O41" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W41" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X41" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y41" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z41" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG41" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ41" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK41" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL41" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="24"/>
+      <c r="AP41" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ41" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR41" s="24">
+        <v>44259</v>
+      </c>
+      <c r="AS41" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT41" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AU41" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV41" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="AW41" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX41" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY41" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ41" s="23"/>
+      <c r="BA41" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB41" s="23"/>
+      <c r="BC41" s="23"/>
+      <c r="BD41" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE41" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF41" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG41" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH41" s="23"/>
+      <c r="BI41" s="23"/>
+      <c r="BJ41" s="23"/>
+      <c r="BK41" s="23"/>
+      <c r="BL41" s="23"/>
+      <c r="BM41" s="23"/>
+      <c r="BN41" s="23"/>
+      <c r="BO41" s="23"/>
+      <c r="BP41" s="23"/>
+      <c r="BQ41" s="23"/>
+      <c r="BR41" s="23"/>
+      <c r="BS41" s="23"/>
+      <c r="BT41" s="23"/>
+      <c r="BU41" s="23"/>
+      <c r="BV41" s="23"/>
+      <c r="BW41" s="23"/>
+      <c r="BX41" s="23"/>
+      <c r="BY41" s="23"/>
+      <c r="BZ41" s="23"/>
+      <c r="CA41" s="23"/>
+      <c r="CB41" s="23"/>
+      <c r="CC41" s="23"/>
+      <c r="CD41" s="23"/>
+      <c r="CE41" s="23"/>
+      <c r="CF41" s="23"/>
+      <c r="CG41" s="23"/>
+      <c r="CH41" s="23"/>
+      <c r="CI41" s="23"/>
+      <c r="CJ41" s="23"/>
+      <c r="CK41" s="23"/>
+      <c r="CL41" s="23"/>
+      <c r="CM41" s="23"/>
+      <c r="CN41" s="23"/>
+      <c r="CO41" s="23"/>
+      <c r="CP41" s="23"/>
+      <c r="CQ41" s="23"/>
+      <c r="CR41" s="23"/>
+      <c r="CS41" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="CT41" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="CU41" s="24"/>
+      <c r="CV41" s="23"/>
+      <c r="CW41" s="23"/>
+      <c r="CX41" s="23"/>
+      <c r="CY41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="CZ41" s="23"/>
+      <c r="DA41" s="23"/>
+      <c r="DB41" s="23"/>
+    </row>
+    <row r="42" spans="1:130" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>41</v>
+      </c>
+      <c r="B42" s="74" t="s">
+        <v>491</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="24">
+        <v>44868</v>
+      </c>
+      <c r="O42" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W42" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X42" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y42" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z42" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA42" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB42" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC42" s="24">
+        <v>44868</v>
+      </c>
+      <c r="AD42" s="24">
+        <v>44868</v>
+      </c>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG42" s="24">
+        <v>44868</v>
+      </c>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ42" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK42" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL42" s="24">
+        <v>44868</v>
+      </c>
+      <c r="AM42" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN42" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO42" s="24">
+        <v>44868</v>
+      </c>
+      <c r="AP42" s="28"/>
+      <c r="AQ42" s="28"/>
+      <c r="AR42" s="28"/>
+      <c r="AS42" s="28"/>
+      <c r="AT42" s="28"/>
+      <c r="AU42" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV42" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="AW42" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="AX42" s="28"/>
+      <c r="AY42" s="28"/>
+      <c r="AZ42" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BA42" s="28"/>
+      <c r="BB42" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC42" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD42" s="28"/>
+      <c r="BE42" s="28"/>
+      <c r="BF42" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG42" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH42" s="28"/>
+      <c r="BI42" s="28"/>
+      <c r="BJ42" s="28"/>
+      <c r="BK42" s="28"/>
+      <c r="BL42" s="28"/>
+      <c r="BM42" s="28"/>
+      <c r="BN42" s="28"/>
+      <c r="BO42" s="28"/>
+      <c r="BP42" s="28"/>
+      <c r="BQ42" s="28"/>
+      <c r="BR42" s="28"/>
+      <c r="BS42" s="28"/>
+      <c r="BT42" s="28"/>
+      <c r="BU42" s="28"/>
+      <c r="BV42" s="28"/>
+      <c r="BW42" s="28"/>
+      <c r="BX42" s="28"/>
+      <c r="BY42" s="28"/>
+      <c r="BZ42" s="28"/>
+      <c r="CA42" s="28"/>
+      <c r="CB42" s="28"/>
+      <c r="CC42" s="28"/>
+      <c r="CD42" s="28"/>
+      <c r="CE42" s="28"/>
+      <c r="CF42" s="28"/>
+      <c r="CG42" s="28"/>
+      <c r="CH42" s="28"/>
+      <c r="CI42" s="28"/>
+      <c r="CJ42" s="28"/>
+      <c r="CK42" s="28"/>
+      <c r="CL42" s="28"/>
+      <c r="CM42" s="28"/>
+      <c r="CN42" s="28"/>
+      <c r="CO42" s="28"/>
+      <c r="CP42" s="28"/>
+      <c r="CQ42" s="28"/>
+      <c r="CR42" s="28"/>
+      <c r="CS42" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="CT42" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="CU42" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="CV42" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="CW42" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="CX42" s="28"/>
+      <c r="CY42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="CZ42" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="DA42" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="DB42" s="28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:130" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
+        <v>42</v>
+      </c>
+      <c r="B43" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="O43" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="P43" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W43" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X43" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y43" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z43" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA43" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB43" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC43" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD43" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG43" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ43" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK43" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL43" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM43" s="24"/>
+      <c r="AN43" s="24"/>
+      <c r="AO43" s="24"/>
+      <c r="AP43" s="23"/>
+      <c r="AQ43" s="23"/>
+      <c r="AR43" s="23"/>
+      <c r="AS43" s="23"/>
+      <c r="AT43" s="23"/>
+      <c r="AU43" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV43" s="23"/>
+      <c r="AW43" s="23"/>
+      <c r="AX43" s="24"/>
+      <c r="AY43" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ43" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BA43" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB43" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC43" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD43" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE43" s="23"/>
+      <c r="BF43" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG43" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH43" s="23"/>
+      <c r="BI43" s="23"/>
+      <c r="BJ43" s="23"/>
+      <c r="BK43" s="23"/>
+      <c r="BL43" s="23"/>
+      <c r="BM43" s="23"/>
+      <c r="BN43" s="23"/>
+      <c r="BO43" s="23"/>
+      <c r="BP43" s="23"/>
+      <c r="BQ43" s="23"/>
+      <c r="BR43" s="23"/>
+      <c r="BS43" s="23"/>
+      <c r="BT43" s="23"/>
+      <c r="BU43" s="23"/>
+      <c r="BV43" s="23"/>
+      <c r="BW43" s="23"/>
+      <c r="BX43" s="23"/>
+      <c r="BY43" s="23"/>
+      <c r="BZ43" s="23"/>
+      <c r="CA43" s="23"/>
+      <c r="CB43" s="23"/>
+      <c r="CC43" s="23"/>
+      <c r="CD43" s="23"/>
+      <c r="CE43" s="23"/>
+      <c r="CF43" s="23"/>
+      <c r="CG43" s="23"/>
+      <c r="CH43" s="23"/>
+      <c r="CI43" s="23"/>
+      <c r="CJ43" s="23"/>
+      <c r="CK43" s="23"/>
+      <c r="CL43" s="23"/>
+      <c r="CM43" s="23"/>
+      <c r="CN43" s="23"/>
+      <c r="CO43" s="23"/>
+      <c r="CP43" s="23"/>
+      <c r="CQ43" s="23"/>
+      <c r="CR43" s="23"/>
+      <c r="CS43" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="CT43" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="CU43" s="24"/>
+      <c r="CV43" s="23"/>
+      <c r="CW43" s="23"/>
+      <c r="CX43" s="23"/>
+      <c r="CY43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="CZ43" s="23"/>
+      <c r="DA43" s="23"/>
+      <c r="DB43" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8817,57 +10761,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="33" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="36" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="31" max="33" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
@@ -10406,25 +12350,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="113.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="113.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -11017,15 +12961,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11259,6 +13194,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11269,16 +13213,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11298,6 +13232,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
   <ds:schemaRefs>

--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="511">
   <si>
     <t>UserName</t>
   </si>
@@ -1569,6 +1569,9 @@
   </si>
   <si>
     <t>2022_11_04_01_49_12</t>
+  </si>
+  <si>
+    <t>2022_11_04_03_17_09</t>
   </si>
 </sst>
 </file>
@@ -3946,7 +3949,7 @@
         <v>505</v>
       </c>
       <c r="G66" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H66" t="s">
         <v>508</v>

--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\OnPremise\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A52895-34A8-4E1D-9A8C-E4939E0BC7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A8F91A-08A4-47A9-98B7-AD32455FA3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="534">
   <si>
     <t>UserName</t>
   </si>
@@ -1544,34 +1544,103 @@
     <t>2000556107</t>
   </si>
   <si>
-    <t>2022_11_03_09_51_54</t>
-  </si>
-  <si>
     <t>TFS ID_44710:Verify when ship to account converted to main account, CP and FSP updated.</t>
   </si>
   <si>
     <t>44710_LocationtoMember</t>
   </si>
   <si>
-    <t>2000556112</t>
+    <t>TFS ID_43703:Test case 11227_Cloud: Verify "This account is in Draft status." info text is displayed when Account is Terminated and Record status is in draft</t>
+  </si>
+  <si>
+    <t>2000556127</t>
+  </si>
+  <si>
+    <t>TFS ID_44708:Verify Food Services LOB is added automatically when Location Type account is converted to Member</t>
+  </si>
+  <si>
+    <t>44708_LocationtoMember</t>
+  </si>
+  <si>
+    <t>2000556132</t>
+  </si>
+  <si>
+    <t>44715_LocationtoMember</t>
+  </si>
+  <si>
+    <t>Date Restriction Error:</t>
+  </si>
+  <si>
+    <t>TFS ID_44716:Verify Whether "Do Not Roster" Field Name Changed to "Exclude from Roster" for Member/Non GPO/Location Type/Prospect Accounts</t>
+  </si>
+  <si>
+    <t>TFS ID_44715:Verify date validation triggers when Ship to accounts converted to Member</t>
+  </si>
+  <si>
+    <t>2000257620</t>
+  </si>
+  <si>
+    <t>2000539685</t>
+  </si>
+  <si>
+    <t>1000164310</t>
+  </si>
+  <si>
+    <t>2000556136</t>
+  </si>
+  <si>
+    <t>TFS ID_43700:Verify whether "Provider Select: MD" is removed from Participation Type in Member and Member Entry Forms.</t>
+  </si>
+  <si>
+    <t>TFS ID_45334:Verify whether "Provider Select: MD" Field is available in Member and Member Entry Forms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFS ID_45333:Verify new field "NAICS Code" is added in member form </t>
+  </si>
+  <si>
+    <t>NAICSCode</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>TFS ID_45325:Verify whether Columns "DEA" ,"HIN", "Class of Trade", Name(Group) available on Account Associated View.</t>
+  </si>
+  <si>
+    <t>2000010333</t>
+  </si>
+  <si>
+    <t>1000032217</t>
+  </si>
+  <si>
+    <t>TFS ID_45305:Verify Date validation happen when reactivating a terminated account</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>2022_11_04_11_16_30</t>
-  </si>
-  <si>
-    <t>2000556113</t>
-  </si>
-  <si>
-    <t>2000556114</t>
-  </si>
-  <si>
-    <t>2022_11_04_01_49_12</t>
-  </si>
-  <si>
-    <t>2022_11_04_03_17_09</t>
+    <t>TFS ID_45322:Verify TP exception reason should not be mandatory when creating new member with DP is same as TP</t>
+  </si>
+  <si>
+    <t>TP_45322_MemberFirst</t>
+  </si>
+  <si>
+    <t>2000556210</t>
+  </si>
+  <si>
+    <t>2022_11_10_09_03_03</t>
+  </si>
+  <si>
+    <t>2022_11_10_09_40_23</t>
+  </si>
+  <si>
+    <t>2022_11_10_09_53_14</t>
+  </si>
+  <si>
+    <t>2000556218</t>
+  </si>
+  <si>
+    <t>2022_11_10_10_10_11</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1942,6 +2011,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2265,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3934,10 +4006,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="74" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>8</v>
@@ -3946,18 +4018,257 @@
         <v>109</v>
       </c>
       <c r="F66" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G66" t="s">
+        <v>427</v>
+      </c>
+      <c r="H66" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G67" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="G66" t="s">
+      <c r="C68" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G68" t="s">
+        <v>427</v>
+      </c>
+      <c r="H68" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G69" t="s">
+        <v>427</v>
+      </c>
+      <c r="H69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="H66" t="s">
-        <v>508</v>
+      <c r="C70" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G70" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G71" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G72" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G73" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="75" t="s">
+        <v>521</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G74" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G75" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="G76" t="s">
+        <v>533</v>
+      </c>
+      <c r="H76" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C66" xr:uid="{A24E4840-CF83-45B5-8B9C-FAE6253DDB86}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C74" xr:uid="{A24E4840-CF83-45B5-8B9C-FAE6253DDB86}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3973,10 +4284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:DZ43"/>
+  <dimension ref="A1:DZ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4067,7 +4378,7 @@
     <col min="106" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>33</v>
       </c>
@@ -4389,8 +4700,11 @@
       <c r="DC1" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="2" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="DD1" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -4572,7 +4886,7 @@
       <c r="DA2" s="23"/>
       <c r="DB2" s="23"/>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -4768,7 +5082,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -4928,7 +5242,7 @@
       <c r="DA4" s="28"/>
       <c r="DB4" s="28"/>
     </row>
-    <row r="5" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -5112,7 +5426,7 @@
       <c r="DA5" s="23"/>
       <c r="DB5" s="23"/>
     </row>
-    <row r="6" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -5296,7 +5610,7 @@
       <c r="DA6" s="23"/>
       <c r="DB6" s="23"/>
     </row>
-    <row r="7" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -5474,7 +5788,7 @@
       <c r="DA7" s="23"/>
       <c r="DB7" s="23"/>
     </row>
-    <row r="8" spans="1:107" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:108" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -5654,7 +5968,7 @@
       <c r="DA8" s="30"/>
       <c r="DB8" s="30"/>
     </row>
-    <row r="9" spans="1:107" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:108" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -5832,7 +6146,7 @@
       <c r="DA9" s="30"/>
       <c r="DB9" s="30"/>
     </row>
-    <row r="10" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>9</v>
       </c>
@@ -6020,7 +6334,7 @@
       <c r="DA10" s="23"/>
       <c r="DB10" s="23"/>
     </row>
-    <row r="11" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>10</v>
       </c>
@@ -6208,7 +6522,7 @@
       <c r="DA11" s="23"/>
       <c r="DB11" s="23"/>
     </row>
-    <row r="12" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>11</v>
       </c>
@@ -6390,7 +6704,7 @@
       <c r="DA12" s="23"/>
       <c r="DB12" s="23"/>
     </row>
-    <row r="13" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -6576,7 +6890,7 @@
       <c r="DA13" s="23"/>
       <c r="DB13" s="23"/>
     </row>
-    <row r="14" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>13</v>
       </c>
@@ -6758,7 +7072,7 @@
       <c r="DA14" s="23"/>
       <c r="DB14" s="23"/>
     </row>
-    <row r="15" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -6940,7 +7254,7 @@
       <c r="DA15" s="23"/>
       <c r="DB15" s="23"/>
     </row>
-    <row r="16" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>15</v>
       </c>
@@ -10567,7 +10881,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>27</v>
@@ -10580,7 +10894,7 @@
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
@@ -10743,6 +11057,867 @@
       <c r="CZ43" s="23"/>
       <c r="DA43" s="23"/>
       <c r="DB43" s="23"/>
+    </row>
+    <row r="44" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="O45" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="P45" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W45" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X45" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y45" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z45" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA45" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB45" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC45" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD45" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE45" s="23"/>
+      <c r="AF45" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG45" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ45" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK45" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL45" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM45" s="24"/>
+      <c r="AN45" s="24"/>
+      <c r="AO45" s="24"/>
+      <c r="AP45" s="23"/>
+      <c r="AQ45" s="23"/>
+      <c r="AR45" s="23"/>
+      <c r="AS45" s="23"/>
+      <c r="AT45" s="23"/>
+      <c r="AU45" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV45" s="23"/>
+      <c r="AW45" s="23"/>
+      <c r="AX45" s="24"/>
+      <c r="AY45" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ45" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BA45" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB45" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC45" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD45" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE45" s="23"/>
+      <c r="BF45" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG45" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH45" s="23"/>
+      <c r="BI45" s="23"/>
+      <c r="BJ45" s="23"/>
+      <c r="BK45" s="23"/>
+      <c r="BL45" s="23"/>
+      <c r="BM45" s="23"/>
+      <c r="BN45" s="23"/>
+      <c r="BO45" s="23"/>
+      <c r="BP45" s="23"/>
+      <c r="BQ45" s="23"/>
+      <c r="BR45" s="23"/>
+      <c r="BS45" s="23"/>
+      <c r="BT45" s="23"/>
+      <c r="BU45" s="23"/>
+      <c r="BV45" s="23"/>
+      <c r="BW45" s="23"/>
+      <c r="BX45" s="23"/>
+      <c r="BY45" s="23"/>
+      <c r="BZ45" s="23"/>
+      <c r="CA45" s="23"/>
+      <c r="CB45" s="23"/>
+      <c r="CC45" s="23"/>
+      <c r="CD45" s="23"/>
+      <c r="CE45" s="23"/>
+      <c r="CF45" s="23"/>
+      <c r="CG45" s="23"/>
+      <c r="CH45" s="23"/>
+      <c r="CI45" s="23"/>
+      <c r="CJ45" s="23"/>
+      <c r="CK45" s="23"/>
+      <c r="CL45" s="23"/>
+      <c r="CM45" s="23"/>
+      <c r="CN45" s="23"/>
+      <c r="CO45" s="23"/>
+      <c r="CP45" s="23"/>
+      <c r="CQ45" s="23"/>
+      <c r="CR45" s="23"/>
+      <c r="CS45" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="CT45" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="CU45" s="24"/>
+      <c r="CV45" s="23"/>
+      <c r="CW45" s="23"/>
+      <c r="CX45" s="23"/>
+      <c r="CY45" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:130" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="K46" s="23"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="O46" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="P46" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W46" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X46" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y46" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z46" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA46" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB46" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC46" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD46" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG46" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ46" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK46" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL46" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM46" s="24"/>
+      <c r="AN46" s="24"/>
+      <c r="AO46" s="24"/>
+      <c r="AP46" s="23"/>
+      <c r="AQ46" s="23"/>
+      <c r="AR46" s="23"/>
+      <c r="AS46" s="23"/>
+      <c r="AT46" s="23"/>
+      <c r="AU46" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV46" s="23"/>
+      <c r="AW46" s="23"/>
+      <c r="AX46" s="24"/>
+      <c r="AY46" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ46" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BA46" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB46" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC46" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD46" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE46" s="23"/>
+      <c r="BF46" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG46" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH46" s="23"/>
+      <c r="BI46" s="23"/>
+      <c r="BJ46" s="23"/>
+      <c r="BK46" s="23"/>
+      <c r="BL46" s="23"/>
+      <c r="BM46" s="23"/>
+      <c r="BN46" s="23"/>
+      <c r="BO46" s="23"/>
+      <c r="BP46" s="23"/>
+      <c r="BQ46" s="23"/>
+      <c r="BR46" s="23"/>
+      <c r="BS46" s="23"/>
+      <c r="BT46" s="23"/>
+      <c r="BU46" s="23"/>
+      <c r="BV46" s="23"/>
+      <c r="BW46" s="23"/>
+      <c r="BX46" s="23"/>
+      <c r="BY46" s="23"/>
+      <c r="BZ46" s="23"/>
+      <c r="CA46" s="23"/>
+      <c r="CB46" s="23"/>
+      <c r="CC46" s="23"/>
+      <c r="CD46" s="23"/>
+      <c r="CE46" s="23"/>
+      <c r="CF46" s="23"/>
+      <c r="CG46" s="23"/>
+      <c r="CH46" s="23"/>
+      <c r="CI46" s="23"/>
+      <c r="CJ46" s="23"/>
+      <c r="CK46" s="23"/>
+      <c r="CL46" s="23"/>
+      <c r="CM46" s="23"/>
+      <c r="CN46" s="23"/>
+      <c r="CO46" s="23"/>
+      <c r="CP46" s="23"/>
+      <c r="CQ46" s="23"/>
+      <c r="CR46" s="23"/>
+      <c r="CS46" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="CT46" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="CU46" s="24"/>
+      <c r="CV46" s="23"/>
+      <c r="CW46" s="23"/>
+      <c r="CX46" s="23"/>
+      <c r="CY46" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="CZ46" s="23"/>
+      <c r="DA46" s="23"/>
+      <c r="DB46" s="23"/>
+    </row>
+    <row r="47" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="48" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E48" s="58" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="50" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E50" s="58"/>
+      <c r="DD50" s="58" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:108" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="75" t="s">
+        <v>521</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E51" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="F51" s="58" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>51</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="O52" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W52" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X52" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y52" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z52" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA52" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB52" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC52" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD52" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG52" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH52" s="28"/>
+      <c r="AI52" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ52" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK52" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL52" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM52" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN52" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO52" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AP52" s="28"/>
+      <c r="AQ52" s="28"/>
+      <c r="AR52" s="28"/>
+      <c r="AS52" s="28"/>
+      <c r="AT52" s="28"/>
+      <c r="AU52" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV52" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="AW52" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="AX52" s="28"/>
+      <c r="AY52" s="28"/>
+      <c r="AZ52" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BA52" s="28"/>
+      <c r="BB52" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC52" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD52" s="28"/>
+      <c r="BE52" s="28"/>
+      <c r="BF52" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG52" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH52" s="28"/>
+      <c r="BI52" s="28"/>
+      <c r="BJ52" s="28"/>
+      <c r="BK52" s="28"/>
+      <c r="BL52" s="28"/>
+      <c r="BM52" s="28"/>
+      <c r="BN52" s="28"/>
+      <c r="BO52" s="28"/>
+      <c r="BP52" s="28"/>
+      <c r="BQ52" s="28"/>
+      <c r="BR52" s="28"/>
+      <c r="BS52" s="28"/>
+      <c r="BT52" s="28"/>
+      <c r="BU52" s="28"/>
+      <c r="BV52" s="28"/>
+      <c r="BW52" s="28"/>
+      <c r="BX52" s="28"/>
+      <c r="BY52" s="28"/>
+      <c r="BZ52" s="28"/>
+      <c r="CA52" s="28"/>
+      <c r="CB52" s="28"/>
+      <c r="CC52" s="28"/>
+      <c r="CD52" s="28"/>
+      <c r="CE52" s="28"/>
+      <c r="CF52" s="28"/>
+      <c r="CG52" s="28"/>
+      <c r="CH52" s="28"/>
+      <c r="CI52" s="28"/>
+      <c r="CJ52" s="28"/>
+      <c r="CK52" s="28"/>
+      <c r="CL52" s="28"/>
+      <c r="CM52" s="28"/>
+      <c r="CN52" s="28"/>
+      <c r="CO52" s="28"/>
+      <c r="CP52" s="28"/>
+      <c r="CQ52" s="28"/>
+      <c r="CR52" s="28"/>
+      <c r="CS52" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="CT52" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="CU52" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="CV52" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="CW52" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="CX52" s="28"/>
+      <c r="CY52" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="CZ52" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="DA52" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="DB52" s="28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>52</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N53" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="O53" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V53" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W53" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X53" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y53" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z53" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA53" s="26"/>
+      <c r="AB53" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC53" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD53" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE53" s="23"/>
+      <c r="AF53" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG53" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH53" s="23"/>
+      <c r="AI53" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ53" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK53" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL53" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM53" s="24"/>
+      <c r="AN53" s="24"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ53" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR53" s="24">
+        <v>44259</v>
+      </c>
+      <c r="AS53" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT53" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AU53" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV53" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="AW53" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX53" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY53" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ53" s="23"/>
+      <c r="BA53" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB53" s="23"/>
+      <c r="BC53" s="23"/>
+      <c r="BD53" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE53" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF53" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG53" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH53" s="23"/>
+      <c r="BI53" s="23"/>
+      <c r="BJ53" s="23"/>
+      <c r="BK53" s="23"/>
+      <c r="BL53" s="23"/>
+      <c r="BM53" s="23"/>
+      <c r="BN53" s="23"/>
+      <c r="BO53" s="23"/>
+      <c r="BP53" s="23"/>
+      <c r="BQ53" s="23"/>
+      <c r="BR53" s="23"/>
+      <c r="BS53" s="23"/>
+      <c r="BT53" s="23"/>
+      <c r="BU53" s="23"/>
+      <c r="BV53" s="23"/>
+      <c r="BW53" s="23"/>
+      <c r="BX53" s="23"/>
+      <c r="BY53" s="23"/>
+      <c r="BZ53" s="23"/>
+      <c r="CA53" s="23"/>
+      <c r="CB53" s="23"/>
+      <c r="CC53" s="23"/>
+      <c r="CD53" s="23"/>
+      <c r="CE53" s="23"/>
+      <c r="CF53" s="23"/>
+      <c r="CG53" s="23"/>
+      <c r="CH53" s="23"/>
+      <c r="CI53" s="23"/>
+      <c r="CJ53" s="23"/>
+      <c r="CK53" s="23"/>
+      <c r="CL53" s="23"/>
+      <c r="CM53" s="23"/>
+      <c r="CN53" s="23"/>
+      <c r="CO53" s="23"/>
+      <c r="CP53" s="23"/>
+      <c r="CQ53" s="23"/>
+      <c r="CR53" s="23"/>
+      <c r="CS53" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="CT53" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="CU53" s="24"/>
+      <c r="CV53" s="23"/>
+      <c r="CW53" s="23"/>
+      <c r="CX53" s="23"/>
+      <c r="CY53" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="CZ53" s="23"/>
+      <c r="DA53" s="23"/>
+      <c r="DB53" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13198,21 +14373,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13236,6 +14411,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13243,12 +14426,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\OnPremise\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A8F91A-08A4-47A9-98B7-AD32455FA3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC82571-9FA3-4216-885B-8EE28B980FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="534">
   <si>
     <t>UserName</t>
   </si>
@@ -1616,31 +1616,31 @@
     <t>TFS ID_45305:Verify Date validation happen when reactivating a terminated account</t>
   </si>
   <si>
+    <t>TFS ID_45322:Verify TP exception reason should not be mandatory when creating new member with DP is same as TP</t>
+  </si>
+  <si>
+    <t>TP_45322_MemberFirst</t>
+  </si>
+  <si>
+    <t>TFS ID_11228: Cloud: Verify "This account is in Draft status." info text is displayed when there is a DP change and Record status is in draft</t>
+  </si>
+  <si>
+    <t>2000313878</t>
+  </si>
+  <si>
+    <t>11228_VerifyDraftStatus</t>
+  </si>
+  <si>
+    <t>2000556237</t>
+  </si>
+  <si>
+    <t>2000556238</t>
+  </si>
+  <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>TFS ID_45322:Verify TP exception reason should not be mandatory when creating new member with DP is same as TP</t>
-  </si>
-  <si>
-    <t>TP_45322_MemberFirst</t>
-  </si>
-  <si>
-    <t>2000556210</t>
-  </si>
-  <si>
-    <t>2022_11_10_09_03_03</t>
-  </si>
-  <si>
-    <t>2022_11_10_09_40_23</t>
-  </si>
-  <si>
-    <t>2022_11_10_09_53_14</t>
-  </si>
-  <si>
-    <t>2000556218</t>
-  </si>
-  <si>
-    <t>2022_11_10_10_10_11</t>
+    <t>2022_11_11_03_22_26</t>
   </si>
 </sst>
 </file>
@@ -2337,24 +2337,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="93.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="8.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="7" width="20.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="32.0" collapsed="true"/>
-    <col min="10" max="16384" style="7" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="93.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2393,8 +2391,8 @@
       <c r="B2" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>56</v>
+      <c r="C2" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>8</v>
@@ -2425,8 +2423,8 @@
       <c r="B3" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>56</v>
+      <c r="C3" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>8</v>
@@ -2451,8 +2449,8 @@
       <c r="B4" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>56</v>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>8</v>
@@ -2480,8 +2478,8 @@
       <c r="B5" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>56</v>
+      <c r="C5" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>8</v>
@@ -2506,8 +2504,8 @@
       <c r="B6" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>56</v>
+      <c r="C6" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>8</v>
@@ -2529,8 +2527,8 @@
       <c r="B7" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>56</v>
+      <c r="C7" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>8</v>
@@ -2552,8 +2550,8 @@
       <c r="B8" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>56</v>
+      <c r="C8" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>8</v>
@@ -2578,8 +2576,8 @@
       <c r="B9" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>56</v>
+      <c r="C9" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>8</v>
@@ -2601,8 +2599,8 @@
       <c r="B10" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>56</v>
+      <c r="C10" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>8</v>
@@ -2627,8 +2625,8 @@
       <c r="B11" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>56</v>
+      <c r="C11" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>8</v>
@@ -2653,8 +2651,8 @@
       <c r="B12" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>56</v>
+      <c r="C12" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>8</v>
@@ -2679,8 +2677,8 @@
       <c r="B13" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>56</v>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>8</v>
@@ -2702,8 +2700,8 @@
       <c r="B14" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>56</v>
+      <c r="C14" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>8</v>
@@ -2725,8 +2723,8 @@
       <c r="B15" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>56</v>
+      <c r="C15" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>8</v>
@@ -2751,8 +2749,8 @@
       <c r="B16" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>56</v>
+      <c r="C16" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>8</v>
@@ -2777,8 +2775,8 @@
       <c r="B17" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>56</v>
+      <c r="C17" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>8</v>
@@ -2800,8 +2798,8 @@
       <c r="B18" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>56</v>
+      <c r="C18" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>8</v>
@@ -2823,8 +2821,8 @@
       <c r="B19" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>56</v>
+      <c r="C19" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>8</v>
@@ -2846,8 +2844,8 @@
       <c r="B20" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>56</v>
+      <c r="C20" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>8</v>
@@ -2869,8 +2867,8 @@
       <c r="B21" s="72" t="s">
         <v>346</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>56</v>
+      <c r="C21" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>8</v>
@@ -2895,8 +2893,8 @@
       <c r="B22" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>56</v>
+      <c r="C22" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>8</v>
@@ -2921,8 +2919,8 @@
       <c r="B23" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>56</v>
+      <c r="C23" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>8</v>
@@ -2947,8 +2945,8 @@
       <c r="B24" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>56</v>
+      <c r="C24" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>8</v>
@@ -2973,8 +2971,8 @@
       <c r="B25" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>56</v>
+      <c r="C25" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>8</v>
@@ -2999,8 +2997,8 @@
       <c r="B26" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>56</v>
+      <c r="C26" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>8</v>
@@ -3025,8 +3023,8 @@
       <c r="B27" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>56</v>
+      <c r="C27" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>8</v>
@@ -3051,8 +3049,8 @@
       <c r="B28" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>56</v>
+      <c r="C28" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>8</v>
@@ -3077,8 +3075,8 @@
       <c r="B29" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>56</v>
+      <c r="C29" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D29" s="61" t="s">
         <v>8</v>
@@ -3100,8 +3098,8 @@
       <c r="B30" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>56</v>
+      <c r="C30" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D30" s="60" t="s">
         <v>8</v>
@@ -3126,8 +3124,8 @@
       <c r="B31" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>56</v>
+      <c r="C31" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D31" s="65" t="s">
         <v>47</v>
@@ -3151,8 +3149,8 @@
       <c r="B32" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>56</v>
+      <c r="C32" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D32" s="65" t="s">
         <v>47</v>
@@ -3176,8 +3174,8 @@
       <c r="B33" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>56</v>
+      <c r="C33" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D33" s="65" t="s">
         <v>47</v>
@@ -3201,8 +3199,8 @@
       <c r="B34" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>56</v>
+      <c r="C34" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D34" s="65" t="s">
         <v>47</v>
@@ -3226,8 +3224,8 @@
       <c r="B35" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>56</v>
+      <c r="C35" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D35" s="65" t="s">
         <v>47</v>
@@ -3251,8 +3249,8 @@
       <c r="B36" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>56</v>
+      <c r="C36" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D36" s="65" t="s">
         <v>47</v>
@@ -3276,8 +3274,8 @@
       <c r="B37" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>56</v>
+      <c r="C37" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D37" s="65" t="s">
         <v>47</v>
@@ -3301,8 +3299,8 @@
       <c r="B38" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>56</v>
+      <c r="C38" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D38" s="65" t="s">
         <v>47</v>
@@ -3326,8 +3324,8 @@
       <c r="B39" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>56</v>
+      <c r="C39" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D39" s="65" t="s">
         <v>47</v>
@@ -3351,8 +3349,8 @@
       <c r="B40" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>56</v>
+      <c r="C40" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D40" s="65" t="s">
         <v>47</v>
@@ -3376,8 +3374,8 @@
       <c r="B41" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>56</v>
+      <c r="C41" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D41" s="65" t="s">
         <v>47</v>
@@ -3401,8 +3399,8 @@
       <c r="B42" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>56</v>
+      <c r="C42" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D42" s="65" t="s">
         <v>47</v>
@@ -3426,8 +3424,8 @@
       <c r="B43" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>56</v>
+      <c r="C43" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D43" s="65" t="s">
         <v>47</v>
@@ -3451,8 +3449,8 @@
       <c r="B44" s="65" t="s">
         <v>375</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>56</v>
+      <c r="C44" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D44" s="65" t="s">
         <v>47</v>
@@ -3476,8 +3474,8 @@
       <c r="B45" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>56</v>
+      <c r="C45" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D45" s="65" t="s">
         <v>47</v>
@@ -3501,8 +3499,8 @@
       <c r="B46" s="69" t="s">
         <v>305</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>56</v>
+      <c r="C46" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D46" s="69" t="s">
         <v>303</v>
@@ -3528,8 +3526,8 @@
       <c r="B47" s="69" t="s">
         <v>309</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>56</v>
+      <c r="C47" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D47" s="69" t="s">
         <v>303</v>
@@ -3555,8 +3553,8 @@
       <c r="B48" s="69" t="s">
         <v>308</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>56</v>
+      <c r="C48" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D48" s="69" t="s">
         <v>303</v>
@@ -3582,8 +3580,8 @@
       <c r="B49" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>56</v>
+      <c r="C49" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D49" s="69" t="s">
         <v>303</v>
@@ -3609,8 +3607,8 @@
       <c r="B50" s="69" t="s">
         <v>333</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>56</v>
+      <c r="C50" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D50" s="69" t="s">
         <v>303</v>
@@ -3636,8 +3634,8 @@
       <c r="B51" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>56</v>
+      <c r="C51" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D51" s="69" t="s">
         <v>303</v>
@@ -3661,8 +3659,8 @@
       <c r="B52" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>56</v>
+      <c r="C52" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D52" s="69" t="s">
         <v>303</v>
@@ -3686,8 +3684,8 @@
       <c r="B53" s="69" t="s">
         <v>339</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>56</v>
+      <c r="C53" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D53" s="69" t="s">
         <v>303</v>
@@ -3713,8 +3711,8 @@
       <c r="B54" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>56</v>
+      <c r="C54" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="69" t="s">
         <v>303</v>
@@ -3740,8 +3738,8 @@
       <c r="B55" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>56</v>
+      <c r="C55" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>8</v>
@@ -3766,8 +3764,8 @@
       <c r="B56" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>56</v>
+      <c r="C56" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>8</v>
@@ -3792,8 +3790,8 @@
       <c r="B57" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>56</v>
+      <c r="C57" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>8</v>
@@ -3815,8 +3813,8 @@
       <c r="B58" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>56</v>
+      <c r="C58" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>8</v>
@@ -3841,8 +3839,8 @@
       <c r="B59" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>56</v>
+      <c r="C59" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>8</v>
@@ -3864,8 +3862,8 @@
       <c r="B60" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>56</v>
+      <c r="C60" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>8</v>
@@ -3887,8 +3885,8 @@
       <c r="B61" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>56</v>
+      <c r="C61" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>8</v>
@@ -3910,8 +3908,8 @@
       <c r="B62" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>56</v>
+      <c r="C62" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>8</v>
@@ -3936,8 +3934,8 @@
       <c r="B63" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>56</v>
+      <c r="C63" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>8</v>
@@ -3959,8 +3957,8 @@
       <c r="B64" s="73" t="s">
         <v>488</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>56</v>
+      <c r="C64" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>8</v>
@@ -3982,8 +3980,8 @@
       <c r="B65" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="C65" s="18" t="s">
-        <v>56</v>
+      <c r="C65" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>8</v>
@@ -4008,8 +4006,8 @@
       <c r="B66" s="74" t="s">
         <v>501</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>56</v>
+      <c r="C66" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>8</v>
@@ -4034,8 +4032,8 @@
       <c r="B67" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>56</v>
+      <c r="C67" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>8</v>
@@ -4057,8 +4055,8 @@
       <c r="B68" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>56</v>
+      <c r="C68" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>8</v>
@@ -4083,8 +4081,8 @@
       <c r="B69" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>56</v>
+      <c r="C69" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>8</v>
@@ -4109,8 +4107,8 @@
       <c r="B70" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>56</v>
+      <c r="C70" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>8</v>
@@ -4132,8 +4130,8 @@
       <c r="B71" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>56</v>
+      <c r="C71" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>8</v>
@@ -4155,8 +4153,8 @@
       <c r="B72" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="C72" s="18" t="s">
-        <v>56</v>
+      <c r="C72" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>8</v>
@@ -4178,8 +4176,8 @@
       <c r="B73" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>56</v>
+      <c r="C73" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>8</v>
@@ -4201,8 +4199,8 @@
       <c r="B74" s="75" t="s">
         <v>521</v>
       </c>
-      <c r="C74" s="18" t="s">
-        <v>56</v>
+      <c r="C74" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>8</v>
@@ -4225,7 +4223,7 @@
         <v>524</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>8</v>
@@ -4245,7 +4243,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>55</v>
@@ -4257,21 +4255,42 @@
         <v>109</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>525</v>
+        <v>426</v>
       </c>
       <c r="G76" t="s">
+        <v>427</v>
+      </c>
+      <c r="H76" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="G77" t="s">
         <v>533</v>
       </c>
-      <c r="H76" t="s">
-        <v>532</v>
+      <c r="H77" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C74" xr:uid="{A24E4840-CF83-45B5-8B9C-FAE6253DDB86}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" location="7815483" xr:uid="{27C524AC-B712-409C-94D8-14137A368696}"/>
     <hyperlink ref="J4" r:id="rId2" xr:uid="{2982E1F1-B044-4074-8F5C-3D269A821F42}"/>
@@ -4284,98 +4303,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:DZ53"/>
+  <dimension ref="A1:DZ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="102.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="39" max="41" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="6.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="27.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="29.0" collapsed="true"/>
-    <col min="55" max="56" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
-    <col min="76" max="82" style="2" width="9.140625" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="84" max="95" style="2" width="9.140625" collapsed="true"/>
-    <col min="96" max="96" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="99" max="99" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="101" max="101" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="104" max="104" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="106" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="102.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="41" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="6" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="27" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="29" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="56" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="82" width="9.140625" style="2" collapsed="1"/>
+    <col min="83" max="83" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="95" width="9.140625" style="2" collapsed="1"/>
+    <col min="96" max="96" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="26.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:108" x14ac:dyDescent="0.25">
@@ -11734,7 +11753,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>83</v>
@@ -11747,7 +11766,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
@@ -11919,6 +11938,189 @@
       <c r="DA53" s="23"/>
       <c r="DB53" s="23"/>
     </row>
+    <row r="54" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="O54" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W54" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X54" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y54" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z54" s="23">
+        <v>11010</v>
+      </c>
+      <c r="AA54" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB54" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC54" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD54" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE54" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF54" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG54" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH54" s="23"/>
+      <c r="AI54" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ54" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK54" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL54" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="24"/>
+      <c r="AP54" s="23"/>
+      <c r="AQ54" s="23"/>
+      <c r="AR54" s="23"/>
+      <c r="AS54" s="23"/>
+      <c r="AT54" s="23"/>
+      <c r="AU54" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV54" s="23"/>
+      <c r="AW54" s="23"/>
+      <c r="AX54" s="23"/>
+      <c r="AY54" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ54" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BA54" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB54" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC54" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD54" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE54" s="23"/>
+      <c r="BF54" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG54" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH54" s="23"/>
+      <c r="BI54" s="23"/>
+      <c r="BJ54" s="23"/>
+      <c r="BK54" s="23"/>
+      <c r="BL54" s="23"/>
+      <c r="BM54" s="23"/>
+      <c r="BN54" s="23"/>
+      <c r="BO54" s="23"/>
+      <c r="BP54" s="23"/>
+      <c r="BQ54" s="23"/>
+      <c r="BR54" s="23"/>
+      <c r="BS54" s="23"/>
+      <c r="BT54" s="23"/>
+      <c r="BU54" s="23"/>
+      <c r="BV54" s="23"/>
+      <c r="BW54" s="23"/>
+      <c r="BX54" s="23"/>
+      <c r="BY54" s="23"/>
+      <c r="BZ54" s="23"/>
+      <c r="CA54" s="23"/>
+      <c r="CB54" s="23"/>
+      <c r="CC54" s="23"/>
+      <c r="CD54" s="23"/>
+      <c r="CE54" s="23"/>
+      <c r="CF54" s="23"/>
+      <c r="CG54" s="23"/>
+      <c r="CH54" s="23"/>
+      <c r="CI54" s="23"/>
+      <c r="CJ54" s="23"/>
+      <c r="CK54" s="23"/>
+      <c r="CL54" s="23"/>
+      <c r="CM54" s="23"/>
+      <c r="CN54" s="23"/>
+      <c r="CO54" s="23"/>
+      <c r="CP54" s="23"/>
+      <c r="CQ54" s="23"/>
+      <c r="CR54" s="23"/>
+      <c r="CS54" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="CT54" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="CU54" s="24"/>
+      <c r="CV54" s="23"/>
+      <c r="CW54" s="23"/>
+      <c r="CX54" s="23"/>
+      <c r="CY54" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="CZ54" s="23"/>
+      <c r="DA54" s="23"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11939,57 +12141,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="31" max="33" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="35" max="36" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="33" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="35" max="36" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
@@ -13528,25 +13730,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="113.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="113.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">

--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\OnPremise\Dynamics-CRM-Stage\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC82571-9FA3-4216-885B-8EE28B980FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5630F0DF-7592-4210-9CFB-3C859D086C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="537">
   <si>
     <t>UserName</t>
   </si>
@@ -1325,18 +1325,9 @@
     <t/>
   </si>
   <si>
-    <t>2000554812</t>
-  </si>
-  <si>
     <t>2000554813</t>
   </si>
   <si>
-    <t>2000554814</t>
-  </si>
-  <si>
-    <t>2000554818</t>
-  </si>
-  <si>
     <t>7000578823</t>
   </si>
   <si>
@@ -1358,39 +1349,6 @@
     <t>7000578829</t>
   </si>
   <si>
-    <t>2000554844</t>
-  </si>
-  <si>
-    <t>2000554848</t>
-  </si>
-  <si>
-    <t>284867136</t>
-  </si>
-  <si>
-    <t>bf9746162</t>
-  </si>
-  <si>
-    <t>2000555263</t>
-  </si>
-  <si>
-    <t>2000555264</t>
-  </si>
-  <si>
-    <t>2000555265</t>
-  </si>
-  <si>
-    <t>2000555266</t>
-  </si>
-  <si>
-    <t>2000555267</t>
-  </si>
-  <si>
-    <t>2000555268</t>
-  </si>
-  <si>
-    <t>2000555269</t>
-  </si>
-  <si>
     <t>corp\crmtest10</t>
   </si>
   <si>
@@ -1400,24 +1358,15 @@
     <t>2000555818</t>
   </si>
   <si>
-    <t>2000555819</t>
-  </si>
-  <si>
     <t>2000555820</t>
   </si>
   <si>
-    <t>2000555823</t>
-  </si>
-  <si>
     <t>TFS ID_45306:Verify Prospect accounts can not be published</t>
   </si>
   <si>
     <t>45306_PublishProspectAccount</t>
   </si>
   <si>
-    <t>2000555831</t>
-  </si>
-  <si>
     <t>You should not publish the prospect If you contact support, please provide the technical details.</t>
   </si>
   <si>
@@ -1520,21 +1469,9 @@
     <t>Top Parent Relationship for Top Parent must be OLM If you contact support, please provide the technical details.</t>
   </si>
   <si>
-    <t>Aparna sub Nov3_</t>
-  </si>
-  <si>
-    <t>2000555522</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>5/4/2021</t>
   </si>
   <si>
-    <t>2000556059</t>
-  </si>
-  <si>
     <t>11/5/2022</t>
   </si>
   <si>
@@ -1634,13 +1571,85 @@
     <t>2000556237</t>
   </si>
   <si>
-    <t>2000556238</t>
+    <t>2000556506</t>
+  </si>
+  <si>
+    <t>2000556507</t>
+  </si>
+  <si>
+    <t>2000556509</t>
+  </si>
+  <si>
+    <t>2000556511</t>
+  </si>
+  <si>
+    <t>2000556512</t>
+  </si>
+  <si>
+    <t>2000556515</t>
+  </si>
+  <si>
+    <t>2000556516</t>
+  </si>
+  <si>
+    <t>2000556519</t>
+  </si>
+  <si>
+    <t>849987128</t>
+  </si>
+  <si>
+    <t>rf7459476</t>
+  </si>
+  <si>
+    <t>2000556520</t>
+  </si>
+  <si>
+    <t>2000556521</t>
+  </si>
+  <si>
+    <t>2000556522</t>
+  </si>
+  <si>
+    <t>2000556523</t>
+  </si>
+  <si>
+    <t>2000556524</t>
+  </si>
+  <si>
+    <t>2000556525</t>
+  </si>
+  <si>
+    <t>2000556526</t>
+  </si>
+  <si>
+    <t>TFS ID_43705: 11231 Cloud: Verify warning message is NOT displayed when there is any DP change of an account with only location type children</t>
+  </si>
+  <si>
+    <t>2000108670</t>
+  </si>
+  <si>
+    <t>Mani Sub 14Nov_</t>
+  </si>
+  <si>
+    <t>1000109619</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2000556551</t>
+  </si>
+  <si>
+    <t>2000556557</t>
+  </si>
+  <si>
+    <t>TFS ID_43706: 11232: Cloud: Verify warning message is displayed when there is any DP change of an account with children (non location type)</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>2022_11_11_03_22_26</t>
+    <t>2022_11_15_12_25_28</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1776,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1834,6 +1843,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1885,7 +1900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2016,6 +2031,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2337,9 +2354,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2392,7 +2411,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>8</v>
@@ -2407,7 +2426,7 @@
         <v>427</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="I2" s="46" t="s">
         <v>416</v>
@@ -2420,11 +2439,11 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="76" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>8</v>
@@ -2439,18 +2458,18 @@
         <v>427</v>
       </c>
       <c r="H3" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="76" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>8</v>
@@ -2465,7 +2484,7 @@
         <v>427</v>
       </c>
       <c r="H4" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>425</v>
@@ -2475,11 +2494,11 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="76" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>8</v>
@@ -2494,7 +2513,7 @@
         <v>427</v>
       </c>
       <c r="H5" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2505,7 +2524,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>8</v>
@@ -2524,11 +2543,11 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="76" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>8</v>
@@ -2551,7 +2570,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>8</v>
@@ -2566,7 +2585,7 @@
         <v>427</v>
       </c>
       <c r="H8" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2577,7 +2596,7 @@
         <v>74</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>8</v>
@@ -2600,7 +2619,7 @@
         <v>92</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>8</v>
@@ -2615,18 +2634,18 @@
         <v>427</v>
       </c>
       <c r="H10" t="s">
-        <v>428</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="76" t="s">
         <v>95</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>8</v>
@@ -2641,7 +2660,7 @@
         <v>427</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2652,7 +2671,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>8</v>
@@ -2667,7 +2686,7 @@
         <v>427</v>
       </c>
       <c r="H12" t="s">
-        <v>430</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2678,7 +2697,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>8</v>
@@ -2701,7 +2720,7 @@
         <v>361</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>8</v>
@@ -2724,7 +2743,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>8</v>
@@ -2739,7 +2758,7 @@
         <v>427</v>
       </c>
       <c r="H15" t="s">
-        <v>439</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2750,7 +2769,7 @@
         <v>89</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>8</v>
@@ -2765,7 +2784,7 @@
         <v>427</v>
       </c>
       <c r="H16" t="s">
-        <v>431</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -2776,7 +2795,7 @@
         <v>188</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>8</v>
@@ -2799,7 +2818,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>8</v>
@@ -2822,7 +2841,7 @@
         <v>108</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>8</v>
@@ -2845,7 +2864,7 @@
         <v>362</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>8</v>
@@ -2868,7 +2887,7 @@
         <v>346</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>8</v>
@@ -2883,7 +2902,7 @@
         <v>427</v>
       </c>
       <c r="H21" t="s">
-        <v>440</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2894,7 +2913,7 @@
         <v>258</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>8</v>
@@ -2909,7 +2928,7 @@
         <v>427</v>
       </c>
       <c r="H22" t="s">
-        <v>443</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2920,7 +2939,7 @@
         <v>257</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>8</v>
@@ -2935,7 +2954,7 @@
         <v>427</v>
       </c>
       <c r="H23" t="s">
-        <v>444</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2946,7 +2965,7 @@
         <v>247</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>8</v>
@@ -2961,7 +2980,7 @@
         <v>427</v>
       </c>
       <c r="H24" t="s">
-        <v>445</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2972,7 +2991,7 @@
         <v>259</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>8</v>
@@ -2987,7 +3006,7 @@
         <v>427</v>
       </c>
       <c r="H25" t="s">
-        <v>446</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2998,7 +3017,7 @@
         <v>260</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>8</v>
@@ -3013,7 +3032,7 @@
         <v>427</v>
       </c>
       <c r="H26" t="s">
-        <v>447</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3024,7 +3043,7 @@
         <v>261</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>8</v>
@@ -3039,7 +3058,7 @@
         <v>427</v>
       </c>
       <c r="H27" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3050,7 +3069,7 @@
         <v>265</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>8</v>
@@ -3065,18 +3084,18 @@
         <v>427</v>
       </c>
       <c r="H28" t="s">
-        <v>449</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61">
         <v>28</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="76" t="s">
         <v>293</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="61" t="s">
         <v>8</v>
@@ -3099,7 +3118,7 @@
         <v>411</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="60" t="s">
         <v>8</v>
@@ -3114,7 +3133,7 @@
         <v>427</v>
       </c>
       <c r="H30" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
@@ -3396,7 +3415,7 @@
       <c r="A42" s="64">
         <v>41</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="77" t="s">
         <v>175</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -3515,7 +3534,7 @@
         <v>427</v>
       </c>
       <c r="H46" s="69" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I46" s="69"/>
     </row>
@@ -3542,7 +3561,7 @@
         <v>427</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I47" s="69"/>
     </row>
@@ -3569,7 +3588,7 @@
         <v>427</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I48" s="69"/>
     </row>
@@ -3596,7 +3615,7 @@
         <v>427</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I49" s="69"/>
     </row>
@@ -3623,7 +3642,7 @@
         <v>427</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I50" s="69"/>
     </row>
@@ -3700,7 +3719,7 @@
         <v>427</v>
       </c>
       <c r="H53" s="69" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I53" s="69"/>
     </row>
@@ -3727,7 +3746,7 @@
         <v>427</v>
       </c>
       <c r="H54" s="69" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I54" s="69"/>
     </row>
@@ -3736,10 +3755,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>8</v>
@@ -3754,7 +3773,7 @@
         <v>427</v>
       </c>
       <c r="H55" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3762,10 +3781,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>8</v>
@@ -3780,7 +3799,7 @@
         <v>427</v>
       </c>
       <c r="H56" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3788,10 +3807,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>8</v>
@@ -3811,10 +3830,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>8</v>
@@ -3829,7 +3848,7 @@
         <v>427</v>
       </c>
       <c r="H58" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3837,10 +3856,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>8</v>
@@ -3860,10 +3879,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>8</v>
@@ -3883,10 +3902,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>8</v>
@@ -3906,10 +3925,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>8</v>
@@ -3924,7 +3943,7 @@
         <v>427</v>
       </c>
       <c r="H62" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3932,10 +3951,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>8</v>
@@ -3955,10 +3974,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="73" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>8</v>
@@ -3978,10 +3997,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="74" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>8</v>
@@ -3996,7 +4015,7 @@
         <v>427</v>
       </c>
       <c r="H65" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4004,10 +4023,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="74" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>8</v>
@@ -4022,7 +4041,7 @@
         <v>427</v>
       </c>
       <c r="H66" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4030,10 +4049,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>8</v>
@@ -4053,10 +4072,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>8</v>
@@ -4071,7 +4090,7 @@
         <v>427</v>
       </c>
       <c r="H68" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4079,10 +4098,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>8</v>
@@ -4097,7 +4116,7 @@
         <v>427</v>
       </c>
       <c r="H69" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4105,10 +4124,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>8</v>
@@ -4128,10 +4147,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>8</v>
@@ -4151,10 +4170,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>8</v>
@@ -4174,10 +4193,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>8</v>
@@ -4197,10 +4216,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="75" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>8</v>
@@ -4220,10 +4239,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>8</v>
@@ -4243,10 +4262,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>8</v>
@@ -4261,7 +4280,7 @@
         <v>427</v>
       </c>
       <c r="H76" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4269,7 +4288,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>56</v>
@@ -4281,13 +4300,59 @@
         <v>109</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>532</v>
+        <v>426</v>
       </c>
       <c r="G77" t="s">
+        <v>427</v>
+      </c>
+      <c r="H77" t="s">
         <v>533</v>
       </c>
-      <c r="H77" t="s">
-        <v>531</v>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G78" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="G79" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4303,10 +4368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:DZ54"/>
+  <dimension ref="A1:DZ56"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="C39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4720,7 +4785,7 @@
         <v>412</v>
       </c>
       <c r="DD1" s="2" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5109,7 +5174,7 @@
         <v>293</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>424</v>
@@ -8516,10 +8581,10 @@
         <v>56</v>
       </c>
       <c r="CN22" s="15" t="s">
-        <v>442</v>
+        <v>519</v>
       </c>
       <c r="CO22" s="15" t="s">
-        <v>441</v>
+        <v>518</v>
       </c>
       <c r="CP22" s="28" t="s">
         <v>56</v>
@@ -9475,7 +9540,7 @@
         <v>424</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="M30" s="23" t="s">
         <v>4</v>
@@ -9505,13 +9570,13 @@
         <v>23</v>
       </c>
       <c r="AA30" s="58" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="AB30" s="2" t="s">
         <v>84</v>
       </c>
       <c r="AC30" s="24" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="AD30" s="24" t="s">
         <v>345</v>
@@ -9520,10 +9585,10 @@
         <v>98</v>
       </c>
       <c r="AF30" s="23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG30" s="24" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="AH30" s="23"/>
       <c r="AI30" s="23" t="s">
@@ -9560,7 +9625,7 @@
         <v>336</v>
       </c>
       <c r="DC30" s="58" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:109" x14ac:dyDescent="0.25">
@@ -9582,7 +9647,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>83</v>
@@ -9591,10 +9656,10 @@
         <v>424</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="K32" s="23"/>
       <c r="L32" s="24"/>
@@ -9765,7 +9830,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>83</v>
@@ -9774,17 +9839,17 @@
         <v>424</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="F33" s="58"/>
       <c r="I33" s="23" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="L33" s="24"/>
       <c r="M33" s="23" t="s">
@@ -9904,7 +9969,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>83</v>
@@ -9913,10 +9978,10 @@
         <v>424</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
@@ -9928,7 +9993,7 @@
         <v>345</v>
       </c>
       <c r="O34" s="25" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="P34" s="23"/>
       <c r="Q34" s="23"/>
@@ -10038,7 +10103,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>27</v>
@@ -10047,16 +10112,16 @@
         <v>424</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="K35" s="23"/>
       <c r="L35" s="24"/>
@@ -10226,7 +10291,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>27</v>
@@ -10235,10 +10300,10 @@
         <v>424</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:130" x14ac:dyDescent="0.25">
@@ -10246,7 +10311,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>27</v>
@@ -10255,13 +10320,13 @@
         <v>424</v>
       </c>
       <c r="E37" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:130" x14ac:dyDescent="0.25">
@@ -10269,7 +10334,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>27</v>
@@ -10278,10 +10343,10 @@
         <v>424</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:130" x14ac:dyDescent="0.25">
@@ -10289,7 +10354,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>27</v>
@@ -10298,13 +10363,13 @@
         <v>424</v>
       </c>
       <c r="E39" s="58" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
@@ -10497,7 +10562,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>27</v>
@@ -10506,7 +10571,7 @@
         <v>424</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:130" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10514,7 +10579,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="73" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>83</v>
@@ -10527,10 +10592,10 @@
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="K41" s="23"/>
       <c r="L41" s="24"/>
@@ -10704,7 +10769,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>27</v>
@@ -10717,7 +10782,7 @@
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
@@ -10870,10 +10935,10 @@
         <v>334</v>
       </c>
       <c r="CT42" s="24" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="CU42" s="24" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="CV42" s="25" t="s">
         <v>263</v>
@@ -10889,7 +10954,7 @@
         <v>76</v>
       </c>
       <c r="DA42" s="24" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="DB42" s="28" t="s">
         <v>365</v>
@@ -10900,7 +10965,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>27</v>
@@ -10913,7 +10978,7 @@
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
@@ -11082,7 +11147,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>27</v>
@@ -11096,7 +11161,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="C45" s="23" t="s">
         <v>27</v>
@@ -11109,7 +11174,7 @@
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
@@ -11275,7 +11340,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>27</v>
@@ -11288,10 +11353,10 @@
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="K46" s="23"/>
       <c r="L46" s="24"/>
@@ -11459,7 +11524,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>27</v>
@@ -11468,16 +11533,16 @@
         <v>424</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="F47" s="58" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="G47" s="58" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="H47" s="58" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:130" x14ac:dyDescent="0.25">
@@ -11485,7 +11550,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>27</v>
@@ -11494,7 +11559,7 @@
         <v>424</v>
       </c>
       <c r="E48" s="58" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49" spans="1:108" x14ac:dyDescent="0.25">
@@ -11502,7 +11567,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>27</v>
@@ -11511,7 +11576,7 @@
         <v>424</v>
       </c>
       <c r="E49" s="58" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:108" x14ac:dyDescent="0.25">
@@ -11519,7 +11584,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="C50" s="23" t="s">
         <v>27</v>
@@ -11529,7 +11594,7 @@
       </c>
       <c r="E50" s="58"/>
       <c r="DD50" s="58" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:108" ht="30" x14ac:dyDescent="0.25">
@@ -11537,7 +11602,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="C51" s="23" t="s">
         <v>27</v>
@@ -11546,10 +11611,10 @@
         <v>424</v>
       </c>
       <c r="E51" s="58" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="F51" s="58" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:108" x14ac:dyDescent="0.25">
@@ -11557,7 +11622,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>27</v>
@@ -11753,7 +11818,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>83</v>
@@ -11766,7 +11831,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
@@ -11943,7 +12008,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>27</v>
@@ -11952,13 +12017,13 @@
         <v>424</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
       <c r="I54" s="23" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
@@ -12120,6 +12185,40 @@
       </c>
       <c r="CZ54" s="23"/>
       <c r="DA54" s="23"/>
+    </row>
+    <row r="55" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E55" s="58" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E56" s="58" t="s">
+        <v>507</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14341,6 +14440,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14574,25 +14691,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14610,22 +14727,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5630F0DF-7592-4210-9CFB-3C859D086C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FE2B24-F0DD-4B67-9E92-96B6EAC8C79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -1571,9 +1571,6 @@
     <t>2000556237</t>
   </si>
   <si>
-    <t>2000556506</t>
-  </si>
-  <si>
     <t>2000556507</t>
   </si>
   <si>
@@ -1646,10 +1643,13 @@
     <t>TFS ID_43706: 11232: Cloud: Verify warning message is displayed when there is any DP change of an account with children (non location type)</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>2022_11_15_12_25_28</t>
+    <t>2000556583</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>2022_11_15_02_50_42</t>
   </si>
 </sst>
 </file>
@@ -2356,8 +2356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,7 +2411,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>8</v>
@@ -2426,7 +2426,7 @@
         <v>427</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="I2" s="46" t="s">
         <v>416</v>
@@ -2443,7 +2443,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>8</v>
@@ -2469,7 +2469,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>8</v>
@@ -2484,7 +2484,7 @@
         <v>427</v>
       </c>
       <c r="H4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>425</v>
@@ -2498,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>8</v>
@@ -2547,7 +2547,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>8</v>
@@ -2570,7 +2570,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>8</v>
@@ -2585,7 +2585,7 @@
         <v>427</v>
       </c>
       <c r="H8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>74</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>8</v>
@@ -2619,7 +2619,7 @@
         <v>92</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>8</v>
@@ -2634,7 +2634,7 @@
         <v>427</v>
       </c>
       <c r="H10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
         <v>95</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>8</v>
@@ -2671,7 +2671,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>8</v>
@@ -2686,7 +2686,7 @@
         <v>427</v>
       </c>
       <c r="H12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2697,7 +2697,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>8</v>
@@ -2720,7 +2720,7 @@
         <v>361</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>8</v>
@@ -2743,7 +2743,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>8</v>
@@ -2758,7 +2758,7 @@
         <v>427</v>
       </c>
       <c r="H15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2769,7 +2769,7 @@
         <v>89</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>8</v>
@@ -2784,7 +2784,7 @@
         <v>427</v>
       </c>
       <c r="H16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -2795,7 +2795,7 @@
         <v>188</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>8</v>
@@ -2818,7 +2818,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>8</v>
@@ -2841,7 +2841,7 @@
         <v>108</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>8</v>
@@ -2864,7 +2864,7 @@
         <v>362</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>8</v>
@@ -2887,7 +2887,7 @@
         <v>346</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>8</v>
@@ -2902,7 +2902,7 @@
         <v>427</v>
       </c>
       <c r="H21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>258</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>8</v>
@@ -2928,7 +2928,7 @@
         <v>427</v>
       </c>
       <c r="H22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
         <v>257</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>8</v>
@@ -2954,7 +2954,7 @@
         <v>427</v>
       </c>
       <c r="H23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
         <v>247</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>8</v>
@@ -2980,7 +2980,7 @@
         <v>427</v>
       </c>
       <c r="H24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
         <v>259</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>8</v>
@@ -3006,7 +3006,7 @@
         <v>427</v>
       </c>
       <c r="H25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>260</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>8</v>
@@ -3032,7 +3032,7 @@
         <v>427</v>
       </c>
       <c r="H26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3043,7 +3043,7 @@
         <v>261</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>8</v>
@@ -3058,7 +3058,7 @@
         <v>427</v>
       </c>
       <c r="H27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>265</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>8</v>
@@ -3084,7 +3084,7 @@
         <v>427</v>
       </c>
       <c r="H28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>293</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="61" t="s">
         <v>8</v>
@@ -3133,7 +3133,7 @@
         <v>427</v>
       </c>
       <c r="H30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
@@ -3144,7 +3144,7 @@
         <v>50</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" s="65" t="s">
         <v>47</v>
@@ -3169,7 +3169,7 @@
         <v>126</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" s="65" t="s">
         <v>47</v>
@@ -3194,7 +3194,7 @@
         <v>131</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" s="65" t="s">
         <v>47</v>
@@ -3219,7 +3219,7 @@
         <v>138</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="65" t="s">
         <v>47</v>
@@ -3244,7 +3244,7 @@
         <v>143</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" s="65" t="s">
         <v>47</v>
@@ -3269,7 +3269,7 @@
         <v>148</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" s="65" t="s">
         <v>47</v>
@@ -3294,7 +3294,7 @@
         <v>152</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D37" s="65" t="s">
         <v>47</v>
@@ -3319,7 +3319,7 @@
         <v>157</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38" s="65" t="s">
         <v>47</v>
@@ -3344,7 +3344,7 @@
         <v>160</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" s="65" t="s">
         <v>47</v>
@@ -3369,7 +3369,7 @@
         <v>163</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" s="65" t="s">
         <v>47</v>
@@ -3394,7 +3394,7 @@
         <v>168</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" s="65" t="s">
         <v>47</v>
@@ -3419,7 +3419,7 @@
         <v>175</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42" s="65" t="s">
         <v>47</v>
@@ -3444,7 +3444,7 @@
         <v>182</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="65" t="s">
         <v>47</v>
@@ -3469,7 +3469,7 @@
         <v>375</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44" s="65" t="s">
         <v>47</v>
@@ -3494,7 +3494,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45" s="65" t="s">
         <v>47</v>
@@ -3519,7 +3519,7 @@
         <v>305</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" s="69" t="s">
         <v>303</v>
@@ -3546,7 +3546,7 @@
         <v>309</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" s="69" t="s">
         <v>303</v>
@@ -3573,7 +3573,7 @@
         <v>308</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" s="69" t="s">
         <v>303</v>
@@ -3600,7 +3600,7 @@
         <v>323</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49" s="69" t="s">
         <v>303</v>
@@ -3627,7 +3627,7 @@
         <v>333</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" s="69" t="s">
         <v>303</v>
@@ -3654,7 +3654,7 @@
         <v>332</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D51" s="69" t="s">
         <v>303</v>
@@ -3679,7 +3679,7 @@
         <v>329</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" s="69" t="s">
         <v>303</v>
@@ -3704,7 +3704,7 @@
         <v>339</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D53" s="69" t="s">
         <v>303</v>
@@ -3731,7 +3731,7 @@
         <v>340</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D54" s="69" t="s">
         <v>303</v>
@@ -4306,7 +4306,7 @@
         <v>427</v>
       </c>
       <c r="H77" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4314,7 +4314,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>56</v>
@@ -4337,7 +4337,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>56</v>
@@ -8581,10 +8581,10 @@
         <v>56</v>
       </c>
       <c r="CN22" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="CO22" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CP22" s="28" t="s">
         <v>56</v>
@@ -9540,7 +9540,7 @@
         <v>424</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M30" s="23" t="s">
         <v>4</v>
@@ -9570,7 +9570,7 @@
         <v>23</v>
       </c>
       <c r="AA30" s="58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AB30" s="2" t="s">
         <v>84</v>
@@ -9625,7 +9625,7 @@
         <v>336</v>
       </c>
       <c r="DC30" s="58" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:109" x14ac:dyDescent="0.25">
@@ -12191,7 +12191,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>27</v>
@@ -12200,7 +12200,7 @@
         <v>424</v>
       </c>
       <c r="E55" s="58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="56" spans="1:108" x14ac:dyDescent="0.25">
@@ -12208,7 +12208,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>27</v>
@@ -14440,24 +14440,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14691,25 +14673,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14727,4 +14709,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FE2B24-F0DD-4B67-9E92-96B6EAC8C79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC17EDF-EDAD-4B73-A99B-E67811D8361F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -2357,7 +2357,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C29"/>
+      <selection activeCell="C4" sqref="C4:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC17EDF-EDAD-4B73-A99B-E67811D8361F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C686CE-B2EF-416B-B4A5-2DE787B7EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="540">
   <si>
     <t>UserName</t>
   </si>
@@ -1325,9 +1325,6 @@
     <t/>
   </si>
   <si>
-    <t>2000554813</t>
-  </si>
-  <si>
     <t>7000578823</t>
   </si>
   <si>
@@ -1355,12 +1352,6 @@
     <t>10/30/2022</t>
   </si>
   <si>
-    <t>2000555818</t>
-  </si>
-  <si>
-    <t>2000555820</t>
-  </si>
-  <si>
     <t>TFS ID_45306:Verify Prospect accounts can not be published</t>
   </si>
   <si>
@@ -1448,9 +1439,6 @@
     <t>45309_CreateSubAccountwithoutDPException</t>
   </si>
   <si>
-    <t>2000555965</t>
-  </si>
-  <si>
     <t>TFS ID_45321:Verify DP Relation Date is cleared if Is Top Parent Is Set to Yes</t>
   </si>
   <si>
@@ -1568,9 +1556,6 @@
     <t>11228_VerifyDraftStatus</t>
   </si>
   <si>
-    <t>2000556237</t>
-  </si>
-  <si>
     <t>2000556507</t>
   </si>
   <si>
@@ -1643,13 +1628,37 @@
     <t>TFS ID_43706: 11232: Cloud: Verify warning message is displayed when there is any DP change of an account with children (non location type)</t>
   </si>
   <si>
-    <t>2000556583</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2022_11_15_02_50_42</t>
+    <t>2000556599</t>
+  </si>
+  <si>
+    <t>2000556636</t>
+  </si>
+  <si>
+    <t>1000155542</t>
+  </si>
+  <si>
+    <t>2000556653</t>
+  </si>
+  <si>
+    <t>2000556662</t>
+  </si>
+  <si>
+    <t>2022_11_16_10_35_31</t>
+  </si>
+  <si>
+    <t>2000556663</t>
+  </si>
+  <si>
+    <t>2022_11_16_10_39_48</t>
+  </si>
+  <si>
+    <t>2000556664</t>
+  </si>
+  <si>
+    <t>2022_11_16_10_43_53</t>
   </si>
 </sst>
 </file>
@@ -2356,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,7 +2420,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>8</v>
@@ -2426,7 +2435,7 @@
         <v>427</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I2" s="46" t="s">
         <v>416</v>
@@ -2443,7 +2452,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>8</v>
@@ -2452,13 +2461,13 @@
         <v>109</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>426</v>
+        <v>529</v>
       </c>
       <c r="G3" t="s">
-        <v>427</v>
+        <v>535</v>
       </c>
       <c r="H3" t="s">
-        <v>438</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2469,7 +2478,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>8</v>
@@ -2484,7 +2493,7 @@
         <v>427</v>
       </c>
       <c r="H4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>425</v>
@@ -2498,7 +2507,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>8</v>
@@ -2507,13 +2516,13 @@
         <v>109</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>426</v>
+        <v>529</v>
       </c>
       <c r="G5" t="s">
-        <v>427</v>
+        <v>537</v>
       </c>
       <c r="H5" t="s">
-        <v>439</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2524,7 +2533,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>8</v>
@@ -2547,7 +2556,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>8</v>
@@ -2570,7 +2579,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>8</v>
@@ -2585,7 +2594,7 @@
         <v>427</v>
       </c>
       <c r="H8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2596,7 +2605,7 @@
         <v>74</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>8</v>
@@ -2619,7 +2628,7 @@
         <v>92</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>8</v>
@@ -2634,7 +2643,7 @@
         <v>427</v>
       </c>
       <c r="H10" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2645,7 +2654,7 @@
         <v>95</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>8</v>
@@ -2654,13 +2663,13 @@
         <v>109</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>426</v>
+        <v>529</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>539</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>428</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2671,7 +2680,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>8</v>
@@ -2686,7 +2695,7 @@
         <v>427</v>
       </c>
       <c r="H12" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2697,7 +2706,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>8</v>
@@ -2720,7 +2729,7 @@
         <v>361</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>8</v>
@@ -2743,7 +2752,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>8</v>
@@ -2758,7 +2767,7 @@
         <v>427</v>
       </c>
       <c r="H15" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2769,7 +2778,7 @@
         <v>89</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>8</v>
@@ -2784,7 +2793,7 @@
         <v>427</v>
       </c>
       <c r="H16" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -2795,7 +2804,7 @@
         <v>188</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>8</v>
@@ -2818,7 +2827,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>8</v>
@@ -2841,7 +2850,7 @@
         <v>108</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>8</v>
@@ -2864,7 +2873,7 @@
         <v>362</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>8</v>
@@ -2887,7 +2896,7 @@
         <v>346</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>8</v>
@@ -2902,7 +2911,7 @@
         <v>427</v>
       </c>
       <c r="H21" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2913,7 +2922,7 @@
         <v>258</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>8</v>
@@ -2928,7 +2937,7 @@
         <v>427</v>
       </c>
       <c r="H22" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2939,7 +2948,7 @@
         <v>257</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>8</v>
@@ -2954,7 +2963,7 @@
         <v>427</v>
       </c>
       <c r="H23" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2965,7 +2974,7 @@
         <v>247</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>8</v>
@@ -2980,7 +2989,7 @@
         <v>427</v>
       </c>
       <c r="H24" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2991,7 +3000,7 @@
         <v>259</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>8</v>
@@ -3006,7 +3015,7 @@
         <v>427</v>
       </c>
       <c r="H25" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3017,7 +3026,7 @@
         <v>260</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>8</v>
@@ -3032,7 +3041,7 @@
         <v>427</v>
       </c>
       <c r="H26" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3043,7 +3052,7 @@
         <v>261</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>8</v>
@@ -3058,7 +3067,7 @@
         <v>427</v>
       </c>
       <c r="H27" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3069,7 +3078,7 @@
         <v>265</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>8</v>
@@ -3084,7 +3093,7 @@
         <v>427</v>
       </c>
       <c r="H28" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -3095,7 +3104,7 @@
         <v>293</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="61" t="s">
         <v>8</v>
@@ -3133,7 +3142,7 @@
         <v>427</v>
       </c>
       <c r="H30" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
@@ -3534,7 +3543,7 @@
         <v>427</v>
       </c>
       <c r="H46" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I46" s="69"/>
     </row>
@@ -3561,7 +3570,7 @@
         <v>427</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I47" s="69"/>
     </row>
@@ -3588,7 +3597,7 @@
         <v>427</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I48" s="69"/>
     </row>
@@ -3615,7 +3624,7 @@
         <v>427</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I49" s="69"/>
     </row>
@@ -3642,7 +3651,7 @@
         <v>427</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I50" s="69"/>
     </row>
@@ -3719,7 +3728,7 @@
         <v>427</v>
       </c>
       <c r="H53" s="69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I53" s="69"/>
     </row>
@@ -3746,7 +3755,7 @@
         <v>427</v>
       </c>
       <c r="H54" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I54" s="69"/>
     </row>
@@ -3755,10 +3764,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>8</v>
@@ -3773,7 +3782,7 @@
         <v>427</v>
       </c>
       <c r="H55" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3781,10 +3790,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>8</v>
@@ -3799,7 +3808,7 @@
         <v>427</v>
       </c>
       <c r="H56" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3807,10 +3816,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>8</v>
@@ -3830,10 +3839,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>8</v>
@@ -3848,7 +3857,7 @@
         <v>427</v>
       </c>
       <c r="H58" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3856,10 +3865,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>8</v>
@@ -3879,10 +3888,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>8</v>
@@ -3902,10 +3911,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>8</v>
@@ -3925,10 +3934,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>8</v>
@@ -3943,7 +3952,7 @@
         <v>427</v>
       </c>
       <c r="H62" t="s">
-        <v>469</v>
+        <v>533</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3951,10 +3960,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>8</v>
@@ -3974,10 +3983,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="73" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>8</v>
@@ -3997,10 +4006,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="74" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>8</v>
@@ -4015,7 +4024,7 @@
         <v>427</v>
       </c>
       <c r="H65" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4023,10 +4032,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="74" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>8</v>
@@ -4041,7 +4050,7 @@
         <v>427</v>
       </c>
       <c r="H66" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4049,10 +4058,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>8</v>
@@ -4072,10 +4081,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>8</v>
@@ -4090,7 +4099,7 @@
         <v>427</v>
       </c>
       <c r="H68" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4098,10 +4107,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>8</v>
@@ -4116,7 +4125,7 @@
         <v>427</v>
       </c>
       <c r="H69" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4124,10 +4133,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>8</v>
@@ -4147,10 +4156,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>8</v>
@@ -4170,10 +4179,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>8</v>
@@ -4193,10 +4202,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>8</v>
@@ -4216,10 +4225,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="75" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>8</v>
@@ -4239,10 +4248,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>8</v>
@@ -4262,10 +4271,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>8</v>
@@ -4280,7 +4289,7 @@
         <v>427</v>
       </c>
       <c r="H76" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4288,10 +4297,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>8</v>
@@ -4306,7 +4315,7 @@
         <v>427</v>
       </c>
       <c r="H77" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4314,10 +4323,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>8</v>
@@ -4337,10 +4346,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>8</v>
@@ -4349,10 +4358,10 @@
         <v>109</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>535</v>
+        <v>426</v>
       </c>
       <c r="G79" t="s">
-        <v>536</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -4370,9 +4379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:DZ56"/>
   <sheetViews>
-    <sheetView topLeftCell="C39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4785,7 +4792,7 @@
         <v>412</v>
       </c>
       <c r="DD1" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5174,7 +5181,7 @@
         <v>293</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>424</v>
@@ -8581,10 +8588,10 @@
         <v>56</v>
       </c>
       <c r="CN22" s="15" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="CO22" s="15" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="CP22" s="28" t="s">
         <v>56</v>
@@ -9540,7 +9547,7 @@
         <v>424</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="M30" s="23" t="s">
         <v>4</v>
@@ -9570,13 +9577,13 @@
         <v>23</v>
       </c>
       <c r="AA30" s="58" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AB30" s="2" t="s">
         <v>84</v>
       </c>
       <c r="AC30" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD30" s="24" t="s">
         <v>345</v>
@@ -9588,7 +9595,7 @@
         <v>409</v>
       </c>
       <c r="AG30" s="24" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AH30" s="23"/>
       <c r="AI30" s="23" t="s">
@@ -9625,7 +9632,7 @@
         <v>336</v>
       </c>
       <c r="DC30" s="58" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:109" x14ac:dyDescent="0.25">
@@ -9647,7 +9654,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>83</v>
@@ -9656,10 +9663,10 @@
         <v>424</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K32" s="23"/>
       <c r="L32" s="24"/>
@@ -9830,7 +9837,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>83</v>
@@ -9839,17 +9846,17 @@
         <v>424</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F33" s="58"/>
       <c r="I33" s="23" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L33" s="24"/>
       <c r="M33" s="23" t="s">
@@ -9969,7 +9976,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>83</v>
@@ -9978,10 +9985,10 @@
         <v>424</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
@@ -9993,7 +10000,7 @@
         <v>345</v>
       </c>
       <c r="O34" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P34" s="23"/>
       <c r="Q34" s="23"/>
@@ -10103,7 +10110,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>27</v>
@@ -10112,16 +10119,16 @@
         <v>424</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K35" s="23"/>
       <c r="L35" s="24"/>
@@ -10291,7 +10298,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>27</v>
@@ -10300,10 +10307,10 @@
         <v>424</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:130" x14ac:dyDescent="0.25">
@@ -10311,7 +10318,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>27</v>
@@ -10320,13 +10327,13 @@
         <v>424</v>
       </c>
       <c r="E37" s="58" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:130" x14ac:dyDescent="0.25">
@@ -10334,7 +10341,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>27</v>
@@ -10343,10 +10350,10 @@
         <v>424</v>
       </c>
       <c r="E38" s="58" t="s">
+        <v>460</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:130" x14ac:dyDescent="0.25">
@@ -10354,7 +10361,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>27</v>
@@ -10363,13 +10370,13 @@
         <v>424</v>
       </c>
       <c r="E39" s="58" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
@@ -10562,7 +10569,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>27</v>
@@ -10571,7 +10578,7 @@
         <v>424</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:130" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10579,7 +10586,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="73" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>83</v>
@@ -10592,10 +10599,10 @@
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K41" s="23"/>
       <c r="L41" s="24"/>
@@ -10769,7 +10776,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>27</v>
@@ -10782,7 +10789,7 @@
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
@@ -10935,10 +10942,10 @@
         <v>334</v>
       </c>
       <c r="CT42" s="24" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="CU42" s="24" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="CV42" s="25" t="s">
         <v>263</v>
@@ -10954,7 +10961,7 @@
         <v>76</v>
       </c>
       <c r="DA42" s="24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="DB42" s="28" t="s">
         <v>365</v>
@@ -10965,7 +10972,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>27</v>
@@ -10978,7 +10985,7 @@
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
@@ -11147,7 +11154,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>27</v>
@@ -11161,7 +11168,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C45" s="23" t="s">
         <v>27</v>
@@ -11174,7 +11181,7 @@
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
@@ -11340,7 +11347,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>27</v>
@@ -11353,10 +11360,10 @@
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K46" s="23"/>
       <c r="L46" s="24"/>
@@ -11524,7 +11531,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>27</v>
@@ -11533,16 +11540,16 @@
         <v>424</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F47" s="58" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G47" s="58" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H47" s="58" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:130" x14ac:dyDescent="0.25">
@@ -11550,7 +11557,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>27</v>
@@ -11559,7 +11566,7 @@
         <v>424</v>
       </c>
       <c r="E48" s="58" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:108" x14ac:dyDescent="0.25">
@@ -11567,7 +11574,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>27</v>
@@ -11576,7 +11583,7 @@
         <v>424</v>
       </c>
       <c r="E49" s="58" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:108" x14ac:dyDescent="0.25">
@@ -11584,7 +11591,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C50" s="23" t="s">
         <v>27</v>
@@ -11594,7 +11601,7 @@
       </c>
       <c r="E50" s="58"/>
       <c r="DD50" s="58" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="51" spans="1:108" ht="30" x14ac:dyDescent="0.25">
@@ -11602,7 +11609,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C51" s="23" t="s">
         <v>27</v>
@@ -11611,10 +11618,10 @@
         <v>424</v>
       </c>
       <c r="E51" s="58" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F51" s="58" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="52" spans="1:108" x14ac:dyDescent="0.25">
@@ -11622,7 +11629,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>27</v>
@@ -11818,7 +11825,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>83</v>
@@ -11831,7 +11838,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
@@ -12008,7 +12015,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>27</v>
@@ -12017,13 +12024,13 @@
         <v>424</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
       <c r="I54" s="23" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
@@ -12191,7 +12198,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>27</v>
@@ -12200,7 +12207,7 @@
         <v>424</v>
       </c>
       <c r="E55" s="58" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56" spans="1:108" x14ac:dyDescent="0.25">
@@ -12208,7 +12215,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>27</v>
@@ -12217,7 +12224,7 @@
         <v>424</v>
       </c>
       <c r="E56" s="58" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -14440,6 +14447,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14673,25 +14698,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14709,22 +14734,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09ECCCB-24C1-45E5-A1AB-C94671A80643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F603FC-BA48-461E-8093-409309A813C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="554">
   <si>
     <t>UserName</t>
   </si>
@@ -1688,43 +1688,19 @@
     <t>1000060059</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>2000556835</t>
-  </si>
-  <si>
-    <t>2022_11_22_01_03_43</t>
-  </si>
-  <si>
     <t>UserName1</t>
   </si>
   <si>
-    <t>2000556841</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>2022_11_22_01_48_33</t>
-  </si>
-  <si>
-    <t>2000556842</t>
-  </si>
-  <si>
-    <t>2022_11_22_01_56_35</t>
-  </si>
-  <si>
-    <t>2000556844</t>
-  </si>
-  <si>
-    <t>2022_11_22_02_15_17</t>
-  </si>
-  <si>
     <t>2000556847</t>
   </si>
   <si>
-    <t>2022_11_22_02_43_18</t>
+    <t>TFS ID_44754:Verify whether Member User is able to publish and modify existing editable fields with out throwing any error on save</t>
+  </si>
+  <si>
+    <t>1000074769</t>
+  </si>
+  <si>
+    <t>2022_11_22_04_47_08</t>
   </si>
 </sst>
 </file>
@@ -2429,24 +2405,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="93.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="8.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="7" width="20.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="32.0" collapsed="true"/>
-    <col min="10" max="16384" style="7" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="93.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4536,7 +4512,7 @@
         <v>546</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>8</v>
@@ -4545,13 +4521,36 @@
         <v>109</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>554</v>
+        <v>426</v>
       </c>
       <c r="G84" t="s">
-        <v>561</v>
+        <v>427</v>
       </c>
       <c r="H84" t="s">
-        <v>560</v>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G85" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -4567,99 +4566,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:EA61"/>
+  <dimension ref="A1:EA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="102.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="10.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="40" max="42" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="6.0" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="27.0" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="2" width="29.0" collapsed="true"/>
-    <col min="56" max="57" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
-    <col min="77" max="83" style="2" width="9.140625" collapsed="true"/>
-    <col min="84" max="84" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="85" max="96" style="2" width="9.140625" collapsed="true"/>
-    <col min="97" max="97" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="100" max="100" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="102" max="102" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="105" max="105" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="107" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="102.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="12.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="42" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="6" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="27" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="29" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="57" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="83" width="9.140625" style="2" collapsed="1"/>
+    <col min="84" max="84" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="96" width="9.140625" style="2" collapsed="1"/>
+    <col min="97" max="97" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="26.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:109" x14ac:dyDescent="0.25">
@@ -4673,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>1</v>
@@ -13059,6 +13058,23 @@
       <c r="DB61" s="23"/>
       <c r="DC61" s="23"/>
     </row>
+    <row r="62" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="F62" s="58" t="s">
+        <v>552</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -13079,57 +13095,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="31" max="33" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="35" max="36" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="33" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="35" max="36" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
@@ -14668,25 +14684,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="113.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="113.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">

--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F603FC-BA48-461E-8093-409309A813C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70595C44-617F-4A9C-8780-A5F8A5AA594D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="558">
   <si>
     <t>UserName</t>
   </si>
@@ -1701,6 +1701,18 @@
   </si>
   <si>
     <t>2022_11_22_04_47_08</t>
+  </si>
+  <si>
+    <t>44754_MemberEntryProspectFirst</t>
+  </si>
+  <si>
+    <t>2000556870</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2022_11_22_05_28_09</t>
   </si>
 </sst>
 </file>
@@ -2407,22 +2419,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="93.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="7" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="93.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="7" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="32.0" collapsed="true"/>
+    <col min="10" max="16384" style="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4547,10 +4559,13 @@
         <v>109</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>426</v>
+        <v>556</v>
       </c>
       <c r="G85" t="s">
-        <v>553</v>
+        <v>557</v>
+      </c>
+      <c r="H85" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -4566,99 +4581,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:EA62"/>
+  <dimension ref="A1:EM62"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="102.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="12.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="42" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="6" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="27" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="57" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="83" width="9.140625" style="2" collapsed="1"/>
-    <col min="84" max="84" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="96" width="9.140625" style="2" collapsed="1"/>
-    <col min="97" max="97" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="26.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="102.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="10.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="40" max="42" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="6.0" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="27.0" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="2" width="29.0" collapsed="true"/>
+    <col min="56" max="57" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="77" max="83" style="2" width="9.140625" collapsed="true"/>
+    <col min="84" max="84" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
+    <col min="85" max="96" style="2" width="9.140625" collapsed="true"/>
+    <col min="97" max="97" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="100" max="100" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="102" max="102" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="105" max="105" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="107" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:109" x14ac:dyDescent="0.25">
@@ -11811,7 +11826,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="49" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -11829,7 +11844,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="50" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -11848,7 +11863,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="51" spans="1:109" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:143" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -11869,7 +11884,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="52" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>51</v>
       </c>
@@ -12066,7 +12081,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:143" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>52</v>
       </c>
@@ -12257,7 +12272,7 @@
       <c r="DB53" s="23"/>
       <c r="DC53" s="23"/>
     </row>
-    <row r="54" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -12441,7 +12456,7 @@
       <c r="DA54" s="23"/>
       <c r="DB54" s="23"/>
     </row>
-    <row r="55" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -12459,7 +12474,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="56" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -12477,7 +12492,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="57" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -12636,7 +12651,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:109" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:143" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -12657,7 +12672,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="59" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -12851,7 +12866,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -12869,7 +12884,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:143" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>60</v>
       </c>
@@ -13058,7 +13073,7 @@
       <c r="DB61" s="23"/>
       <c r="DC61" s="23"/>
     </row>
-    <row r="62" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -13074,6 +13089,202 @@
       <c r="F62" s="58" t="s">
         <v>552</v>
       </c>
+      <c r="J62" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="P62" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="X62" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y62" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z62" s="23"/>
+      <c r="AA62" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB62" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC62" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD62" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE62" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF62" s="23"/>
+      <c r="AG62" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AH62" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI62" s="23"/>
+      <c r="AJ62" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK62" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL62" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM62" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN62" s="24"/>
+      <c r="AO62" s="24"/>
+      <c r="AP62" s="24"/>
+      <c r="AQ62" s="23"/>
+      <c r="AR62" s="23"/>
+      <c r="AS62" s="23"/>
+      <c r="AT62" s="23"/>
+      <c r="AU62" s="23"/>
+      <c r="AV62" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW62" s="23"/>
+      <c r="AX62" s="23"/>
+      <c r="AY62" s="23"/>
+      <c r="AZ62" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA62" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BB62" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC62" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD62" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BE62" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF62" s="23"/>
+      <c r="BG62" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BH62" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="BI62" s="23"/>
+      <c r="BJ62" s="23"/>
+      <c r="BK62" s="23"/>
+      <c r="BL62" s="23"/>
+      <c r="BM62" s="23"/>
+      <c r="BN62" s="23"/>
+      <c r="BO62" s="23"/>
+      <c r="BP62" s="23"/>
+      <c r="BQ62" s="23"/>
+      <c r="BR62" s="23"/>
+      <c r="BS62" s="23"/>
+      <c r="BT62" s="23"/>
+      <c r="BU62" s="23"/>
+      <c r="BV62" s="23"/>
+      <c r="BW62" s="23"/>
+      <c r="BX62" s="23"/>
+      <c r="BY62" s="23"/>
+      <c r="BZ62" s="23"/>
+      <c r="CA62" s="23"/>
+      <c r="CB62" s="23"/>
+      <c r="CC62" s="23"/>
+      <c r="CD62" s="23"/>
+      <c r="CE62" s="23"/>
+      <c r="CF62" s="23"/>
+      <c r="CG62" s="23"/>
+      <c r="CH62" s="23"/>
+      <c r="CI62" s="23"/>
+      <c r="CJ62" s="23"/>
+      <c r="CK62" s="23"/>
+      <c r="CL62" s="23"/>
+      <c r="CM62" s="23"/>
+      <c r="CN62" s="23"/>
+      <c r="CO62" s="23"/>
+      <c r="CP62" s="23"/>
+      <c r="CQ62" s="23"/>
+      <c r="CR62" s="23"/>
+      <c r="CS62" s="23"/>
+      <c r="CT62" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="CU62" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="CV62" s="24"/>
+      <c r="CW62" s="23"/>
+      <c r="CX62" s="23"/>
+      <c r="CY62" s="23"/>
+      <c r="CZ62" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="DA62" s="23"/>
+      <c r="DB62" s="23"/>
+      <c r="DC62" s="23"/>
+      <c r="DD62" s="6"/>
+      <c r="DE62" s="6"/>
+      <c r="DF62" s="6"/>
+      <c r="DG62" s="6"/>
+      <c r="DH62" s="6"/>
+      <c r="DI62" s="6"/>
+      <c r="DJ62" s="6"/>
+      <c r="DK62" s="6"/>
+      <c r="DL62" s="6"/>
+      <c r="DM62" s="6"/>
+      <c r="DN62" s="6"/>
+      <c r="DO62" s="6"/>
+      <c r="DP62" s="6"/>
+      <c r="DQ62" s="6"/>
+      <c r="DR62" s="6"/>
+      <c r="DS62" s="6"/>
+      <c r="DT62" s="6"/>
+      <c r="DU62" s="6"/>
+      <c r="DV62" s="6"/>
+      <c r="DW62" s="6"/>
+      <c r="DX62" s="6"/>
+      <c r="DY62" s="6"/>
+      <c r="DZ62" s="6"/>
+      <c r="EA62" s="6"/>
+      <c r="EB62" s="6"/>
+      <c r="EC62" s="6"/>
+      <c r="ED62" s="6"/>
+      <c r="EE62" s="6"/>
+      <c r="EF62" s="6"/>
+      <c r="EG62" s="6"/>
+      <c r="EH62" s="6"/>
+      <c r="EI62" s="6"/>
+      <c r="EJ62" s="6"/>
+      <c r="EK62" s="6"/>
+      <c r="EL62" s="6"/>
+      <c r="EM62" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13095,57 +13306,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="33" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="36" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="31" max="33" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
@@ -14684,25 +14895,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="113.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="113.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -15295,24 +15506,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15546,25 +15739,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15582,4 +15775,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Stage\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70595C44-617F-4A9C-8780-A5F8A5AA594D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7B6473-365E-44EE-B1CE-F2B674912B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="557">
   <si>
     <t>UserName</t>
   </si>
@@ -1698,9 +1698,6 @@
   </si>
   <si>
     <t>1000074769</t>
-  </si>
-  <si>
-    <t>2022_11_22_04_47_08</t>
   </si>
   <si>
     <t>44754_MemberEntryProspectFirst</t>
@@ -2419,22 +2416,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="93.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="8.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="7" width="20.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="32.0" collapsed="true"/>
-    <col min="10" max="16384" style="7" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="93.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3207,7 +3204,7 @@
         <v>50</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="65" t="s">
         <v>47</v>
@@ -3232,7 +3229,7 @@
         <v>126</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="65" t="s">
         <v>47</v>
@@ -3257,7 +3254,7 @@
         <v>131</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="65" t="s">
         <v>47</v>
@@ -3282,7 +3279,7 @@
         <v>138</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="65" t="s">
         <v>47</v>
@@ -3307,7 +3304,7 @@
         <v>143</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="65" t="s">
         <v>47</v>
@@ -3332,7 +3329,7 @@
         <v>148</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="65" t="s">
         <v>47</v>
@@ -3357,7 +3354,7 @@
         <v>152</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="65" t="s">
         <v>47</v>
@@ -3382,7 +3379,7 @@
         <v>157</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="65" t="s">
         <v>47</v>
@@ -3407,7 +3404,7 @@
         <v>160</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="65" t="s">
         <v>47</v>
@@ -3432,7 +3429,7 @@
         <v>163</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="65" t="s">
         <v>47</v>
@@ -3457,7 +3454,7 @@
         <v>168</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="65" t="s">
         <v>47</v>
@@ -3482,7 +3479,7 @@
         <v>175</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="65" t="s">
         <v>47</v>
@@ -3507,7 +3504,7 @@
         <v>182</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="65" t="s">
         <v>47</v>
@@ -3532,7 +3529,7 @@
         <v>375</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="65" t="s">
         <v>47</v>
@@ -3557,7 +3554,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="65" t="s">
         <v>47</v>
@@ -3582,7 +3579,7 @@
         <v>305</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="69" t="s">
         <v>303</v>
@@ -3609,7 +3606,7 @@
         <v>309</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="69" t="s">
         <v>303</v>
@@ -3636,7 +3633,7 @@
         <v>308</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="69" t="s">
         <v>303</v>
@@ -3663,7 +3660,7 @@
         <v>323</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="69" t="s">
         <v>303</v>
@@ -3690,7 +3687,7 @@
         <v>333</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" s="69" t="s">
         <v>303</v>
@@ -4550,7 +4547,7 @@
         <v>551</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>8</v>
@@ -4559,13 +4556,13 @@
         <v>109</v>
       </c>
       <c r="F85" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="G85" t="s">
         <v>556</v>
       </c>
-      <c r="G85" t="s">
-        <v>557</v>
-      </c>
       <c r="H85" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -4583,97 +4580,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:EM62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="102.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="10.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="40" max="42" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="6.0" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="27.0" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="2" width="29.0" collapsed="true"/>
-    <col min="56" max="57" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
-    <col min="77" max="83" style="2" width="9.140625" collapsed="true"/>
-    <col min="84" max="84" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="85" max="96" style="2" width="9.140625" collapsed="true"/>
-    <col min="97" max="97" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="100" max="100" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="102" max="102" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="105" max="105" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="107" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="102.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="12.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="42" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="6" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="27" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="29" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="57" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="83" width="9.140625" style="2" collapsed="1"/>
+    <col min="84" max="84" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="96" width="9.140625" style="2" collapsed="1"/>
+    <col min="97" max="97" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="26.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:109" x14ac:dyDescent="0.25">
@@ -13090,7 +13087,7 @@
         <v>552</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
@@ -13300,63 +13297,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BC17"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="31" max="33" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="35" max="36" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="33" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="35" max="36" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
@@ -14895,25 +14892,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="113.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="113.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -15506,6 +15503,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15739,25 +15754,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15775,22 +15790,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7B6473-365E-44EE-B1CE-F2B674912B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC19244-7233-4B2E-ABB2-40EA0B0D3C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -2416,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3714,7 +3714,7 @@
         <v>332</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="69" t="s">
         <v>303</v>
@@ -15503,24 +15503,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15754,25 +15736,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15790,4 +15772,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC19244-7233-4B2E-ABB2-40EA0B0D3C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30D5A53-F910-43AC-A97B-EAA71A050DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -2417,7 +2417,7 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,7 +2471,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>8</v>
@@ -2503,7 +2503,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>8</v>
@@ -2529,7 +2529,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>8</v>
@@ -2558,7 +2558,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>8</v>
@@ -2584,7 +2584,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>8</v>
@@ -2607,7 +2607,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>8</v>
@@ -2630,7 +2630,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>8</v>
@@ -2656,7 +2656,7 @@
         <v>74</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>8</v>
@@ -2679,7 +2679,7 @@
         <v>92</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>8</v>
@@ -2705,7 +2705,7 @@
         <v>95</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>8</v>
@@ -2731,7 +2731,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>8</v>
@@ -2757,7 +2757,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>8</v>
@@ -2780,7 +2780,7 @@
         <v>361</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>8</v>
@@ -2803,7 +2803,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>8</v>
@@ -2829,7 +2829,7 @@
         <v>89</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>8</v>
@@ -2855,7 +2855,7 @@
         <v>188</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>8</v>
@@ -2878,7 +2878,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>8</v>
@@ -2901,7 +2901,7 @@
         <v>108</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>8</v>
@@ -2924,7 +2924,7 @@
         <v>362</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>8</v>
@@ -2947,7 +2947,7 @@
         <v>346</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>8</v>
@@ -2973,7 +2973,7 @@
         <v>258</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>8</v>
@@ -2999,7 +2999,7 @@
         <v>257</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>8</v>
@@ -3025,7 +3025,7 @@
         <v>247</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>8</v>
@@ -3051,7 +3051,7 @@
         <v>259</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>8</v>
@@ -3077,7 +3077,7 @@
         <v>260</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>8</v>
@@ -3103,7 +3103,7 @@
         <v>261</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>8</v>
@@ -3129,7 +3129,7 @@
         <v>265</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>8</v>
@@ -3155,7 +3155,7 @@
         <v>293</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="61" t="s">
         <v>8</v>
@@ -3204,7 +3204,7 @@
         <v>50</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" s="65" t="s">
         <v>47</v>
@@ -3229,7 +3229,7 @@
         <v>126</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" s="65" t="s">
         <v>47</v>
@@ -3254,7 +3254,7 @@
         <v>131</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" s="65" t="s">
         <v>47</v>
@@ -3279,7 +3279,7 @@
         <v>138</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="65" t="s">
         <v>47</v>
@@ -3304,7 +3304,7 @@
         <v>143</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" s="65" t="s">
         <v>47</v>
@@ -3329,7 +3329,7 @@
         <v>148</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" s="65" t="s">
         <v>47</v>
@@ -3354,7 +3354,7 @@
         <v>152</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D37" s="65" t="s">
         <v>47</v>
@@ -3379,7 +3379,7 @@
         <v>157</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38" s="65" t="s">
         <v>47</v>
@@ -3404,7 +3404,7 @@
         <v>160</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" s="65" t="s">
         <v>47</v>
@@ -3429,7 +3429,7 @@
         <v>163</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" s="65" t="s">
         <v>47</v>
@@ -3454,7 +3454,7 @@
         <v>168</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" s="65" t="s">
         <v>47</v>
@@ -3479,7 +3479,7 @@
         <v>175</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42" s="65" t="s">
         <v>47</v>
@@ -3504,7 +3504,7 @@
         <v>182</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="65" t="s">
         <v>47</v>
@@ -3529,7 +3529,7 @@
         <v>375</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44" s="65" t="s">
         <v>47</v>
@@ -3554,7 +3554,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45" s="65" t="s">
         <v>47</v>
@@ -3579,7 +3579,7 @@
         <v>305</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" s="69" t="s">
         <v>303</v>
@@ -3606,7 +3606,7 @@
         <v>309</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" s="69" t="s">
         <v>303</v>
@@ -3633,7 +3633,7 @@
         <v>308</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" s="69" t="s">
         <v>303</v>
@@ -3660,7 +3660,7 @@
         <v>323</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49" s="69" t="s">
         <v>303</v>
@@ -3687,7 +3687,7 @@
         <v>333</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" s="69" t="s">
         <v>303</v>
@@ -3714,7 +3714,7 @@
         <v>332</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D51" s="69" t="s">
         <v>303</v>
@@ -3739,7 +3739,7 @@
         <v>329</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="69" t="s">
         <v>303</v>
@@ -3764,7 +3764,7 @@
         <v>339</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" s="69" t="s">
         <v>303</v>
@@ -3791,7 +3791,7 @@
         <v>340</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" s="69" t="s">
         <v>303</v>
@@ -15503,6 +15503,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15736,25 +15754,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15772,22 +15790,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30D5A53-F910-43AC-A97B-EAA71A050DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5442054-E5CD-4962-8B57-2D41F8931A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -1836,7 +1836,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1882,30 +1882,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1960,7 +1936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2079,9 +2055,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2091,8 +2064,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2416,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2467,11 +2446,11 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>8</v>
@@ -2499,11 +2478,11 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>8</v>
@@ -2525,11 +2504,11 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>8</v>
@@ -2554,11 +2533,11 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>8</v>
@@ -2580,11 +2559,11 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>8</v>
@@ -2603,11 +2582,11 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>8</v>
@@ -2626,11 +2605,11 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>8</v>
@@ -2652,11 +2631,11 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>8</v>
@@ -2675,11 +2654,11 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="18" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>8</v>
@@ -2701,11 +2680,11 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>8</v>
@@ -2727,11 +2706,11 @@
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>8</v>
@@ -2753,11 +2732,11 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="18" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>8</v>
@@ -2780,7 +2759,7 @@
         <v>361</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>8</v>
@@ -2799,11 +2778,11 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="18" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>8</v>
@@ -2825,11 +2804,11 @@
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="18" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>8</v>
@@ -2851,11 +2830,11 @@
       <c r="A17" s="61">
         <v>16</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="18" t="s">
         <v>188</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>8</v>
@@ -2874,11 +2853,11 @@
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>8</v>
@@ -2897,11 +2876,11 @@
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>8</v>
@@ -2920,11 +2899,11 @@
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="18" t="s">
         <v>362</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>8</v>
@@ -2943,11 +2922,11 @@
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="18" t="s">
         <v>346</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>8</v>
@@ -2969,11 +2948,11 @@
       <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="18" t="s">
         <v>258</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>8</v>
@@ -2995,11 +2974,11 @@
       <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="18" t="s">
         <v>257</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>8</v>
@@ -3021,11 +3000,11 @@
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="18" t="s">
         <v>247</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>8</v>
@@ -3047,11 +3026,11 @@
       <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="18" t="s">
         <v>259</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>8</v>
@@ -3073,11 +3052,11 @@
       <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="18" t="s">
         <v>260</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>8</v>
@@ -3099,11 +3078,11 @@
       <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="18" t="s">
         <v>261</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>8</v>
@@ -3129,7 +3108,7 @@
         <v>265</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>8</v>
@@ -3151,11 +3130,11 @@
       <c r="A29" s="61">
         <v>28</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="18" t="s">
         <v>293</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="61" t="s">
         <v>8</v>
@@ -3174,7 +3153,7 @@
       <c r="A30" s="60">
         <v>29</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="18" t="s">
         <v>411</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -3200,7 +3179,7 @@
       <c r="A31" s="64">
         <v>30</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="73" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -3225,7 +3204,7 @@
       <c r="A32" s="64">
         <v>31</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="73" t="s">
         <v>126</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -3250,7 +3229,7 @@
       <c r="A33" s="64">
         <v>32</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="73" t="s">
         <v>131</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -3275,7 +3254,7 @@
       <c r="A34" s="64">
         <v>33</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="73" t="s">
         <v>138</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -3300,7 +3279,7 @@
       <c r="A35" s="64">
         <v>34</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="73" t="s">
         <v>143</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -3325,7 +3304,7 @@
       <c r="A36" s="64">
         <v>35</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="73" t="s">
         <v>148</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -3350,7 +3329,7 @@
       <c r="A37" s="64">
         <v>36</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="73" t="s">
         <v>152</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -3375,7 +3354,7 @@
       <c r="A38" s="64">
         <v>37</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="73" t="s">
         <v>157</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -3400,7 +3379,7 @@
       <c r="A39" s="64">
         <v>38</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="73" t="s">
         <v>160</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -3425,7 +3404,7 @@
       <c r="A40" s="64">
         <v>39</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="73" t="s">
         <v>163</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -3450,7 +3429,7 @@
       <c r="A41" s="64">
         <v>40</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="73" t="s">
         <v>168</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -3475,7 +3454,7 @@
       <c r="A42" s="64">
         <v>41</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="73" t="s">
         <v>175</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -3500,7 +3479,7 @@
       <c r="A43" s="64">
         <v>42</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="73" t="s">
         <v>182</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -3525,7 +3504,7 @@
       <c r="A44" s="64">
         <v>43</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="73" t="s">
         <v>375</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -3550,7 +3529,7 @@
       <c r="A45" s="64">
         <v>44</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="73" t="s">
         <v>267</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -3575,7 +3554,7 @@
       <c r="A46" s="64">
         <v>45</v>
       </c>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="74" t="s">
         <v>305</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -3602,7 +3581,7 @@
       <c r="A47" s="64">
         <v>46</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="74" t="s">
         <v>309</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -3629,7 +3608,7 @@
       <c r="A48" s="64">
         <v>47</v>
       </c>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="74" t="s">
         <v>308</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -3656,7 +3635,7 @@
       <c r="A49" s="64">
         <v>48</v>
       </c>
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="74" t="s">
         <v>323</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -3683,7 +3662,7 @@
       <c r="A50" s="64">
         <v>49</v>
       </c>
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="74" t="s">
         <v>333</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -3710,7 +3689,7 @@
       <c r="A51" s="64">
         <v>50</v>
       </c>
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="74" t="s">
         <v>332</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -3735,11 +3714,11 @@
       <c r="A52" s="64">
         <v>51</v>
       </c>
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="74" t="s">
         <v>329</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" s="69" t="s">
         <v>303</v>
@@ -3760,11 +3739,11 @@
       <c r="A53" s="64">
         <v>52</v>
       </c>
-      <c r="B53" s="69" t="s">
+      <c r="B53" s="74" t="s">
         <v>339</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D53" s="69" t="s">
         <v>303</v>
@@ -3787,11 +3766,11 @@
       <c r="A54" s="64">
         <v>53</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="57" t="s">
         <v>340</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D54" s="69" t="s">
         <v>303</v>
@@ -3818,7 +3797,7 @@
         <v>437</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>8</v>
@@ -3840,11 +3819,11 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="14" t="s">
         <v>440</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>8</v>
@@ -3870,7 +3849,7 @@
         <v>449</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>8</v>
@@ -3893,7 +3872,7 @@
         <v>450</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>8</v>
@@ -3915,11 +3894,11 @@
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="14" t="s">
         <v>455</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>8</v>
@@ -3938,11 +3917,11 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="14" t="s">
         <v>458</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>8</v>
@@ -3965,7 +3944,7 @@
         <v>459</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>8</v>
@@ -3984,11 +3963,11 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="14" t="s">
         <v>464</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>8</v>
@@ -4014,7 +3993,7 @@
         <v>466</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>8</v>
@@ -4033,11 +4012,11 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="70" t="s">
         <v>467</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>8</v>
@@ -4056,11 +4035,11 @@
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="74" t="s">
+      <c r="B65" s="75" t="s">
         <v>470</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>8</v>
@@ -4082,11 +4061,11 @@
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="74" t="s">
+      <c r="B66" s="75" t="s">
         <v>476</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>8</v>
@@ -4112,7 +4091,7 @@
         <v>478</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>8</v>
@@ -4135,7 +4114,7 @@
         <v>480</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>8</v>
@@ -4161,7 +4140,7 @@
         <v>486</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>8</v>
@@ -4187,7 +4166,7 @@
         <v>485</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>8</v>
@@ -4210,7 +4189,7 @@
         <v>491</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>8</v>
@@ -4233,7 +4212,7 @@
         <v>492</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>8</v>
@@ -4256,7 +4235,7 @@
         <v>493</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>8</v>
@@ -4275,11 +4254,11 @@
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="75" t="s">
+      <c r="B74" s="76" t="s">
         <v>496</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>8</v>
@@ -4302,7 +4281,7 @@
         <v>499</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>8</v>
@@ -4321,11 +4300,11 @@
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="30" t="s">
         <v>500</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>8</v>
@@ -4347,11 +4326,11 @@
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="14" t="s">
         <v>502</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>8</v>
@@ -4377,7 +4356,7 @@
         <v>521</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>8</v>
@@ -4400,7 +4379,7 @@
         <v>528</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>8</v>
@@ -4423,7 +4402,7 @@
         <v>536</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>8</v>
@@ -4445,11 +4424,11 @@
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="75" t="s">
         <v>538</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>8</v>
@@ -4472,7 +4451,7 @@
         <v>541</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>8</v>
@@ -4498,7 +4477,7 @@
         <v>543</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>8</v>
@@ -4521,7 +4500,7 @@
         <v>546</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>8</v>
@@ -4547,7 +4526,7 @@
         <v>551</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>8</v>
@@ -10831,7 +10810,7 @@
       <c r="A41" s="23">
         <v>40</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="70" t="s">
         <v>467</v>
       </c>
       <c r="C41" s="23" t="s">
@@ -11022,7 +11001,7 @@
       <c r="A42" s="23">
         <v>41</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="71" t="s">
         <v>470</v>
       </c>
       <c r="C42" s="23" t="s">
@@ -11219,7 +11198,7 @@
       <c r="A43" s="23">
         <v>42</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="71" t="s">
         <v>476</v>
       </c>
       <c r="C43" s="23" t="s">
@@ -11864,7 +11843,7 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="72" t="s">
         <v>496</v>
       </c>
       <c r="C51" s="23" t="s">
@@ -12652,7 +12631,7 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="74" t="s">
+      <c r="B58" s="71" t="s">
         <v>538</v>
       </c>
       <c r="C58" s="23" t="s">
@@ -15503,24 +15482,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15754,25 +15715,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15790,4 +15751,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC4D21A-409B-440C-B579-148A1C880C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDC353F-C4E0-411C-89AA-AE5206A6EA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" activeTab="2" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="651">
   <si>
     <t>UserName</t>
   </si>
@@ -1541,24 +1541,6 @@
     <t>11228_VerifyDraftStatus</t>
   </si>
   <si>
-    <t>2000556507</t>
-  </si>
-  <si>
-    <t>2000556509</t>
-  </si>
-  <si>
-    <t>2000556511</t>
-  </si>
-  <si>
-    <t>2000556512</t>
-  </si>
-  <si>
-    <t>2000556515</t>
-  </si>
-  <si>
-    <t>2000556516</t>
-  </si>
-  <si>
     <t>2000556519</t>
   </si>
   <si>
@@ -1610,21 +1592,9 @@
     <t>TFS ID_43706: 11232: Cloud: Verify warning message is displayed when there is any DP change of an account with children (non location type)</t>
   </si>
   <si>
-    <t>2000556599</t>
-  </si>
-  <si>
     <t>1000155542</t>
   </si>
   <si>
-    <t>2000556662</t>
-  </si>
-  <si>
-    <t>2000556663</t>
-  </si>
-  <si>
-    <t>2000556664</t>
-  </si>
-  <si>
     <t>TFS ID_45285:Verify whether the TPR is getting saved properly when DP change to different hierarchy</t>
   </si>
   <si>
@@ -1772,13 +1742,256 @@
     <t>2000133513</t>
   </si>
   <si>
-    <t>2022_11_29_11_53_36</t>
+    <t>TFS ID_43987:Test Case 9314 : Verify active supplier can not have DP without EIN</t>
+  </si>
+  <si>
+    <t>TFS ID_43986:Test Case 9315 :Verify terminated supplier can not have DP without EIN</t>
+  </si>
+  <si>
+    <t>1000001373</t>
+  </si>
+  <si>
+    <t>1000000245</t>
+  </si>
+  <si>
+    <t>TFS ID_45287:Validate Top Parent Relationship Date Change</t>
+  </si>
+  <si>
+    <t>TFS ID_44009:Test Case 8519 :Verify whether user should be able to update Premier Start date for the "Supplier" via Membership Entity</t>
+  </si>
+  <si>
+    <t>2000141822</t>
+  </si>
+  <si>
+    <t>TFS ID_43982:Test Case 9633 : Verify whether user should not get any script error on add any Supplier Diversity</t>
+  </si>
+  <si>
+    <t>DiversityValue</t>
+  </si>
+  <si>
+    <t>Minority Owned</t>
+  </si>
+  <si>
+    <t>CertifyingAgency</t>
+  </si>
+  <si>
+    <t>TFS ID_44011:Automation Test Case 8310 :Cloud : Verify the Premier End Date is removed from the Supplier Form when the accounts is reactivated</t>
+  </si>
+  <si>
+    <t>TFS ID_43980:Test Case 11064 :Verify when a Supplier is end dated, the End Reason  defaults to 'Change' automatically</t>
+  </si>
+  <si>
+    <t>TFS ID_44008:Test Case 8771 :Supplier Form - DP &amp; TP Search Look up should have only Supplier Accounts</t>
+  </si>
+  <si>
+    <t>43980 Verify End Reason</t>
+  </si>
+  <si>
+    <t>44011 Activate terminated supplier</t>
+  </si>
+  <si>
+    <t>2000171160</t>
+  </si>
+  <si>
+    <t>44008 Location DP</t>
+  </si>
+  <si>
+    <t>TFS ID_44013:Automation Test Case 6064 :Cloud: #Members field should be available in Member Form and removed from Supplier Form</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2022_11_29_12_02_29</t>
+    <t>TFS ID_440131:Automation Test Case 6064 :Cloud: #Members field should be available in Member Form and removed from Supplier Form</t>
+  </si>
+  <si>
+    <t>TFS ID_44007:Test Case 8772 : Verify if member/member supervisor/Supplier/Supplier supervisor/Limited member can edit the primary account of a contact</t>
+  </si>
+  <si>
+    <t>7000509363</t>
+  </si>
+  <si>
+    <t>1000174081</t>
+  </si>
+  <si>
+    <t>2000394452</t>
+  </si>
+  <si>
+    <t>primaryAccountName</t>
+  </si>
+  <si>
+    <t>UserName3</t>
+  </si>
+  <si>
+    <t>UserName4</t>
+  </si>
+  <si>
+    <t>2000558743</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_12_47</t>
+  </si>
+  <si>
+    <t>2000558744</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_17_38</t>
+  </si>
+  <si>
+    <t>2000558745</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_19_36</t>
+  </si>
+  <si>
+    <t>2000558746</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_23_55</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_27_57</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_29_35</t>
+  </si>
+  <si>
+    <t>2000558748</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_34_11</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_38_27</t>
+  </si>
+  <si>
+    <t>2000558750</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_41_33</t>
+  </si>
+  <si>
+    <t>2000558751</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_45_35</t>
+  </si>
+  <si>
+    <t>2000558752</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_48_49</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_51_31</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_56_12</t>
+  </si>
+  <si>
+    <t>2000558755</t>
+  </si>
+  <si>
+    <t>2022_12_06_09_58_23</t>
+  </si>
+  <si>
+    <t>2000558756</t>
+  </si>
+  <si>
+    <t>2022_12_06_10_01_50</t>
+  </si>
+  <si>
+    <t>2022_12_06_10_06_09</t>
+  </si>
+  <si>
+    <t>2022_12_07_08_32_56</t>
+  </si>
+  <si>
+    <t>2022_12_07_08_36_06</t>
+  </si>
+  <si>
+    <t>2022_12_07_08_36_57</t>
+  </si>
+  <si>
+    <t>2022_12_07_08_43_56</t>
+  </si>
+  <si>
+    <t>2000558763</t>
+  </si>
+  <si>
+    <t>338127555</t>
+  </si>
+  <si>
+    <t>ff2703874</t>
+  </si>
+  <si>
+    <t>2022_12_07_08_49_29</t>
+  </si>
+  <si>
+    <t>2022_12_07_08_50_37</t>
+  </si>
+  <si>
+    <t>2022_12_07_08_51_44</t>
+  </si>
+  <si>
+    <t>2022_12_07_08_52_52</t>
+  </si>
+  <si>
+    <t>2022_12_07_08_54_00</t>
+  </si>
+  <si>
+    <t>2022_12_07_08_55_07</t>
+  </si>
+  <si>
+    <t>2022_12_07_08_56_15</t>
+  </si>
+  <si>
+    <t>2022_12_07_08_57_23</t>
+  </si>
+  <si>
+    <t>2022_12_07_08_58_41</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_00_09</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_01_30</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_02_37</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_03_54</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_05_15</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_06_04</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_07_26</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_08_43</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_10_00</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_11_11</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_12_15</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_13_26</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_16_45</t>
+  </si>
+  <si>
+    <t>2022_12_07_09_18_30</t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2195,6 +2408,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2516,10 +2742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,7 +2814,7 @@
         <v>427</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="I2" s="45" t="s">
         <v>416</v>
@@ -2620,14 +2846,14 @@
         <v>427</v>
       </c>
       <c r="H3" t="s">
-        <v>525</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="94" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2646,7 +2872,7 @@
         <v>427</v>
       </c>
       <c r="H4" t="s">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>425</v>
@@ -2675,7 +2901,7 @@
         <v>427</v>
       </c>
       <c r="H5" t="s">
-        <v>526</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2705,7 +2931,7 @@
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="94" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2747,7 +2973,7 @@
         <v>427</v>
       </c>
       <c r="H8" t="s">
-        <v>501</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2796,7 +3022,7 @@
         <v>427</v>
       </c>
       <c r="H10" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2822,7 +3048,7 @@
         <v>427</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>527</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2848,7 +3074,7 @@
         <v>427</v>
       </c>
       <c r="H12" t="s">
-        <v>503</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2878,7 +3104,7 @@
       <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="56" t="s">
         <v>361</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -2901,7 +3127,7 @@
       <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="93" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2920,7 +3146,7 @@
         <v>427</v>
       </c>
       <c r="H15" t="s">
-        <v>504</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2946,7 +3172,7 @@
         <v>427</v>
       </c>
       <c r="H16" t="s">
-        <v>505</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="60" customFormat="1" x14ac:dyDescent="0.25">
@@ -2957,7 +3183,7 @@
         <v>188</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="60" t="s">
         <v>8</v>
@@ -2966,10 +3192,10 @@
         <v>109</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>427</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2980,7 +3206,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>8</v>
@@ -2989,10 +3215,10 @@
         <v>109</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>426</v>
+        <v>544</v>
       </c>
       <c r="G18" t="s">
-        <v>427</v>
+        <v>622</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3003,7 +3229,7 @@
         <v>108</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>8</v>
@@ -3012,10 +3238,10 @@
         <v>109</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G19" t="s">
-        <v>427</v>
+        <v>623</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3026,7 +3252,7 @@
         <v>362</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>8</v>
@@ -3035,10 +3261,10 @@
         <v>61</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G20" t="s">
-        <v>427</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3049,7 +3275,7 @@
         <v>346</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>8</v>
@@ -3058,13 +3284,13 @@
         <v>61</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G21" t="s">
-        <v>427</v>
+        <v>628</v>
       </c>
       <c r="H21" t="s">
-        <v>506</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3075,7 +3301,7 @@
         <v>258</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>8</v>
@@ -3084,13 +3310,13 @@
         <v>109</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>426</v>
+        <v>544</v>
       </c>
       <c r="G22" t="s">
-        <v>427</v>
+        <v>629</v>
       </c>
       <c r="H22" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3101,7 +3327,7 @@
         <v>257</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>8</v>
@@ -3110,13 +3336,13 @@
         <v>109</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>426</v>
+        <v>544</v>
       </c>
       <c r="G23" t="s">
-        <v>427</v>
+        <v>630</v>
       </c>
       <c r="H23" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3127,7 +3353,7 @@
         <v>247</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>8</v>
@@ -3136,13 +3362,13 @@
         <v>109</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>426</v>
+        <v>544</v>
       </c>
       <c r="G24" t="s">
-        <v>427</v>
+        <v>631</v>
       </c>
       <c r="H24" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3153,7 +3379,7 @@
         <v>259</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>8</v>
@@ -3162,13 +3388,13 @@
         <v>109</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>426</v>
+        <v>544</v>
       </c>
       <c r="G25" t="s">
-        <v>427</v>
+        <v>632</v>
       </c>
       <c r="H25" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3179,7 +3405,7 @@
         <v>260</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>8</v>
@@ -3188,13 +3414,13 @@
         <v>109</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>426</v>
+        <v>544</v>
       </c>
       <c r="G26" t="s">
-        <v>427</v>
+        <v>633</v>
       </c>
       <c r="H26" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3205,7 +3431,7 @@
         <v>261</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>8</v>
@@ -3214,13 +3440,13 @@
         <v>109</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>426</v>
+        <v>544</v>
       </c>
       <c r="G27" t="s">
-        <v>427</v>
+        <v>634</v>
       </c>
       <c r="H27" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3231,7 +3457,7 @@
         <v>265</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>8</v>
@@ -3240,13 +3466,13 @@
         <v>109</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>426</v>
+        <v>544</v>
       </c>
       <c r="G28" t="s">
-        <v>427</v>
+        <v>635</v>
       </c>
       <c r="H28" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="60" customFormat="1" x14ac:dyDescent="0.25">
@@ -3295,7 +3521,7 @@
         <v>427</v>
       </c>
       <c r="H30" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -3306,7 +3532,7 @@
         <v>50</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="64" t="s">
         <v>47</v>
@@ -3315,10 +3541,10 @@
         <v>61</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G31" s="64" t="s">
-        <v>427</v>
+        <v>636</v>
       </c>
       <c r="H31" s="64"/>
       <c r="I31" s="65"/>
@@ -3331,7 +3557,7 @@
         <v>126</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="64" t="s">
         <v>47</v>
@@ -3340,10 +3566,10 @@
         <v>109</v>
       </c>
       <c r="F32" s="67" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G32" s="64" t="s">
-        <v>427</v>
+        <v>637</v>
       </c>
       <c r="H32" s="64"/>
       <c r="I32" s="65"/>
@@ -3356,7 +3582,7 @@
         <v>131</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="64" t="s">
         <v>47</v>
@@ -3365,10 +3591,10 @@
         <v>109</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G33" s="64" t="s">
-        <v>427</v>
+        <v>638</v>
       </c>
       <c r="H33" s="64"/>
       <c r="I33" s="65"/>
@@ -3381,7 +3607,7 @@
         <v>138</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="64" t="s">
         <v>47</v>
@@ -3390,10 +3616,10 @@
         <v>109</v>
       </c>
       <c r="F34" s="67" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G34" s="64" t="s">
-        <v>427</v>
+        <v>639</v>
       </c>
       <c r="H34" s="64"/>
       <c r="I34" s="65"/>
@@ -3406,7 +3632,7 @@
         <v>143</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="64" t="s">
         <v>47</v>
@@ -3415,10 +3641,10 @@
         <v>109</v>
       </c>
       <c r="F35" s="67" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G35" s="64" t="s">
-        <v>427</v>
+        <v>640</v>
       </c>
       <c r="H35" s="64"/>
       <c r="I35" s="65"/>
@@ -3431,7 +3657,7 @@
         <v>148</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="64" t="s">
         <v>47</v>
@@ -3440,10 +3666,10 @@
         <v>109</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G36" s="64" t="s">
-        <v>427</v>
+        <v>641</v>
       </c>
       <c r="H36" s="64"/>
       <c r="I36" s="65"/>
@@ -3456,7 +3682,7 @@
         <v>152</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="64" t="s">
         <v>47</v>
@@ -3465,10 +3691,10 @@
         <v>61</v>
       </c>
       <c r="F37" s="64" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G37" s="64" t="s">
-        <v>427</v>
+        <v>642</v>
       </c>
       <c r="H37" s="64"/>
       <c r="I37" s="65"/>
@@ -3481,7 +3707,7 @@
         <v>157</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="64" t="s">
         <v>47</v>
@@ -3490,10 +3716,10 @@
         <v>61</v>
       </c>
       <c r="F38" s="64" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G38" s="64" t="s">
-        <v>427</v>
+        <v>643</v>
       </c>
       <c r="H38" s="64"/>
       <c r="I38" s="65"/>
@@ -3506,7 +3732,7 @@
         <v>160</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="64" t="s">
         <v>47</v>
@@ -3515,10 +3741,10 @@
         <v>109</v>
       </c>
       <c r="F39" s="64" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G39" s="64" t="s">
-        <v>427</v>
+        <v>644</v>
       </c>
       <c r="H39" s="64"/>
       <c r="I39" s="65"/>
@@ -3531,7 +3757,7 @@
         <v>163</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="64" t="s">
         <v>47</v>
@@ -3540,10 +3766,10 @@
         <v>109</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G40" s="64" t="s">
-        <v>427</v>
+        <v>645</v>
       </c>
       <c r="H40" s="64"/>
       <c r="I40" s="65"/>
@@ -3556,7 +3782,7 @@
         <v>168</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="64" t="s">
         <v>47</v>
@@ -3565,10 +3791,10 @@
         <v>109</v>
       </c>
       <c r="F41" s="64" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G41" s="64" t="s">
-        <v>427</v>
+        <v>646</v>
       </c>
       <c r="H41" s="64"/>
       <c r="I41" s="65"/>
@@ -3581,7 +3807,7 @@
         <v>175</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="64" t="s">
         <v>47</v>
@@ -3590,10 +3816,10 @@
         <v>109</v>
       </c>
       <c r="F42" s="64" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G42" s="64" t="s">
-        <v>427</v>
+        <v>647</v>
       </c>
       <c r="H42" s="64"/>
       <c r="I42" s="65"/>
@@ -3606,7 +3832,7 @@
         <v>182</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="64" t="s">
         <v>47</v>
@@ -3615,10 +3841,10 @@
         <v>61</v>
       </c>
       <c r="F43" s="64" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G43" s="64" t="s">
-        <v>427</v>
+        <v>648</v>
       </c>
       <c r="H43" s="64"/>
       <c r="I43" s="65"/>
@@ -3631,7 +3857,7 @@
         <v>375</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="64" t="s">
         <v>47</v>
@@ -3640,10 +3866,10 @@
         <v>61</v>
       </c>
       <c r="F44" s="64" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G44" s="64" t="s">
-        <v>427</v>
+        <v>649</v>
       </c>
       <c r="H44" s="64"/>
       <c r="I44" s="65"/>
@@ -3656,7 +3882,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="64" t="s">
         <v>47</v>
@@ -3665,10 +3891,10 @@
         <v>61</v>
       </c>
       <c r="F45" s="64" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="G45" s="64" t="s">
-        <v>427</v>
+        <v>650</v>
       </c>
       <c r="H45" s="64"/>
       <c r="I45" s="65"/>
@@ -3935,7 +4161,7 @@
         <v>427</v>
       </c>
       <c r="H55" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4105,7 +4331,7 @@
         <v>427</v>
       </c>
       <c r="H62" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4177,7 +4403,7 @@
         <v>427</v>
       </c>
       <c r="H65" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4203,7 +4429,7 @@
         <v>427</v>
       </c>
       <c r="H66" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4252,7 +4478,7 @@
         <v>427</v>
       </c>
       <c r="H68" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4278,7 +4504,7 @@
         <v>427</v>
       </c>
       <c r="H69" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4442,7 +4668,7 @@
         <v>427</v>
       </c>
       <c r="H76" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4468,7 +4694,7 @@
         <v>427</v>
       </c>
       <c r="H77" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4476,7 +4702,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="78" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>56</v>
@@ -4499,7 +4725,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="85" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>56</v>
@@ -4522,7 +4748,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="85" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>56</v>
@@ -4540,7 +4766,7 @@
         <v>427</v>
       </c>
       <c r="H80" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4548,7 +4774,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="81" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>56</v>
@@ -4571,7 +4797,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="78" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>56</v>
@@ -4589,7 +4815,7 @@
         <v>427</v>
       </c>
       <c r="H82" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4597,7 +4823,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="78" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>56</v>
@@ -4620,7 +4846,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="78" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>56</v>
@@ -4638,7 +4864,7 @@
         <v>427</v>
       </c>
       <c r="H84" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4646,7 +4872,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="78" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>56</v>
@@ -4664,7 +4890,7 @@
         <v>427</v>
       </c>
       <c r="H85" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4672,7 +4898,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="78" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>56</v>
@@ -4695,7 +4921,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="78" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>56</v>
@@ -4718,7 +4944,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="78" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>56</v>
@@ -4741,7 +4967,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="84" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>56</v>
@@ -4759,7 +4985,7 @@
         <v>427</v>
       </c>
       <c r="H89" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4767,7 +4993,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="78" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>56</v>
@@ -4790,7 +5016,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="84" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>56</v>
@@ -4808,7 +5034,7 @@
         <v>427</v>
       </c>
       <c r="H91" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4816,7 +5042,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="84" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>56</v>
@@ -4834,7 +5060,7 @@
         <v>427</v>
       </c>
       <c r="H92" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4842,7 +5068,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="81" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>56</v>
@@ -4860,7 +5086,7 @@
         <v>427</v>
       </c>
       <c r="H93" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4868,7 +5094,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="78" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>56</v>
@@ -4891,7 +5117,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="86" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>56</v>
@@ -4903,15 +5129,18 @@
         <v>109</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
       <c r="B96" s="74" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>47</v>
@@ -4920,10 +5149,263 @@
         <v>109</v>
       </c>
       <c r="F96" t="s">
+        <v>426</v>
+      </c>
+      <c r="G96" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="73" t="s">
+        <v>568</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F97" t="s">
+        <v>426</v>
+      </c>
+      <c r="G97" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>567</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E98" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F98" t="s">
+        <v>426</v>
+      </c>
+      <c r="G98" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="78" t="s">
+        <v>571</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="G99" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="74" t="s">
+        <v>572</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E100" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F100" t="s">
+        <v>426</v>
+      </c>
+      <c r="G100" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+      <c r="B101" s="90" t="s">
+        <v>574</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E101" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F101" t="s">
+        <v>426</v>
+      </c>
+      <c r="G101" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
+      <c r="B102" s="90" t="s">
         <v>578</v>
       </c>
-      <c r="G96" t="s">
+      <c r="C102" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F102" t="s">
+        <v>426</v>
+      </c>
+      <c r="G102" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>579</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F103" t="s">
+        <v>426</v>
+      </c>
+      <c r="G103" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>103</v>
+      </c>
+      <c r="B104" s="91" t="s">
+        <v>580</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" t="s">
+        <v>426</v>
+      </c>
+      <c r="G104" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>104</v>
+      </c>
+      <c r="B105" s="92" t="s">
+        <v>585</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F105" t="s">
+        <v>426</v>
+      </c>
+      <c r="G105" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
+      <c r="B106" s="92" t="s">
+        <v>587</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F106" t="s">
+        <v>426</v>
+      </c>
+      <c r="G106" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>106</v>
+      </c>
+      <c r="B107" s="92" t="s">
+        <v>588</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F107" t="s">
+        <v>426</v>
+      </c>
+      <c r="G107" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -4939,10 +5421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:EM71"/>
+  <dimension ref="A1:EM72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN30" sqref="AN30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5045,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>1</v>
@@ -5363,7 +5845,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:109" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -5546,7 +6028,7 @@
       <c r="DB2" s="22"/>
       <c r="DC2" s="22"/>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:109" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -5743,7 +6225,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:109" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -5904,7 +6386,7 @@
       <c r="DB4" s="27"/>
       <c r="DC4" s="27"/>
     </row>
-    <row r="5" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:109" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -6089,7 +6571,7 @@
       <c r="DB5" s="22"/>
       <c r="DC5" s="22"/>
     </row>
-    <row r="6" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:109" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -6274,7 +6756,7 @@
       <c r="DB6" s="22"/>
       <c r="DC6" s="22"/>
     </row>
-    <row r="7" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:109" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -6453,7 +6935,7 @@
       <c r="DB7" s="22"/>
       <c r="DC7" s="22"/>
     </row>
-    <row r="8" spans="1:109" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:109" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -6634,7 +7116,7 @@
       <c r="DB8" s="29"/>
       <c r="DC8" s="29"/>
     </row>
-    <row r="9" spans="1:109" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:109" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -6813,7 +7295,7 @@
       <c r="DB9" s="29"/>
       <c r="DC9" s="29"/>
     </row>
-    <row r="10" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:109" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -7002,7 +7484,7 @@
       <c r="DB10" s="22"/>
       <c r="DC10" s="22"/>
     </row>
-    <row r="11" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:109" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -7191,7 +7673,7 @@
       <c r="DB11" s="22"/>
       <c r="DC11" s="22"/>
     </row>
-    <row r="12" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:109" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -7374,7 +7856,7 @@
       <c r="DB12" s="22"/>
       <c r="DC12" s="22"/>
     </row>
-    <row r="13" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:109" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -7561,7 +8043,7 @@
       <c r="DB13" s="22"/>
       <c r="DC13" s="22"/>
     </row>
-    <row r="14" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:109" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -7744,7 +8226,7 @@
       <c r="DB14" s="22"/>
       <c r="DC14" s="22"/>
     </row>
-    <row r="15" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:109" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -7927,7 +8409,7 @@
       <c r="DB15" s="22"/>
       <c r="DC15" s="22"/>
     </row>
-    <row r="16" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:109" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -8116,7 +8598,7 @@
       <c r="DB16" s="22"/>
       <c r="DC16" s="22"/>
     </row>
-    <row r="17" spans="1:110" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:110" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -8299,7 +8781,7 @@
       <c r="DB17" s="22"/>
       <c r="DC17" s="22"/>
     </row>
-    <row r="18" spans="1:110" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:110" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -8482,7 +8964,7 @@
       <c r="DB18" s="22"/>
       <c r="DC18" s="22"/>
     </row>
-    <row r="19" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -8659,7 +9141,7 @@
       <c r="DB19" s="27"/>
       <c r="DC19" s="27"/>
     </row>
-    <row r="20" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>19</v>
       </c>
@@ -8790,7 +9272,7 @@
       <c r="DB20" s="27"/>
       <c r="DC20" s="27"/>
     </row>
-    <row r="21" spans="1:110" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:110" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -9177,10 +9659,10 @@
         <v>56</v>
       </c>
       <c r="CO22" s="14" t="s">
-        <v>508</v>
+        <v>627</v>
       </c>
       <c r="CP22" s="14" t="s">
-        <v>507</v>
+        <v>626</v>
       </c>
       <c r="CQ22" s="27" t="s">
         <v>56</v>
@@ -10144,7 +10626,7 @@
         <v>424</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>4</v>
@@ -10174,7 +10656,7 @@
         <v>23</v>
       </c>
       <c r="AB30" s="57" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AC30" s="2" t="s">
         <v>84</v>
@@ -10229,7 +10711,7 @@
         <v>336</v>
       </c>
       <c r="DD30" s="57" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:110" x14ac:dyDescent="0.25">
@@ -10976,7 +11458,7 @@
         <v>424</v>
       </c>
       <c r="F39" s="57" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
@@ -12819,7 +13301,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>27</v>
@@ -12829,7 +13311,7 @@
         <v>424</v>
       </c>
       <c r="F55" s="57" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56" spans="1:143" x14ac:dyDescent="0.25">
@@ -12837,7 +13319,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>27</v>
@@ -12855,7 +13337,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>27</v>
@@ -13014,7 +13496,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="73" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>27</v>
@@ -13024,10 +13506,10 @@
         <v>424</v>
       </c>
       <c r="F58" s="57" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="AE58" s="23" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="1:143" x14ac:dyDescent="0.25">
@@ -13035,7 +13517,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>27</v>
@@ -13049,7 +13531,7 @@
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
       <c r="J59" s="22" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
@@ -13229,7 +13711,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>27</v>
@@ -13239,7 +13721,7 @@
         <v>424</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" spans="1:143" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13247,7 +13729,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>27</v>
@@ -13259,13 +13741,13 @@
         <v>424</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
       <c r="J61" s="22" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
@@ -13436,7 +13918,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>83</v>
@@ -13445,10 +13927,10 @@
         <v>424</v>
       </c>
       <c r="F62" s="57" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="J62" s="22" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
@@ -13649,7 +14131,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>83</v>
@@ -13658,7 +14140,7 @@
         <v>424</v>
       </c>
       <c r="F63" s="57" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
@@ -13802,7 +14284,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>83</v>
@@ -13811,7 +14293,7 @@
         <v>424</v>
       </c>
       <c r="F64" s="57" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65" spans="1:123" x14ac:dyDescent="0.25">
@@ -13819,7 +14301,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>83</v>
@@ -13828,7 +14310,7 @@
         <v>424</v>
       </c>
       <c r="F65" s="57" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="1:123" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13836,7 +14318,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C66" s="22" t="s">
         <v>27</v>
@@ -13850,7 +14332,7 @@
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
       <c r="J66" s="22" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
@@ -14019,7 +14501,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>27</v>
@@ -14031,7 +14513,7 @@
         <v>424</v>
       </c>
       <c r="F67" s="57" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68" spans="1:123" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14039,7 +14521,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>27</v>
@@ -14053,7 +14535,7 @@
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
       <c r="J68" s="22" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
@@ -14222,7 +14704,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>83</v>
@@ -14236,7 +14718,7 @@
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
       <c r="J69" s="22" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
@@ -14405,7 +14887,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="73" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>27</v>
@@ -14419,7 +14901,7 @@
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
       <c r="J70" s="22" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
@@ -14601,7 +15083,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C71" s="22" t="s">
         <v>27</v>
@@ -14610,8 +15092,26 @@
         <v>424</v>
       </c>
       <c r="F71" s="57" t="s">
-        <v>524</v>
-      </c>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="72" spans="1:123" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>64</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="F72" s="57" t="s">
+        <v>531</v>
+      </c>
+      <c r="G72" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14625,10 +15125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
-  <dimension ref="A1:BC18"/>
+  <dimension ref="A1:BJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14636,57 +15136,57 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.42578125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="31" max="33" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="35" max="36" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="33" max="35" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="37" max="38" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
     <col min="50" max="50" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -14700,158 +15200,181 @@
         <v>414</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="BC1" s="1"/>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BE1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -14862,50 +15385,50 @@
         <v>124</v>
       </c>
       <c r="D2" s="14"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="O2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="Q2" s="15"/>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
       <c r="V2" s="15"/>
       <c r="W2" s="15"/>
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
@@ -14932,8 +15455,10 @@
       <c r="AZ2" s="14"/>
       <c r="BA2" s="14"/>
       <c r="BB2" s="14"/>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -14944,53 +15469,53 @@
         <v>124</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="N3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="Q3" s="15"/>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="U3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
       <c r="AF3" s="14"/>
@@ -15016,8 +15541,10 @@
       <c r="AZ3" s="14"/>
       <c r="BA3" s="14"/>
       <c r="BB3" s="14"/>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -15028,55 +15555,55 @@
         <v>124</v>
       </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="O4" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="Q4" s="15"/>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
+      <c r="AC4" s="15"/>
       <c r="AD4" s="14"/>
       <c r="AE4" s="14"/>
       <c r="AF4" s="14"/>
@@ -15102,8 +15629,10 @@
       <c r="AZ4" s="14"/>
       <c r="BA4" s="14"/>
       <c r="BB4" s="14"/>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -15114,50 +15643,50 @@
         <v>139</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="14"/>
+      <c r="M5" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>141</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="O5" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="Q5" s="15"/>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="U5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
@@ -15184,8 +15713,10 @@
       <c r="AZ5" s="14"/>
       <c r="BA5" s="14"/>
       <c r="BB5" s="14"/>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -15196,58 +15727,58 @@
         <v>139</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14" t="s">
+      <c r="L6" s="14"/>
+      <c r="M6" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="N6" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="P6" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="14" t="s">
+      <c r="Q6" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="R6" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="U6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14" t="s">
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
       <c r="AE6" s="14"/>
       <c r="AF6" s="14"/>
       <c r="AG6" s="14"/>
@@ -15272,8 +15803,10 @@
       <c r="AZ6" s="14"/>
       <c r="BA6" s="14"/>
       <c r="BB6" s="14"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -15284,58 +15817,58 @@
         <v>124</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14" t="s">
+      <c r="L7" s="14"/>
+      <c r="M7" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="N7" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="P7" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="R7" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="U7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14" t="s">
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
       <c r="AG7" s="14"/>
@@ -15360,8 +15893,10 @@
       <c r="AZ7" s="14"/>
       <c r="BA7" s="14"/>
       <c r="BB7" s="14"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -15372,47 +15907,47 @@
         <v>124</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14" t="s">
+      <c r="L8" s="14"/>
+      <c r="M8" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="N8" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="41" t="s">
+      <c r="O8" s="14"/>
+      <c r="P8" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="41"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="15"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="14"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="16" t="s">
+      <c r="U8" s="15"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
       <c r="X8" s="16"/>
-      <c r="Y8" s="14" t="s">
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
@@ -15440,8 +15975,10 @@
       <c r="AZ8" s="14"/>
       <c r="BA8" s="14"/>
       <c r="BB8" s="14"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -15452,62 +15989,62 @@
         <v>124</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="K9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14" t="s">
+      <c r="L9" s="14"/>
+      <c r="M9" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="L9" s="42">
+      <c r="N9" s="42">
         <v>44201</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="O9" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="P9" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="R9" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="T9" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="U9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="15" t="s">
+      <c r="V9" s="14"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
       <c r="AA9" s="14"/>
-      <c r="AB9" s="14" t="s">
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
       <c r="AG9" s="14"/>
@@ -15532,8 +16069,10 @@
       <c r="AZ9" s="14"/>
       <c r="BA9" s="14"/>
       <c r="BB9" s="14"/>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -15544,51 +16083,51 @@
         <v>124</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14"/>
+      <c r="M10" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="N10" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="41" t="s">
+      <c r="O10" s="14"/>
+      <c r="P10" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="14" t="s">
+      <c r="Q10" s="16"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="14"/>
-      <c r="S10" s="15"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="16" t="s">
+      <c r="U10" s="15"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="X10" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
       <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
@@ -15616,8 +16155,10 @@
       <c r="AZ10" s="14"/>
       <c r="BA10" s="14"/>
       <c r="BB10" s="14"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -15628,47 +16169,47 @@
         <v>124</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="K11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14" t="s">
+      <c r="L11" s="14"/>
+      <c r="M11" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="14"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="15"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="42"/>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="15"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="14"/>
-      <c r="S11" s="15"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="16" t="s">
+      <c r="U11" s="15"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="V11" s="15" t="s">
+      <c r="X11" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="14" t="s">
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
@@ -15696,8 +16237,10 @@
       <c r="AZ11" s="14"/>
       <c r="BA11" s="14"/>
       <c r="BB11" s="14"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -15708,53 +16251,53 @@
         <v>124</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="K12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="L12" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="M12" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="S12" s="15" t="s">
+      <c r="U12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="16" t="s">
+      <c r="V12" s="14"/>
+      <c r="W12" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="V12" s="16" t="s">
+      <c r="X12" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16" t="s">
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="Y12" s="14" t="s">
+      <c r="AA12" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
@@ -15782,8 +16325,10 @@
       <c r="AZ12" s="14"/>
       <c r="BA12" s="14"/>
       <c r="BB12" s="14"/>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -15796,55 +16341,55 @@
       <c r="D13" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="H13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="K13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="L13" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="M13" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="U13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="16" t="s">
+      <c r="V13" s="14"/>
+      <c r="W13" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="V13" s="16" t="s">
+      <c r="X13" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="W13" s="16" t="s">
+      <c r="Y13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="16" t="s">
+      <c r="Z13" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="Y13" s="14" t="s">
+      <c r="AA13" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
@@ -15872,8 +16417,10 @@
       <c r="AZ13" s="14"/>
       <c r="BA13" s="14"/>
       <c r="BB13" s="14"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -15884,53 +16431,53 @@
         <v>124</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="14"/>
+      <c r="J14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="K14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="L14" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="M14" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
-      <c r="R14" s="14" t="s">
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="S14" s="15" t="s">
+      <c r="U14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="16" t="s">
+      <c r="V14" s="14"/>
+      <c r="W14" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="V14" s="16" t="s">
+      <c r="X14" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16" t="s">
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" s="14" t="s">
+      <c r="AA14" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
@@ -15958,8 +16505,10 @@
       <c r="AZ14" s="14"/>
       <c r="BA14" s="14"/>
       <c r="BB14" s="14"/>
-    </row>
-    <row r="15" spans="1:55" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+    </row>
+    <row r="15" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -15970,136 +16519,138 @@
         <v>124</v>
       </c>
       <c r="D15" s="35"/>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="H15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35" t="s">
+      <c r="I15" s="35"/>
+      <c r="J15" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="K15" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="L15" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="M15" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="N15" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="O15" s="35" t="s">
         <v>134</v>
-      </c>
-      <c r="N15" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>145</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="Q15" s="35" t="s">
+      <c r="Q15" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="R15" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="S15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="35" t="s">
+      <c r="T15" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="S15" s="37" t="s">
+      <c r="U15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T15" s="37" t="s">
+      <c r="V15" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="43" t="s">
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="X15" s="43" t="s">
+      <c r="Z15" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
       <c r="AA15" s="35"/>
-      <c r="AB15" s="35" t="s">
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="AC15" s="35" t="s">
+      <c r="AE15" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
       <c r="AF15" s="35"/>
       <c r="AG15" s="35"/>
       <c r="AH15" s="35"/>
-      <c r="AI15" s="35" t="s">
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="AJ15" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK15" s="44" t="s">
+      <c r="AL15" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM15" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="AL15" s="35" t="s">
+      <c r="AN15" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="AM15" s="35" t="s">
+      <c r="AO15" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="AN15" s="35" t="s">
+      <c r="AP15" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="AO15" s="35" t="s">
+      <c r="AQ15" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="AP15" s="35" t="s">
+      <c r="AR15" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="AQ15" s="35" t="s">
+      <c r="AS15" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="AR15" s="35" t="s">
+      <c r="AT15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AS15" s="43" t="s">
+      <c r="AU15" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="AT15" s="43" t="s">
+      <c r="AV15" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="AU15" s="45" t="s">
+      <c r="AW15" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="AV15" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW15" s="35" t="s">
-        <v>56</v>
-      </c>
       <c r="AX15" s="35" t="s">
         <v>56</v>
       </c>
       <c r="AY15" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ15" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA15" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="AZ15" s="46" t="s">
+      <c r="BB15" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="BA15" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB15" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC15" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD15" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -16110,51 +16661,51 @@
         <v>124</v>
       </c>
       <c r="D16" s="14"/>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="H16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="I16" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="J16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="K16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="L16" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="M16" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="L16" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="M16" s="14" t="s">
+      <c r="N16" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="O16" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>377</v>
       </c>
       <c r="P16" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14" t="s">
+      <c r="Q16" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="S16" s="15" t="s">
+      <c r="U16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
@@ -16163,23 +16714,23 @@
       <c r="AA16" s="14"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
-      <c r="AD16" s="23" t="s">
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="AE16" s="48" t="s">
+      <c r="AG16" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="AF16" s="48" t="s">
+      <c r="AH16" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="AG16" s="23" t="s">
+      <c r="AI16" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="AH16" s="48" t="s">
+      <c r="AJ16" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
       <c r="AM16" s="14"/>
@@ -16198,70 +16749,72 @@
       <c r="AZ16" s="14"/>
       <c r="BA16" s="14"/>
       <c r="BB16" s="14"/>
-    </row>
-    <row r="17" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+    </row>
+    <row r="17" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="77">
         <v>16</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>139</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="H17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="K17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="14"/>
+      <c r="M17" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="N17" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="O17" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="N17" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="P17" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="14" t="s">
+      <c r="Q17" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="R17" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="S17" s="15" t="s">
+      <c r="U17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14" t="s">
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
       <c r="AG17" s="14"/>
@@ -16286,65 +16839,67 @@
       <c r="AZ17" s="14"/>
       <c r="BA17" s="14"/>
       <c r="BB17" s="14"/>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>124</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="H18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="I18" s="14"/>
+      <c r="J18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="K18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="L18" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="M18" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
-      <c r="R18" s="14" t="s">
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="S18" s="15" t="s">
+      <c r="U18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="V18" s="16" t="s">
+      <c r="V18" s="14"/>
+      <c r="W18" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="X18" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16" t="s">
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="Y18" s="14" t="s">
+      <c r="AA18" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
@@ -16372,14 +16927,474 @@
       <c r="AZ18" s="14"/>
       <c r="BA18" s="14"/>
       <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A19" s="77">
+        <v>18</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>568</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="W19" s="88" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A20" s="77">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>567</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="W20" s="88" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="77">
+        <v>20</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>572</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="W21" s="89" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A22" s="77">
+        <v>21</v>
+      </c>
+      <c r="B22" s="90" t="s">
+        <v>574</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="W22" s="89" t="s">
+        <v>573</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>576</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="90" t="s">
+        <v>578</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG23" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH23" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI23" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="AJ23" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="14"/>
+      <c r="BB23" s="14"/>
+      <c r="BC23" s="14"/>
+      <c r="BD23" s="14"/>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="R24" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG24" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH24" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI24" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="AJ24" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="14"/>
+      <c r="BB24" s="14"/>
+      <c r="BC24" s="14"/>
+      <c r="BD24" s="14"/>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>580</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="R25" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG25" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH25" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI25" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="AJ25" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="14"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="14"/>
+    </row>
+    <row r="26" spans="1:62" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="77">
+        <v>25</v>
+      </c>
+      <c r="B26" s="92" t="s">
+        <v>585</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="77">
+        <v>26</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>587</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="77">
+        <v>27</v>
+      </c>
+      <c r="B28" s="92" t="s">
+        <v>588</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="BG28" s="88" t="s">
+        <v>589</v>
+      </c>
+      <c r="BH28" s="88" t="s">
+        <v>590</v>
+      </c>
+      <c r="BI28" s="88" t="s">
+        <v>591</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>351</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AU15" r:id="rId1" xr:uid="{8A19EDCF-BD59-40A9-B1BB-CA280508B1BC}"/>
-    <hyperlink ref="K16" r:id="rId2" display="http://10.32.6.121:8080/tfs/MSDynamics/MSDynamicsCRM/_workitems/edit/5906" xr:uid="{887959FD-2E54-4DD2-BB21-81D978BEC156}"/>
+    <hyperlink ref="AW15" r:id="rId1" xr:uid="{8A19EDCF-BD59-40A9-B1BB-CA280508B1BC}"/>
+    <hyperlink ref="M16" r:id="rId2" display="http://10.32.6.121:8080/tfs/MSDynamics/MSDynamicsCRM/_workitems/edit/5906" xr:uid="{887959FD-2E54-4DD2-BB21-81D978BEC156}"/>
+    <hyperlink ref="M23" r:id="rId3" display="http://10.32.6.121:8080/tfs/MSDynamics/MSDynamicsCRM/_workitems/edit/5906" xr:uid="{E3FE4A80-D9D3-4FB5-9132-9AE3BFF8AC5D}"/>
+    <hyperlink ref="M24" r:id="rId4" display="http://10.32.6.121:8080/tfs/MSDynamics/MSDynamicsCRM/_workitems/edit/5906" xr:uid="{E1024793-1A08-448B-BAB6-ED90CB1C51E7}"/>
+    <hyperlink ref="M25" r:id="rId5" display="http://10.32.6.121:8080/tfs/MSDynamics/MSDynamicsCRM/_workitems/edit/5906" xr:uid="{7B93BD04-A8BD-4A83-931A-B737C30F0AD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -16387,8 +17402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17004,6 +18019,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17012,7 +18036,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17246,16 +18270,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -17263,7 +18288,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17281,14 +18306,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gnathan\git\Dynamics-CRM-Stage\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A660BDF-2A74-4A3E-AE5A-35A7F755BCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3E7414-B1F7-4076-9C04-0A842DA190FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="Contact" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$J$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$J$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Member!$A$1:$EM$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -90,7 +91,7 @@
     As confirmed by Viji, this is only for offshore testing purpose</t>
       </text>
     </comment>
-    <comment ref="B42" authorId="4" shapeId="0" xr:uid="{0B1823EB-C29D-40FF-83C0-DD93FB5DE67C}">
+    <comment ref="B43" authorId="4" shapeId="0" xr:uid="{0B1823EB-C29D-40FF-83C0-DD93FB5DE67C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -98,7 +99,7 @@
     Change status to 'Approved' after data refresh, login as 04 user</t>
       </text>
     </comment>
-    <comment ref="B58" authorId="5" shapeId="0" xr:uid="{1E041EB8-A550-445F-9489-1ABE0ACB1153}">
+    <comment ref="B59" authorId="5" shapeId="0" xr:uid="{1E041EB8-A550-445F-9489-1ABE0ACB1153}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,7 +109,7 @@
     Also, updated frame to 0 in the script</t>
       </text>
     </comment>
-    <comment ref="B61" authorId="6" shapeId="0" xr:uid="{FFAF83AA-4248-4249-A798-0C54786E0C3C}">
+    <comment ref="B62" authorId="6" shapeId="0" xr:uid="{FFAF83AA-4248-4249-A798-0C54786E0C3C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,7 +117,7 @@
     After data refresh, data needs to set</t>
       </text>
     </comment>
-    <comment ref="B63" authorId="7" shapeId="0" xr:uid="{F48DEBF6-E400-4E04-958D-E87AAAE0A96A}">
+    <comment ref="B64" authorId="7" shapeId="0" xr:uid="{F48DEBF6-E400-4E04-958D-E87AAAE0A96A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -124,7 +125,7 @@
     Added values for user1 &amp; CRMNUMBER1 columns, as it was missing in data sheet, but was in code</t>
       </text>
     </comment>
-    <comment ref="B65" authorId="8" shapeId="0" xr:uid="{74283B0A-8752-4DA8-868C-525FC73F2946}">
+    <comment ref="B66" authorId="8" shapeId="0" xr:uid="{74283B0A-8752-4DA8-868C-525FC73F2946}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -132,7 +133,7 @@
     Changes user to test01 - member supervisor, instead of test02</t>
       </text>
     </comment>
-    <comment ref="B74" authorId="9" shapeId="0" xr:uid="{4AC0C06C-8147-4019-8D36-0FA560C2CD5B}">
+    <comment ref="B75" authorId="9" shapeId="0" xr:uid="{4AC0C06C-8147-4019-8D36-0FA560C2CD5B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -140,7 +141,7 @@
     Partially automated, hence not included in Azure</t>
       </text>
     </comment>
-    <comment ref="B101" authorId="10" shapeId="0" xr:uid="{A86E852D-C704-40E9-9D3E-1B76A65A0805}">
+    <comment ref="B102" authorId="10" shapeId="0" xr:uid="{A86E852D-C704-40E9-9D3E-1B76A65A0805}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -148,7 +149,7 @@
     After data refresh, add 'Supplier Diversity Information' role to test04 </t>
       </text>
     </comment>
-    <comment ref="B105" authorId="11" shapeId="0" xr:uid="{8044D140-4AC2-41BC-985F-46BD8826FE55}">
+    <comment ref="B106" authorId="11" shapeId="0" xr:uid="{8044D140-4AC2-41BC-985F-46BD8826FE55}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -156,7 +157,7 @@
     Same testcase, separated for 2 different forms</t>
       </text>
     </comment>
-    <comment ref="B106" authorId="12" shapeId="0" xr:uid="{9A8AE314-42F7-4F88-8AE4-4131954B8D8E}">
+    <comment ref="B107" authorId="12" shapeId="0" xr:uid="{9A8AE314-42F7-4F88-8AE4-4131954B8D8E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -169,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4330" uniqueCount="589">
   <si>
     <t>UserName</t>
   </si>
@@ -1467,9 +1468,6 @@
     <t>TFS ID_45307:Verify if Accounts cannot be created directly in Terminated Status.</t>
   </si>
   <si>
-    <t>2000555837</t>
-  </si>
-  <si>
     <t>Please do not create account with Terminated Account status If you contact support, please provide the technical details.</t>
   </si>
   <si>
@@ -1653,9 +1651,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>2000556551</t>
-  </si>
-  <si>
     <t>TFS ID_43706: 11232: Cloud: Verify warning message is displayed when there is any DP change of an account with children (non location type)</t>
   </si>
   <si>
@@ -1755,9 +1750,6 @@
     <t>TFS ID_45284:Verify newly added fields in Subaccounts view</t>
   </si>
   <si>
-    <t>2000556985</t>
-  </si>
-  <si>
     <t>TFS ID_43985:Test Case 9316 :Verify supplier can not have Location type account as DP</t>
   </si>
   <si>
@@ -1845,148 +1837,106 @@
     <t>UserName4</t>
   </si>
   <si>
-    <t>7000579415</t>
-  </si>
-  <si>
-    <t>7000579416</t>
-  </si>
-  <si>
-    <t>7000579417</t>
-  </si>
-  <si>
-    <t>7000579418</t>
-  </si>
-  <si>
-    <t>7000579419</t>
-  </si>
-  <si>
-    <t>7000579420</t>
-  </si>
-  <si>
-    <t>7000579421</t>
-  </si>
-  <si>
-    <t>2000558830</t>
-  </si>
-  <si>
-    <t>2000558832</t>
-  </si>
-  <si>
-    <t>2000558834</t>
-  </si>
-  <si>
-    <t>2000558835</t>
-  </si>
-  <si>
-    <t>2000558837</t>
-  </si>
-  <si>
-    <t>2000558840</t>
-  </si>
-  <si>
     <t>784694788</t>
   </si>
   <si>
     <t>of2434859</t>
   </si>
   <si>
-    <t>2000558868</t>
-  </si>
-  <si>
-    <t>2000558872</t>
-  </si>
-  <si>
-    <t>2000558875</t>
-  </si>
-  <si>
-    <t>2000558877</t>
-  </si>
-  <si>
-    <t>2000558878</t>
-  </si>
-  <si>
-    <t>2000558884</t>
-  </si>
-  <si>
-    <t>2000558885</t>
-  </si>
-  <si>
-    <t>2000558887</t>
-  </si>
-  <si>
-    <t>2000558888</t>
-  </si>
-  <si>
-    <t>2000558890</t>
-  </si>
-  <si>
-    <t>2000558893</t>
-  </si>
-  <si>
-    <t>2000558895</t>
-  </si>
-  <si>
-    <t>2000558897</t>
-  </si>
-  <si>
     <t>corp\gnathan</t>
   </si>
   <si>
-    <t>2000558908</t>
-  </si>
-  <si>
-    <t>2000558909</t>
-  </si>
-  <si>
-    <t>2000558911</t>
-  </si>
-  <si>
-    <t>2000558912</t>
-  </si>
-  <si>
-    <t>2000558914</t>
-  </si>
-  <si>
-    <t>2000558915</t>
-  </si>
-  <si>
-    <t>2000558923</t>
-  </si>
-  <si>
-    <t>2000558924</t>
-  </si>
-  <si>
-    <t>2000558925</t>
-  </si>
-  <si>
-    <t>2000559077</t>
-  </si>
-  <si>
-    <t>2000559086</t>
-  </si>
-  <si>
     <t>corp\crmtest10</t>
   </si>
   <si>
-    <t>2000559088</t>
-  </si>
-  <si>
-    <t>2000559099</t>
-  </si>
-  <si>
     <t>1000121984</t>
   </si>
   <si>
     <t>12/14/2022</t>
   </si>
   <si>
-    <t>2000565965</t>
-  </si>
-  <si>
-    <t>2000565966</t>
-  </si>
-  <si>
-    <t>2022_12_13_06_53_57</t>
+    <t>12/1/2022</t>
+  </si>
+  <si>
+    <t>1000056332</t>
+  </si>
+  <si>
+    <t>Leased</t>
+  </si>
+  <si>
+    <t>12/3/2022</t>
+  </si>
+  <si>
+    <t>12/2/2022</t>
+  </si>
+  <si>
+    <t>Conductiv</t>
+  </si>
+  <si>
+    <t>Benzer Pharmacy Holding</t>
+  </si>
+  <si>
+    <t>Innovatix, LLC National Headquarters</t>
+  </si>
+  <si>
+    <t>Conductiv Contracts</t>
+  </si>
+  <si>
+    <t>TFS ID_109492:Verify Conductiv membership provider is available for Premier Membership</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>109492_Verify Conductiv membership</t>
+  </si>
+  <si>
+    <t>2000566540</t>
+  </si>
+  <si>
+    <t>2022_12_20_06_46_00</t>
+  </si>
+  <si>
+    <t>12/4/2022</t>
+  </si>
+  <si>
+    <t>2000566542</t>
+  </si>
+  <si>
+    <t>2022_12_20_06_54_16</t>
+  </si>
+  <si>
+    <t>2000566546</t>
+  </si>
+  <si>
+    <t>2022_12_20_07_18_00</t>
+  </si>
+  <si>
+    <t>2000566577</t>
+  </si>
+  <si>
+    <t>2022_12_20_07_28_32</t>
+  </si>
+  <si>
+    <t>2000566580</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>2022_12_20_09_20_34</t>
+  </si>
+  <si>
+    <t>2000566581</t>
+  </si>
+  <si>
+    <t>2022_12_20_09_32_42</t>
+  </si>
+  <si>
+    <t>2000566582</t>
+  </si>
+  <si>
+    <t>2022_12_20_09_40_14</t>
   </si>
 </sst>
 </file>
@@ -2730,34 +2680,34 @@
   <threadedComment ref="B30" dT="2022-12-09T14:31:01.63" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{A8B2E703-1588-4D93-B01B-C72EEA60A37B}">
     <text>As confirmed by Viji, this is only for offshore testing purpose</text>
   </threadedComment>
-  <threadedComment ref="B42" dT="2022-12-12T09:30:33.72" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{0B1823EB-C29D-40FF-83C0-DD93FB5DE67C}">
+  <threadedComment ref="B43" dT="2022-12-12T09:30:33.72" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{0B1823EB-C29D-40FF-83C0-DD93FB5DE67C}">
     <text>Change status to 'Approved' after data refresh, login as 04 user</text>
   </threadedComment>
-  <threadedComment ref="B58" dT="2022-12-12T12:47:43.63" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{1E041EB8-A550-445F-9489-1ABE0ACB1153}">
+  <threadedComment ref="B59" dT="2022-12-12T12:47:43.63" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{1E041EB8-A550-445F-9489-1ABE0ACB1153}">
     <text>After data refresh, changed user to test01 - member supervisor, it had test02 before</text>
   </threadedComment>
-  <threadedComment ref="B58" dT="2022-12-12T13:13:04.70" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{8A14C525-4213-473B-A87B-A98C7D89F1B1}" parentId="{1E041EB8-A550-445F-9489-1ABE0ACB1153}">
+  <threadedComment ref="B59" dT="2022-12-12T13:13:04.70" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{8A14C525-4213-473B-A87B-A98C7D89F1B1}" parentId="{1E041EB8-A550-445F-9489-1ABE0ACB1153}">
     <text>Also, updated frame to 0 in the script</text>
   </threadedComment>
-  <threadedComment ref="B61" dT="2022-12-09T13:33:16.84" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{FFAF83AA-4248-4249-A798-0C54786E0C3C}">
+  <threadedComment ref="B62" dT="2022-12-09T13:33:16.84" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{FFAF83AA-4248-4249-A798-0C54786E0C3C}">
     <text>After data refresh, data needs to set</text>
   </threadedComment>
-  <threadedComment ref="B63" dT="2022-12-12T13:16:20.47" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{F48DEBF6-E400-4E04-958D-E87AAAE0A96A}">
+  <threadedComment ref="B64" dT="2022-12-12T13:16:20.47" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{F48DEBF6-E400-4E04-958D-E87AAAE0A96A}">
     <text>Added values for user1 &amp; CRMNUMBER1 columns, as it was missing in data sheet, but was in code</text>
   </threadedComment>
-  <threadedComment ref="B65" dT="2022-12-13T06:13:18.76" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{74283B0A-8752-4DA8-868C-525FC73F2946}">
+  <threadedComment ref="B66" dT="2022-12-13T06:13:18.76" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{74283B0A-8752-4DA8-868C-525FC73F2946}">
     <text>Changes user to test01 - member supervisor, instead of test02</text>
   </threadedComment>
-  <threadedComment ref="B74" dT="2022-12-09T13:31:32.57" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{4AC0C06C-8147-4019-8D36-0FA560C2CD5B}">
+  <threadedComment ref="B75" dT="2022-12-09T13:31:32.57" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{4AC0C06C-8147-4019-8D36-0FA560C2CD5B}">
     <text>Partially automated, hence not included in Azure</text>
   </threadedComment>
-  <threadedComment ref="B101" dT="2022-12-12T10:26:14.64" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{A86E852D-C704-40E9-9D3E-1B76A65A0805}">
+  <threadedComment ref="B102" dT="2022-12-12T10:26:14.64" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{A86E852D-C704-40E9-9D3E-1B76A65A0805}">
     <text xml:space="preserve">After data refresh, add 'Supplier Diversity Information' role to test04 </text>
   </threadedComment>
-  <threadedComment ref="B105" dT="2022-12-09T14:49:34.80" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{8044D140-4AC2-41BC-985F-46BD8826FE55}">
+  <threadedComment ref="B106" dT="2022-12-09T14:49:34.80" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{8044D140-4AC2-41BC-985F-46BD8826FE55}">
     <text>Same testcase, separated for 2 different forms</text>
   </threadedComment>
-  <threadedComment ref="B106" dT="2022-12-09T14:49:29.18" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{9A8AE314-42F7-4F88-8AE4-4131954B8D8E}">
+  <threadedComment ref="B107" dT="2022-12-09T14:49:29.18" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{9A8AE314-42F7-4F88-8AE4-4131954B8D8E}">
     <text>Same testcase, separated for 2 different forms</text>
   </threadedComment>
 </ThreadedComments>
@@ -2765,27 +2715,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="72" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="93.44140625" style="72" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" style="72" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" style="72" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" style="67" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.109375" style="72" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.33203125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.109375" style="7" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="72" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="72" width="93.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="72" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="72" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="67" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="72" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="7" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="32.0" collapsed="true"/>
+    <col min="10" max="16384" style="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>33</v>
       </c>
@@ -2814,7 +2764,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="63">
         <v>1</v>
       </c>
@@ -2836,9 +2786,7 @@
       <c r="G2" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>565</v>
-      </c>
+      <c r="H2" s="16"/>
       <c r="I2" s="43" t="s">
         <v>416</v>
       </c>
@@ -2846,7 +2794,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="63">
         <v>2</v>
       </c>
@@ -2868,12 +2816,10 @@
       <c r="G3" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>593</v>
-      </c>
+      <c r="H3" s="13"/>
       <c r="J3" s="74"/>
     </row>
-    <row r="4" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="63">
         <v>3</v>
       </c>
@@ -2895,14 +2841,12 @@
       <c r="G4" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>594</v>
-      </c>
+      <c r="H4" s="13"/>
       <c r="J4" s="73" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63">
         <v>4</v>
       </c>
@@ -2924,12 +2868,10 @@
       <c r="G5" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>595</v>
-      </c>
+      <c r="H5" s="13"/>
       <c r="J5" s="74"/>
     </row>
-    <row r="6" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="63">
         <v>5</v>
       </c>
@@ -2953,7 +2895,7 @@
       </c>
       <c r="J6" s="74"/>
     </row>
-    <row r="7" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <v>6</v>
       </c>
@@ -2977,7 +2919,7 @@
       </c>
       <c r="J7" s="74"/>
     </row>
-    <row r="8" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -2999,12 +2941,10 @@
       <c r="G8" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>566</v>
-      </c>
+      <c r="H8" s="13"/>
       <c r="J8" s="74"/>
     </row>
-    <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -3028,7 +2968,7 @@
       </c>
       <c r="J9" s="74"/>
     </row>
-    <row r="10" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -3050,12 +2990,10 @@
       <c r="G10" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>567</v>
-      </c>
+      <c r="H10" s="13"/>
       <c r="J10" s="74"/>
     </row>
-    <row r="11" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -3077,12 +3015,10 @@
       <c r="G11" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>597</v>
-      </c>
+      <c r="H11" s="34"/>
       <c r="J11" s="74"/>
     </row>
-    <row r="12" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>11</v>
       </c>
@@ -3104,12 +3040,10 @@
       <c r="G12" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>568</v>
-      </c>
+      <c r="H12" s="13"/>
       <c r="J12" s="74"/>
     </row>
-    <row r="13" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>12</v>
       </c>
@@ -3133,7 +3067,7 @@
       </c>
       <c r="J13" s="74"/>
     </row>
-    <row r="14" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>13</v>
       </c>
@@ -3157,7 +3091,7 @@
       </c>
       <c r="J14" s="74"/>
     </row>
-    <row r="15" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>14</v>
       </c>
@@ -3179,12 +3113,10 @@
       <c r="G15" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>596</v>
-      </c>
+      <c r="H15" s="13"/>
       <c r="J15" s="74"/>
     </row>
-    <row r="16" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>15</v>
       </c>
@@ -3206,12 +3138,10 @@
       <c r="G16" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>569</v>
-      </c>
+      <c r="H16" s="13"/>
       <c r="J16" s="74"/>
     </row>
-    <row r="17" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="71">
         <v>16</v>
       </c>
@@ -3235,7 +3165,7 @@
       </c>
       <c r="J17" s="75"/>
     </row>
-    <row r="18" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -3259,7 +3189,7 @@
       </c>
       <c r="J18" s="74"/>
     </row>
-    <row r="19" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>18</v>
       </c>
@@ -3283,7 +3213,7 @@
       </c>
       <c r="J19" s="74"/>
     </row>
-    <row r="20" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>19</v>
       </c>
@@ -3307,7 +3237,7 @@
       </c>
       <c r="J20" s="74"/>
     </row>
-    <row r="21" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="65">
         <v>20</v>
       </c>
@@ -3329,12 +3259,10 @@
       <c r="G21" s="78" t="s">
         <v>426</v>
       </c>
-      <c r="H21" s="78" t="s">
-        <v>570</v>
-      </c>
+      <c r="H21" s="78"/>
       <c r="J21" s="76"/>
     </row>
-    <row r="22" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>21</v>
       </c>
@@ -3356,12 +3284,10 @@
       <c r="G22" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>587</v>
-      </c>
+      <c r="H22" s="13"/>
       <c r="J22" s="74"/>
     </row>
-    <row r="23" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>22</v>
       </c>
@@ -3383,12 +3309,10 @@
       <c r="G23" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>588</v>
-      </c>
+      <c r="H23" s="13"/>
       <c r="J23" s="74"/>
     </row>
-    <row r="24" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>23</v>
       </c>
@@ -3410,12 +3334,10 @@
       <c r="G24" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>589</v>
-      </c>
+      <c r="H24" s="13"/>
       <c r="J24" s="74"/>
     </row>
-    <row r="25" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>24</v>
       </c>
@@ -3437,12 +3359,10 @@
       <c r="G25" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>590</v>
-      </c>
+      <c r="H25" s="13"/>
       <c r="J25" s="74"/>
     </row>
-    <row r="26" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>25</v>
       </c>
@@ -3464,12 +3384,10 @@
       <c r="G26" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>591</v>
-      </c>
+      <c r="H26" s="13"/>
       <c r="J26" s="74"/>
     </row>
-    <row r="27" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>26</v>
       </c>
@@ -3491,12 +3409,10 @@
       <c r="G27" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>592</v>
-      </c>
+      <c r="H27" s="13"/>
       <c r="J27" s="74"/>
     </row>
-    <row r="28" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>27</v>
       </c>
@@ -3518,12 +3434,10 @@
       <c r="G28" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>599</v>
-      </c>
+      <c r="H28" s="13"/>
       <c r="J28" s="74"/>
     </row>
-    <row r="29" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="71">
         <v>28</v>
       </c>
@@ -3547,7 +3461,7 @@
       </c>
       <c r="J29" s="75"/>
     </row>
-    <row r="30" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="65">
         <v>29</v>
       </c>
@@ -3569,42 +3483,42 @@
       <c r="G30" s="78" t="s">
         <v>426</v>
       </c>
-      <c r="H30" s="78" t="s">
-        <v>494</v>
-      </c>
+      <c r="H30" s="78"/>
       <c r="J30" s="76"/>
     </row>
-    <row r="31" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="63">
+        <v>5</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>570</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="H31" t="s">
+        <v>587</v>
+      </c>
+      <c r="J31" s="74"/>
+    </row>
+    <row r="32" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="63">
         <v>30</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B32" s="63" t="s">
         <v>50</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="63" t="s">
-        <v>425</v>
-      </c>
-      <c r="G31" s="63" t="s">
-        <v>426</v>
-      </c>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-    </row>
-    <row r="32" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="63">
-        <v>31</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>126</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>56</v>
@@ -3613,7 +3527,7 @@
         <v>47</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F32" s="63" t="s">
         <v>425</v>
@@ -3624,12 +3538,12 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
     </row>
-    <row r="33" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="63">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>56</v>
@@ -3649,12 +3563,12 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>56</v>
@@ -3674,12 +3588,12 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
     </row>
-    <row r="35" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="63">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>56</v>
@@ -3699,12 +3613,12 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
     </row>
-    <row r="36" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="63">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="63" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>56</v>
@@ -3724,12 +3638,12 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
     </row>
-    <row r="37" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="63">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>56</v>
@@ -3738,7 +3652,7 @@
         <v>47</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F37" s="63" t="s">
         <v>425</v>
@@ -3749,12 +3663,12 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
     </row>
-    <row r="38" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="63">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>56</v>
@@ -3774,12 +3688,12 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
     </row>
-    <row r="39" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="63">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>56</v>
@@ -3788,7 +3702,7 @@
         <v>47</v>
       </c>
       <c r="E39" s="63" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F39" s="63" t="s">
         <v>425</v>
@@ -3799,12 +3713,12 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
     </row>
-    <row r="40" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="63">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="63" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>56</v>
@@ -3824,12 +3738,12 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
     </row>
-    <row r="41" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="63">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>56</v>
@@ -3849,12 +3763,12 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
     </row>
-    <row r="42" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="63">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>56</v>
@@ -3874,12 +3788,12 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
     </row>
-    <row r="43" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>56</v>
@@ -3888,7 +3802,7 @@
         <v>47</v>
       </c>
       <c r="E43" s="63" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F43" s="63" t="s">
         <v>425</v>
@@ -3899,12 +3813,12 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
     </row>
-    <row r="44" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="63">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>375</v>
+        <v>182</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>56</v>
@@ -3924,12 +3838,12 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
     </row>
-    <row r="45" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>267</v>
+        <v>375</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>56</v>
@@ -3949,21 +3863,21 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
     </row>
-    <row r="46" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="63">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>56</v>
       </c>
       <c r="D46" s="63" t="s">
-        <v>303</v>
+        <v>47</v>
       </c>
       <c r="E46" s="63" t="s">
-        <v>304</v>
+        <v>61</v>
       </c>
       <c r="F46" s="63" t="s">
         <v>425</v>
@@ -3971,17 +3885,15 @@
       <c r="G46" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="H46" s="63" t="s">
-        <v>558</v>
-      </c>
+      <c r="H46" s="63"/>
       <c r="I46" s="63"/>
     </row>
-    <row r="47" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>56</v>
@@ -3998,17 +3910,15 @@
       <c r="G47" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="H47" s="63" t="s">
-        <v>559</v>
-      </c>
+      <c r="H47" s="63"/>
       <c r="I47" s="63"/>
     </row>
-    <row r="48" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="63">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>56</v>
@@ -4017,7 +3927,7 @@
         <v>303</v>
       </c>
       <c r="E48" s="63" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="F48" s="63" t="s">
         <v>425</v>
@@ -4025,17 +3935,15 @@
       <c r="G48" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="H48" s="63" t="s">
-        <v>560</v>
-      </c>
+      <c r="H48" s="63"/>
       <c r="I48" s="63"/>
     </row>
-    <row r="49" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="63">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>56</v>
@@ -4052,17 +3960,15 @@
       <c r="G49" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="H49" s="63" t="s">
-        <v>561</v>
-      </c>
+      <c r="H49" s="63"/>
       <c r="I49" s="63"/>
     </row>
-    <row r="50" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>56</v>
@@ -4079,17 +3985,15 @@
       <c r="G50" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="H50" s="63" t="s">
-        <v>562</v>
-      </c>
+      <c r="H50" s="63"/>
       <c r="I50" s="63"/>
     </row>
-    <row r="51" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>56</v>
@@ -4109,12 +4013,12 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
     </row>
-    <row r="52" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C52" s="25" t="s">
         <v>56</v>
@@ -4134,12 +4038,12 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
     </row>
-    <row r="53" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="63">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="63" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C53" s="25" t="s">
         <v>56</v>
@@ -4156,17 +4060,15 @@
       <c r="G53" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="H53" s="63" t="s">
-        <v>563</v>
-      </c>
+      <c r="H53" s="63"/>
       <c r="I53" s="63"/>
     </row>
-    <row r="54" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="63">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>56</v>
@@ -4175,52 +4077,48 @@
         <v>303</v>
       </c>
       <c r="E54" s="63" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="F54" s="63" t="s">
         <v>425</v>
       </c>
-      <c r="G54" s="62" t="s">
+      <c r="G54" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="H54" s="62" t="s">
-        <v>564</v>
-      </c>
-      <c r="I54" s="62"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="25">
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+    </row>
+    <row r="55" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="63">
+        <v>53</v>
+      </c>
+      <c r="B55" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="E55" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="25">
         <v>54</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="B56" s="63" t="s">
         <v>428</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="I55" s="34"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="25">
-        <v>55</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>431</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>56</v>
@@ -4237,17 +4135,15 @@
       <c r="G56" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>432</v>
-      </c>
+      <c r="H56" s="13"/>
       <c r="I56" s="34"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
-        <v>56</v>
-      </c>
-      <c r="B57" s="63" t="s">
-        <v>439</v>
+        <v>55</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>431</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>56</v>
@@ -4264,15 +4160,15 @@
       <c r="G57" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H57" s="34"/>
+      <c r="H57" s="13"/>
       <c r="I57" s="34"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>56</v>
@@ -4289,17 +4185,15 @@
       <c r="G58" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>600</v>
-      </c>
+      <c r="H58" s="34"/>
       <c r="I58" s="34"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
-        <v>58</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>444</v>
+        <v>57</v>
+      </c>
+      <c r="B59" s="63" t="s">
+        <v>439</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>56</v>
@@ -4316,15 +4210,15 @@
       <c r="G59" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H59" s="34"/>
+      <c r="H59" s="13"/>
       <c r="I59" s="34"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C60" s="25" t="s">
         <v>56</v>
@@ -4344,12 +4238,12 @@
       <c r="H60" s="34"/>
       <c r="I60" s="34"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
-        <v>60</v>
-      </c>
-      <c r="B61" s="63" t="s">
-        <v>448</v>
+        <v>59</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>446</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>56</v>
@@ -4369,12 +4263,12 @@
       <c r="H61" s="34"/>
       <c r="I61" s="34"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
-        <v>61</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>453</v>
+        <v>60</v>
+      </c>
+      <c r="B62" s="63" t="s">
+        <v>447</v>
       </c>
       <c r="C62" s="25" t="s">
         <v>56</v>
@@ -4391,17 +4285,15 @@
       <c r="G62" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>574</v>
-      </c>
+      <c r="H62" s="34"/>
       <c r="I62" s="34"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
-        <v>62</v>
-      </c>
-      <c r="B63" s="63" t="s">
-        <v>455</v>
+        <v>61</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>452</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>56</v>
@@ -4418,15 +4310,15 @@
       <c r="G63" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H63" s="34"/>
+      <c r="H63" s="13"/>
       <c r="I63" s="34"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
-        <v>63</v>
-      </c>
-      <c r="B64" s="68" t="s">
-        <v>456</v>
+        <v>62</v>
+      </c>
+      <c r="B64" s="63" t="s">
+        <v>454</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>56</v>
@@ -4446,12 +4338,12 @@
       <c r="H64" s="34"/>
       <c r="I64" s="34"/>
     </row>
-    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
-        <v>64</v>
-      </c>
-      <c r="B65" s="87" t="s">
-        <v>459</v>
+        <v>63</v>
+      </c>
+      <c r="B65" s="68" t="s">
+        <v>455</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>56</v>
@@ -4468,17 +4360,15 @@
       <c r="G65" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H65" s="13" t="s">
-        <v>603</v>
-      </c>
+      <c r="H65" s="34"/>
       <c r="I65" s="34"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
-        <v>65</v>
-      </c>
-      <c r="B66" s="68" t="s">
-        <v>463</v>
+        <v>64</v>
+      </c>
+      <c r="B66" s="87" t="s">
+        <v>458</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>56</v>
@@ -4495,17 +4385,15 @@
       <c r="G66" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H66" s="13" t="s">
-        <v>575</v>
-      </c>
+      <c r="H66" s="13"/>
       <c r="I66" s="34"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
-        <v>66</v>
-      </c>
-      <c r="B67" s="63" t="s">
-        <v>465</v>
+        <v>65</v>
+      </c>
+      <c r="B67" s="68" t="s">
+        <v>462</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>56</v>
@@ -4522,15 +4410,15 @@
       <c r="G67" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H67" s="34"/>
+      <c r="H67" s="13"/>
       <c r="I67" s="34"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="63" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>56</v>
@@ -4547,17 +4435,15 @@
       <c r="G68" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H68" s="13" t="s">
-        <v>576</v>
-      </c>
+      <c r="H68" s="34"/>
       <c r="I68" s="34"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="63" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C69" s="25" t="s">
         <v>56</v>
@@ -4574,14 +4460,12 @@
       <c r="G69" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H69" s="13" t="s">
-        <v>577</v>
-      </c>
+      <c r="H69" s="13"/>
       <c r="I69" s="34"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="63" t="s">
         <v>470</v>
@@ -4601,15 +4485,15 @@
       <c r="G70" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H70" s="34"/>
+      <c r="H70" s="13"/>
       <c r="I70" s="34"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="63" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>56</v>
@@ -4629,12 +4513,12 @@
       <c r="H71" s="34"/>
       <c r="I71" s="34"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="63" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C72" s="25" t="s">
         <v>56</v>
@@ -4654,12 +4538,12 @@
       <c r="H72" s="34"/>
       <c r="I72" s="34"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="63" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C73" s="25" t="s">
         <v>56</v>
@@ -4679,12 +4563,12 @@
       <c r="H73" s="34"/>
       <c r="I73" s="34"/>
     </row>
-    <row r="74" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
-        <v>73</v>
-      </c>
-      <c r="B74" s="68" t="s">
-        <v>480</v>
+        <v>72</v>
+      </c>
+      <c r="B74" s="63" t="s">
+        <v>476</v>
       </c>
       <c r="C74" s="25" t="s">
         <v>56</v>
@@ -4704,12 +4588,12 @@
       <c r="H74" s="34"/>
       <c r="I74" s="34"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
-        <v>74</v>
-      </c>
-      <c r="B75" s="63" t="s">
-        <v>483</v>
+        <v>73</v>
+      </c>
+      <c r="B75" s="68" t="s">
+        <v>479</v>
       </c>
       <c r="C75" s="25" t="s">
         <v>56</v>
@@ -4729,12 +4613,12 @@
       <c r="H75" s="34"/>
       <c r="I75" s="34"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
-        <v>75</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>484</v>
+        <v>74</v>
+      </c>
+      <c r="B76" s="63" t="s">
+        <v>482</v>
       </c>
       <c r="C76" s="25" t="s">
         <v>56</v>
@@ -4751,20 +4635,18 @@
       <c r="G76" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H76" s="13" t="s">
-        <v>578</v>
-      </c>
+      <c r="H76" s="34"/>
       <c r="I76" s="34"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
-        <v>76</v>
-      </c>
-      <c r="B77" s="81" t="s">
-        <v>486</v>
+        <v>75</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>483</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>8</v>
@@ -4773,22 +4655,20 @@
         <v>109</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>523</v>
+        <v>425</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>604</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="H77" s="13"/>
       <c r="I77" s="34"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
-        <v>77</v>
-      </c>
-      <c r="B78" s="66" t="s">
-        <v>489</v>
+        <v>76</v>
+      </c>
+      <c r="B78" s="81" t="s">
+        <v>485</v>
       </c>
       <c r="C78" s="25" t="s">
         <v>56</v>
@@ -4805,15 +4685,15 @@
       <c r="G78" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H78" s="34"/>
+      <c r="H78" s="13"/>
       <c r="I78" s="34"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="66" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C79" s="25" t="s">
         <v>56</v>
@@ -4833,12 +4713,12 @@
       <c r="H79" s="34"/>
       <c r="I79" s="34"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
-        <v>79</v>
-      </c>
-      <c r="B80" s="84" t="s">
-        <v>497</v>
+        <v>78</v>
+      </c>
+      <c r="B80" s="66" t="s">
+        <v>493</v>
       </c>
       <c r="C80" s="25" t="s">
         <v>56</v>
@@ -4855,17 +4735,15 @@
       <c r="G80" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H80" s="13" t="s">
-        <v>528</v>
-      </c>
+      <c r="H80" s="34"/>
       <c r="I80" s="34"/>
     </row>
-    <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
-        <v>80</v>
-      </c>
-      <c r="B81" s="68" t="s">
-        <v>498</v>
+        <v>79</v>
+      </c>
+      <c r="B81" s="84" t="s">
+        <v>495</v>
       </c>
       <c r="C81" s="25" t="s">
         <v>56</v>
@@ -4882,15 +4760,15 @@
       <c r="G81" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H81" s="34"/>
+      <c r="H81" s="13"/>
       <c r="I81" s="34"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
-        <v>81</v>
-      </c>
-      <c r="B82" s="63" t="s">
-        <v>501</v>
+        <v>80</v>
+      </c>
+      <c r="B82" s="68" t="s">
+        <v>496</v>
       </c>
       <c r="C82" s="25" t="s">
         <v>56</v>
@@ -4907,17 +4785,15 @@
       <c r="G82" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H82" s="13" t="s">
-        <v>579</v>
-      </c>
+      <c r="H82" s="34"/>
       <c r="I82" s="34"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="25">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="63" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C83" s="25" t="s">
         <v>56</v>
@@ -4934,15 +4810,15 @@
       <c r="G83" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H83" s="34"/>
+      <c r="H83" s="13"/>
       <c r="I83" s="34"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="25">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="63" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C84" s="25" t="s">
         <v>56</v>
@@ -4959,17 +4835,15 @@
       <c r="G84" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H84" s="13" t="s">
-        <v>580</v>
-      </c>
+      <c r="H84" s="34"/>
       <c r="I84" s="34"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="63" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C85" s="25" t="s">
         <v>56</v>
@@ -4986,17 +4860,15 @@
       <c r="G85" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H85" s="13" t="s">
-        <v>581</v>
-      </c>
+      <c r="H85" s="13"/>
       <c r="I85" s="34"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="25">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="63" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C86" s="25" t="s">
         <v>56</v>
@@ -5013,15 +4885,15 @@
       <c r="G86" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H86" s="34"/>
+      <c r="H86" s="13"/>
       <c r="I86" s="34"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="25">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="63" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C87" s="25" t="s">
         <v>56</v>
@@ -5041,12 +4913,12 @@
       <c r="H87" s="34"/>
       <c r="I87" s="34"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
-        <v>87</v>
-      </c>
-      <c r="B88" s="66" t="s">
-        <v>515</v>
+        <v>86</v>
+      </c>
+      <c r="B88" s="63" t="s">
+        <v>511</v>
       </c>
       <c r="C88" s="25" t="s">
         <v>56</v>
@@ -5066,12 +4938,12 @@
       <c r="H88" s="34"/>
       <c r="I88" s="34"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
-        <v>88</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>516</v>
+        <v>87</v>
+      </c>
+      <c r="B89" s="66" t="s">
+        <v>513</v>
       </c>
       <c r="C89" s="25" t="s">
         <v>56</v>
@@ -5088,17 +4960,15 @@
       <c r="G89" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H89" s="13" t="s">
-        <v>582</v>
-      </c>
+      <c r="H89" s="34"/>
       <c r="I89" s="34"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
-        <v>89</v>
-      </c>
-      <c r="B90" s="66" t="s">
-        <v>518</v>
+        <v>88</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>514</v>
       </c>
       <c r="C90" s="25" t="s">
         <v>56</v>
@@ -5115,15 +4985,15 @@
       <c r="G90" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H90" s="34"/>
+      <c r="H90" s="13"/>
       <c r="I90" s="34"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
-        <v>90</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>520</v>
+        <v>89</v>
+      </c>
+      <c r="B91" s="66" t="s">
+        <v>516</v>
       </c>
       <c r="C91" s="25" t="s">
         <v>56</v>
@@ -5140,17 +5010,15 @@
       <c r="G91" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H91" s="13" t="s">
-        <v>583</v>
-      </c>
+      <c r="H91" s="34"/>
       <c r="I91" s="34"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="25">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C92" s="25" t="s">
         <v>56</v>
@@ -5167,17 +5035,15 @@
       <c r="G92" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H92" s="13" t="s">
-        <v>584</v>
-      </c>
+      <c r="H92" s="13"/>
       <c r="I92" s="34"/>
     </row>
-    <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
-        <v>92</v>
-      </c>
-      <c r="B93" s="68" t="s">
-        <v>524</v>
+        <v>91</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>520</v>
       </c>
       <c r="C93" s="25" t="s">
         <v>56</v>
@@ -5194,17 +5060,15 @@
       <c r="G93" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H93" s="13" t="s">
-        <v>585</v>
-      </c>
+      <c r="H93" s="13"/>
       <c r="I93" s="34"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="25">
-        <v>93</v>
-      </c>
-      <c r="B94" s="63" t="s">
-        <v>527</v>
+        <v>92</v>
+      </c>
+      <c r="B94" s="68" t="s">
+        <v>522</v>
       </c>
       <c r="C94" s="25" t="s">
         <v>56</v>
@@ -5221,63 +5085,63 @@
       <c r="G94" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H94" s="34"/>
+      <c r="H94" s="13"/>
       <c r="I94" s="34"/>
     </row>
-    <row r="95" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="25">
-        <v>94</v>
-      </c>
-      <c r="B95" s="68" t="s">
-        <v>524</v>
+        <v>93</v>
+      </c>
+      <c r="B95" s="63" t="s">
+        <v>525</v>
       </c>
       <c r="C95" s="25" t="s">
         <v>56</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E95" s="63" t="s">
         <v>109</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="G95" s="34"/>
+        <v>425</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>426</v>
+      </c>
       <c r="H95" s="34"/>
       <c r="I95" s="34"/>
     </row>
-    <row r="96" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="63">
-        <v>95</v>
+    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="25">
+        <v>94</v>
       </c>
       <c r="B96" s="68" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C96" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="63" t="s">
+      <c r="D96" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E96" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="F96" s="63" t="s">
-        <v>425</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-    </row>
-    <row r="97" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+    </row>
+    <row r="97" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="63">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="68" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C97" s="25" t="s">
         <v>56</v>
@@ -5297,12 +5161,12 @@
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
     </row>
-    <row r="98" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="63">
-        <v>97</v>
-      </c>
-      <c r="B98" s="63" t="s">
-        <v>531</v>
+        <v>96</v>
+      </c>
+      <c r="B98" s="68" t="s">
+        <v>529</v>
       </c>
       <c r="C98" s="25" t="s">
         <v>56</v>
@@ -5322,67 +5186,67 @@
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="25">
-        <v>98</v>
+    <row r="99" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="63">
+        <v>97</v>
       </c>
       <c r="B99" s="63" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C99" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D99" s="25" t="s">
-        <v>8</v>
+      <c r="D99" s="63" t="s">
+        <v>47</v>
       </c>
       <c r="E99" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="F99" s="25" t="s">
+      <c r="F99" s="63" t="s">
         <v>425</v>
       </c>
       <c r="G99" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-    </row>
-    <row r="100" spans="1:9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="63">
-        <v>99</v>
-      </c>
-      <c r="B100" s="68" t="s">
-        <v>536</v>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="25">
+        <v>98</v>
+      </c>
+      <c r="B100" s="63" t="s">
+        <v>532</v>
       </c>
       <c r="C100" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D100" s="63" t="s">
-        <v>47</v>
+      <c r="D100" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="F100" s="63" t="s">
+      <c r="F100" s="25" t="s">
         <v>425</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="25">
-        <v>100</v>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+    </row>
+    <row r="101" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="63">
+        <v>99</v>
       </c>
       <c r="B101" s="68" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C101" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="63" t="s">
         <v>47</v>
       </c>
       <c r="E101" s="63" t="s">
@@ -5394,20 +5258,20 @@
       <c r="G101" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-    </row>
-    <row r="102" spans="1:9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="63">
-        <v>101</v>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+    </row>
+    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="25">
+        <v>100</v>
       </c>
       <c r="B102" s="68" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C102" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D102" s="63" t="s">
+      <c r="D102" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E102" s="63" t="s">
@@ -5419,15 +5283,15 @@
       <c r="G102" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-    </row>
-    <row r="103" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H102" s="34"/>
+      <c r="I102" s="34"/>
+    </row>
+    <row r="103" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="63">
-        <v>102</v>
-      </c>
-      <c r="B103" s="63" t="s">
-        <v>543</v>
+        <v>101</v>
+      </c>
+      <c r="B103" s="68" t="s">
+        <v>539</v>
       </c>
       <c r="C103" s="25" t="s">
         <v>56</v>
@@ -5447,12 +5311,12 @@
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
     </row>
-    <row r="104" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="63">
-        <v>103</v>
-      </c>
-      <c r="B104" s="68" t="s">
-        <v>544</v>
+        <v>102</v>
+      </c>
+      <c r="B104" s="63" t="s">
+        <v>540</v>
       </c>
       <c r="C104" s="25" t="s">
         <v>56</v>
@@ -5472,12 +5336,12 @@
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
     </row>
-    <row r="105" spans="1:9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="63">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="68" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C105" s="25" t="s">
         <v>56</v>
@@ -5497,12 +5361,12 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
     </row>
-    <row r="106" spans="1:9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="63">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="68" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C106" s="25" t="s">
         <v>56</v>
@@ -5522,17 +5386,17 @@
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
     </row>
-    <row r="107" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="25">
-        <v>106</v>
+    <row r="107" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="63">
+        <v>105</v>
       </c>
       <c r="B107" s="68" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C107" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D107" s="25" t="s">
+      <c r="D107" s="63" t="s">
         <v>47</v>
       </c>
       <c r="E107" s="63" t="s">
@@ -5544,11 +5408,36 @@
       <c r="G107" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+    </row>
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="25">
+        <v>106</v>
+      </c>
+      <c r="B108" s="68" t="s">
+        <v>548</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E108" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F108" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J107" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}"/>
+  <autoFilter ref="A1:J108" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" location="7815483" xr:uid="{27C524AC-B712-409C-94D8-14137A368696}"/>
     <hyperlink ref="J4" r:id="rId2" xr:uid="{2982E1F1-B044-4074-8F5C-3D269A821F42}"/>
@@ -5562,102 +5451,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:EM72"/>
+  <dimension ref="A1:EM73"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E28"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG73" sqref="AG73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="102.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="12.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="69.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="36.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="27.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="4.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="8.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="24.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="24.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="9.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="17.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="22.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="9.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="21.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="26.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="30.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="23.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="42" width="23.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="7.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="22.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="24.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="8.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="16.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="6" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="20.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="20.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="26.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="24.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="27" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="57" width="15.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="25.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="15.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="17.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="14.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="11.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="17.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="12.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="15.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="19.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="19.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="14.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="14.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="10.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="19.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="12.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="9.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="14.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="16.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="83" width="9.109375" style="2" collapsed="1"/>
-    <col min="84" max="84" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="96" width="9.109375" style="2" collapsed="1"/>
-    <col min="97" max="97" width="28.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="22.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="26.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="26.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="12.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="12.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="22.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="18.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="18.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="18.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="16384" width="9.109375" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="102.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="33.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="40" max="42" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="6.0" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="27.0" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="2" width="29.0" collapsed="true"/>
+    <col min="56" max="57" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="77" max="83" style="2" width="9.140625" collapsed="true"/>
+    <col min="84" max="84" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
+    <col min="85" max="96" style="2" width="9.140625" collapsed="true"/>
+    <col min="97" max="97" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="100" max="100" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="102" max="102" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="105" max="105" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="107" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
@@ -5668,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>1</v>
@@ -5979,14 +5869,14 @@
       <c r="DC1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DD1" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="DE1" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="2" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="DE1" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -6169,7 +6059,7 @@
       <c r="DB2" s="21"/>
       <c r="DC2" s="21"/>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -6366,7 +6256,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -6374,7 +6264,7 @@
         <v>293</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="21" t="s">
@@ -6527,7 +6417,7 @@
       <c r="DB4" s="26"/>
       <c r="DC4" s="26"/>
     </row>
-    <row r="5" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -6712,7 +6602,7 @@
       <c r="DB5" s="21"/>
       <c r="DC5" s="21"/>
     </row>
-    <row r="6" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -6897,7 +6787,7 @@
       <c r="DB6" s="21"/>
       <c r="DC6" s="21"/>
     </row>
-    <row r="7" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -7076,7 +6966,7 @@
       <c r="DB7" s="21"/>
       <c r="DC7" s="21"/>
     </row>
-    <row r="8" spans="1:109" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:109" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -7257,7 +7147,7 @@
       <c r="DB8" s="28"/>
       <c r="DC8" s="28"/>
     </row>
-    <row r="9" spans="1:109" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:109" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -7436,7 +7326,7 @@
       <c r="DB9" s="28"/>
       <c r="DC9" s="28"/>
     </row>
-    <row r="10" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -7625,7 +7515,7 @@
       <c r="DB10" s="21"/>
       <c r="DC10" s="21"/>
     </row>
-    <row r="11" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -7814,7 +7704,7 @@
       <c r="DB11" s="21"/>
       <c r="DC11" s="21"/>
     </row>
-    <row r="12" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -7997,7 +7887,7 @@
       <c r="DB12" s="21"/>
       <c r="DC12" s="21"/>
     </row>
-    <row r="13" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -8184,7 +8074,7 @@
       <c r="DB13" s="21"/>
       <c r="DC13" s="21"/>
     </row>
-    <row r="14" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -8367,7 +8257,7 @@
       <c r="DB14" s="21"/>
       <c r="DC14" s="21"/>
     </row>
-    <row r="15" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -8550,7 +8440,7 @@
       <c r="DB15" s="21"/>
       <c r="DC15" s="21"/>
     </row>
-    <row r="16" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:109" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -8739,7 +8629,7 @@
       <c r="DB16" s="21"/>
       <c r="DC16" s="21"/>
     </row>
-    <row r="17" spans="1:110" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:110" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -8922,7 +8812,7 @@
       <c r="DB17" s="21"/>
       <c r="DC17" s="21"/>
     </row>
-    <row r="18" spans="1:110" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:110" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -9105,7 +8995,7 @@
       <c r="DB18" s="21"/>
       <c r="DC18" s="21"/>
     </row>
-    <row r="19" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -9282,7 +9172,7 @@
       <c r="DB19" s="26"/>
       <c r="DC19" s="26"/>
     </row>
-    <row r="20" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -9413,7 +9303,7 @@
       <c r="DB20" s="26"/>
       <c r="DC20" s="26"/>
     </row>
-    <row r="21" spans="1:110" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:110" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -9558,7 +9448,7 @@
       <c r="DB21" s="37"/>
       <c r="DC21" s="37"/>
     </row>
-    <row r="22" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -9800,10 +9690,10 @@
         <v>56</v>
       </c>
       <c r="CO22" s="13" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="CP22" s="13" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="CQ22" s="26" t="s">
         <v>56</v>
@@ -9829,7 +9719,7 @@
       <c r="DB22" s="26"/>
       <c r="DC22" s="26"/>
     </row>
-    <row r="23" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -9837,7 +9727,7 @@
         <v>258</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="61"/>
@@ -9956,7 +9846,7 @@
       <c r="DB23" s="26"/>
       <c r="DC23" s="26"/>
     </row>
-    <row r="24" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -9964,7 +9854,7 @@
         <v>257</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="61"/>
@@ -10083,7 +9973,7 @@
       <c r="DB24" s="26"/>
       <c r="DC24" s="26"/>
     </row>
-    <row r="25" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -10091,7 +9981,7 @@
         <v>247</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="61"/>
@@ -10210,7 +10100,7 @@
       <c r="DB25" s="26"/>
       <c r="DC25" s="26"/>
     </row>
-    <row r="26" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -10218,7 +10108,7 @@
         <v>259</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="61"/>
@@ -10337,7 +10227,7 @@
       <c r="DB26" s="26"/>
       <c r="DC26" s="26"/>
     </row>
-    <row r="27" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -10345,7 +10235,7 @@
         <v>260</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="61"/>
@@ -10466,7 +10356,7 @@
       <c r="DB27" s="26"/>
       <c r="DC27" s="26"/>
     </row>
-    <row r="28" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -10474,7 +10364,7 @@
         <v>261</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="61"/>
@@ -10595,7 +10485,7 @@
       <c r="DB28" s="26"/>
       <c r="DC28" s="26"/>
     </row>
-    <row r="29" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -10740,7 +10630,7 @@
       <c r="DB29" s="26"/>
       <c r="DC29" s="26"/>
     </row>
-    <row r="30" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -10755,7 +10645,7 @@
         <v>423</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N30" s="21" t="s">
         <v>4</v>
@@ -10785,7 +10675,7 @@
         <v>23</v>
       </c>
       <c r="AB30" s="49" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AC30" s="2" t="s">
         <v>84</v>
@@ -10803,7 +10693,7 @@
         <v>409</v>
       </c>
       <c r="AH30" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AI30" s="21"/>
       <c r="AJ30" s="21" t="s">
@@ -10840,10 +10730,10 @@
         <v>336</v>
       </c>
       <c r="DD30" s="49" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="31" spans="1:110" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -10858,7 +10748,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="32" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -11042,7 +10932,7 @@
       <c r="DE32" s="6"/>
       <c r="DF32" s="6"/>
     </row>
-    <row r="33" spans="1:131" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -11057,17 +10947,17 @@
         <v>423</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G33" s="49"/>
       <c r="J33" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="L33" s="21" t="s">
         <v>434</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>435</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="21" t="s">
@@ -11182,12 +11072,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:131" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>83</v>
@@ -11197,10 +11087,10 @@
         <v>423</v>
       </c>
       <c r="F34" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>436</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>437</v>
       </c>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
@@ -11212,7 +11102,7 @@
         <v>345</v>
       </c>
       <c r="P34" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
@@ -11317,12 +11207,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:131" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:131" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>34</v>
       </c>
       <c r="B35" s="82" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>83</v>
@@ -11332,16 +11222,16 @@
         <v>423</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="K35" s="21" t="s">
         <v>442</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>443</v>
       </c>
       <c r="L35" s="21"/>
       <c r="M35" s="22"/>
@@ -11506,12 +11396,12 @@
       <c r="DB35" s="21"/>
       <c r="DC35" s="21"/>
     </row>
-    <row r="36" spans="1:131" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>27</v>
@@ -11521,18 +11411,18 @@
         <v>423</v>
       </c>
       <c r="F36" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="37" spans="1:131" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>27</v>
@@ -11542,21 +11432,21 @@
         <v>423</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="38" spans="1:131" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>27</v>
@@ -11566,18 +11456,18 @@
         <v>423</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="39" spans="1:131" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>27</v>
@@ -11587,13 +11477,13 @@
         <v>423</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
@@ -11781,12 +11671,12 @@
       <c r="DZ39" s="6"/>
       <c r="EA39" s="6"/>
     </row>
-    <row r="40" spans="1:131" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="82" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>83</v>
@@ -11798,18 +11688,18 @@
         <v>423</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G40" s="49" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="41" spans="1:131" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:131" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>40</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>83</v>
@@ -11823,10 +11713,10 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L41" s="21"/>
       <c r="M41" s="22"/>
@@ -11995,12 +11885,12 @@
       <c r="DB41" s="21"/>
       <c r="DC41" s="21"/>
     </row>
-    <row r="42" spans="1:131" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:131" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>41</v>
       </c>
       <c r="B42" s="85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>83</v>
@@ -12014,7 +11904,7 @@
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
@@ -12167,10 +12057,10 @@
         <v>334</v>
       </c>
       <c r="CU42" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="CV42" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="CW42" s="23" t="s">
         <v>263</v>
@@ -12186,18 +12076,18 @@
         <v>76</v>
       </c>
       <c r="DB42" s="22" t="s">
-        <v>602</v>
+        <v>560</v>
       </c>
       <c r="DC42" s="26" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="43" spans="1:131" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:131" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>42</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>27</v>
@@ -12211,7 +12101,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
@@ -12375,12 +12265,12 @@
       <c r="DB43" s="21"/>
       <c r="DC43" s="21"/>
     </row>
-    <row r="44" spans="1:131" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>27</v>
@@ -12390,12 +12280,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:131" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>27</v>
@@ -12409,7 +12299,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
@@ -12570,12 +12460,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="46" spans="1:131" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:131" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>27</v>
@@ -12589,10 +12479,10 @@
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="L46" s="21"/>
       <c r="M46" s="22"/>
@@ -12755,12 +12645,12 @@
       <c r="DB46" s="21"/>
       <c r="DC46" s="21"/>
     </row>
-    <row r="47" spans="1:131" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>27</v>
@@ -12770,24 +12660,24 @@
         <v>423</v>
       </c>
       <c r="F47" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="G47" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="H47" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="I47" s="49" t="s">
         <v>473</v>
       </c>
-      <c r="H47" s="49" t="s">
-        <v>436</v>
-      </c>
-      <c r="I47" s="49" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:131" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>27</v>
@@ -12797,15 +12687,15 @@
         <v>423</v>
       </c>
       <c r="F48" s="49" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="49" spans="1:143" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>27</v>
@@ -12815,15 +12705,15 @@
         <v>423</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="50" spans="1:143" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="50" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>27</v>
@@ -12834,15 +12724,15 @@
       </c>
       <c r="F50" s="49"/>
       <c r="DE50" s="49" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:143" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>27</v>
@@ -12852,18 +12742,18 @@
         <v>423</v>
       </c>
       <c r="F51" s="49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G51" s="49" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:143" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>51</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>27</v>
@@ -13055,12 +12945,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:143" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:143" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>52</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>83</v>
@@ -13074,7 +12964,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
@@ -13246,12 +13136,12 @@
       <c r="DB53" s="21"/>
       <c r="DC53" s="21"/>
     </row>
-    <row r="54" spans="1:143" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="86" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>27</v>
@@ -13261,13 +13151,13 @@
         <v>423</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
@@ -13430,12 +13320,12 @@
       <c r="DA54" s="21"/>
       <c r="DB54" s="21"/>
     </row>
-    <row r="55" spans="1:143" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>27</v>
@@ -13445,15 +13335,15 @@
         <v>423</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="56" spans="1:143" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>27</v>
@@ -13463,15 +13353,15 @@
         <v>423</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="57" spans="1:143" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="82" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>27</v>
@@ -13481,7 +13371,7 @@
         <v>423</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J57" s="21" t="s">
         <v>404</v>
@@ -13625,12 +13515,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:143" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>27</v>
@@ -13640,18 +13530,18 @@
         <v>423</v>
       </c>
       <c r="F58" s="49" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AE58" s="22" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:143" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>27</v>
@@ -13665,7 +13555,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K59" s="21"/>
       <c r="L59" s="21"/>
@@ -13840,12 +13730,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="60" spans="1:143" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C60" s="21" t="s">
         <v>27</v>
@@ -13855,15 +13745,15 @@
         <v>423</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="61" spans="1:143" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:143" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>27</v>
@@ -13875,13 +13765,13 @@
         <v>423</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
@@ -14047,12 +13937,12 @@
       <c r="DB61" s="21"/>
       <c r="DC61" s="21"/>
     </row>
-    <row r="62" spans="1:143" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>83</v>
@@ -14061,10 +13951,10 @@
         <v>423</v>
       </c>
       <c r="F62" s="49" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K62" s="21"/>
       <c r="L62" s="21"/>
@@ -14260,12 +14150,12 @@
       <c r="EL62" s="6"/>
       <c r="EM62" s="6"/>
     </row>
-    <row r="63" spans="1:143" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>83</v>
@@ -14274,7 +14164,7 @@
         <v>423</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
@@ -14413,12 +14303,12 @@
       <c r="EL63" s="6"/>
       <c r="EM63" s="6"/>
     </row>
-    <row r="64" spans="1:143" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>83</v>
@@ -14427,15 +14317,15 @@
         <v>423</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="65" spans="1:123" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>83</v>
@@ -14444,15 +14334,15 @@
         <v>423</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="66" spans="1:123" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="66" spans="1:123" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>65</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>27</v>
@@ -14466,7 +14356,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
@@ -14630,12 +14520,12 @@
       <c r="DB66" s="21"/>
       <c r="DC66" s="21"/>
     </row>
-    <row r="67" spans="1:123" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>27</v>
@@ -14647,15 +14537,15 @@
         <v>423</v>
       </c>
       <c r="F67" s="49" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="68" spans="1:123" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="68" spans="1:123" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>67</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>27</v>
@@ -14669,7 +14559,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K68" s="21"/>
       <c r="L68" s="21"/>
@@ -14833,12 +14723,12 @@
       <c r="DB68" s="21"/>
       <c r="DC68" s="21"/>
     </row>
-    <row r="69" spans="1:123" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:123" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>68</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>83</v>
@@ -14852,7 +14742,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K69" s="21"/>
       <c r="L69" s="21"/>
@@ -15016,12 +14906,12 @@
       <c r="DB69" s="21"/>
       <c r="DC69" s="21"/>
     </row>
-    <row r="70" spans="1:123" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:123" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="54" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>27</v>
@@ -15035,7 +14925,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K70" s="21"/>
       <c r="L70" s="21"/>
@@ -15212,12 +15102,12 @@
       <c r="DR70" s="6"/>
       <c r="DS70" s="6"/>
     </row>
-    <row r="71" spans="1:123" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C71" s="21" t="s">
         <v>27</v>
@@ -15226,15 +15116,15 @@
         <v>423</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="72" spans="1:123" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>64</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>83</v>
@@ -15243,11 +15133,193 @@
         <v>423</v>
       </c>
       <c r="F72" s="49" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G72" s="49"/>
     </row>
+    <row r="73" spans="1:123" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="28">
+        <v>65</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="28"/>
+      <c r="E73" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="O73" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="P73" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="W73" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="X73" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y73" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z73" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA73" s="28">
+        <v>11010</v>
+      </c>
+      <c r="AB73" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC73" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="AD73" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE73" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="AF73" s="28"/>
+      <c r="AG73" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AH73" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="AI73" s="28"/>
+      <c r="AJ73" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK73" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="AL73" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="AM73" s="30">
+        <v>44915</v>
+      </c>
+      <c r="AN73" s="30"/>
+      <c r="AO73" s="30"/>
+      <c r="AP73" s="30"/>
+      <c r="AQ73" s="28"/>
+      <c r="AR73" s="28"/>
+      <c r="AS73" s="28"/>
+      <c r="AT73" s="28"/>
+      <c r="AU73" s="28"/>
+      <c r="AV73" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW73" s="28"/>
+      <c r="AX73" s="28"/>
+      <c r="AY73" s="28"/>
+      <c r="AZ73" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA73" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="BB73" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC73" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="BD73" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="BE73" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF73" s="28"/>
+      <c r="BG73" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="BH73" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="BI73" s="28"/>
+      <c r="BJ73" s="28"/>
+      <c r="BK73" s="28"/>
+      <c r="BL73" s="28"/>
+      <c r="BM73" s="28"/>
+      <c r="BN73" s="28"/>
+      <c r="BO73" s="28"/>
+      <c r="BP73" s="28"/>
+      <c r="BQ73" s="28"/>
+      <c r="BR73" s="28"/>
+      <c r="BS73" s="28"/>
+      <c r="BT73" s="28"/>
+      <c r="BU73" s="28"/>
+      <c r="BV73" s="28"/>
+      <c r="BW73" s="28"/>
+      <c r="BX73" s="28"/>
+      <c r="BY73" s="28"/>
+      <c r="BZ73" s="28"/>
+      <c r="CA73" s="28"/>
+      <c r="CB73" s="28"/>
+      <c r="CC73" s="28"/>
+      <c r="CD73" s="28"/>
+      <c r="CE73" s="28"/>
+      <c r="CF73" s="28"/>
+      <c r="CG73" s="28"/>
+      <c r="CH73" s="28"/>
+      <c r="CI73" s="28"/>
+      <c r="CJ73" s="28"/>
+      <c r="CK73" s="28"/>
+      <c r="CL73" s="28"/>
+      <c r="CM73" s="28"/>
+      <c r="CN73" s="28"/>
+      <c r="CO73" s="28"/>
+      <c r="CP73" s="28"/>
+      <c r="CQ73" s="28"/>
+      <c r="CR73" s="28"/>
+      <c r="CS73" s="28"/>
+      <c r="CT73" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="CU73" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="CV73" s="30"/>
+      <c r="CW73" s="28"/>
+      <c r="CX73" s="28"/>
+      <c r="CY73" s="28"/>
+      <c r="CZ73" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="DA73" s="28"/>
+      <c r="DB73" s="28"/>
+      <c r="DC73" s="28"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:EM1" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="CG22" r:id="rId1" xr:uid="{16A04B90-4C95-42FB-B108-D3A9617D5B2D}"/>
@@ -15265,62 +15337,62 @@
       <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="82.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="34.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="35" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="9.5546875" customWidth="1" collapsed="1"/>
-    <col min="37" max="38" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="4.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="6.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="33" max="35" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="37" max="38" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -15334,10 +15406,10 @@
         <v>414</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -15490,10 +15562,10 @@
         <v>283</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="BG1" s="5" t="s">
         <v>331</v>
@@ -15505,10 +15577,10 @@
         <v>341</v>
       </c>
       <c r="BJ1" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -15592,7 +15664,7 @@
       <c r="BC2" s="13"/>
       <c r="BD2" s="13"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -15678,7 +15750,7 @@
       <c r="BC3" s="13"/>
       <c r="BD3" s="13"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -15766,7 +15838,7 @@
       <c r="BC4" s="13"/>
       <c r="BD4" s="13"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -15850,7 +15922,7 @@
       <c r="BC5" s="13"/>
       <c r="BD5" s="13"/>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -15940,7 +16012,7 @@
       <c r="BC6" s="13"/>
       <c r="BD6" s="13"/>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -16030,7 +16102,7 @@
       <c r="BC7" s="13"/>
       <c r="BD7" s="13"/>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -16112,7 +16184,7 @@
       <c r="BC8" s="13"/>
       <c r="BD8" s="13"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -16206,7 +16278,7 @@
       <c r="BC9" s="13"/>
       <c r="BD9" s="13"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -16292,7 +16364,7 @@
       <c r="BC10" s="13"/>
       <c r="BD10" s="13"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -16374,7 +16446,7 @@
       <c r="BC11" s="13"/>
       <c r="BD11" s="13"/>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -16462,7 +16534,7 @@
       <c r="BC12" s="13"/>
       <c r="BD12" s="13"/>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -16554,7 +16626,7 @@
       <c r="BC13" s="13"/>
       <c r="BD13" s="13"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -16642,7 +16714,7 @@
       <c r="BC14" s="13"/>
       <c r="BD14" s="13"/>
     </row>
-    <row r="15" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>14</v>
       </c>
@@ -16784,7 +16856,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -16886,12 +16958,12 @@
       <c r="BC16" s="13"/>
       <c r="BD16" s="13"/>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="56">
         <v>16</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>139</v>
@@ -16914,7 +16986,7 @@
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>133</v>
@@ -16976,12 +17048,12 @@
       <c r="BC17" s="13"/>
       <c r="BD17" s="13"/>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>124</v>
@@ -17022,7 +17094,7 @@
       </c>
       <c r="V18" s="13"/>
       <c r="W18" s="15" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="X18" s="15" t="s">
         <v>185</v>
@@ -17064,12 +17136,12 @@
       <c r="BC18" s="13"/>
       <c r="BD18" s="13"/>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>18</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>124</v>
@@ -17081,15 +17153,15 @@
         <v>423</v>
       </c>
       <c r="W19" s="57" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A20" s="56">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>124</v>
@@ -17101,15 +17173,15 @@
         <v>423</v>
       </c>
       <c r="W20" s="57" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="56">
         <v>20</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>124</v>
@@ -17121,15 +17193,15 @@
         <v>423</v>
       </c>
       <c r="W21" s="57" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A22" s="56">
         <v>21</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>124</v>
@@ -17141,21 +17213,21 @@
         <v>423</v>
       </c>
       <c r="W22" s="57" t="s">
+        <v>534</v>
+      </c>
+      <c r="BE22" t="s">
         <v>537</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>540</v>
       </c>
       <c r="BF22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:62" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>124</v>
@@ -17182,7 +17254,7 @@
         <v>169</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="N23" s="22" t="s">
         <v>345</v>
@@ -17252,12 +17324,12 @@
       <c r="BC23" s="13"/>
       <c r="BD23" s="13"/>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>124</v>
@@ -17284,7 +17356,7 @@
         <v>169</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>345</v>
@@ -17354,12 +17426,12 @@
       <c r="BC24" s="13"/>
       <c r="BD24" s="13"/>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>124</v>
@@ -17380,7 +17452,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>345</v>
@@ -17392,7 +17464,7 @@
         <v>385</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="R25" s="22" t="s">
         <v>385</v>
@@ -17450,12 +17522,12 @@
       <c r="BC25" s="13"/>
       <c r="BD25" s="13"/>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="56">
         <v>25</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>124</v>
@@ -17467,12 +17539,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="27" spans="1:62" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="56">
         <v>26</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>124</v>
@@ -17484,12 +17556,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="28" spans="1:62" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="56">
         <v>27</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>124</v>
@@ -17507,13 +17579,13 @@
         <v>423</v>
       </c>
       <c r="BG28" s="57" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="BH28" s="57" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="BI28" s="57" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="BJ28" t="s">
         <v>351</v>
@@ -17534,36 +17606,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="113.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="65.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="73.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="113.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
@@ -17622,7 +17694,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -17663,7 +17735,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -17713,7 +17785,7 @@
       </c>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -17760,7 +17832,7 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -17801,7 +17873,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -17842,7 +17914,7 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -17873,7 +17945,7 @@
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -17904,7 +17976,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -17951,7 +18023,7 @@
       </c>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -18237,21 +18309,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18275,6 +18347,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -18282,12 +18362,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5336F5-48A1-44F7-982B-A5EC1629CF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A9B6B7-BB0D-4002-8411-38650344CAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Contact" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$J$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$J$126</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Member!$A$1:$EP$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="664">
   <si>
     <t>UserName</t>
   </si>
@@ -1463,9 +1463,6 @@
     <t>3/4/2022</t>
   </si>
   <si>
-    <t>mrt2&amp;p,]hY6bc}}87&gt;&amp;bq?MW)&gt;@xPj</t>
-  </si>
-  <si>
     <t>https://crminternalstage.premierinc.com/CRMDATA</t>
   </si>
   <si>
@@ -2183,22 +2180,19 @@
     <t>115 main st</t>
   </si>
   <si>
-    <t>2023_01_04_08_23_34</t>
-  </si>
-  <si>
     <t>TFS ID_629261:Verify whether user should able to create new account ,without any Business Process Error.</t>
   </si>
   <si>
     <t>Create Member without error</t>
   </si>
   <si>
-    <t>2023_01_05_06_36_23</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
     <t>2023_01_05_06_42_48</t>
+  </si>
+  <si>
+    <t>Premier@2023</t>
   </si>
 </sst>
 </file>
@@ -2957,7 +2951,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3032,22 +3026,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="72" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="72" width="139.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="72" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="72" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="67" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="72" width="8.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="7" width="20.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="32.0" collapsed="true"/>
-    <col min="10" max="16384" style="7" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="139.5703125" style="72" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" style="67" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.140625" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3096,13 +3090,13 @@
         <v>61</v>
       </c>
       <c r="F2" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>423</v>
-      </c>
       <c r="H2" s="16" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I2" s="43" t="s">
         <v>413</v>
@@ -3128,10 +3122,10 @@
         <v>109</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H3" s="13"/>
       <c r="J3" s="74"/>
@@ -3153,16 +3147,16 @@
         <v>61</v>
       </c>
       <c r="F4" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>423</v>
-      </c>
       <c r="H4" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J4" s="73" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3182,10 +3176,10 @@
         <v>109</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H5" s="13"/>
       <c r="J5" s="74"/>
@@ -3207,10 +3201,10 @@
         <v>109</v>
       </c>
       <c r="F6" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="J6" s="74"/>
     </row>
@@ -3231,10 +3225,10 @@
         <v>109</v>
       </c>
       <c r="F7" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="J7" s="74"/>
     </row>
@@ -3255,13 +3249,13 @@
         <v>61</v>
       </c>
       <c r="F8" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>423</v>
-      </c>
       <c r="H8" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J8" s="74"/>
     </row>
@@ -3282,10 +3276,10 @@
         <v>109</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="J9" s="74"/>
     </row>
@@ -3306,13 +3300,13 @@
         <v>61</v>
       </c>
       <c r="F10" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>423</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J10" s="74"/>
     </row>
@@ -3333,10 +3327,10 @@
         <v>109</v>
       </c>
       <c r="F11" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G11" s="34" t="s">
         <v>422</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>423</v>
       </c>
       <c r="H11" s="34"/>
       <c r="J11" s="74"/>
@@ -3358,10 +3352,10 @@
         <v>109</v>
       </c>
       <c r="F12" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H12" s="13"/>
       <c r="J12" s="74"/>
@@ -3383,10 +3377,10 @@
         <v>61</v>
       </c>
       <c r="F13" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="J13" s="74"/>
     </row>
@@ -3407,10 +3401,10 @@
         <v>61</v>
       </c>
       <c r="F14" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="J14" s="74"/>
     </row>
@@ -3431,13 +3425,13 @@
         <v>61</v>
       </c>
       <c r="F15" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>423</v>
-      </c>
       <c r="H15" s="13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J15" s="74"/>
     </row>
@@ -3458,13 +3452,13 @@
         <v>61</v>
       </c>
       <c r="F16" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>423</v>
-      </c>
       <c r="H16" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J16" s="74"/>
     </row>
@@ -3485,10 +3479,10 @@
         <v>109</v>
       </c>
       <c r="F17" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="G17" s="77" t="s">
         <v>422</v>
-      </c>
-      <c r="G17" s="77" t="s">
-        <v>423</v>
       </c>
       <c r="J17" s="75"/>
     </row>
@@ -3509,10 +3503,10 @@
         <v>109</v>
       </c>
       <c r="F18" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="J18" s="74"/>
     </row>
@@ -3533,10 +3527,10 @@
         <v>109</v>
       </c>
       <c r="F19" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="J19" s="74"/>
     </row>
@@ -3557,10 +3551,10 @@
         <v>61</v>
       </c>
       <c r="F20" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="J20" s="74"/>
     </row>
@@ -3581,13 +3575,13 @@
         <v>61</v>
       </c>
       <c r="F21" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="G21" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="G21" s="78" t="s">
-        <v>423</v>
-      </c>
       <c r="H21" s="78" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J21" s="76"/>
     </row>
@@ -3608,10 +3602,10 @@
         <v>109</v>
       </c>
       <c r="F22" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H22" s="13"/>
       <c r="J22" s="74"/>
@@ -3633,10 +3627,10 @@
         <v>109</v>
       </c>
       <c r="F23" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H23" s="13"/>
       <c r="J23" s="74"/>
@@ -3658,10 +3652,10 @@
         <v>109</v>
       </c>
       <c r="F24" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H24" s="13"/>
       <c r="J24" s="74"/>
@@ -3683,10 +3677,10 @@
         <v>109</v>
       </c>
       <c r="F25" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H25" s="13"/>
       <c r="J25" s="74"/>
@@ -3708,10 +3702,10 @@
         <v>109</v>
       </c>
       <c r="F26" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H26" s="13"/>
       <c r="J26" s="74"/>
@@ -3733,10 +3727,10 @@
         <v>109</v>
       </c>
       <c r="F27" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H27" s="13"/>
       <c r="J27" s="74"/>
@@ -3758,10 +3752,10 @@
         <v>109</v>
       </c>
       <c r="F28" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H28" s="13"/>
       <c r="J28" s="74"/>
@@ -3783,10 +3777,10 @@
         <v>61</v>
       </c>
       <c r="F29" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="G29" s="77" t="s">
         <v>422</v>
-      </c>
-      <c r="G29" s="77" t="s">
-        <v>423</v>
       </c>
       <c r="J29" s="75"/>
     </row>
@@ -3807,10 +3801,10 @@
         <v>109</v>
       </c>
       <c r="F30" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="G30" s="78" t="s">
         <v>422</v>
-      </c>
-      <c r="G30" s="78" t="s">
-        <v>423</v>
       </c>
       <c r="H30" s="78"/>
       <c r="J30" s="76"/>
@@ -3832,10 +3826,10 @@
         <v>61</v>
       </c>
       <c r="F31" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G31" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G31" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
@@ -3857,10 +3851,10 @@
         <v>109</v>
       </c>
       <c r="F32" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G32" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G32" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
@@ -3882,10 +3876,10 @@
         <v>109</v>
       </c>
       <c r="F33" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G33" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G33" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
@@ -3907,10 +3901,10 @@
         <v>109</v>
       </c>
       <c r="F34" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G34" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G34" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
@@ -3932,10 +3926,10 @@
         <v>109</v>
       </c>
       <c r="F35" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G35" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G35" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
@@ -3957,10 +3951,10 @@
         <v>109</v>
       </c>
       <c r="F36" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G36" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G36" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
@@ -3982,10 +3976,10 @@
         <v>61</v>
       </c>
       <c r="F37" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G37" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G37" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
@@ -4007,10 +4001,10 @@
         <v>61</v>
       </c>
       <c r="F38" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G38" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G38" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
@@ -4032,10 +4026,10 @@
         <v>109</v>
       </c>
       <c r="F39" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G39" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G39" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
@@ -4057,10 +4051,10 @@
         <v>109</v>
       </c>
       <c r="F40" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G40" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G40" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
@@ -4082,10 +4076,10 @@
         <v>109</v>
       </c>
       <c r="F41" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G41" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G41" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
@@ -4107,10 +4101,10 @@
         <v>109</v>
       </c>
       <c r="F42" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G42" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G42" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
@@ -4132,10 +4126,10 @@
         <v>61</v>
       </c>
       <c r="F43" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G43" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G43" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
@@ -4157,10 +4151,10 @@
         <v>61</v>
       </c>
       <c r="F44" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G44" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G44" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
@@ -4182,10 +4176,10 @@
         <v>61</v>
       </c>
       <c r="F45" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G45" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G45" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
@@ -4207,13 +4201,13 @@
         <v>302</v>
       </c>
       <c r="F46" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G46" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="G46" s="63" t="s">
-        <v>423</v>
-      </c>
       <c r="H46" s="63" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I46" s="63"/>
     </row>
@@ -4234,13 +4228,13 @@
         <v>302</v>
       </c>
       <c r="F47" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G47" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="G47" s="63" t="s">
-        <v>423</v>
-      </c>
       <c r="H47" s="63" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I47" s="63"/>
     </row>
@@ -4261,10 +4255,10 @@
         <v>109</v>
       </c>
       <c r="F48" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G48" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G48" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
@@ -4286,10 +4280,10 @@
         <v>109</v>
       </c>
       <c r="F49" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G49" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G49" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
@@ -4311,10 +4305,10 @@
         <v>109</v>
       </c>
       <c r="F50" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G50" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G50" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
@@ -4336,10 +4330,10 @@
         <v>109</v>
       </c>
       <c r="F51" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G51" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G51" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
@@ -4361,10 +4355,10 @@
         <v>109</v>
       </c>
       <c r="F52" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G52" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G52" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
@@ -4386,10 +4380,10 @@
         <v>109</v>
       </c>
       <c r="F53" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G53" s="63" t="s">
         <v>422</v>
-      </c>
-      <c r="G53" s="63" t="s">
-        <v>423</v>
       </c>
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
@@ -4411,13 +4405,13 @@
         <v>302</v>
       </c>
       <c r="F54" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G54" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="G54" s="62" t="s">
-        <v>423</v>
-      </c>
       <c r="H54" s="62" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I54" s="62"/>
     </row>
@@ -4426,7 +4420,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="63" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>56</v>
@@ -4438,10 +4432,10 @@
         <v>109</v>
       </c>
       <c r="F55" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="34"/>
@@ -4451,7 +4445,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>56</v>
@@ -4463,10 +4457,10 @@
         <v>109</v>
       </c>
       <c r="F56" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="34"/>
@@ -4476,7 +4470,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>56</v>
@@ -4488,10 +4482,10 @@
         <v>109</v>
       </c>
       <c r="F57" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G57" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H57" s="34"/>
       <c r="I57" s="34"/>
@@ -4501,7 +4495,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>56</v>
@@ -4513,10 +4507,10 @@
         <v>109</v>
       </c>
       <c r="F58" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G58" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="34"/>
@@ -4526,7 +4520,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>56</v>
@@ -4538,10 +4532,10 @@
         <v>109</v>
       </c>
       <c r="F59" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G59" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H59" s="34"/>
       <c r="I59" s="34"/>
@@ -4551,7 +4545,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C60" s="25" t="s">
         <v>56</v>
@@ -4563,10 +4557,10 @@
         <v>109</v>
       </c>
       <c r="F60" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H60" s="34"/>
       <c r="I60" s="34"/>
@@ -4576,7 +4570,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="63" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>56</v>
@@ -4588,10 +4582,10 @@
         <v>109</v>
       </c>
       <c r="F61" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G61" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H61" s="34"/>
       <c r="I61" s="34"/>
@@ -4601,7 +4595,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C62" s="25" t="s">
         <v>56</v>
@@ -4613,10 +4607,10 @@
         <v>109</v>
       </c>
       <c r="F62" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G62" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="34"/>
@@ -4626,7 +4620,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="63" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>56</v>
@@ -4638,10 +4632,10 @@
         <v>109</v>
       </c>
       <c r="F63" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G63" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="34"/>
@@ -4651,7 +4645,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="68" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>56</v>
@@ -4663,10 +4657,10 @@
         <v>109</v>
       </c>
       <c r="F64" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G64" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H64" s="34"/>
       <c r="I64" s="34"/>
@@ -4676,7 +4670,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="87" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>56</v>
@@ -4688,10 +4682,10 @@
         <v>109</v>
       </c>
       <c r="F65" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G65" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="34"/>
@@ -4701,7 +4695,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>56</v>
@@ -4713,10 +4707,10 @@
         <v>109</v>
       </c>
       <c r="F66" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G66" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="34"/>
@@ -4726,7 +4720,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="63" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>56</v>
@@ -4738,10 +4732,10 @@
         <v>109</v>
       </c>
       <c r="F67" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G67" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H67" s="34"/>
       <c r="I67" s="34"/>
@@ -4751,7 +4745,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="63" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>56</v>
@@ -4763,10 +4757,10 @@
         <v>109</v>
       </c>
       <c r="F68" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G68" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="34"/>
@@ -4776,7 +4770,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="63" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C69" s="25" t="s">
         <v>56</v>
@@ -4788,10 +4782,10 @@
         <v>109</v>
       </c>
       <c r="F69" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G69" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="34"/>
@@ -4801,7 +4795,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="63" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>56</v>
@@ -4813,10 +4807,10 @@
         <v>109</v>
       </c>
       <c r="F70" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G70" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H70" s="34"/>
       <c r="I70" s="34"/>
@@ -4826,7 +4820,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="63" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>56</v>
@@ -4838,10 +4832,10 @@
         <v>109</v>
       </c>
       <c r="F71" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G71" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H71" s="34"/>
       <c r="I71" s="34"/>
@@ -4851,7 +4845,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="63" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C72" s="25" t="s">
         <v>56</v>
@@ -4863,10 +4857,10 @@
         <v>109</v>
       </c>
       <c r="F72" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G72" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H72" s="34"/>
       <c r="I72" s="34"/>
@@ -4876,7 +4870,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="63" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C73" s="25" t="s">
         <v>56</v>
@@ -4888,10 +4882,10 @@
         <v>109</v>
       </c>
       <c r="F73" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G73" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H73" s="34"/>
       <c r="I73" s="34"/>
@@ -4901,7 +4895,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="68" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C74" s="25" t="s">
         <v>56</v>
@@ -4913,10 +4907,10 @@
         <v>109</v>
       </c>
       <c r="F74" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G74" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H74" s="34"/>
       <c r="I74" s="34"/>
@@ -4926,7 +4920,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="63" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C75" s="25" t="s">
         <v>56</v>
@@ -4938,10 +4932,10 @@
         <v>109</v>
       </c>
       <c r="F75" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G75" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H75" s="34"/>
       <c r="I75" s="34"/>
@@ -4951,7 +4945,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C76" s="25" t="s">
         <v>56</v>
@@ -4963,10 +4957,10 @@
         <v>109</v>
       </c>
       <c r="F76" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G76" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="34"/>
@@ -4976,7 +4970,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C77" s="25" t="s">
         <v>56</v>
@@ -4988,10 +4982,10 @@
         <v>109</v>
       </c>
       <c r="F77" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G77" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="34"/>
@@ -5001,7 +4995,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="66" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C78" s="25" t="s">
         <v>56</v>
@@ -5013,10 +5007,10 @@
         <v>109</v>
       </c>
       <c r="F78" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G78" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H78" s="34"/>
       <c r="I78" s="34"/>
@@ -5026,7 +5020,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="66" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C79" s="25" t="s">
         <v>56</v>
@@ -5038,10 +5032,10 @@
         <v>109</v>
       </c>
       <c r="F79" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G79" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H79" s="34"/>
       <c r="I79" s="34"/>
@@ -5051,7 +5045,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="84" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C80" s="25" t="s">
         <v>56</v>
@@ -5063,10 +5057,10 @@
         <v>109</v>
       </c>
       <c r="F80" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G80" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="34"/>
@@ -5076,7 +5070,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="68" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C81" s="25" t="s">
         <v>56</v>
@@ -5088,10 +5082,10 @@
         <v>109</v>
       </c>
       <c r="F81" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G81" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H81" s="34"/>
       <c r="I81" s="34"/>
@@ -5101,7 +5095,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="63" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C82" s="25" t="s">
         <v>56</v>
@@ -5113,10 +5107,10 @@
         <v>109</v>
       </c>
       <c r="F82" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G82" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="34"/>
@@ -5126,7 +5120,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="63" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C83" s="25" t="s">
         <v>56</v>
@@ -5138,10 +5132,10 @@
         <v>109</v>
       </c>
       <c r="F83" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G83" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H83" s="34"/>
       <c r="I83" s="34"/>
@@ -5151,7 +5145,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="63" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C84" s="25" t="s">
         <v>56</v>
@@ -5163,10 +5157,10 @@
         <v>109</v>
       </c>
       <c r="F84" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G84" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="34"/>
@@ -5176,7 +5170,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C85" s="25" t="s">
         <v>56</v>
@@ -5188,10 +5182,10 @@
         <v>109</v>
       </c>
       <c r="F85" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G85" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H85" s="13"/>
       <c r="I85" s="34"/>
@@ -5201,7 +5195,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C86" s="25" t="s">
         <v>56</v>
@@ -5213,10 +5207,10 @@
         <v>109</v>
       </c>
       <c r="F86" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G86" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H86" s="34"/>
       <c r="I86" s="34"/>
@@ -5226,7 +5220,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="63" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C87" s="25" t="s">
         <v>56</v>
@@ -5238,10 +5232,10 @@
         <v>109</v>
       </c>
       <c r="F87" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G87" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H87" s="34"/>
       <c r="I87" s="34"/>
@@ -5251,7 +5245,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="66" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C88" s="25" t="s">
         <v>56</v>
@@ -5263,10 +5257,10 @@
         <v>109</v>
       </c>
       <c r="F88" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G88" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H88" s="34"/>
       <c r="I88" s="34"/>
@@ -5276,7 +5270,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C89" s="25" t="s">
         <v>56</v>
@@ -5288,10 +5282,10 @@
         <v>109</v>
       </c>
       <c r="F89" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G89" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="34"/>
@@ -5301,7 +5295,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="66" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C90" s="25" t="s">
         <v>56</v>
@@ -5313,10 +5307,10 @@
         <v>109</v>
       </c>
       <c r="F90" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G90" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H90" s="34"/>
       <c r="I90" s="34"/>
@@ -5326,7 +5320,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C91" s="25" t="s">
         <v>56</v>
@@ -5338,10 +5332,10 @@
         <v>109</v>
       </c>
       <c r="F91" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G91" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H91" s="13"/>
       <c r="I91" s="34"/>
@@ -5351,7 +5345,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C92" s="25" t="s">
         <v>56</v>
@@ -5363,10 +5357,10 @@
         <v>109</v>
       </c>
       <c r="F92" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G92" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H92" s="13"/>
       <c r="I92" s="34"/>
@@ -5376,7 +5370,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="68" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C93" s="25" t="s">
         <v>56</v>
@@ -5388,10 +5382,10 @@
         <v>109</v>
       </c>
       <c r="F93" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G93" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H93" s="13"/>
       <c r="I93" s="34"/>
@@ -5401,7 +5395,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="63" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C94" s="25" t="s">
         <v>56</v>
@@ -5413,10 +5407,10 @@
         <v>109</v>
       </c>
       <c r="F94" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G94" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H94" s="34"/>
       <c r="I94" s="34"/>
@@ -5426,7 +5420,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="68" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C95" s="25" t="s">
         <v>56</v>
@@ -5438,7 +5432,7 @@
         <v>109</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G95" s="34"/>
       <c r="H95" s="34"/>
@@ -5449,7 +5443,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="68" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C96" s="25" t="s">
         <v>56</v>
@@ -5461,10 +5455,10 @@
         <v>109</v>
       </c>
       <c r="F96" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G96" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
@@ -5474,7 +5468,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="68" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C97" s="25" t="s">
         <v>56</v>
@@ -5486,10 +5480,10 @@
         <v>109</v>
       </c>
       <c r="F97" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G97" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
@@ -5499,7 +5493,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="63" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C98" s="25" t="s">
         <v>56</v>
@@ -5511,10 +5505,10 @@
         <v>109</v>
       </c>
       <c r="F98" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G98" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
@@ -5524,7 +5518,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C99" s="25" t="s">
         <v>56</v>
@@ -5536,10 +5530,10 @@
         <v>109</v>
       </c>
       <c r="F99" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G99" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H99" s="34"/>
       <c r="I99" s="34"/>
@@ -5549,7 +5543,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="68" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C100" s="25" t="s">
         <v>56</v>
@@ -5561,10 +5555,10 @@
         <v>109</v>
       </c>
       <c r="F100" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G100" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
@@ -5574,7 +5568,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="68" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C101" s="25" t="s">
         <v>56</v>
@@ -5586,10 +5580,10 @@
         <v>109</v>
       </c>
       <c r="F101" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G101" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H101" s="34"/>
       <c r="I101" s="34"/>
@@ -5599,7 +5593,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="68" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C102" s="25" t="s">
         <v>56</v>
@@ -5611,10 +5605,10 @@
         <v>109</v>
       </c>
       <c r="F102" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G102" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
@@ -5624,7 +5618,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="63" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C103" s="25" t="s">
         <v>56</v>
@@ -5636,10 +5630,10 @@
         <v>109</v>
       </c>
       <c r="F103" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G103" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
@@ -5649,7 +5643,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="68" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C104" s="25" t="s">
         <v>56</v>
@@ -5661,10 +5655,10 @@
         <v>109</v>
       </c>
       <c r="F104" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G104" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
@@ -5674,7 +5668,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="68" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C105" s="25" t="s">
         <v>56</v>
@@ -5686,10 +5680,10 @@
         <v>109</v>
       </c>
       <c r="F105" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G105" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
@@ -5699,7 +5693,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="68" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C106" s="25" t="s">
         <v>56</v>
@@ -5711,10 +5705,10 @@
         <v>109</v>
       </c>
       <c r="F106" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G106" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
@@ -5724,7 +5718,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="68" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C107" s="25" t="s">
         <v>56</v>
@@ -5736,10 +5730,10 @@
         <v>109</v>
       </c>
       <c r="F107" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G107" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G107" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H107" s="34"/>
       <c r="I107" s="34"/>
@@ -5749,7 +5743,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="63" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C108" s="25" t="s">
         <v>56</v>
@@ -5761,10 +5755,10 @@
         <v>61</v>
       </c>
       <c r="F108" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G108" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H108" s="13"/>
       <c r="J108" s="74"/>
@@ -5774,7 +5768,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="72" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C109" s="25" t="s">
         <v>56</v>
@@ -5786,10 +5780,10 @@
         <v>109</v>
       </c>
       <c r="F109" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G109" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H109" s="13"/>
       <c r="J109" s="74"/>
@@ -5799,7 +5793,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="63" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C110" s="25" t="s">
         <v>56</v>
@@ -5811,13 +5805,13 @@
         <v>61</v>
       </c>
       <c r="F110" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G110" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="G110" s="13" t="s">
-        <v>423</v>
-      </c>
       <c r="H110" s="13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J110" s="74"/>
     </row>
@@ -5826,7 +5820,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="63" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C111" s="25" t="s">
         <v>56</v>
@@ -5838,10 +5832,10 @@
         <v>61</v>
       </c>
       <c r="F111" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G111" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H111" s="13"/>
       <c r="J111" s="74"/>
@@ -5851,7 +5845,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="63" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C112" s="25" t="s">
         <v>56</v>
@@ -5863,10 +5857,10 @@
         <v>109</v>
       </c>
       <c r="F112" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G112" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="H112" s="13"/>
       <c r="J112" s="74"/>
@@ -5876,7 +5870,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="96" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C113" s="97" t="s">
         <v>56</v>
@@ -5888,10 +5882,10 @@
         <v>109</v>
       </c>
       <c r="F113" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G113" s="98" t="s">
         <v>422</v>
-      </c>
-      <c r="G113" s="98" t="s">
-        <v>423</v>
       </c>
       <c r="H113" s="98"/>
       <c r="I113" s="98"/>
@@ -5901,7 +5895,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C114" s="25" t="s">
         <v>56</v>
@@ -5913,10 +5907,10 @@
         <v>109</v>
       </c>
       <c r="F114" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G114" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -5924,7 +5918,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C115" s="25" t="s">
         <v>56</v>
@@ -5936,10 +5930,10 @@
         <v>109</v>
       </c>
       <c r="F115" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G115" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -5947,7 +5941,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C116" s="25" t="s">
         <v>56</v>
@@ -5959,10 +5953,10 @@
         <v>61</v>
       </c>
       <c r="F116" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G116" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G116" s="13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -5970,7 +5964,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C117" s="25" t="s">
         <v>56</v>
@@ -5982,10 +5976,10 @@
         <v>61</v>
       </c>
       <c r="F117" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G117" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -5993,7 +5987,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C118" s="25" t="s">
         <v>56</v>
@@ -6005,10 +5999,10 @@
         <v>109</v>
       </c>
       <c r="F118" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G118" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -6016,7 +6010,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C119" s="25" t="s">
         <v>56</v>
@@ -6028,10 +6022,10 @@
         <v>109</v>
       </c>
       <c r="F119" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G119" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -6039,7 +6033,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C120" s="25" t="s">
         <v>56</v>
@@ -6051,10 +6045,10 @@
         <v>109</v>
       </c>
       <c r="F120" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G120" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -6062,7 +6056,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C121" s="25" t="s">
         <v>56</v>
@@ -6074,10 +6068,10 @@
         <v>109</v>
       </c>
       <c r="F121" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G121" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -6085,7 +6079,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C122" s="25" t="s">
         <v>56</v>
@@ -6097,10 +6091,10 @@
         <v>109</v>
       </c>
       <c r="F122" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G122" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G122" s="13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -6108,7 +6102,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C123" s="25" t="s">
         <v>56</v>
@@ -6120,10 +6114,10 @@
         <v>109</v>
       </c>
       <c r="F123" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G123" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -6131,7 +6125,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C124" s="25" t="s">
         <v>56</v>
@@ -6143,10 +6137,10 @@
         <v>61</v>
       </c>
       <c r="F124" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G124" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -6154,7 +6148,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C125" s="25" t="s">
         <v>56</v>
@@ -6166,10 +6160,10 @@
         <v>61</v>
       </c>
       <c r="F125" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G125" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -6177,10 +6171,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>8</v>
@@ -6189,13 +6183,14 @@
         <v>61</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J126" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" location="7815483" xr:uid="{27C524AC-B712-409C-94D8-14137A368696}"/>
     <hyperlink ref="J4" r:id="rId2" xr:uid="{2982E1F1-B044-4074-8F5C-3D269A821F42}"/>
@@ -6211,100 +6206,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:EP90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="102.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="33.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
-    <col min="8" max="11" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="42" max="44" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="6.0" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="2" width="27.0" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="29.0" collapsed="true"/>
-    <col min="58" max="59" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="60" max="60" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="70" max="71" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
-    <col min="77" max="77" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="78" max="78" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
-    <col min="79" max="79" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
-    <col min="80" max="86" style="2" width="9.140625" collapsed="true"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="88" max="99" style="2" width="9.140625" collapsed="true"/>
-    <col min="100" max="100" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="103" max="103" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="105" max="105" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="108" max="108" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="109" max="109" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="110" max="112" style="2" width="9.140625" collapsed="true"/>
-    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="27.85546875" collapsed="true"/>
-    <col min="114" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="102.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="11" width="12.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="44" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="6" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="27" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="29" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="59" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="15.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="71" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="86" width="9.140625" style="2" collapsed="1"/>
+    <col min="87" max="87" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="99" width="9.140625" style="2" collapsed="1"/>
+    <col min="100" max="100" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="26.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="110" max="112" width="9.140625" style="2" collapsed="1"/>
+    <col min="113" max="113" width="27.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="114" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:113" x14ac:dyDescent="0.25">
@@ -6318,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>1</v>
@@ -6336,10 +6331,10 @@
         <v>294</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>625</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>626</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>2</v>
@@ -6486,7 +6481,7 @@
         <v>68</v>
       </c>
       <c r="BH1" s="99" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="BI1" s="3" t="s">
         <v>88</v>
@@ -6516,10 +6511,10 @@
         <v>217</v>
       </c>
       <c r="BR1" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="BS1" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>588</v>
       </c>
       <c r="BT1" s="3" t="s">
         <v>194</v>
@@ -6642,10 +6637,10 @@
         <v>409</v>
       </c>
       <c r="DH1" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="DI1" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:113" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6660,7 +6655,7 @@
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -6849,7 +6844,7 @@
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
@@ -7048,11 +7043,11 @@
         <v>291</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>414</v>
@@ -7219,7 +7214,7 @@
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -7410,7 +7405,7 @@
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -7601,7 +7596,7 @@
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -7786,7 +7781,7 @@
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -7973,7 +7968,7 @@
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -8158,7 +8153,7 @@
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -8353,7 +8348,7 @@
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -8548,7 +8543,7 @@
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -8737,7 +8732,7 @@
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -8930,7 +8925,7 @@
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -9119,7 +9114,7 @@
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -9308,7 +9303,7 @@
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -9326,7 +9321,7 @@
         <v>4</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R16" s="23" t="s">
         <v>284</v>
@@ -9357,7 +9352,7 @@
         <v>23</v>
       </c>
       <c r="AD16" s="24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AE16" s="21" t="s">
         <v>29</v>
@@ -9412,16 +9407,16 @@
         <v>56</v>
       </c>
       <c r="BC16" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="BD16" s="21" t="s">
         <v>56</v>
       </c>
       <c r="BE16" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="BF16" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="BG16" s="21" t="s">
         <v>56</v>
@@ -9429,10 +9424,10 @@
       <c r="BH16" s="21"/>
       <c r="BI16" s="21"/>
       <c r="BJ16" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="BK16" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="BL16" s="21"/>
       <c r="BM16" s="21"/>
@@ -9503,7 +9498,7 @@
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -9552,7 +9547,7 @@
         <v>23</v>
       </c>
       <c r="AD17" s="24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AE17" s="21" t="s">
         <v>29</v>
@@ -9601,16 +9596,16 @@
         <v>56</v>
       </c>
       <c r="BC17" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="BD17" s="21" t="s">
         <v>56</v>
       </c>
       <c r="BE17" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="BF17" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="BG17" s="21" t="s">
         <v>56</v>
@@ -9618,10 +9613,10 @@
       <c r="BH17" s="21"/>
       <c r="BI17" s="21"/>
       <c r="BJ17" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="BK17" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="BL17" s="21"/>
       <c r="BM17" s="21"/>
@@ -9692,7 +9687,7 @@
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -9881,7 +9876,7 @@
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -10064,7 +10059,7 @@
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -10201,7 +10196,7 @@
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>415</v>
@@ -10352,7 +10347,7 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
@@ -10587,10 +10582,10 @@
         <v>56</v>
       </c>
       <c r="CR22" s="13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="CS22" s="13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="CT22" s="26" t="s">
         <v>56</v>
@@ -10627,7 +10622,7 @@
         <v>256</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="61"/>
@@ -10760,7 +10755,7 @@
         <v>255</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="61"/>
@@ -10893,7 +10888,7 @@
         <v>245</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="61"/>
@@ -11026,7 +11021,7 @@
         <v>257</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="61"/>
@@ -11159,7 +11154,7 @@
         <v>258</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="61"/>
@@ -11294,7 +11289,7 @@
         <v>259</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="61"/>
@@ -11433,7 +11428,7 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -11584,10 +11579,10 @@
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P30" s="21" t="s">
         <v>4</v>
@@ -11617,13 +11612,13 @@
         <v>23</v>
       </c>
       <c r="AD30" s="49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AE30" s="2" t="s">
         <v>84</v>
       </c>
       <c r="AF30" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG30" s="22" t="s">
         <v>343</v>
@@ -11635,7 +11630,7 @@
         <v>406</v>
       </c>
       <c r="AJ30" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AK30" s="21"/>
       <c r="AL30" s="21" t="s">
@@ -11672,7 +11667,7 @@
         <v>334</v>
       </c>
       <c r="DG30" s="39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="DH30" s="26"/>
       <c r="DI30" s="26"/>
@@ -11689,7 +11684,7 @@
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="DG31" s="26"/>
       <c r="DH31" s="26"/>
@@ -11700,20 +11695,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="L32" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="M32" s="21" t="s">
         <v>426</v>
-      </c>
-      <c r="M32" s="21" t="s">
-        <v>427</v>
       </c>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
@@ -11885,27 +11880,27 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G33" s="49"/>
       <c r="L33" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="N33" s="21" t="s">
         <v>430</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="N33" s="21" t="s">
-        <v>431</v>
       </c>
       <c r="O33" s="22"/>
       <c r="P33" s="21" t="s">
@@ -12029,20 +12024,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F34" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="L34" s="21" t="s">
         <v>432</v>
-      </c>
-      <c r="L34" s="21" t="s">
-        <v>433</v>
       </c>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
@@ -12054,7 +12049,7 @@
         <v>343</v>
       </c>
       <c r="R34" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
@@ -12168,17 +12163,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="82" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -12186,10 +12181,10 @@
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="M35" s="21" t="s">
         <v>438</v>
-      </c>
-      <c r="M35" s="21" t="s">
-        <v>439</v>
       </c>
       <c r="N35" s="21"/>
       <c r="O35" s="22"/>
@@ -12363,20 +12358,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F36" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="DG36" s="26"/>
       <c r="DH36" s="26"/>
@@ -12387,23 +12382,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M37" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="DG37" s="26"/>
       <c r="DH37" s="26"/>
@@ -12414,20 +12409,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="DG38" s="26"/>
       <c r="DH38" s="26"/>
@@ -12438,17 +12433,17 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -12456,7 +12451,7 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
@@ -12650,7 +12645,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="82" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>83</v>
@@ -12659,13 +12654,13 @@
         <v>27</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G40" s="49" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="DG40" s="26"/>
       <c r="DH40" s="26"/>
@@ -12676,14 +12671,14 @@
         <v>40</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -12692,10 +12687,10 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M41" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N41" s="21"/>
       <c r="O41" s="22"/>
@@ -12873,14 +12868,14 @@
         <v>41</v>
       </c>
       <c r="B42" s="85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -12889,7 +12884,7 @@
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
       <c r="L42" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M42" s="26"/>
       <c r="N42" s="26"/>
@@ -13043,10 +13038,10 @@
         <v>332</v>
       </c>
       <c r="CX42" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="CY42" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="CZ42" s="23" t="s">
         <v>261</v>
@@ -13062,7 +13057,7 @@
         <v>76</v>
       </c>
       <c r="DE42" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="DF42" s="89" t="s">
         <v>362</v>
@@ -13076,14 +13071,14 @@
         <v>42</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -13092,7 +13087,7 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
@@ -13265,14 +13260,14 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="DG44" s="26"/>
       <c r="DH44" s="26"/>
@@ -13283,14 +13278,14 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -13299,7 +13294,7 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
@@ -13469,14 +13464,14 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -13485,10 +13480,10 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="N46" s="21"/>
       <c r="O46" s="22"/>
@@ -13660,26 +13655,26 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F47" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="G47" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="H47" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="I47" s="49" t="s">
         <v>469</v>
-      </c>
-      <c r="H47" s="49" t="s">
-        <v>432</v>
-      </c>
-      <c r="I47" s="49" t="s">
-        <v>470</v>
       </c>
       <c r="J47" s="49"/>
       <c r="K47" s="49"/>
@@ -13692,17 +13687,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F48" s="49" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="DG48" s="26"/>
       <c r="DH48" s="26"/>
@@ -13713,17 +13708,17 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="DG49" s="26"/>
       <c r="DH49" s="26"/>
@@ -13734,19 +13729,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F50" s="49"/>
       <c r="DG50" s="26"/>
       <c r="DH50" s="39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="DI50" s="26"/>
     </row>
@@ -13755,20 +13750,20 @@
         <v>50</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F51" s="49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G51" s="49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="DG51" s="26"/>
       <c r="DH51" s="26"/>
@@ -13779,14 +13774,14 @@
         <v>51</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -13982,14 +13977,14 @@
         <v>52</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -13998,7 +13993,7 @@
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M53" s="21"/>
       <c r="N53" s="21"/>
@@ -14179,17 +14174,17 @@
         <v>53</v>
       </c>
       <c r="B54" s="86" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -14197,7 +14192,7 @@
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
       <c r="L54" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M54" s="21"/>
       <c r="N54" s="21"/>
@@ -14369,17 +14364,17 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="DG55" s="26"/>
       <c r="DH55" s="26"/>
@@ -14390,17 +14385,17 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="DG56" s="26"/>
       <c r="DH56" s="26"/>
@@ -14411,17 +14406,17 @@
         <v>56</v>
       </c>
       <c r="B57" s="82" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L57" s="21" t="s">
         <v>401</v>
@@ -14574,20 +14569,20 @@
         <v>57</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F58" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="AG58" s="22" t="s">
         <v>494</v>
-      </c>
-      <c r="AG58" s="22" t="s">
-        <v>495</v>
       </c>
       <c r="DG58" s="26"/>
       <c r="DH58" s="26"/>
@@ -14598,14 +14593,14 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -14614,7 +14609,7 @@
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
       <c r="L59" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M59" s="21"/>
       <c r="N59" s="21"/>
@@ -14798,17 +14793,17 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C60" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="DG60" s="26"/>
       <c r="DH60" s="26"/>
@@ -14819,7 +14814,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>27</v>
@@ -14828,10 +14823,10 @@
         <v>83</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
@@ -14839,7 +14834,7 @@
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
       <c r="L61" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M61" s="21"/>
       <c r="N61" s="21"/>
@@ -15014,19 +15009,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F62" s="49" t="s">
+        <v>504</v>
+      </c>
+      <c r="L62" s="21" t="s">
         <v>505</v>
-      </c>
-      <c r="L62" s="21" t="s">
-        <v>506</v>
       </c>
       <c r="M62" s="21"/>
       <c r="N62" s="21"/>
@@ -15228,16 +15223,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
@@ -15382,16 +15377,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="DG64" s="26"/>
       <c r="DH64" s="26"/>
@@ -15402,16 +15397,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="DG65" s="26"/>
       <c r="DH65" s="26"/>
@@ -15422,14 +15417,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -15438,7 +15433,7 @@
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
       <c r="L66" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M66" s="21"/>
       <c r="N66" s="21"/>
@@ -15611,7 +15606,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>27</v>
@@ -15620,10 +15615,10 @@
         <v>83</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F67" s="49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="DG67" s="26"/>
       <c r="DH67" s="26"/>
@@ -15634,14 +15629,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
@@ -15650,7 +15645,7 @@
       <c r="J68" s="21"/>
       <c r="K68" s="21"/>
       <c r="L68" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M68" s="21"/>
       <c r="N68" s="21"/>
@@ -15823,14 +15818,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -15839,7 +15834,7 @@
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
       <c r="L69" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M69" s="21"/>
       <c r="N69" s="21"/>
@@ -16012,14 +16007,14 @@
         <v>69</v>
       </c>
       <c r="B70" s="54" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
@@ -16028,7 +16023,7 @@
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
       <c r="L70" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M70" s="21"/>
       <c r="N70" s="21"/>
@@ -16211,16 +16206,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C71" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="DG71" s="26"/>
       <c r="DH71" s="26"/>
@@ -16231,16 +16226,16 @@
         <v>64</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F72" s="49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G72" s="49"/>
       <c r="DG72" s="26"/>
@@ -16252,14 +16247,14 @@
         <v>65</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C73" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="28"/>
@@ -16268,16 +16263,16 @@
       <c r="J73" s="28"/>
       <c r="K73" s="28"/>
       <c r="L73" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M73" s="28"/>
       <c r="N73" s="28"/>
       <c r="O73" s="30"/>
       <c r="P73" s="28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q73" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="R73" s="31" t="s">
         <v>345</v>
@@ -16306,33 +16301,33 @@
         <v>23</v>
       </c>
       <c r="AD73" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AE73" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF73" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AG73" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AH73" s="28"/>
       <c r="AI73" s="21" t="s">
         <v>406</v>
       </c>
       <c r="AJ73" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AK73" s="28"/>
       <c r="AL73" s="28" t="s">
         <v>21</v>
       </c>
       <c r="AM73" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AN73" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AO73" s="30">
         <v>44915</v>
@@ -16355,16 +16350,16 @@
         <v>56</v>
       </c>
       <c r="BC73" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="BD73" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE73" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="BF73" s="21" t="s">
         <v>559</v>
-      </c>
-      <c r="BD73" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE73" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="BF73" s="21" t="s">
-        <v>560</v>
       </c>
       <c r="BG73" s="28" t="s">
         <v>56</v>
@@ -16372,10 +16367,10 @@
       <c r="BH73" s="21"/>
       <c r="BI73" s="28"/>
       <c r="BJ73" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="BK73" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="BL73" s="28"/>
       <c r="BM73" s="28"/>
@@ -16418,14 +16413,14 @@
         <v>332</v>
       </c>
       <c r="CX73" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="CY73" s="30"/>
       <c r="CZ73" s="28"/>
       <c r="DA73" s="28"/>
       <c r="DB73" s="28"/>
       <c r="DC73" s="28" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="DD73" s="28"/>
       <c r="DE73" s="28"/>
@@ -16439,17 +16434,17 @@
         <v>66</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D74" s="26"/>
       <c r="E74" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G74" s="26"/>
       <c r="H74" s="26"/>
@@ -16558,7 +16553,7 @@
       <c r="DG74" s="21"/>
       <c r="DH74" s="21"/>
       <c r="DI74" s="21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="DJ74" s="6"/>
       <c r="DK74" s="6"/>
@@ -16599,14 +16594,14 @@
         <v>67</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
@@ -16615,16 +16610,16 @@
       <c r="J75" s="28"/>
       <c r="K75" s="28"/>
       <c r="L75" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M75" s="28"/>
       <c r="N75" s="28"/>
       <c r="O75" s="30"/>
       <c r="P75" s="28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q75" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="R75" s="31" t="s">
         <v>345</v>
@@ -16647,33 +16642,33 @@
         <v>23</v>
       </c>
       <c r="AD75" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AE75" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF75" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AG75" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AH75" s="28"/>
       <c r="AI75" s="21" t="s">
         <v>406</v>
       </c>
       <c r="AJ75" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AK75" s="28"/>
       <c r="AL75" s="28" t="s">
         <v>21</v>
       </c>
       <c r="AM75" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AN75" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AO75" s="30">
         <v>44915</v>
@@ -16696,16 +16691,16 @@
         <v>56</v>
       </c>
       <c r="BC75" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="BD75" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE75" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="BF75" s="21" t="s">
         <v>559</v>
-      </c>
-      <c r="BD75" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE75" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="BF75" s="21" t="s">
-        <v>560</v>
       </c>
       <c r="BG75" s="28" t="s">
         <v>56</v>
@@ -16713,10 +16708,10 @@
       <c r="BH75" s="21"/>
       <c r="BI75" s="28"/>
       <c r="BJ75" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="BK75" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="BL75" s="28"/>
       <c r="BM75" s="28"/>
@@ -16759,14 +16754,14 @@
         <v>332</v>
       </c>
       <c r="CX75" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="CY75" s="30"/>
       <c r="CZ75" s="28"/>
       <c r="DA75" s="28"/>
       <c r="DB75" s="28"/>
       <c r="DC75" s="28" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="DD75" s="28"/>
       <c r="DE75" s="28"/>
@@ -16780,14 +16775,14 @@
         <v>68</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C76" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="28"/>
@@ -16796,18 +16791,18 @@
       <c r="J76" s="28"/>
       <c r="K76" s="28"/>
       <c r="L76" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="M76" s="32" t="s">
         <v>573</v>
-      </c>
-      <c r="M76" s="32" t="s">
-        <v>574</v>
       </c>
       <c r="N76" s="28"/>
       <c r="O76" s="30"/>
       <c r="P76" s="28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q76" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="R76" s="31" t="s">
         <v>345</v>
@@ -16830,23 +16825,23 @@
         <v>23</v>
       </c>
       <c r="AD76" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AE76" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF76" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AG76" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AH76" s="28"/>
       <c r="AI76" s="21" t="s">
         <v>406</v>
       </c>
       <c r="AJ76" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AK76" s="28"/>
       <c r="AL76" s="28" t="s">
@@ -16862,10 +16857,10 @@
         <v>44915</v>
       </c>
       <c r="AP76" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AQ76" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AR76" s="30">
         <v>44915</v>
@@ -16932,14 +16927,14 @@
         <v>332</v>
       </c>
       <c r="CX76" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="CY76" s="30"/>
       <c r="CZ76" s="28"/>
       <c r="DA76" s="28"/>
       <c r="DB76" s="28"/>
       <c r="DC76" s="28" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="DD76" s="28"/>
       <c r="DE76" s="28"/>
@@ -16953,14 +16948,14 @@
         <v>69</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C77" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="28"/>
@@ -16969,18 +16964,18 @@
       <c r="J77" s="28"/>
       <c r="K77" s="28"/>
       <c r="L77" s="28" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M77" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N77" s="28"/>
       <c r="O77" s="30"/>
       <c r="P77" s="28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q77" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="R77" s="31" t="s">
         <v>345</v>
@@ -17003,13 +16998,13 @@
         <v>23</v>
       </c>
       <c r="AD77" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AE77" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF77" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG77" s="30"/>
       <c r="AH77" s="28"/>
@@ -17017,17 +17012,17 @@
         <v>406</v>
       </c>
       <c r="AJ77" s="30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AK77" s="28"/>
       <c r="AL77" s="28" t="s">
         <v>21</v>
       </c>
       <c r="AM77" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AN77" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AO77" s="30">
         <v>44915</v>
@@ -17097,14 +17092,14 @@
         <v>332</v>
       </c>
       <c r="CX77" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="CY77" s="30"/>
       <c r="CZ77" s="28"/>
       <c r="DA77" s="28"/>
       <c r="DB77" s="28"/>
       <c r="DC77" s="28" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="DD77" s="28"/>
       <c r="DE77" s="28"/>
@@ -17118,14 +17113,14 @@
         <v>70</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C78" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
@@ -17134,10 +17129,10 @@
       <c r="J78" s="21"/>
       <c r="K78" s="21"/>
       <c r="L78" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N78" s="21"/>
       <c r="O78" s="22"/>
@@ -17174,7 +17169,7 @@
         <v>23</v>
       </c>
       <c r="AD78" s="24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AE78" s="21" t="s">
         <v>29</v>
@@ -17230,10 +17225,10 @@
       <c r="BH78" s="21"/>
       <c r="BI78" s="21"/>
       <c r="BJ78" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BK78" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BL78" s="21"/>
       <c r="BM78" s="21"/>
@@ -17299,14 +17294,14 @@
         <v>71</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
@@ -17315,7 +17310,7 @@
       <c r="J79" s="21"/>
       <c r="K79" s="21"/>
       <c r="L79" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M79" s="21"/>
       <c r="N79" s="21"/>
@@ -17353,7 +17348,7 @@
         <v>23</v>
       </c>
       <c r="AD79" s="24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AE79" s="21" t="s">
         <v>29</v>
@@ -17409,10 +17404,10 @@
       <c r="BH79" s="21"/>
       <c r="BI79" s="21"/>
       <c r="BJ79" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BK79" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BL79" s="21"/>
       <c r="BM79" s="21"/>
@@ -17480,14 +17475,14 @@
         <v>72</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
@@ -17496,7 +17491,7 @@
       <c r="J80" s="21"/>
       <c r="K80" s="21"/>
       <c r="L80" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M80" s="21"/>
       <c r="N80" s="21"/>
@@ -17607,14 +17602,14 @@
         <v>73</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C81" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
@@ -17623,7 +17618,7 @@
       <c r="J81" s="21"/>
       <c r="K81" s="21"/>
       <c r="L81" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M81" s="21"/>
       <c r="N81" s="21"/>
@@ -17734,14 +17729,14 @@
         <v>74</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C82" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
@@ -17750,7 +17745,7 @@
       <c r="J82" s="21"/>
       <c r="K82" s="21"/>
       <c r="L82" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M82" s="21"/>
       <c r="N82" s="21"/>
@@ -17773,7 +17768,7 @@
         <v>8</v>
       </c>
       <c r="Y82" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Z82" s="21"/>
       <c r="AA82" s="21"/>
@@ -17830,10 +17825,10 @@
       <c r="BH82" s="21"/>
       <c r="BI82" s="21"/>
       <c r="BJ82" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="BK82" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="BL82" s="21"/>
       <c r="BM82" s="21"/>
@@ -17899,14 +17894,14 @@
         <v>75</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C83" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
@@ -17915,7 +17910,7 @@
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
       <c r="L83" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M83" s="21"/>
       <c r="N83" s="21"/>
@@ -17947,7 +17942,7 @@
         <v>23</v>
       </c>
       <c r="AD83" s="24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AE83" s="21" t="s">
         <v>29</v>
@@ -17997,10 +17992,10 @@
       <c r="BH83" s="21"/>
       <c r="BI83" s="21"/>
       <c r="BJ83" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BK83" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BL83" s="21"/>
       <c r="BM83" s="21"/>
@@ -18068,14 +18063,14 @@
         <v>76</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
@@ -18084,10 +18079,10 @@
       <c r="J84" s="21"/>
       <c r="K84" s="21"/>
       <c r="L84" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="M84" s="21" t="s">
         <v>607</v>
-      </c>
-      <c r="M84" s="21" t="s">
-        <v>608</v>
       </c>
       <c r="N84" s="21"/>
       <c r="O84" s="22"/>
@@ -18106,7 +18101,7 @@
       <c r="AB84" s="21"/>
       <c r="AC84" s="21"/>
       <c r="AD84" s="24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AE84" s="21"/>
       <c r="AF84" s="22"/>
@@ -18140,10 +18135,10 @@
       <c r="BH84" s="21"/>
       <c r="BI84" s="21"/>
       <c r="BJ84" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BK84" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BL84" s="21"/>
       <c r="BM84" s="21"/>
@@ -18211,14 +18206,14 @@
         <v>77</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C85" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
@@ -18227,15 +18222,15 @@
       <c r="J85" s="21"/>
       <c r="K85" s="21"/>
       <c r="L85" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="M85" s="21" t="s">
         <v>617</v>
-      </c>
-      <c r="M85" s="21" t="s">
-        <v>618</v>
       </c>
       <c r="N85" s="21"/>
       <c r="O85" s="22"/>
       <c r="P85" s="21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q85" s="22">
         <v>44928</v>
@@ -18252,7 +18247,7 @@
         <v>8</v>
       </c>
       <c r="Y85" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Z85" s="21"/>
       <c r="AA85" s="21"/>
@@ -18261,7 +18256,7 @@
         <v>11010</v>
       </c>
       <c r="AD85" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AE85" s="21" t="s">
         <v>29</v>
@@ -18309,10 +18304,10 @@
       <c r="BH85" s="21"/>
       <c r="BI85" s="21"/>
       <c r="BJ85" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="BK85" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BL85" s="21"/>
       <c r="BM85" s="21"/>
@@ -18380,35 +18375,35 @@
         <v>78</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C86" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F86" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="G86" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="G86" s="24" t="s">
+      <c r="H86" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="H86" s="24" t="s">
+      <c r="I86" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="I86" s="24" t="s">
-        <v>624</v>
-      </c>
       <c r="J86" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L86" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M86" s="21"/>
       <c r="N86" s="21"/>
@@ -18517,17 +18512,17 @@
         <v>79</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C87" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G87" s="24"/>
       <c r="H87" s="24"/>
@@ -18535,10 +18530,10 @@
       <c r="J87" s="24"/>
       <c r="K87" s="24"/>
       <c r="L87" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M87" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N87" s="21"/>
       <c r="O87" s="22"/>
@@ -18640,7 +18635,7 @@
       <c r="DC87" s="21"/>
       <c r="DD87" s="21"/>
       <c r="DE87" s="22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="DF87" s="88"/>
       <c r="DG87" s="21"/>
@@ -18652,17 +18647,17 @@
         <v>80</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
@@ -18670,10 +18665,10 @@
       <c r="J88" s="24"/>
       <c r="K88" s="24"/>
       <c r="L88" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M88" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N88" s="21"/>
       <c r="O88" s="22"/>
@@ -18785,17 +18780,17 @@
         <v>81</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C89" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G89" s="24"/>
       <c r="H89" s="24"/>
@@ -18803,13 +18798,13 @@
       <c r="J89" s="24"/>
       <c r="K89" s="24"/>
       <c r="L89" s="21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M89" s="21"/>
       <c r="N89" s="21"/>
       <c r="O89" s="22"/>
       <c r="P89" s="21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q89" s="22">
         <v>44930</v>
@@ -18826,7 +18821,7 @@
         <v>8</v>
       </c>
       <c r="Y89" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z89" s="21"/>
       <c r="AA89" s="21"/>
@@ -18835,7 +18830,7 @@
         <v>23</v>
       </c>
       <c r="AD89" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AE89" s="21" t="s">
         <v>29</v>
@@ -18956,14 +18951,14 @@
         <v>82</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
@@ -18972,10 +18967,10 @@
       <c r="J90" s="21"/>
       <c r="K90" s="21"/>
       <c r="L90" s="21" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M90" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N90" s="21"/>
       <c r="O90" s="22"/>
@@ -19155,63 +19150,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="E27" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="33" max="35" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="37" max="38" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="35" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="37" max="38" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
@@ -19228,10 +19223,10 @@
         <v>411</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -19384,10 +19379,10 @@
         <v>281</v>
       </c>
       <c r="BE1" s="94" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="BF1" s="94" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="BG1" s="95" t="s">
         <v>329</v>
@@ -19399,7 +19394,7 @@
         <v>339</v>
       </c>
       <c r="BJ1" s="95" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="BK1" s="13"/>
       <c r="BL1" s="13"/>
@@ -19418,7 +19413,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>46</v>
@@ -19510,7 +19505,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>46</v>
@@ -19604,7 +19599,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>46</v>
@@ -19700,7 +19695,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>46</v>
@@ -19792,7 +19787,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>46</v>
@@ -19890,7 +19885,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>46</v>
@@ -19988,7 +19983,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>46</v>
@@ -20078,7 +20073,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>46</v>
@@ -20180,7 +20175,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>46</v>
@@ -20274,7 +20269,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>46</v>
@@ -20364,7 +20359,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>46</v>
@@ -20462,7 +20457,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>46</v>
@@ -20560,7 +20555,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>46</v>
@@ -20656,7 +20651,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
       <c r="G15" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H15" s="34" t="s">
         <v>46</v>
@@ -20806,7 +20801,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>46</v>
@@ -20907,7 +20902,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>139</v>
@@ -20916,7 +20911,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>46</v>
@@ -20930,7 +20925,7 @@
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>133</v>
@@ -21005,7 +21000,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>124</v>
@@ -21014,7 +21009,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>46</v>
@@ -21046,7 +21041,7 @@
       </c>
       <c r="V18" s="13"/>
       <c r="W18" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="X18" s="15" t="s">
         <v>185</v>
@@ -21101,7 +21096,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>124</v>
@@ -21110,10 +21105,10 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="W19" s="57" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BE19" s="13"/>
       <c r="BF19" s="13"/>
@@ -21129,7 +21124,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>124</v>
@@ -21138,10 +21133,10 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="W20" s="57" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="BE20" s="13"/>
       <c r="BF20" s="13"/>
@@ -21157,7 +21152,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>124</v>
@@ -21166,10 +21161,10 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="W21" s="57" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="BE21" s="13"/>
       <c r="BF21" s="13"/>
@@ -21185,7 +21180,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>124</v>
@@ -21194,13 +21189,13 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="W22" s="57" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="BE22" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="BF22" s="13" t="s">
         <v>98</v>
@@ -21217,7 +21212,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>124</v>
@@ -21226,7 +21221,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>46</v>
@@ -21244,7 +21239,7 @@
         <v>169</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N23" s="22" t="s">
         <v>343</v>
@@ -21327,7 +21322,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>124</v>
@@ -21336,7 +21331,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>46</v>
@@ -21354,7 +21349,7 @@
         <v>169</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>343</v>
@@ -21437,7 +21432,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>124</v>
@@ -21446,7 +21441,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>46</v>
@@ -21458,7 +21453,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>343</v>
@@ -21470,7 +21465,7 @@
         <v>382</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="R25" s="22" t="s">
         <v>382</v>
@@ -21541,7 +21536,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>124</v>
@@ -21550,10 +21545,10 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="M26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="BE26" s="13"/>
       <c r="BF26" s="13"/>
@@ -21569,7 +21564,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>124</v>
@@ -21578,7 +21573,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="BE27" s="13"/>
       <c r="BF27" s="13"/>
@@ -21594,7 +21589,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>124</v>
@@ -21609,18 +21604,18 @@
         <v>27</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="BE28" s="13"/>
       <c r="BF28" s="13"/>
       <c r="BG28" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="BH28" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="BH28" s="15" t="s">
+      <c r="BI28" s="15" t="s">
         <v>547</v>
-      </c>
-      <c r="BI28" s="15" t="s">
-        <v>548</v>
       </c>
       <c r="BJ28" s="13" t="s">
         <v>349</v>
@@ -21633,7 +21628,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>124</v>
@@ -21642,10 +21637,10 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13" t="s">
@@ -21655,7 +21650,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O29" s="13"/>
       <c r="P29" s="22"/>
@@ -21666,17 +21661,17 @@
       <c r="U29" s="14"/>
       <c r="V29" s="13"/>
       <c r="W29" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AB29" s="13"/>
       <c r="AC29" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
@@ -21731,33 +21726,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="113.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="113.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -21830,7 +21825,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="13" t="s">
@@ -21871,7 +21866,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="13" t="s">
@@ -21921,7 +21916,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="13" t="s">
@@ -21968,7 +21963,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="13" t="s">
@@ -22009,7 +22004,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="13" t="s">
@@ -22050,7 +22045,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>328</v>
@@ -22081,7 +22076,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>328</v>
@@ -22112,7 +22107,7 @@
         <v>83</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
@@ -22159,7 +22154,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>420</v>
+        <v>663</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
@@ -22200,6 +22195,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22433,7 +22437,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -22442,16 +22446,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22471,20 +22476,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A9B6B7-BB0D-4002-8411-38650344CAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4583C1E7-B168-4C3A-A9A2-620CB4FFEC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Contact" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$J$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Member!$A$1:$EP$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,6 +43,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={384F7F8E-319D-4428-B0A0-5A3820BC0A20}</author>
+    <author>tc={C28F2395-CFFF-4D38-A1EA-90A4E16101FD}</author>
     <author>tc={265ED323-0F29-4E8F-979B-BC409CAA7009}</author>
     <author>tc={2BB135AA-BB8B-4A60-9546-2F4EA789782A}</author>
     <author>tc={6F865E9B-DF5C-46FB-B4A8-BBDD6BBA7D94}</author>
@@ -54,10 +55,16 @@
     <author>tc={FFAF83AA-4248-4249-A798-0C54786E0C3C}</author>
     <author>tc={F48DEBF6-E400-4E04-958D-E87AAAE0A96A}</author>
     <author>tc={74283B0A-8752-4DA8-868C-525FC73F2946}</author>
+    <author>tc={EA4FEDED-2ABC-49B8-8547-A559EEB8000B}</author>
+    <author>tc={36410794-F34C-4D1B-BDB8-4DAB85805545}</author>
+    <author>tc={3862BDC3-21BB-4DEF-915F-111A6FE70063}</author>
     <author>tc={4AC0C06C-8147-4019-8D36-0FA560C2CD5B}</author>
+    <author>tc={42F35ACA-F821-4FFE-9D0E-DC7752F4D9CB}</author>
     <author>tc={A86E852D-C704-40E9-9D3E-1B76A65A0805}</author>
     <author>tc={8044D140-4AC2-41BC-985F-46BD8826FE55}</author>
     <author>tc={9A8AE314-42F7-4F88-8AE4-4131954B8D8E}</author>
+    <author>tc={09131F2B-EF9D-4BC3-A6F3-F0DEA6A3345E}</author>
+    <author>tc={E579DD7F-D544-41CE-A789-D0EBDE2B0080}</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{384F7F8E-319D-4428-B0A0-5A3820BC0A20}">
@@ -68,7 +75,15 @@
     Rearranged TPR and TPRD methods to make fields visible</t>
       </text>
     </comment>
-    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{265ED323-0F29-4E8F-979B-BC409CAA7009}">
+    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{C28F2395-CFFF-4D38-A1EA-90A4E16101FD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TPRD method rearrange fixed</t>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="2" shapeId="0" xr:uid="{265ED323-0F29-4E8F-979B-BC409CAA7009}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,7 +91,7 @@
     New DP with only National Membership added</t>
       </text>
     </comment>
-    <comment ref="B15" authorId="2" shapeId="0" xr:uid="{2BB135AA-BB8B-4A60-9546-2F4EA789782A}">
+    <comment ref="B15" authorId="3" shapeId="0" xr:uid="{2BB135AA-BB8B-4A60-9546-2F4EA789782A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -84,7 +99,7 @@
     New DP with no existing Bill To chosen</t>
       </text>
     </comment>
-    <comment ref="B21" authorId="3" shapeId="0" xr:uid="{6F865E9B-DF5C-46FB-B4A8-BBDD6BBA7D94}">
+    <comment ref="B21" authorId="4" shapeId="0" xr:uid="{6F865E9B-DF5C-46FB-B4A8-BBDD6BBA7D94}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -94,7 +109,7 @@
     verifyBK Active column was missing which is added now</t>
       </text>
     </comment>
-    <comment ref="B28" authorId="4" shapeId="0" xr:uid="{D5AB3A86-C1F1-459F-A809-ED1C21D78E31}">
+    <comment ref="B28" authorId="5" shapeId="0" xr:uid="{D5AB3A86-C1F1-459F-A809-ED1C21D78E31}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -104,7 +119,7 @@
     Marking this as N/A, as per Abdul's suggestion - As we cant publish business partner</t>
       </text>
     </comment>
-    <comment ref="B29" authorId="5" shapeId="0" xr:uid="{06B989A2-6CB9-48F4-B639-1AC4043DFC00}">
+    <comment ref="B29" authorId="6" shapeId="0" xr:uid="{06B989A2-6CB9-48F4-B639-1AC4043DFC00}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -114,7 +129,7 @@
     OK. Also changed user name to test06 for LM</t>
       </text>
     </comment>
-    <comment ref="B30" authorId="6" shapeId="0" xr:uid="{A8B2E703-1588-4D93-B01B-C72EEA60A37B}">
+    <comment ref="B30" authorId="7" shapeId="0" xr:uid="{A8B2E703-1588-4D93-B01B-C72EEA60A37B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -122,7 +137,7 @@
     As confirmed by Viji, this is only for offshore testing purpose</t>
       </text>
     </comment>
-    <comment ref="B42" authorId="7" shapeId="0" xr:uid="{0B1823EB-C29D-40FF-83C0-DD93FB5DE67C}">
+    <comment ref="B42" authorId="8" shapeId="0" xr:uid="{0B1823EB-C29D-40FF-83C0-DD93FB5DE67C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -130,7 +145,7 @@
     Change status to 'Approved' after data refresh, login as 04 user</t>
       </text>
     </comment>
-    <comment ref="B58" authorId="8" shapeId="0" xr:uid="{1E041EB8-A550-445F-9489-1ABE0ACB1153}">
+    <comment ref="B58" authorId="9" shapeId="0" xr:uid="{1E041EB8-A550-445F-9489-1ABE0ACB1153}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -140,7 +155,7 @@
     Also, updated frame to 0 in the script</t>
       </text>
     </comment>
-    <comment ref="B61" authorId="9" shapeId="0" xr:uid="{FFAF83AA-4248-4249-A798-0C54786E0C3C}">
+    <comment ref="B61" authorId="10" shapeId="0" xr:uid="{FFAF83AA-4248-4249-A798-0C54786E0C3C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -148,7 +163,7 @@
     After data refresh, data needs to set</t>
       </text>
     </comment>
-    <comment ref="B63" authorId="10" shapeId="0" xr:uid="{F48DEBF6-E400-4E04-958D-E87AAAE0A96A}">
+    <comment ref="B63" authorId="11" shapeId="0" xr:uid="{F48DEBF6-E400-4E04-958D-E87AAAE0A96A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -156,15 +171,43 @@
     Added values for user1 &amp; CRMNUMBER1 columns, as it was missing in data sheet, but was in code</t>
       </text>
     </comment>
-    <comment ref="B65" authorId="11" shapeId="0" xr:uid="{74283B0A-8752-4DA8-868C-525FC73F2946}">
+    <comment ref="B65" authorId="12" shapeId="0" xr:uid="{74283B0A-8752-4DA8-868C-525FC73F2946}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Changes user to test01 - member supervisor, instead of test02</t>
+    Changes user to test01 - member supervisor, instead of test02
+Reply:
+    Script fix made for save flow and frame update</t>
       </text>
     </comment>
-    <comment ref="B74" authorId="12" shapeId="0" xr:uid="{4AC0C06C-8147-4019-8D36-0FA560C2CD5B}">
+    <comment ref="B66" authorId="13" shapeId="0" xr:uid="{EA4FEDED-2ABC-49B8-8547-A559EEB8000B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    New DP added as test data. Previous DP had new Acurity Membership added which is not required for validation</t>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="14" shapeId="0" xr:uid="{36410794-F34C-4D1B-BDB8-4DAB85805545}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    New DP added as test data. Previous DP had new Acurity Membership added which is not required for validation
+</t>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="15" shapeId="0" xr:uid="{3862BDC3-21BB-4DEF-915F-111A6FE70063}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    New DP added as test data. Previous DP had new Acurity Membership added which is not required for validation
+</t>
+      </text>
+    </comment>
+    <comment ref="B74" authorId="16" shapeId="0" xr:uid="{4AC0C06C-8147-4019-8D36-0FA560C2CD5B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -172,7 +215,15 @@
     Partially automated, hence not included in Azure</t>
       </text>
     </comment>
-    <comment ref="B101" authorId="13" shapeId="0" xr:uid="{A86E852D-C704-40E9-9D3E-1B76A65A0805}">
+    <comment ref="B88" authorId="17" shapeId="0" xr:uid="{42F35ACA-F821-4FFE-9D0E-DC7752F4D9CB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TP Exception Reason- added Sleep</t>
+      </text>
+    </comment>
+    <comment ref="B101" authorId="18" shapeId="0" xr:uid="{A86E852D-C704-40E9-9D3E-1B76A65A0805}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -180,7 +231,7 @@
     After data refresh, add 'Supplier Diversity Information' role to test04 </t>
       </text>
     </comment>
-    <comment ref="B105" authorId="14" shapeId="0" xr:uid="{8044D140-4AC2-41BC-985F-46BD8826FE55}">
+    <comment ref="B105" authorId="19" shapeId="0" xr:uid="{8044D140-4AC2-41BC-985F-46BD8826FE55}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -188,7 +239,7 @@
     Same testcase, separated for 2 different forms</t>
       </text>
     </comment>
-    <comment ref="B106" authorId="15" shapeId="0" xr:uid="{9A8AE314-42F7-4F88-8AE4-4131954B8D8E}">
+    <comment ref="B106" authorId="20" shapeId="0" xr:uid="{9A8AE314-42F7-4F88-8AE4-4131954B8D8E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -196,12 +247,28 @@
     Same testcase, separated for 2 different forms</t>
       </text>
     </comment>
+    <comment ref="B119" authorId="21" shapeId="0" xr:uid="{09131F2B-EF9D-4BC3-A6F3-F0DEA6A3345E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Added sleep in save methos</t>
+      </text>
+    </comment>
+    <comment ref="B124" authorId="22" shapeId="0" xr:uid="{E579DD7F-D544-41CE-A789-D0EBDE2B0080}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Changed CRM# in test data</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="699">
   <si>
     <t>UserName</t>
   </si>
@@ -1574,9 +1641,6 @@
     <t>5/4/2021</t>
   </si>
   <si>
-    <t>11/3/2022</t>
-  </si>
-  <si>
     <t>TFS ID_44710:Verify when ship to account converted to main account, CP and FSP updated.</t>
   </si>
   <si>
@@ -1859,9 +1923,6 @@
     <t>1000121984</t>
   </si>
   <si>
-    <t>12/14/2022</t>
-  </si>
-  <si>
     <t>12/1/2022</t>
   </si>
   <si>
@@ -2096,30 +2157,6 @@
     <t>TFS ID_628976:Verify user should not be allowed to change the account status to Active manually when Premier End date is present</t>
   </si>
   <si>
-    <t>2000567349</t>
-  </si>
-  <si>
-    <t>2000567351</t>
-  </si>
-  <si>
-    <t>2000567352</t>
-  </si>
-  <si>
-    <t>2000567357</t>
-  </si>
-  <si>
-    <t>7000581890</t>
-  </si>
-  <si>
-    <t>7000581892</t>
-  </si>
-  <si>
-    <t>7000581893</t>
-  </si>
-  <si>
-    <t>2000567369</t>
-  </si>
-  <si>
     <t>verifyBKActive</t>
   </si>
   <si>
@@ -2147,21 +2184,6 @@
     <t>11/20/2011</t>
   </si>
   <si>
-    <t>2000567428</t>
-  </si>
-  <si>
-    <t>2000567430</t>
-  </si>
-  <si>
-    <t>2000567431</t>
-  </si>
-  <si>
-    <t>915939466</t>
-  </si>
-  <si>
-    <t>af7203514</t>
-  </si>
-  <si>
     <t>TFS ID_628984:Verify user should NOT be able to change the record status from Active to terminated manually</t>
   </si>
   <si>
@@ -2186,13 +2208,163 @@
     <t>Create Member without error</t>
   </si>
   <si>
+    <t>Premier@2023</t>
+  </si>
+  <si>
+    <t>2000568634</t>
+  </si>
+  <si>
+    <t>2000568635</t>
+  </si>
+  <si>
+    <t>2000568636</t>
+  </si>
+  <si>
+    <t>2000568637</t>
+  </si>
+  <si>
+    <t>2000568639</t>
+  </si>
+  <si>
+    <t>2000568653</t>
+  </si>
+  <si>
+    <t>2000568654</t>
+  </si>
+  <si>
+    <t>2000568655</t>
+  </si>
+  <si>
+    <t>2000568659</t>
+  </si>
+  <si>
+    <t>2000568661</t>
+  </si>
+  <si>
+    <t>2000568666</t>
+  </si>
+  <si>
+    <t>133686536</t>
+  </si>
+  <si>
+    <t>lf1320403</t>
+  </si>
+  <si>
+    <t>7000582636</t>
+  </si>
+  <si>
+    <t>7000582637</t>
+  </si>
+  <si>
+    <t>7000582638</t>
+  </si>
+  <si>
+    <t>7000582639</t>
+  </si>
+  <si>
+    <t>7000582640</t>
+  </si>
+  <si>
+    <t>7000582641</t>
+  </si>
+  <si>
+    <t>7000582642</t>
+  </si>
+  <si>
+    <t>2000568682</t>
+  </si>
+  <si>
+    <t>2000568687</t>
+  </si>
+  <si>
+    <t>2000568691</t>
+  </si>
+  <si>
+    <t>2000568711</t>
+  </si>
+  <si>
+    <t>2000568713</t>
+  </si>
+  <si>
+    <t>2000568714</t>
+  </si>
+  <si>
+    <t>2000568715</t>
+  </si>
+  <si>
+    <t>2000568716</t>
+  </si>
+  <si>
+    <t>2000568717</t>
+  </si>
+  <si>
+    <t>2000568718</t>
+  </si>
+  <si>
+    <t>2000568719</t>
+  </si>
+  <si>
+    <t>2000568720</t>
+  </si>
+  <si>
+    <t>2000568723</t>
+  </si>
+  <si>
+    <t>2000568724</t>
+  </si>
+  <si>
+    <t>2000568727</t>
+  </si>
+  <si>
+    <t>2000568731</t>
+  </si>
+  <si>
+    <t>2000568743</t>
+  </si>
+  <si>
+    <t>2000568745</t>
+  </si>
+  <si>
+    <t>2000568749</t>
+  </si>
+  <si>
+    <t>2000568750</t>
+  </si>
+  <si>
+    <t>2000568751</t>
+  </si>
+  <si>
+    <t>2000396648</t>
+  </si>
+  <si>
+    <t>635436</t>
+  </si>
+  <si>
+    <t>2000568791</t>
+  </si>
+  <si>
+    <t>2000568797</t>
+  </si>
+  <si>
+    <t>1/3/2023</t>
+  </si>
+  <si>
+    <t>1/19/2023</t>
+  </si>
+  <si>
+    <t>2000568836</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2023_01_05_06_42_48</t>
-  </si>
-  <si>
-    <t>Premier@2023</t>
+    <t>2023_01_23_11_50_31</t>
+  </si>
+  <si>
+    <t>2000568838</t>
+  </si>
+  <si>
+    <t>2023_01_23_11_55_53</t>
   </si>
 </sst>
 </file>
@@ -2305,7 +2477,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2357,6 +2529,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2566,9 +2750,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2626,11 +2807,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2951,7 +3133,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2961,6 +3143,9 @@
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B4" dT="2023-01-04T11:47:25.91" personId="{DC5BFD8D-CCE2-4453-B8CC-0244F21EB9C2}" id="{384F7F8E-319D-4428-B0A0-5A3820BC0A20}">
     <text>Rearranged TPR and TPRD methods to make fields visible</text>
+  </threadedComment>
+  <threadedComment ref="B7" dT="2023-01-23T07:56:32.24" personId="{DC5BFD8D-CCE2-4453-B8CC-0244F21EB9C2}" id="{C28F2395-CFFF-4D38-A1EA-90A4E16101FD}">
+    <text>TPRD method rearrange fixed</text>
   </threadedComment>
   <threadedComment ref="B14" dT="2023-01-04T11:46:22.02" personId="{DC5BFD8D-CCE2-4453-B8CC-0244F21EB9C2}" id="{265ED323-0F29-4E8F-979B-BC409CAA7009}">
     <text>New DP with only National Membership added</text>
@@ -3007,8 +3192,25 @@
   <threadedComment ref="B65" dT="2022-12-13T06:13:18.76" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{74283B0A-8752-4DA8-868C-525FC73F2946}">
     <text>Changes user to test01 - member supervisor, instead of test02</text>
   </threadedComment>
+  <threadedComment ref="B65" dT="2023-01-23T18:28:59.92" personId="{DC5BFD8D-CCE2-4453-B8CC-0244F21EB9C2}" id="{CE3EF906-371A-4A5C-A4F9-3EE6B371D0A4}" parentId="{74283B0A-8752-4DA8-868C-525FC73F2946}">
+    <text>Script fix made for save flow and frame update</text>
+  </threadedComment>
+  <threadedComment ref="B66" dT="2023-01-23T11:04:50.58" personId="{DC5BFD8D-CCE2-4453-B8CC-0244F21EB9C2}" id="{EA4FEDED-2ABC-49B8-8547-A559EEB8000B}">
+    <text>New DP added as test data. Previous DP had new Acurity Membership added which is not required for validation</text>
+  </threadedComment>
+  <threadedComment ref="B68" dT="2023-01-23T11:06:08.60" personId="{DC5BFD8D-CCE2-4453-B8CC-0244F21EB9C2}" id="{36410794-F34C-4D1B-BDB8-4DAB85805545}">
+    <text xml:space="preserve">New DP added as test data. Previous DP had new Acurity Membership added which is not required for validation
+</text>
+  </threadedComment>
+  <threadedComment ref="B69" dT="2023-01-23T17:59:33.36" personId="{DC5BFD8D-CCE2-4453-B8CC-0244F21EB9C2}" id="{3862BDC3-21BB-4DEF-915F-111A6FE70063}">
+    <text xml:space="preserve">New DP added as test data. Previous DP had new Acurity Membership added which is not required for validation
+</text>
+  </threadedComment>
   <threadedComment ref="B74" dT="2022-12-09T13:31:32.57" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{4AC0C06C-8147-4019-8D36-0FA560C2CD5B}">
     <text>Partially automated, hence not included in Azure</text>
+  </threadedComment>
+  <threadedComment ref="B88" dT="2023-01-23T09:33:38.14" personId="{DC5BFD8D-CCE2-4453-B8CC-0244F21EB9C2}" id="{42F35ACA-F821-4FFE-9D0E-DC7752F4D9CB}">
+    <text>TP Exception Reason- added Sleep</text>
   </threadedComment>
   <threadedComment ref="B101" dT="2022-12-12T10:26:14.64" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{A86E852D-C704-40E9-9D3E-1B76A65A0805}">
     <text xml:space="preserve">After data refresh, add 'Supplier Diversity Information' role to test04 </text>
@@ -3019,6 +3221,12 @@
   <threadedComment ref="B106" dT="2022-12-09T14:49:29.18" personId="{6334CD64-08A2-4F84-859A-40EE05D442F0}" id="{9A8AE314-42F7-4F88-8AE4-4131954B8D8E}">
     <text>Same testcase, separated for 2 different forms</text>
   </threadedComment>
+  <threadedComment ref="B119" dT="2023-01-20T18:04:38.83" personId="{DC5BFD8D-CCE2-4453-B8CC-0244F21EB9C2}" id="{09131F2B-EF9D-4BC3-A6F3-F0DEA6A3345E}">
+    <text>Added sleep in save methos</text>
+  </threadedComment>
+  <threadedComment ref="B124" dT="2023-01-20T17:56:50.62" personId="{DC5BFD8D-CCE2-4453-B8CC-0244F21EB9C2}" id="{E579DD7F-D544-41CE-A789-D0EBDE2B0080}">
+    <text>Changed CRM# in test data</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -3026,18 +3234,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="72" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="139.5703125" style="72" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" style="72" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" style="72" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" style="67" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.140625" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="5.140625" style="71" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="139.5703125" style="71" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" style="71" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" style="66" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.140625" style="71" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="20.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="12.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="32" style="7" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3045,22 +3253,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>53</v>
       </c>
       <c r="G1" s="50" t="s">
@@ -3074,10 +3282,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63">
+      <c r="A2" s="62">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -3086,7 +3294,7 @@
       <c r="D2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="25" t="s">
@@ -3096,20 +3304,20 @@
         <v>422</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="I2" s="43" t="s">
         <v>413</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="72" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63">
+      <c r="A3" s="62">
         <v>2</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -3118,7 +3326,7 @@
       <c r="D3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F3" s="25" t="s">
@@ -3127,14 +3335,16 @@
       <c r="G3" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="J3" s="74"/>
+      <c r="H3" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="A4" s="62">
         <v>3</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -3143,7 +3353,7 @@
       <c r="D4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="25" t="s">
@@ -3153,17 +3363,17 @@
         <v>422</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="J4" s="73" t="s">
+        <v>649</v>
+      </c>
+      <c r="J4" s="72" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63">
+      <c r="A5" s="62">
         <v>4</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -3172,7 +3382,7 @@
       <c r="D5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F5" s="25" t="s">
@@ -3181,14 +3391,16 @@
       <c r="G5" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="J5" s="74"/>
+      <c r="H5" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63">
+      <c r="A6" s="62">
         <v>5</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -3197,7 +3409,7 @@
       <c r="D6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F6" s="25" t="s">
@@ -3206,22 +3418,22 @@
       <c r="G6" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="J6" s="74"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63">
+      <c r="A7" s="62">
         <v>6</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F7" s="25" t="s">
@@ -3230,13 +3442,13 @@
       <c r="G7" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="J7" s="74"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -3245,7 +3457,7 @@
       <c r="D8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="25" t="s">
@@ -3255,15 +3467,15 @@
         <v>422</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="J8" s="74"/>
+        <v>651</v>
+      </c>
+      <c r="J8" s="73"/>
     </row>
     <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="62" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -3272,7 +3484,7 @@
       <c r="D9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F9" s="25" t="s">
@@ -3281,13 +3493,13 @@
       <c r="G9" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="J9" s="74"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -3296,7 +3508,7 @@
       <c r="D10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="25" t="s">
@@ -3306,15 +3518,15 @@
         <v>422</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="J10" s="74"/>
+        <v>652</v>
+      </c>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="62" t="s">
         <v>95</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -3323,7 +3535,7 @@
       <c r="D11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F11" s="25" t="s">
@@ -3332,14 +3544,16 @@
       <c r="G11" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="J11" s="74"/>
+      <c r="H11" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="62" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -3348,7 +3562,7 @@
       <c r="D12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F12" s="25" t="s">
@@ -3357,14 +3571,16 @@
       <c r="G12" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="J12" s="74"/>
+      <c r="H12" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="62" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -3373,7 +3589,7 @@
       <c r="D13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="25" t="s">
@@ -3382,13 +3598,13 @@
       <c r="G13" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="J13" s="74"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="62" t="s">
         <v>358</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -3397,7 +3613,7 @@
       <c r="D14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="25" t="s">
@@ -3406,13 +3622,13 @@
       <c r="G14" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="J14" s="74"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="62" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -3421,7 +3637,7 @@
       <c r="D15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="25" t="s">
@@ -3431,15 +3647,15 @@
         <v>422</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>649</v>
-      </c>
-      <c r="J15" s="74"/>
+        <v>655</v>
+      </c>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="62" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -3448,7 +3664,7 @@
       <c r="D16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="25" t="s">
@@ -3458,39 +3674,39 @@
         <v>422</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="J16" s="74"/>
+        <v>656</v>
+      </c>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71">
+      <c r="A17" s="70">
         <v>16</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="62" t="s">
         <v>188</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="70" t="s">
         <v>421</v>
       </c>
-      <c r="G17" s="77" t="s">
+      <c r="G17" s="76" t="s">
         <v>422</v>
       </c>
-      <c r="J17" s="75"/>
+      <c r="J17" s="74"/>
     </row>
     <row r="18" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>17</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="62" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -3499,7 +3715,7 @@
       <c r="D18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F18" s="25" t="s">
@@ -3508,13 +3724,13 @@
       <c r="G18" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="J18" s="74"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>18</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="62" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -3523,7 +3739,7 @@
       <c r="D19" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F19" s="25" t="s">
@@ -3532,13 +3748,13 @@
       <c r="G19" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="J19" s="74"/>
+      <c r="J19" s="73"/>
     </row>
     <row r="20" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>19</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="62" t="s">
         <v>359</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -3547,7 +3763,7 @@
       <c r="D20" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="25" t="s">
@@ -3556,49 +3772,49 @@
       <c r="G20" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="J20" s="74"/>
-    </row>
-    <row r="21" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65">
+      <c r="J20" s="73"/>
+    </row>
+    <row r="21" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="64">
         <v>20</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="64" t="s">
         <v>344</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="G21" s="78" t="s">
+      <c r="G21" s="77" t="s">
         <v>422</v>
       </c>
-      <c r="H21" s="78" t="s">
-        <v>650</v>
-      </c>
-      <c r="J21" s="76"/>
+      <c r="H21" s="77" t="s">
+        <v>657</v>
+      </c>
+      <c r="J21" s="75"/>
     </row>
     <row r="22" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>21</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F22" s="25" t="s">
@@ -3607,23 +3823,25 @@
       <c r="G22" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="J22" s="74"/>
+      <c r="H22" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="J22" s="73"/>
     </row>
     <row r="23" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F23" s="25" t="s">
@@ -3632,23 +3850,25 @@
       <c r="G23" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="J23" s="74"/>
+      <c r="H23" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>23</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F24" s="25" t="s">
@@ -3657,23 +3877,25 @@
       <c r="G24" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="J24" s="74"/>
+      <c r="H24" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>24</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F25" s="25" t="s">
@@ -3682,23 +3904,25 @@
       <c r="G25" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="J25" s="74"/>
+      <c r="H25" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="J25" s="73"/>
     </row>
     <row r="26" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>25</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F26" s="25" t="s">
@@ -3707,23 +3931,25 @@
       <c r="G26" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="J26" s="74"/>
+      <c r="H26" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="J26" s="73"/>
     </row>
     <row r="27" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>26</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F27" s="25" t="s">
@@ -3732,23 +3958,25 @@
       <c r="G27" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="J27" s="74"/>
+      <c r="H27" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="J27" s="73"/>
     </row>
     <row r="28" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>27</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="83" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F28" s="25" t="s">
@@ -3758,677 +3986,685 @@
         <v>422</v>
       </c>
       <c r="H28" s="13"/>
-      <c r="J28" s="74"/>
+      <c r="J28" s="73"/>
     </row>
     <row r="29" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71">
+      <c r="A29" s="70">
         <v>28</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="82" t="s">
         <v>291</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="71" t="s">
+      <c r="C29" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="70" t="s">
         <v>421</v>
       </c>
-      <c r="G29" s="77" t="s">
+      <c r="G29" s="76" t="s">
         <v>422</v>
       </c>
-      <c r="J29" s="75"/>
-    </row>
-    <row r="30" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65">
+      <c r="J29" s="74"/>
+    </row>
+    <row r="30" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64">
         <v>29</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="65" t="s">
+      <c r="C30" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F30" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="G30" s="78" t="s">
+      <c r="G30" s="77" t="s">
         <v>422</v>
       </c>
-      <c r="H30" s="78"/>
-      <c r="J30" s="76"/>
-    </row>
-    <row r="31" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63">
+      <c r="H30" s="77"/>
+      <c r="J30" s="75"/>
+    </row>
+    <row r="31" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="62">
         <v>30</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="62" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G31" s="63" t="s">
+      <c r="G31" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-    </row>
-    <row r="32" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="63">
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+    </row>
+    <row r="32" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="62">
         <v>31</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="62" t="s">
         <v>126</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="63" t="s">
+      <c r="F32" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-    </row>
-    <row r="33" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63">
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+    </row>
+    <row r="33" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="62">
         <v>32</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="62" t="s">
         <v>131</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-    </row>
-    <row r="34" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="63">
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+    </row>
+    <row r="34" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="62">
         <v>33</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="62" t="s">
         <v>138</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="63" t="s">
+      <c r="F34" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-    </row>
-    <row r="35" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63">
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+    </row>
+    <row r="35" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="62">
         <v>34</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="62" t="s">
         <v>143</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-    </row>
-    <row r="36" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63">
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+    </row>
+    <row r="36" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="62">
         <v>35</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="62" t="s">
         <v>148</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G36" s="63" t="s">
+      <c r="G36" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-    </row>
-    <row r="37" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63">
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+    </row>
+    <row r="37" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="62">
         <v>36</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="62" t="s">
         <v>152</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="63" t="s">
+      <c r="E37" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G37" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-    </row>
-    <row r="38" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63">
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+    </row>
+    <row r="38" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="62">
         <v>37</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="62" t="s">
         <v>157</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="63" t="s">
+      <c r="F38" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63">
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+    </row>
+    <row r="39" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="62">
         <v>38</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="62" t="s">
         <v>160</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="63" t="s">
+      <c r="E39" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="63" t="s">
+      <c r="F39" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-    </row>
-    <row r="40" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63">
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="40" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="62">
         <v>39</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="62" t="s">
         <v>163</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="63" t="s">
+      <c r="E40" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F40" s="63" t="s">
+      <c r="F40" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G40" s="63" t="s">
+      <c r="G40" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-    </row>
-    <row r="41" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63">
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+    </row>
+    <row r="41" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="62">
         <v>40</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="62" t="s">
         <v>168</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G41" s="63" t="s">
+      <c r="G41" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-    </row>
-    <row r="42" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63">
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+    </row>
+    <row r="42" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="62">
         <v>41</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="62" t="s">
         <v>175</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="63" t="s">
+      <c r="E42" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="63" t="s">
+      <c r="F42" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G42" s="63" t="s">
+      <c r="G42" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-    </row>
-    <row r="43" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="63">
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+    </row>
+    <row r="43" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="62">
         <v>42</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="62" t="s">
         <v>182</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D43" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="63" t="s">
+      <c r="F43" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G43" s="63" t="s">
+      <c r="G43" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-    </row>
-    <row r="44" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="63">
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+    </row>
+    <row r="44" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="62">
         <v>43</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="62" t="s">
         <v>372</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="63" t="s">
+      <c r="D44" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="63" t="s">
+      <c r="F44" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G44" s="63" t="s">
+      <c r="G44" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-    </row>
-    <row r="45" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63">
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+    </row>
+    <row r="45" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="62">
         <v>44</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="62" t="s">
         <v>265</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="63" t="s">
+      <c r="E45" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="63" t="s">
+      <c r="F45" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G45" s="63" t="s">
+      <c r="G45" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-    </row>
-    <row r="46" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63">
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+    </row>
+    <row r="46" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="62">
         <v>45</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="C46" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="63" t="s">
+      <c r="C46" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="E46" s="63" t="s">
+      <c r="E46" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="F46" s="63" t="s">
+      <c r="F46" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G46" s="63" t="s">
+      <c r="G46" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H46" s="63" t="s">
-        <v>635</v>
-      </c>
-      <c r="I46" s="63"/>
-    </row>
-    <row r="47" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="63">
+      <c r="H46" s="62" t="s">
+        <v>660</v>
+      </c>
+      <c r="I46" s="62"/>
+    </row>
+    <row r="47" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="62">
         <v>46</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="C47" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="63" t="s">
+      <c r="C47" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="E47" s="63" t="s">
+      <c r="E47" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="F47" s="63" t="s">
+      <c r="F47" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G47" s="63" t="s">
+      <c r="G47" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H47" s="63" t="s">
-        <v>636</v>
-      </c>
-      <c r="I47" s="63"/>
-    </row>
-    <row r="48" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="63">
+      <c r="H47" s="62" t="s">
+        <v>661</v>
+      </c>
+      <c r="I47" s="62"/>
+    </row>
+    <row r="48" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="62">
         <v>47</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="C48" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="63" t="s">
+      <c r="C48" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="E48" s="63" t="s">
+      <c r="E48" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="63" t="s">
+      <c r="F48" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G48" s="63" t="s">
+      <c r="G48" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-    </row>
-    <row r="49" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63">
+      <c r="H48" s="62" t="s">
+        <v>662</v>
+      </c>
+      <c r="I48" s="62"/>
+    </row>
+    <row r="49" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="62">
         <v>48</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="C49" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="63" t="s">
+      <c r="C49" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="E49" s="63" t="s">
+      <c r="E49" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="63" t="s">
+      <c r="F49" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G49" s="63" t="s">
+      <c r="G49" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-    </row>
-    <row r="50" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="63">
+      <c r="H49" s="62" t="s">
+        <v>663</v>
+      </c>
+      <c r="I49" s="62"/>
+    </row>
+    <row r="50" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="62">
         <v>49</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="C50" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="63" t="s">
+      <c r="C50" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="E50" s="63" t="s">
+      <c r="E50" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="63" t="s">
+      <c r="F50" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G50" s="63" t="s">
+      <c r="G50" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-    </row>
-    <row r="51" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="63">
+      <c r="H50" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="I50" s="62"/>
+    </row>
+    <row r="51" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="62">
         <v>50</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="C51" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="63" t="s">
+      <c r="C51" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="E51" s="63" t="s">
+      <c r="E51" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="63" t="s">
+      <c r="F51" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G51" s="63" t="s">
+      <c r="G51" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-    </row>
-    <row r="52" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63">
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+    </row>
+    <row r="52" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="62">
         <v>51</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="C52" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="63" t="s">
+      <c r="C52" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="E52" s="63" t="s">
+      <c r="E52" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F52" s="63" t="s">
+      <c r="F52" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G52" s="63" t="s">
+      <c r="G52" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-    </row>
-    <row r="53" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63">
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+    </row>
+    <row r="53" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="62">
         <v>52</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="62" t="s">
         <v>337</v>
       </c>
-      <c r="C53" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="63" t="s">
+      <c r="C53" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="E53" s="63" t="s">
+      <c r="E53" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F53" s="63" t="s">
+      <c r="F53" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G53" s="63" t="s">
+      <c r="G53" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
+      <c r="H53" s="62" t="s">
+        <v>665</v>
+      </c>
+      <c r="I53" s="62"/>
     </row>
     <row r="54" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63">
+      <c r="A54" s="62">
         <v>53</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="C54" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="63" t="s">
+      <c r="C54" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="E54" s="63" t="s">
+      <c r="E54" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="G54" s="62" t="s">
+      <c r="G54" s="61" t="s">
         <v>422</v>
       </c>
-      <c r="H54" s="62" t="s">
-        <v>637</v>
-      </c>
-      <c r="I54" s="62"/>
+      <c r="H54" s="61" t="s">
+        <v>666</v>
+      </c>
+      <c r="I54" s="61"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>54</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="62" t="s">
         <v>424</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="63" t="s">
+      <c r="E55" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F55" s="25" t="s">
@@ -4437,7 +4673,9 @@
       <c r="G55" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H55" s="13"/>
+      <c r="H55" s="13" t="s">
+        <v>667</v>
+      </c>
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4447,13 +4685,13 @@
       <c r="B56" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="63" t="s">
+      <c r="E56" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F56" s="25" t="s">
@@ -4469,16 +4707,16 @@
       <c r="A57" s="25">
         <v>56</v>
       </c>
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="63" t="s">
+      <c r="E57" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F57" s="25" t="s">
@@ -4494,16 +4732,16 @@
       <c r="A58" s="25">
         <v>57</v>
       </c>
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="62" t="s">
         <v>435</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="63" t="s">
+      <c r="E58" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F58" s="25" t="s">
@@ -4512,7 +4750,9 @@
       <c r="G58" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H58" s="13"/>
+      <c r="H58" s="13" t="s">
+        <v>668</v>
+      </c>
       <c r="I58" s="34"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -4522,13 +4762,13 @@
       <c r="B59" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="63" t="s">
+      <c r="E59" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F59" s="25" t="s">
@@ -4547,13 +4787,13 @@
       <c r="B60" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="63" t="s">
+      <c r="E60" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F60" s="25" t="s">
@@ -4569,16 +4809,16 @@
       <c r="A61" s="25">
         <v>60</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="62" t="s">
         <v>443</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="63" t="s">
+      <c r="E61" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F61" s="25" t="s">
@@ -4597,13 +4837,13 @@
       <c r="B62" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="63" t="s">
+      <c r="E62" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F62" s="25" t="s">
@@ -4612,23 +4852,25 @@
       <c r="G62" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H62" s="13"/>
+      <c r="H62" s="13" t="s">
+        <v>669</v>
+      </c>
       <c r="I62" s="34"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>62</v>
       </c>
-      <c r="B63" s="63" t="s">
+      <c r="B63" s="62" t="s">
         <v>450</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="63" t="s">
+      <c r="E63" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F63" s="25" t="s">
@@ -4644,16 +4886,16 @@
       <c r="A64" s="25">
         <v>63</v>
       </c>
-      <c r="B64" s="68" t="s">
+      <c r="B64" s="67" t="s">
         <v>451</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="63" t="s">
+      <c r="E64" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F64" s="25" t="s">
@@ -4669,41 +4911,43 @@
       <c r="A65" s="25">
         <v>64</v>
       </c>
-      <c r="B65" s="87" t="s">
+      <c r="B65" s="86" t="s">
         <v>454</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="63" t="s">
+      <c r="E65" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>421</v>
+        <v>695</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="H65" s="13"/>
+        <v>696</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>694</v>
+      </c>
       <c r="I65" s="34"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>65</v>
       </c>
-      <c r="B66" s="68" t="s">
-        <v>458</v>
-      </c>
-      <c r="C66" s="25" t="s">
+      <c r="B66" s="67" t="s">
+        <v>457</v>
+      </c>
+      <c r="C66" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="63" t="s">
+      <c r="E66" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F66" s="25" t="s">
@@ -4712,23 +4956,25 @@
       <c r="G66" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H66" s="13"/>
+      <c r="H66" s="13" t="s">
+        <v>690</v>
+      </c>
       <c r="I66" s="34"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>66</v>
       </c>
-      <c r="B67" s="63" t="s">
-        <v>460</v>
-      </c>
-      <c r="C67" s="25" t="s">
+      <c r="B67" s="62" t="s">
+        <v>459</v>
+      </c>
+      <c r="C67" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="63" t="s">
+      <c r="E67" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F67" s="25" t="s">
@@ -4744,16 +4990,16 @@
       <c r="A68" s="25">
         <v>67</v>
       </c>
-      <c r="B68" s="63" t="s">
-        <v>461</v>
-      </c>
-      <c r="C68" s="25" t="s">
+      <c r="B68" s="62" t="s">
+        <v>460</v>
+      </c>
+      <c r="C68" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="63" t="s">
+      <c r="E68" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F68" s="25" t="s">
@@ -4762,48 +5008,52 @@
       <c r="G68" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H68" s="13"/>
+      <c r="H68" s="13" t="s">
+        <v>691</v>
+      </c>
       <c r="I68" s="34"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>68</v>
       </c>
-      <c r="B69" s="63" t="s">
-        <v>466</v>
-      </c>
-      <c r="C69" s="25" t="s">
+      <c r="B69" s="62" t="s">
+        <v>465</v>
+      </c>
+      <c r="C69" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="63" t="s">
+      <c r="E69" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>421</v>
+        <v>695</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="H69" s="13"/>
+        <v>698</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>697</v>
+      </c>
       <c r="I69" s="34"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>69</v>
       </c>
-      <c r="B70" s="63" t="s">
-        <v>465</v>
-      </c>
-      <c r="C70" s="25" t="s">
+      <c r="B70" s="62" t="s">
+        <v>464</v>
+      </c>
+      <c r="C70" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="63" t="s">
+      <c r="E70" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F70" s="25" t="s">
@@ -4819,16 +5069,16 @@
       <c r="A71" s="25">
         <v>70</v>
       </c>
-      <c r="B71" s="63" t="s">
-        <v>470</v>
-      </c>
-      <c r="C71" s="25" t="s">
+      <c r="B71" s="62" t="s">
+        <v>469</v>
+      </c>
+      <c r="C71" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F71" s="25" t="s">
@@ -4844,16 +5094,16 @@
       <c r="A72" s="25">
         <v>71</v>
       </c>
-      <c r="B72" s="63" t="s">
-        <v>471</v>
-      </c>
-      <c r="C72" s="25" t="s">
+      <c r="B72" s="62" t="s">
+        <v>470</v>
+      </c>
+      <c r="C72" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="63" t="s">
+      <c r="E72" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F72" s="25" t="s">
@@ -4869,16 +5119,16 @@
       <c r="A73" s="25">
         <v>72</v>
       </c>
-      <c r="B73" s="63" t="s">
-        <v>472</v>
-      </c>
-      <c r="C73" s="25" t="s">
+      <c r="B73" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="C73" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="63" t="s">
+      <c r="E73" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F73" s="25" t="s">
@@ -4894,16 +5144,16 @@
       <c r="A74" s="25">
         <v>73</v>
       </c>
-      <c r="B74" s="68" t="s">
-        <v>475</v>
-      </c>
-      <c r="C74" s="25" t="s">
+      <c r="B74" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="C74" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="63" t="s">
+      <c r="E74" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F74" s="25" t="s">
@@ -4919,16 +5169,16 @@
       <c r="A75" s="25">
         <v>74</v>
       </c>
-      <c r="B75" s="63" t="s">
-        <v>478</v>
-      </c>
-      <c r="C75" s="25" t="s">
+      <c r="B75" s="62" t="s">
+        <v>477</v>
+      </c>
+      <c r="C75" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="63" t="s">
+      <c r="E75" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F75" s="25" t="s">
@@ -4945,15 +5195,15 @@
         <v>75</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="C76" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C76" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="63" t="s">
+      <c r="E76" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F76" s="25" t="s">
@@ -4962,23 +5212,25 @@
       <c r="G76" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H76" s="13"/>
+      <c r="H76" s="13" t="s">
+        <v>670</v>
+      </c>
       <c r="I76" s="34"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>76</v>
       </c>
-      <c r="B77" s="81" t="s">
-        <v>481</v>
-      </c>
-      <c r="C77" s="25" t="s">
+      <c r="B77" s="80" t="s">
+        <v>480</v>
+      </c>
+      <c r="C77" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="63" t="s">
+      <c r="E77" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F77" s="25" t="s">
@@ -4987,23 +5239,25 @@
       <c r="G77" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H77" s="13"/>
+      <c r="H77" s="13" t="s">
+        <v>677</v>
+      </c>
       <c r="I77" s="34"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
         <v>77</v>
       </c>
-      <c r="B78" s="66" t="s">
-        <v>484</v>
-      </c>
-      <c r="C78" s="25" t="s">
+      <c r="B78" s="65" t="s">
+        <v>483</v>
+      </c>
+      <c r="C78" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D78" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="63" t="s">
+      <c r="E78" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F78" s="25" t="s">
@@ -5019,16 +5273,16 @@
       <c r="A79" s="25">
         <v>78</v>
       </c>
-      <c r="B79" s="66" t="s">
-        <v>489</v>
-      </c>
-      <c r="C79" s="25" t="s">
+      <c r="B79" s="65" t="s">
+        <v>488</v>
+      </c>
+      <c r="C79" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="63" t="s">
+      <c r="E79" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F79" s="25" t="s">
@@ -5044,16 +5298,16 @@
       <c r="A80" s="25">
         <v>79</v>
       </c>
-      <c r="B80" s="84" t="s">
-        <v>491</v>
-      </c>
-      <c r="C80" s="25" t="s">
+      <c r="B80" s="83" t="s">
+        <v>490</v>
+      </c>
+      <c r="C80" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="63" t="s">
+      <c r="E80" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F80" s="25" t="s">
@@ -5069,16 +5323,16 @@
       <c r="A81" s="25">
         <v>80</v>
       </c>
-      <c r="B81" s="68" t="s">
-        <v>492</v>
-      </c>
-      <c r="C81" s="25" t="s">
+      <c r="B81" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="C81" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="63" t="s">
+      <c r="E81" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F81" s="25" t="s">
@@ -5094,16 +5348,16 @@
       <c r="A82" s="25">
         <v>81</v>
       </c>
-      <c r="B82" s="63" t="s">
-        <v>495</v>
-      </c>
-      <c r="C82" s="25" t="s">
+      <c r="B82" s="62" t="s">
+        <v>494</v>
+      </c>
+      <c r="C82" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="63" t="s">
+      <c r="E82" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F82" s="25" t="s">
@@ -5112,23 +5366,25 @@
       <c r="G82" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H82" s="13"/>
+      <c r="H82" s="13" t="s">
+        <v>678</v>
+      </c>
       <c r="I82" s="34"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="25">
         <v>82</v>
       </c>
-      <c r="B83" s="63" t="s">
-        <v>497</v>
-      </c>
-      <c r="C83" s="25" t="s">
+      <c r="B83" s="62" t="s">
+        <v>496</v>
+      </c>
+      <c r="C83" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D83" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="63" t="s">
+      <c r="E83" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F83" s="25" t="s">
@@ -5144,16 +5400,16 @@
       <c r="A84" s="25">
         <v>83</v>
       </c>
-      <c r="B84" s="63" t="s">
-        <v>499</v>
-      </c>
-      <c r="C84" s="25" t="s">
+      <c r="B84" s="62" t="s">
+        <v>498</v>
+      </c>
+      <c r="C84" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D84" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="63" t="s">
+      <c r="E84" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F84" s="25" t="s">
@@ -5162,23 +5418,25 @@
       <c r="G84" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H84" s="13"/>
+      <c r="H84" s="13" t="s">
+        <v>679</v>
+      </c>
       <c r="I84" s="34"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
         <v>84</v>
       </c>
-      <c r="B85" s="63" t="s">
-        <v>503</v>
-      </c>
-      <c r="C85" s="25" t="s">
+      <c r="B85" s="62" t="s">
+        <v>502</v>
+      </c>
+      <c r="C85" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D85" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="63" t="s">
+      <c r="E85" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F85" s="25" t="s">
@@ -5187,23 +5445,25 @@
       <c r="G85" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H85" s="13"/>
+      <c r="H85" s="13" t="s">
+        <v>680</v>
+      </c>
       <c r="I85" s="34"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="25">
         <v>85</v>
       </c>
-      <c r="B86" s="63" t="s">
-        <v>506</v>
-      </c>
-      <c r="C86" s="25" t="s">
+      <c r="B86" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="C86" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="63" t="s">
+      <c r="E86" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F86" s="25" t="s">
@@ -5219,16 +5479,16 @@
       <c r="A87" s="25">
         <v>86</v>
       </c>
-      <c r="B87" s="63" t="s">
-        <v>507</v>
-      </c>
-      <c r="C87" s="25" t="s">
+      <c r="B87" s="62" t="s">
+        <v>506</v>
+      </c>
+      <c r="C87" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="63" t="s">
+      <c r="E87" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F87" s="25" t="s">
@@ -5244,16 +5504,16 @@
       <c r="A88" s="25">
         <v>87</v>
       </c>
-      <c r="B88" s="66" t="s">
-        <v>509</v>
-      </c>
-      <c r="C88" s="25" t="s">
+      <c r="B88" s="65" t="s">
+        <v>508</v>
+      </c>
+      <c r="C88" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="63" t="s">
+      <c r="E88" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F88" s="25" t="s">
@@ -5270,15 +5530,15 @@
         <v>88</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="C89" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C89" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="63" t="s">
+      <c r="E89" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F89" s="25" t="s">
@@ -5287,23 +5547,25 @@
       <c r="G89" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H89" s="13"/>
+      <c r="H89" s="13" t="s">
+        <v>681</v>
+      </c>
       <c r="I89" s="34"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
         <v>89</v>
       </c>
-      <c r="B90" s="66" t="s">
-        <v>512</v>
-      </c>
-      <c r="C90" s="25" t="s">
+      <c r="B90" s="65" t="s">
+        <v>511</v>
+      </c>
+      <c r="C90" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D90" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="63" t="s">
+      <c r="E90" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F90" s="25" t="s">
@@ -5320,15 +5582,15 @@
         <v>90</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C91" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="C91" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D91" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="63" t="s">
+      <c r="E91" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F91" s="25" t="s">
@@ -5337,7 +5599,9 @@
       <c r="G91" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H91" s="13"/>
+      <c r="H91" s="13" t="s">
+        <v>682</v>
+      </c>
       <c r="I91" s="34"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5345,7 +5609,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C92" s="25" t="s">
         <v>56</v>
@@ -5353,7 +5617,7 @@
       <c r="D92" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="63" t="s">
+      <c r="E92" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F92" s="25" t="s">
@@ -5362,15 +5626,17 @@
       <c r="G92" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H92" s="13"/>
+      <c r="H92" s="13" t="s">
+        <v>683</v>
+      </c>
       <c r="I92" s="34"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
         <v>92</v>
       </c>
-      <c r="B93" s="68" t="s">
-        <v>518</v>
+      <c r="B93" s="67" t="s">
+        <v>517</v>
       </c>
       <c r="C93" s="25" t="s">
         <v>56</v>
@@ -5378,7 +5644,7 @@
       <c r="D93" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="63" t="s">
+      <c r="E93" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F93" s="25" t="s">
@@ -5387,15 +5653,17 @@
       <c r="G93" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H93" s="13"/>
+      <c r="H93" s="13" t="s">
+        <v>684</v>
+      </c>
       <c r="I93" s="34"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="25">
         <v>93</v>
       </c>
-      <c r="B94" s="63" t="s">
-        <v>521</v>
+      <c r="B94" s="62" t="s">
+        <v>520</v>
       </c>
       <c r="C94" s="25" t="s">
         <v>56</v>
@@ -5403,7 +5671,7 @@
       <c r="D94" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="63" t="s">
+      <c r="E94" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F94" s="25" t="s">
@@ -5419,8 +5687,8 @@
       <c r="A95" s="25">
         <v>94</v>
       </c>
-      <c r="B95" s="68" t="s">
-        <v>518</v>
+      <c r="B95" s="67" t="s">
+        <v>517</v>
       </c>
       <c r="C95" s="25" t="s">
         <v>56</v>
@@ -5428,33 +5696,33 @@
       <c r="D95" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="63" t="s">
+      <c r="E95" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G95" s="34"/>
       <c r="H95" s="34"/>
       <c r="I95" s="34"/>
     </row>
     <row r="96" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="63">
+      <c r="A96" s="62">
         <v>95</v>
       </c>
-      <c r="B96" s="68" t="s">
-        <v>522</v>
+      <c r="B96" s="67" t="s">
+        <v>521</v>
       </c>
       <c r="C96" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="63" t="s">
+      <c r="D96" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E96" s="63" t="s">
+      <c r="E96" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F96" s="63" t="s">
+      <c r="F96" s="62" t="s">
         <v>421</v>
       </c>
       <c r="G96" s="13" t="s">
@@ -5464,22 +5732,22 @@
       <c r="I96" s="13"/>
     </row>
     <row r="97" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="63">
+      <c r="A97" s="62">
         <v>96</v>
       </c>
-      <c r="B97" s="68" t="s">
-        <v>525</v>
+      <c r="B97" s="67" t="s">
+        <v>524</v>
       </c>
       <c r="C97" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D97" s="63" t="s">
+      <c r="D97" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E97" s="63" t="s">
+      <c r="E97" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F97" s="63" t="s">
+      <c r="F97" s="62" t="s">
         <v>421</v>
       </c>
       <c r="G97" s="13" t="s">
@@ -5489,22 +5757,22 @@
       <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="63">
+      <c r="A98" s="62">
         <v>97</v>
       </c>
-      <c r="B98" s="63" t="s">
-        <v>524</v>
+      <c r="B98" s="62" t="s">
+        <v>523</v>
       </c>
       <c r="C98" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D98" s="63" t="s">
+      <c r="D98" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E98" s="63" t="s">
+      <c r="E98" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F98" s="63" t="s">
+      <c r="F98" s="62" t="s">
         <v>421</v>
       </c>
       <c r="G98" s="13" t="s">
@@ -5517,8 +5785,8 @@
       <c r="A99" s="25">
         <v>98</v>
       </c>
-      <c r="B99" s="63" t="s">
-        <v>528</v>
+      <c r="B99" s="62" t="s">
+        <v>527</v>
       </c>
       <c r="C99" s="25" t="s">
         <v>56</v>
@@ -5526,7 +5794,7 @@
       <c r="D99" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="63" t="s">
+      <c r="E99" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F99" s="25" t="s">
@@ -5539,22 +5807,22 @@
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="63">
+      <c r="A100" s="62">
         <v>99</v>
       </c>
-      <c r="B100" s="68" t="s">
-        <v>529</v>
+      <c r="B100" s="67" t="s">
+        <v>528</v>
       </c>
       <c r="C100" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D100" s="63" t="s">
+      <c r="D100" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E100" s="63" t="s">
+      <c r="E100" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F100" s="63" t="s">
+      <c r="F100" s="62" t="s">
         <v>421</v>
       </c>
       <c r="G100" s="13" t="s">
@@ -5567,8 +5835,8 @@
       <c r="A101" s="25">
         <v>100</v>
       </c>
-      <c r="B101" s="68" t="s">
-        <v>531</v>
+      <c r="B101" s="67" t="s">
+        <v>530</v>
       </c>
       <c r="C101" s="25" t="s">
         <v>56</v>
@@ -5576,10 +5844,10 @@
       <c r="D101" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E101" s="63" t="s">
+      <c r="E101" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F101" s="63" t="s">
+      <c r="F101" s="62" t="s">
         <v>421</v>
       </c>
       <c r="G101" s="13" t="s">
@@ -5589,22 +5857,22 @@
       <c r="I101" s="34"/>
     </row>
     <row r="102" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="63">
+      <c r="A102" s="62">
         <v>101</v>
       </c>
-      <c r="B102" s="68" t="s">
-        <v>535</v>
+      <c r="B102" s="67" t="s">
+        <v>534</v>
       </c>
       <c r="C102" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D102" s="63" t="s">
+      <c r="D102" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E102" s="63" t="s">
+      <c r="E102" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F102" s="63" t="s">
+      <c r="F102" s="62" t="s">
         <v>421</v>
       </c>
       <c r="G102" s="13" t="s">
@@ -5614,22 +5882,22 @@
       <c r="I102" s="13"/>
     </row>
     <row r="103" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="63">
+      <c r="A103" s="62">
         <v>102</v>
       </c>
-      <c r="B103" s="63" t="s">
-        <v>536</v>
+      <c r="B103" s="62" t="s">
+        <v>535</v>
       </c>
       <c r="C103" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="63" t="s">
+      <c r="D103" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E103" s="63" t="s">
+      <c r="E103" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F103" s="63" t="s">
+      <c r="F103" s="62" t="s">
         <v>421</v>
       </c>
       <c r="G103" s="13" t="s">
@@ -5639,22 +5907,22 @@
       <c r="I103" s="13"/>
     </row>
     <row r="104" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="63">
+      <c r="A104" s="62">
         <v>103</v>
       </c>
-      <c r="B104" s="68" t="s">
-        <v>537</v>
+      <c r="B104" s="67" t="s">
+        <v>536</v>
       </c>
       <c r="C104" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D104" s="63" t="s">
+      <c r="D104" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E104" s="63" t="s">
+      <c r="E104" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F104" s="63" t="s">
+      <c r="F104" s="62" t="s">
         <v>421</v>
       </c>
       <c r="G104" s="13" t="s">
@@ -5664,22 +5932,22 @@
       <c r="I104" s="13"/>
     </row>
     <row r="105" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="63">
+      <c r="A105" s="62">
         <v>104</v>
       </c>
-      <c r="B105" s="68" t="s">
-        <v>542</v>
+      <c r="B105" s="67" t="s">
+        <v>541</v>
       </c>
       <c r="C105" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D105" s="63" t="s">
+      <c r="D105" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E105" s="63" t="s">
+      <c r="E105" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F105" s="63" t="s">
+      <c r="F105" s="62" t="s">
         <v>421</v>
       </c>
       <c r="G105" s="13" t="s">
@@ -5689,22 +5957,22 @@
       <c r="I105" s="13"/>
     </row>
     <row r="106" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="63">
+      <c r="A106" s="62">
         <v>105</v>
       </c>
-      <c r="B106" s="68" t="s">
-        <v>543</v>
+      <c r="B106" s="67" t="s">
+        <v>542</v>
       </c>
       <c r="C106" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D106" s="63" t="s">
+      <c r="D106" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E106" s="63" t="s">
+      <c r="E106" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F106" s="63" t="s">
+      <c r="F106" s="62" t="s">
         <v>421</v>
       </c>
       <c r="G106" s="13" t="s">
@@ -5717,8 +5985,8 @@
       <c r="A107" s="25">
         <v>106</v>
       </c>
-      <c r="B107" s="68" t="s">
-        <v>544</v>
+      <c r="B107" s="67" t="s">
+        <v>543</v>
       </c>
       <c r="C107" s="25" t="s">
         <v>56</v>
@@ -5726,10 +5994,10 @@
       <c r="D107" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E107" s="63" t="s">
+      <c r="E107" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="F107" s="63" t="s">
+      <c r="F107" s="62" t="s">
         <v>421</v>
       </c>
       <c r="G107" s="13" t="s">
@@ -5739,11 +6007,11 @@
       <c r="I107" s="34"/>
     </row>
     <row r="108" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="63">
+      <c r="A108" s="62">
         <v>107</v>
       </c>
-      <c r="B108" s="63" t="s">
-        <v>561</v>
+      <c r="B108" s="62" t="s">
+        <v>559</v>
       </c>
       <c r="C108" s="25" t="s">
         <v>56</v>
@@ -5751,7 +6019,7 @@
       <c r="D108" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="63" t="s">
+      <c r="E108" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F108" s="25" t="s">
@@ -5760,15 +6028,17 @@
       <c r="G108" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H108" s="13"/>
-      <c r="J108" s="74"/>
+      <c r="H108" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="J108" s="73"/>
     </row>
     <row r="109" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="63">
+      <c r="A109" s="62">
         <v>108</v>
       </c>
-      <c r="B109" s="72" t="s">
-        <v>567</v>
+      <c r="B109" s="71" t="s">
+        <v>565</v>
       </c>
       <c r="C109" s="25" t="s">
         <v>56</v>
@@ -5776,7 +6046,7 @@
       <c r="D109" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="63" t="s">
+      <c r="E109" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F109" s="25" t="s">
@@ -5786,14 +6056,14 @@
         <v>422</v>
       </c>
       <c r="H109" s="13"/>
-      <c r="J109" s="74"/>
+      <c r="J109" s="73"/>
     </row>
     <row r="110" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="63">
+      <c r="A110" s="62">
         <v>109</v>
       </c>
-      <c r="B110" s="63" t="s">
-        <v>565</v>
+      <c r="B110" s="62" t="s">
+        <v>563</v>
       </c>
       <c r="C110" s="25" t="s">
         <v>56</v>
@@ -5801,7 +6071,7 @@
       <c r="D110" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E110" s="63" t="s">
+      <c r="E110" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F110" s="25" t="s">
@@ -5811,16 +6081,16 @@
         <v>422</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="J110" s="74"/>
+        <v>686</v>
+      </c>
+      <c r="J110" s="73"/>
     </row>
     <row r="111" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="63">
+      <c r="A111" s="62">
         <v>110</v>
       </c>
-      <c r="B111" s="63" t="s">
-        <v>571</v>
+      <c r="B111" s="62" t="s">
+        <v>569</v>
       </c>
       <c r="C111" s="25" t="s">
         <v>56</v>
@@ -5828,7 +6098,7 @@
       <c r="D111" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="63" t="s">
+      <c r="E111" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F111" s="25" t="s">
@@ -5837,15 +6107,17 @@
       <c r="G111" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H111" s="13"/>
-      <c r="J111" s="74"/>
+      <c r="H111" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="J111" s="73"/>
     </row>
     <row r="112" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="63">
+      <c r="A112" s="62">
         <v>111</v>
       </c>
-      <c r="B112" s="63" t="s">
-        <v>574</v>
+      <c r="B112" s="62" t="s">
+        <v>572</v>
       </c>
       <c r="C112" s="25" t="s">
         <v>56</v>
@@ -5853,7 +6125,7 @@
       <c r="D112" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="63" t="s">
+      <c r="E112" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F112" s="25" t="s">
@@ -5863,39 +6135,39 @@
         <v>422</v>
       </c>
       <c r="H112" s="13"/>
-      <c r="J112" s="74"/>
+      <c r="J112" s="73"/>
     </row>
     <row r="113" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="96">
+      <c r="A113" s="95">
         <v>112</v>
       </c>
-      <c r="B113" s="96" t="s">
-        <v>582</v>
-      </c>
-      <c r="C113" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="D113" s="96" t="s">
+      <c r="B113" s="95" t="s">
+        <v>580</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D113" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="E113" s="96" t="s">
+      <c r="E113" s="95" t="s">
         <v>109</v>
       </c>
       <c r="F113" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="G113" s="98" t="s">
+      <c r="G113" s="96" t="s">
         <v>422</v>
       </c>
-      <c r="H113" s="98"/>
-      <c r="I113" s="98"/>
+      <c r="H113" s="96"/>
+      <c r="I113" s="96"/>
     </row>
     <row r="114" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="25">
         <v>113</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C114" s="25" t="s">
         <v>56</v>
@@ -5903,7 +6175,7 @@
       <c r="D114" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="63" t="s">
+      <c r="E114" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F114" s="25" t="s">
@@ -5918,7 +6190,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C115" s="25" t="s">
         <v>56</v>
@@ -5926,7 +6198,7 @@
       <c r="D115" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="63" t="s">
+      <c r="E115" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F115" s="25" t="s">
@@ -5941,7 +6213,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C116" s="25" t="s">
         <v>56</v>
@@ -5949,7 +6221,7 @@
       <c r="D116" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="63" t="s">
+      <c r="E116" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F116" s="25" t="s">
@@ -5964,7 +6236,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C117" s="25" t="s">
         <v>56</v>
@@ -5972,7 +6244,7 @@
       <c r="D117" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="63" t="s">
+      <c r="E117" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F117" s="25" t="s">
@@ -5987,7 +6259,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C118" s="25" t="s">
         <v>56</v>
@@ -5995,7 +6267,7 @@
       <c r="D118" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="63" t="s">
+      <c r="E118" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F118" s="25" t="s">
@@ -6010,15 +6282,15 @@
         <v>118</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>602</v>
-      </c>
-      <c r="C119" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="C119" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E119" s="63" t="s">
+      <c r="E119" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F119" s="25" t="s">
@@ -6033,7 +6305,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C120" s="25" t="s">
         <v>56</v>
@@ -6041,7 +6313,7 @@
       <c r="D120" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="63" t="s">
+      <c r="E120" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F120" s="25" t="s">
@@ -6056,7 +6328,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C121" s="25" t="s">
         <v>56</v>
@@ -6064,7 +6336,7 @@
       <c r="D121" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E121" s="63" t="s">
+      <c r="E121" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F121" s="25" t="s">
@@ -6079,7 +6351,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C122" s="25" t="s">
         <v>56</v>
@@ -6087,7 +6359,7 @@
       <c r="D122" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="63" t="s">
+      <c r="E122" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F122" s="25" t="s">
@@ -6102,7 +6374,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C123" s="25" t="s">
         <v>56</v>
@@ -6110,7 +6382,7 @@
       <c r="D123" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E123" s="63" t="s">
+      <c r="E123" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F123" s="25" t="s">
@@ -6125,15 +6397,15 @@
         <v>123</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>653</v>
-      </c>
-      <c r="C124" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="C124" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="63" t="s">
+      <c r="E124" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F124" s="25" t="s">
@@ -6148,7 +6420,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="C125" s="25" t="s">
         <v>56</v>
@@ -6156,7 +6428,7 @@
       <c r="D125" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E125" s="63" t="s">
+      <c r="E125" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F125" s="25" t="s">
@@ -6171,7 +6443,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="C126" s="25" t="s">
         <v>56</v>
@@ -6179,18 +6451,18 @@
       <c r="D126" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="63" t="s">
+      <c r="E126" s="62" t="s">
         <v>61</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>661</v>
+        <v>421</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>662</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J126" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}"/>
+  <autoFilter ref="A1:J1" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" location="7815483" xr:uid="{27C524AC-B712-409C-94D8-14137A368696}"/>
     <hyperlink ref="J4" r:id="rId2" xr:uid="{2982E1F1-B044-4074-8F5C-3D269A821F42}"/>
@@ -6206,9 +6478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:EP90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6313,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>1</v>
@@ -6331,10 +6603,10 @@
         <v>294</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>2</v>
@@ -6480,8 +6752,8 @@
       <c r="BG1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BH1" s="99" t="s">
-        <v>639</v>
+      <c r="BH1" s="97" t="s">
+        <v>629</v>
       </c>
       <c r="BI1" s="3" t="s">
         <v>88</v>
@@ -6511,10 +6783,10 @@
         <v>217</v>
       </c>
       <c r="BR1" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="BS1" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="BT1" s="3" t="s">
         <v>194</v>
@@ -6637,10 +6909,10 @@
         <v>409</v>
       </c>
       <c r="DH1" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="DI1" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:113" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6655,7 +6927,7 @@
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -6827,7 +7099,7 @@
       </c>
       <c r="DD2" s="21"/>
       <c r="DE2" s="21"/>
-      <c r="DF2" s="88"/>
+      <c r="DF2" s="87"/>
       <c r="DG2" s="21"/>
       <c r="DH2" s="21"/>
       <c r="DI2" s="21"/>
@@ -6844,7 +7116,7 @@
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
@@ -7028,7 +7300,7 @@
       <c r="DE3" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="DF3" s="89" t="s">
+      <c r="DF3" s="88" t="s">
         <v>362</v>
       </c>
       <c r="DG3" s="26"/>
@@ -7039,15 +7311,15 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
         <v>291</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>414</v>
@@ -7197,7 +7469,7 @@
       </c>
       <c r="DD4" s="21"/>
       <c r="DE4" s="26"/>
-      <c r="DF4" s="89"/>
+      <c r="DF4" s="88"/>
       <c r="DG4" s="26"/>
       <c r="DH4" s="26"/>
       <c r="DI4" s="26"/>
@@ -7214,7 +7486,7 @@
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -7388,7 +7660,7 @@
       </c>
       <c r="DD5" s="21"/>
       <c r="DE5" s="21"/>
-      <c r="DF5" s="88"/>
+      <c r="DF5" s="87"/>
       <c r="DG5" s="21"/>
       <c r="DH5" s="21"/>
       <c r="DI5" s="21"/>
@@ -7405,7 +7677,7 @@
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -7579,7 +7851,7 @@
       </c>
       <c r="DD6" s="21"/>
       <c r="DE6" s="21"/>
-      <c r="DF6" s="88"/>
+      <c r="DF6" s="87"/>
       <c r="DG6" s="21"/>
       <c r="DH6" s="21"/>
       <c r="DI6" s="21"/>
@@ -7596,7 +7868,7 @@
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -7764,7 +8036,7 @@
       </c>
       <c r="DD7" s="21"/>
       <c r="DE7" s="21"/>
-      <c r="DF7" s="88"/>
+      <c r="DF7" s="87"/>
       <c r="DG7" s="21"/>
       <c r="DH7" s="21"/>
       <c r="DI7" s="21"/>
@@ -7781,7 +8053,7 @@
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -7951,7 +8223,7 @@
       </c>
       <c r="DD8" s="28"/>
       <c r="DE8" s="28"/>
-      <c r="DF8" s="90"/>
+      <c r="DF8" s="89"/>
       <c r="DG8" s="28"/>
       <c r="DH8" s="28"/>
       <c r="DI8" s="28"/>
@@ -7968,7 +8240,7 @@
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -8136,7 +8408,7 @@
       </c>
       <c r="DD9" s="28"/>
       <c r="DE9" s="28"/>
-      <c r="DF9" s="90"/>
+      <c r="DF9" s="89"/>
       <c r="DG9" s="28"/>
       <c r="DH9" s="28"/>
       <c r="DI9" s="28"/>
@@ -8153,7 +8425,7 @@
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -8331,7 +8603,7 @@
       </c>
       <c r="DD10" s="21"/>
       <c r="DE10" s="21"/>
-      <c r="DF10" s="88"/>
+      <c r="DF10" s="87"/>
       <c r="DG10" s="21"/>
       <c r="DH10" s="21"/>
       <c r="DI10" s="21"/>
@@ -8348,7 +8620,7 @@
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -8526,7 +8798,7 @@
       </c>
       <c r="DD11" s="21"/>
       <c r="DE11" s="21"/>
-      <c r="DF11" s="88"/>
+      <c r="DF11" s="87"/>
       <c r="DG11" s="21"/>
       <c r="DH11" s="21"/>
       <c r="DI11" s="21"/>
@@ -8543,7 +8815,7 @@
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -8715,7 +8987,7 @@
       </c>
       <c r="DD12" s="21"/>
       <c r="DE12" s="21"/>
-      <c r="DF12" s="88"/>
+      <c r="DF12" s="87"/>
       <c r="DG12" s="21"/>
       <c r="DH12" s="21"/>
       <c r="DI12" s="21"/>
@@ -8732,7 +9004,7 @@
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -8908,7 +9180,7 @@
       </c>
       <c r="DD13" s="21"/>
       <c r="DE13" s="21"/>
-      <c r="DF13" s="88"/>
+      <c r="DF13" s="87"/>
       <c r="DG13" s="21"/>
       <c r="DH13" s="21"/>
       <c r="DI13" s="21"/>
@@ -8925,7 +9197,7 @@
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -9097,7 +9369,7 @@
       </c>
       <c r="DD14" s="21"/>
       <c r="DE14" s="21"/>
-      <c r="DF14" s="88"/>
+      <c r="DF14" s="87"/>
       <c r="DG14" s="21"/>
       <c r="DH14" s="21"/>
       <c r="DI14" s="21"/>
@@ -9114,7 +9386,7 @@
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -9286,7 +9558,7 @@
       </c>
       <c r="DD15" s="21"/>
       <c r="DE15" s="21"/>
-      <c r="DF15" s="88"/>
+      <c r="DF15" s="87"/>
       <c r="DG15" s="21"/>
       <c r="DH15" s="21"/>
       <c r="DI15" s="21"/>
@@ -9303,7 +9575,7 @@
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -9321,7 +9593,7 @@
         <v>4</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="R16" s="23" t="s">
         <v>284</v>
@@ -9352,7 +9624,7 @@
         <v>23</v>
       </c>
       <c r="AD16" s="24" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="AE16" s="21" t="s">
         <v>29</v>
@@ -9407,16 +9679,16 @@
         <v>56</v>
       </c>
       <c r="BC16" s="21" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="BD16" s="21" t="s">
         <v>56</v>
       </c>
       <c r="BE16" s="21" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="BF16" s="21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="BG16" s="21" t="s">
         <v>56</v>
@@ -9424,10 +9696,10 @@
       <c r="BH16" s="21"/>
       <c r="BI16" s="21"/>
       <c r="BJ16" s="21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="BK16" s="21" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="BL16" s="21"/>
       <c r="BM16" s="21"/>
@@ -9481,7 +9753,7 @@
       </c>
       <c r="DD16" s="21"/>
       <c r="DE16" s="21"/>
-      <c r="DF16" s="88"/>
+      <c r="DF16" s="87"/>
       <c r="DG16" s="21"/>
       <c r="DH16" s="21"/>
       <c r="DI16" s="21"/>
@@ -9498,7 +9770,7 @@
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -9547,7 +9819,7 @@
         <v>23</v>
       </c>
       <c r="AD17" s="24" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="AE17" s="21" t="s">
         <v>29</v>
@@ -9596,16 +9868,16 @@
         <v>56</v>
       </c>
       <c r="BC17" s="21" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="BD17" s="21" t="s">
         <v>56</v>
       </c>
       <c r="BE17" s="21" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="BF17" s="21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="BG17" s="21" t="s">
         <v>56</v>
@@ -9613,10 +9885,10 @@
       <c r="BH17" s="21"/>
       <c r="BI17" s="21"/>
       <c r="BJ17" s="21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="BK17" s="21" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="BL17" s="21"/>
       <c r="BM17" s="21"/>
@@ -9670,7 +9942,7 @@
       </c>
       <c r="DD17" s="21"/>
       <c r="DE17" s="21"/>
-      <c r="DF17" s="88"/>
+      <c r="DF17" s="87"/>
       <c r="DG17" s="21"/>
       <c r="DH17" s="21"/>
       <c r="DI17" s="21"/>
@@ -9687,7 +9959,7 @@
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -9859,7 +10131,7 @@
       </c>
       <c r="DD18" s="21"/>
       <c r="DE18" s="21"/>
-      <c r="DF18" s="88"/>
+      <c r="DF18" s="87"/>
       <c r="DG18" s="21"/>
       <c r="DH18" s="21"/>
       <c r="DI18" s="21"/>
@@ -9876,7 +10148,7 @@
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -10042,7 +10314,7 @@
       </c>
       <c r="DD19" s="21"/>
       <c r="DE19" s="26"/>
-      <c r="DF19" s="89"/>
+      <c r="DF19" s="88"/>
       <c r="DG19" s="26"/>
       <c r="DH19" s="26"/>
       <c r="DI19" s="26"/>
@@ -10059,7 +10331,7 @@
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -10179,7 +10451,7 @@
       </c>
       <c r="DD20" s="21"/>
       <c r="DE20" s="26"/>
-      <c r="DF20" s="89"/>
+      <c r="DF20" s="88"/>
       <c r="DG20" s="26"/>
       <c r="DH20" s="26"/>
       <c r="DI20" s="26"/>
@@ -10196,7 +10468,7 @@
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>415</v>
@@ -10330,7 +10602,7 @@
       </c>
       <c r="DD21" s="28"/>
       <c r="DE21" s="37"/>
-      <c r="DF21" s="91"/>
+      <c r="DF21" s="90"/>
       <c r="DG21" s="37"/>
       <c r="DH21" s="37"/>
       <c r="DI21" s="37"/>
@@ -10347,7 +10619,7 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
@@ -10582,10 +10854,10 @@
         <v>56</v>
       </c>
       <c r="CR22" s="13" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="CS22" s="13" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="CT22" s="26" t="s">
         <v>56</v>
@@ -10609,7 +10881,7 @@
       </c>
       <c r="DD22" s="21"/>
       <c r="DE22" s="26"/>
-      <c r="DF22" s="89"/>
+      <c r="DF22" s="88"/>
       <c r="DG22" s="26"/>
       <c r="DH22" s="26"/>
       <c r="DI22" s="26"/>
@@ -10622,10 +10894,10 @@
         <v>256</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="61"/>
+      <c r="E23"/>
       <c r="F23" s="39" t="s">
         <v>249</v>
       </c>
@@ -10742,7 +11014,7 @@
       <c r="DC23" s="26"/>
       <c r="DD23" s="26"/>
       <c r="DE23" s="26"/>
-      <c r="DF23" s="89"/>
+      <c r="DF23" s="88"/>
       <c r="DG23" s="26"/>
       <c r="DH23" s="26"/>
       <c r="DI23" s="26"/>
@@ -10755,10 +11027,10 @@
         <v>255</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="61"/>
+      <c r="E24"/>
       <c r="F24" s="39" t="s">
         <v>249</v>
       </c>
@@ -10875,7 +11147,7 @@
       <c r="DC24" s="26"/>
       <c r="DD24" s="26"/>
       <c r="DE24" s="26"/>
-      <c r="DF24" s="89"/>
+      <c r="DF24" s="88"/>
       <c r="DG24" s="26"/>
       <c r="DH24" s="26"/>
       <c r="DI24" s="26"/>
@@ -10888,10 +11160,10 @@
         <v>245</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="61"/>
+      <c r="E25"/>
       <c r="F25" s="39" t="s">
         <v>249</v>
       </c>
@@ -11008,7 +11280,7 @@
       <c r="DC25" s="26"/>
       <c r="DD25" s="26"/>
       <c r="DE25" s="26"/>
-      <c r="DF25" s="89"/>
+      <c r="DF25" s="88"/>
       <c r="DG25" s="26"/>
       <c r="DH25" s="26"/>
       <c r="DI25" s="26"/>
@@ -11021,10 +11293,10 @@
         <v>257</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="61"/>
+      <c r="E26"/>
       <c r="F26" s="39" t="s">
         <v>249</v>
       </c>
@@ -11141,7 +11413,7 @@
       <c r="DC26" s="26"/>
       <c r="DD26" s="26"/>
       <c r="DE26" s="26"/>
-      <c r="DF26" s="89"/>
+      <c r="DF26" s="88"/>
       <c r="DG26" s="26"/>
       <c r="DH26" s="26"/>
       <c r="DI26" s="26"/>
@@ -11154,10 +11426,10 @@
         <v>258</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="61"/>
+      <c r="E27"/>
       <c r="F27" s="39" t="s">
         <v>249</v>
       </c>
@@ -11276,7 +11548,7 @@
       <c r="DC27" s="26"/>
       <c r="DD27" s="26"/>
       <c r="DE27" s="26"/>
-      <c r="DF27" s="89"/>
+      <c r="DF27" s="88"/>
       <c r="DG27" s="26"/>
       <c r="DH27" s="26"/>
       <c r="DI27" s="26"/>
@@ -11289,10 +11561,10 @@
         <v>259</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="61"/>
+      <c r="E28"/>
       <c r="F28" s="39" t="s">
         <v>249</v>
       </c>
@@ -11411,7 +11683,7 @@
       <c r="DC28" s="26"/>
       <c r="DD28" s="26"/>
       <c r="DE28" s="26"/>
-      <c r="DF28" s="89"/>
+      <c r="DF28" s="88"/>
       <c r="DG28" s="26"/>
       <c r="DH28" s="26"/>
       <c r="DI28" s="26"/>
@@ -11420,7 +11692,7 @@
       <c r="A29" s="21">
         <v>28</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="78" t="s">
         <v>263</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -11428,7 +11700,7 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -11562,7 +11834,7 @@
       <c r="DC29" s="26"/>
       <c r="DD29" s="26"/>
       <c r="DE29" s="26"/>
-      <c r="DF29" s="89"/>
+      <c r="DF29" s="88"/>
       <c r="DG29" s="26"/>
       <c r="DH29" s="26"/>
       <c r="DI29" s="26"/>
@@ -11579,10 +11851,10 @@
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P30" s="21" t="s">
         <v>4</v>
@@ -11612,7 +11884,7 @@
         <v>23</v>
       </c>
       <c r="AD30" s="49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AE30" s="2" t="s">
         <v>84</v>
@@ -11667,7 +11939,7 @@
         <v>334</v>
       </c>
       <c r="DG30" s="39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="DH30" s="26"/>
       <c r="DI30" s="26"/>
@@ -11684,7 +11956,7 @@
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="DG31" s="26"/>
       <c r="DH31" s="26"/>
@@ -11702,7 +11974,7 @@
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="L32" s="21" t="s">
         <v>425</v>
@@ -11870,7 +12142,7 @@
       </c>
       <c r="DD32" s="21"/>
       <c r="DE32" s="21"/>
-      <c r="DF32" s="88"/>
+      <c r="DF32" s="87"/>
       <c r="DG32" s="21"/>
       <c r="DH32" s="21"/>
       <c r="DI32" s="21"/>
@@ -11887,7 +12159,7 @@
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F33" s="49" t="s">
         <v>431</v>
@@ -12031,7 +12303,7 @@
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F34" s="49" t="s">
         <v>431</v>
@@ -12162,7 +12434,7 @@
       <c r="A35" s="21">
         <v>34</v>
       </c>
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="81" t="s">
         <v>435</v>
       </c>
       <c r="C35" s="21" t="s">
@@ -12170,7 +12442,7 @@
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>436</v>
@@ -12348,7 +12620,7 @@
       </c>
       <c r="DD35" s="21"/>
       <c r="DE35" s="21"/>
-      <c r="DF35" s="88"/>
+      <c r="DF35" s="87"/>
       <c r="DG35" s="21"/>
       <c r="DH35" s="21"/>
       <c r="DI35" s="21"/>
@@ -12365,7 +12637,7 @@
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F36" s="49" t="s">
         <v>440</v>
@@ -12389,7 +12661,7 @@
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F37" s="49" t="s">
         <v>431</v>
@@ -12416,7 +12688,7 @@
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F38" s="49" t="s">
         <v>444</v>
@@ -12440,10 +12712,10 @@
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -12614,7 +12886,7 @@
       </c>
       <c r="DD39" s="21"/>
       <c r="DE39" s="21"/>
-      <c r="DF39" s="88"/>
+      <c r="DF39" s="87"/>
       <c r="DG39" s="21"/>
       <c r="DH39" s="21"/>
       <c r="DI39" s="21"/>
@@ -12644,7 +12916,7 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="82" t="s">
+      <c r="B40" s="81" t="s">
         <v>450</v>
       </c>
       <c r="C40" s="21" t="s">
@@ -12654,13 +12926,13 @@
         <v>27</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F40" s="49" t="s">
         <v>444</v>
       </c>
       <c r="G40" s="49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="DG40" s="26"/>
       <c r="DH40" s="26"/>
@@ -12678,7 +12950,7 @@
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -12858,7 +13130,7 @@
       </c>
       <c r="DD41" s="21"/>
       <c r="DE41" s="21"/>
-      <c r="DF41" s="88"/>
+      <c r="DF41" s="87"/>
       <c r="DG41" s="21"/>
       <c r="DH41" s="21"/>
       <c r="DI41" s="21"/>
@@ -12867,7 +13139,7 @@
       <c r="A42" s="21">
         <v>41</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="84" t="s">
         <v>454</v>
       </c>
       <c r="C42" s="21" t="s">
@@ -12875,7 +13147,7 @@
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -12892,8 +13164,8 @@
       <c r="P42" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="22">
-        <v>44868</v>
+      <c r="Q42" s="22" t="s">
+        <v>692</v>
       </c>
       <c r="R42" s="23" t="s">
         <v>345</v>
@@ -12909,15 +13181,9 @@
       <c r="Y42" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Z42" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA42" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB42" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
       <c r="AC42" s="21" t="s">
         <v>23</v>
       </c>
@@ -12927,18 +13193,18 @@
       <c r="AE42" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AF42" s="22">
-        <v>44868</v>
-      </c>
-      <c r="AG42" s="22">
-        <v>44868</v>
+      <c r="AF42" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="AG42" s="22" t="s">
+        <v>692</v>
       </c>
       <c r="AH42" s="26"/>
       <c r="AI42" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="AJ42" s="22">
-        <v>44868</v>
+      <c r="AJ42" s="22" t="s">
+        <v>692</v>
       </c>
       <c r="AK42" s="26"/>
       <c r="AL42" s="21" t="s">
@@ -12950,8 +13216,8 @@
       <c r="AN42" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AO42" s="22">
-        <v>44868</v>
+      <c r="AO42" s="22" t="s">
+        <v>692</v>
       </c>
       <c r="AP42" s="22" t="s">
         <v>76</v>
@@ -12959,8 +13225,8 @@
       <c r="AQ42" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AR42" s="22">
-        <v>44868</v>
+      <c r="AR42" s="22" t="s">
+        <v>692</v>
       </c>
       <c r="AS42" s="26"/>
       <c r="AT42" s="26"/>
@@ -13038,10 +13304,10 @@
         <v>332</v>
       </c>
       <c r="CX42" s="22" t="s">
-        <v>457</v>
+        <v>692</v>
       </c>
       <c r="CY42" s="22" t="s">
-        <v>457</v>
+        <v>692</v>
       </c>
       <c r="CZ42" s="23" t="s">
         <v>261</v>
@@ -13057,9 +13323,9 @@
         <v>76</v>
       </c>
       <c r="DE42" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="DF42" s="89" t="s">
+        <v>693</v>
+      </c>
+      <c r="DF42" s="88" t="s">
         <v>362</v>
       </c>
       <c r="DG42" s="26"/>
@@ -13071,14 +13337,14 @@
         <v>42</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -13087,7 +13353,7 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
@@ -13095,9 +13361,7 @@
       <c r="P43" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="22" t="s">
-        <v>343</v>
-      </c>
+      <c r="Q43" s="22"/>
       <c r="R43" s="23" t="s">
         <v>284</v>
       </c>
@@ -13127,7 +13391,7 @@
         <v>23</v>
       </c>
       <c r="AD43" s="24" t="s">
-        <v>350</v>
+        <v>689</v>
       </c>
       <c r="AE43" s="21" t="s">
         <v>29</v>
@@ -13176,28 +13440,22 @@
         <v>56</v>
       </c>
       <c r="BC43" s="21" t="s">
-        <v>416</v>
+        <v>613</v>
       </c>
       <c r="BD43" s="21" t="s">
         <v>56</v>
       </c>
       <c r="BE43" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="BF43" s="21" t="s">
-        <v>416</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="BF43" s="21"/>
       <c r="BG43" s="21" t="s">
         <v>56</v>
       </c>
       <c r="BH43" s="21"/>
       <c r="BI43" s="21"/>
-      <c r="BJ43" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="BK43" s="21" t="s">
-        <v>349</v>
-      </c>
+      <c r="BJ43" s="21"/>
+      <c r="BK43" s="21"/>
       <c r="BL43" s="21"/>
       <c r="BM43" s="21"/>
       <c r="BN43" s="21"/>
@@ -13250,7 +13508,7 @@
       </c>
       <c r="DD43" s="21"/>
       <c r="DE43" s="21"/>
-      <c r="DF43" s="88"/>
+      <c r="DF43" s="87"/>
       <c r="DG43" s="21"/>
       <c r="DH43" s="21"/>
       <c r="DI43" s="21"/>
@@ -13260,14 +13518,14 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="DG44" s="26"/>
       <c r="DH44" s="26"/>
@@ -13278,14 +13536,14 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -13294,7 +13552,7 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
@@ -13302,9 +13560,7 @@
       <c r="P45" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="22" t="s">
-        <v>343</v>
-      </c>
+      <c r="Q45" s="22"/>
       <c r="R45" s="23" t="s">
         <v>284</v>
       </c>
@@ -13334,7 +13590,7 @@
         <v>23</v>
       </c>
       <c r="AD45" s="24" t="s">
-        <v>350</v>
+        <v>689</v>
       </c>
       <c r="AE45" s="21" t="s">
         <v>29</v>
@@ -13464,14 +13720,14 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -13480,19 +13736,17 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="N46" s="21"/>
       <c r="O46" s="22"/>
       <c r="P46" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q46" s="22" t="s">
-        <v>343</v>
-      </c>
+      <c r="Q46" s="22"/>
       <c r="R46" s="23" t="s">
         <v>284</v>
       </c>
@@ -13522,7 +13776,7 @@
         <v>23</v>
       </c>
       <c r="AD46" s="24" t="s">
-        <v>350</v>
+        <v>689</v>
       </c>
       <c r="AE46" s="21" t="s">
         <v>29</v>
@@ -13645,7 +13899,7 @@
       </c>
       <c r="DD46" s="21"/>
       <c r="DE46" s="21"/>
-      <c r="DF46" s="88"/>
+      <c r="DF46" s="87"/>
       <c r="DG46" s="21"/>
       <c r="DH46" s="21"/>
       <c r="DI46" s="21"/>
@@ -13655,26 +13909,26 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F47" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="G47" s="49" t="s">
         <v>467</v>
-      </c>
-      <c r="G47" s="49" t="s">
-        <v>468</v>
       </c>
       <c r="H47" s="49" t="s">
         <v>431</v>
       </c>
       <c r="I47" s="49" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J47" s="49"/>
       <c r="K47" s="49"/>
@@ -13687,17 +13941,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F48" s="49" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="DG48" s="26"/>
       <c r="DH48" s="26"/>
@@ -13708,17 +13962,17 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="DG49" s="26"/>
       <c r="DH49" s="26"/>
@@ -13729,19 +13983,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F50" s="49"/>
       <c r="DG50" s="26"/>
       <c r="DH50" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="DI50" s="26"/>
     </row>
@@ -13750,20 +14004,20 @@
         <v>50</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F51" s="49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G51" s="49" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="DG51" s="26"/>
       <c r="DH51" s="26"/>
@@ -13774,14 +14028,14 @@
         <v>51</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -13965,7 +14219,7 @@
       <c r="DE52" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="DF52" s="89" t="s">
+      <c r="DF52" s="88" t="s">
         <v>362</v>
       </c>
       <c r="DG52" s="26"/>
@@ -13977,14 +14231,14 @@
         <v>52</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -13993,7 +14247,7 @@
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M53" s="21"/>
       <c r="N53" s="21"/>
@@ -14164,7 +14418,7 @@
       </c>
       <c r="DD53" s="21"/>
       <c r="DE53" s="21"/>
-      <c r="DF53" s="88"/>
+      <c r="DF53" s="87"/>
       <c r="DG53" s="21"/>
       <c r="DH53" s="21"/>
       <c r="DI53" s="21"/>
@@ -14173,18 +14427,18 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="86" t="s">
-        <v>481</v>
+      <c r="B54" s="85" t="s">
+        <v>480</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -14192,7 +14446,7 @@
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
       <c r="L54" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M54" s="21"/>
       <c r="N54" s="21"/>
@@ -14364,17 +14618,17 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="DG55" s="26"/>
       <c r="DH55" s="26"/>
@@ -14385,17 +14639,17 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="DG56" s="26"/>
       <c r="DH56" s="26"/>
@@ -14405,18 +14659,18 @@
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="82" t="s">
-        <v>491</v>
+      <c r="B57" s="81" t="s">
+        <v>490</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L57" s="21" t="s">
         <v>401</v>
@@ -14569,20 +14823,20 @@
         <v>57</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F58" s="49" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG58" s="22" t="s">
         <v>493</v>
-      </c>
-      <c r="AG58" s="22" t="s">
-        <v>494</v>
       </c>
       <c r="DG58" s="26"/>
       <c r="DH58" s="26"/>
@@ -14593,14 +14847,14 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -14609,7 +14863,7 @@
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
       <c r="L59" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M59" s="21"/>
       <c r="N59" s="21"/>
@@ -14793,17 +15047,17 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C60" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="DG60" s="26"/>
       <c r="DH60" s="26"/>
@@ -14814,7 +15068,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>27</v>
@@ -14823,10 +15077,10 @@
         <v>83</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
@@ -14834,7 +15088,7 @@
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
       <c r="L61" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M61" s="21"/>
       <c r="N61" s="21"/>
@@ -14999,7 +15253,7 @@
       </c>
       <c r="DD61" s="21"/>
       <c r="DE61" s="21"/>
-      <c r="DF61" s="88"/>
+      <c r="DF61" s="87"/>
       <c r="DG61" s="21"/>
       <c r="DH61" s="21"/>
       <c r="DI61" s="21"/>
@@ -15009,19 +15263,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F62" s="49" t="s">
+        <v>503</v>
+      </c>
+      <c r="L62" s="21" t="s">
         <v>504</v>
-      </c>
-      <c r="L62" s="21" t="s">
-        <v>505</v>
       </c>
       <c r="M62" s="21"/>
       <c r="N62" s="21"/>
@@ -15180,7 +15434,7 @@
       </c>
       <c r="DD62" s="21"/>
       <c r="DE62" s="21"/>
-      <c r="DF62" s="88"/>
+      <c r="DF62" s="87"/>
       <c r="DG62" s="21"/>
       <c r="DH62" s="21"/>
       <c r="DI62" s="21"/>
@@ -15223,16 +15477,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
@@ -15334,7 +15588,7 @@
       <c r="DC63" s="21"/>
       <c r="DD63" s="21"/>
       <c r="DE63" s="21"/>
-      <c r="DF63" s="88"/>
+      <c r="DF63" s="87"/>
       <c r="DG63" s="21"/>
       <c r="DH63" s="21"/>
       <c r="DI63" s="21"/>
@@ -15377,16 +15631,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="DG64" s="26"/>
       <c r="DH64" s="26"/>
@@ -15397,16 +15651,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="DG65" s="26"/>
       <c r="DH65" s="26"/>
@@ -15417,14 +15671,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -15433,7 +15687,7 @@
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
       <c r="L66" s="21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M66" s="21"/>
       <c r="N66" s="21"/>
@@ -15596,7 +15850,7 @@
       </c>
       <c r="DD66" s="21"/>
       <c r="DE66" s="21"/>
-      <c r="DF66" s="88"/>
+      <c r="DF66" s="87"/>
       <c r="DG66" s="21"/>
       <c r="DH66" s="21"/>
       <c r="DI66" s="21"/>
@@ -15606,7 +15860,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>27</v>
@@ -15615,10 +15869,10 @@
         <v>83</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F67" s="49" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="DG67" s="26"/>
       <c r="DH67" s="26"/>
@@ -15629,14 +15883,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
@@ -15645,7 +15899,7 @@
       <c r="J68" s="21"/>
       <c r="K68" s="21"/>
       <c r="L68" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M68" s="21"/>
       <c r="N68" s="21"/>
@@ -15808,7 +16062,7 @@
       </c>
       <c r="DD68" s="21"/>
       <c r="DE68" s="21"/>
-      <c r="DF68" s="88"/>
+      <c r="DF68" s="87"/>
       <c r="DG68" s="21"/>
       <c r="DH68" s="21"/>
       <c r="DI68" s="21"/>
@@ -15818,14 +16072,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -15834,7 +16088,7 @@
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
       <c r="L69" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M69" s="21"/>
       <c r="N69" s="21"/>
@@ -15997,7 +16251,7 @@
       </c>
       <c r="DD69" s="21"/>
       <c r="DE69" s="21"/>
-      <c r="DF69" s="88"/>
+      <c r="DF69" s="87"/>
       <c r="DG69" s="21"/>
       <c r="DH69" s="21"/>
       <c r="DI69" s="21"/>
@@ -16007,14 +16261,14 @@
         <v>69</v>
       </c>
       <c r="B70" s="54" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
@@ -16023,7 +16277,7 @@
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
       <c r="L70" s="21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M70" s="21"/>
       <c r="N70" s="21"/>
@@ -16183,7 +16437,7 @@
       </c>
       <c r="DD70" s="21"/>
       <c r="DE70" s="21"/>
-      <c r="DF70" s="88"/>
+      <c r="DF70" s="87"/>
       <c r="DG70" s="21"/>
       <c r="DH70" s="21"/>
       <c r="DI70" s="21"/>
@@ -16206,16 +16460,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C71" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="DG71" s="26"/>
       <c r="DH71" s="26"/>
@@ -16226,16 +16480,16 @@
         <v>64</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F72" s="49" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G72" s="49"/>
       <c r="DG72" s="26"/>
@@ -16247,14 +16501,14 @@
         <v>65</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C73" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="28"/>
@@ -16263,16 +16517,16 @@
       <c r="J73" s="28"/>
       <c r="K73" s="28"/>
       <c r="L73" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M73" s="28"/>
       <c r="N73" s="28"/>
       <c r="O73" s="30"/>
       <c r="P73" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q73" s="30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="R73" s="31" t="s">
         <v>345</v>
@@ -16301,33 +16555,33 @@
         <v>23</v>
       </c>
       <c r="AD73" s="32" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AE73" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF73" s="30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AG73" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AH73" s="28"/>
       <c r="AI73" s="21" t="s">
         <v>406</v>
       </c>
       <c r="AJ73" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AK73" s="28"/>
       <c r="AL73" s="28" t="s">
         <v>21</v>
       </c>
       <c r="AM73" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AN73" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AO73" s="30">
         <v>44915</v>
@@ -16350,16 +16604,16 @@
         <v>56</v>
       </c>
       <c r="BC73" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BD73" s="28" t="s">
         <v>56</v>
       </c>
       <c r="BE73" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BF73" s="21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="BG73" s="28" t="s">
         <v>56</v>
@@ -16367,10 +16621,10 @@
       <c r="BH73" s="21"/>
       <c r="BI73" s="28"/>
       <c r="BJ73" s="21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="BK73" s="28" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BL73" s="28"/>
       <c r="BM73" s="28"/>
@@ -16413,18 +16667,18 @@
         <v>332</v>
       </c>
       <c r="CX73" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="CY73" s="30"/>
       <c r="CZ73" s="28"/>
       <c r="DA73" s="28"/>
       <c r="DB73" s="28"/>
       <c r="DC73" s="28" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="DD73" s="28"/>
       <c r="DE73" s="28"/>
-      <c r="DF73" s="90"/>
+      <c r="DF73" s="89"/>
       <c r="DG73" s="28"/>
       <c r="DH73" s="28"/>
       <c r="DI73" s="28"/>
@@ -16434,17 +16688,17 @@
         <v>66</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D74" s="26"/>
       <c r="E74" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G74" s="26"/>
       <c r="H74" s="26"/>
@@ -16553,7 +16807,7 @@
       <c r="DG74" s="21"/>
       <c r="DH74" s="21"/>
       <c r="DI74" s="21" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="DJ74" s="6"/>
       <c r="DK74" s="6"/>
@@ -16594,14 +16848,14 @@
         <v>67</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
@@ -16610,16 +16864,16 @@
       <c r="J75" s="28"/>
       <c r="K75" s="28"/>
       <c r="L75" s="28" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M75" s="28"/>
       <c r="N75" s="28"/>
       <c r="O75" s="30"/>
       <c r="P75" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q75" s="30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="R75" s="31" t="s">
         <v>345</v>
@@ -16642,33 +16896,33 @@
         <v>23</v>
       </c>
       <c r="AD75" s="32" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AE75" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF75" s="30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AG75" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AH75" s="28"/>
       <c r="AI75" s="21" t="s">
         <v>406</v>
       </c>
       <c r="AJ75" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AK75" s="28"/>
       <c r="AL75" s="28" t="s">
         <v>21</v>
       </c>
       <c r="AM75" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AN75" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AO75" s="30">
         <v>44915</v>
@@ -16691,16 +16945,16 @@
         <v>56</v>
       </c>
       <c r="BC75" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BD75" s="28" t="s">
         <v>56</v>
       </c>
       <c r="BE75" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BF75" s="21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="BG75" s="28" t="s">
         <v>56</v>
@@ -16708,10 +16962,10 @@
       <c r="BH75" s="21"/>
       <c r="BI75" s="28"/>
       <c r="BJ75" s="21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="BK75" s="28" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BL75" s="28"/>
       <c r="BM75" s="28"/>
@@ -16754,18 +17008,18 @@
         <v>332</v>
       </c>
       <c r="CX75" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="CY75" s="30"/>
       <c r="CZ75" s="28"/>
       <c r="DA75" s="28"/>
       <c r="DB75" s="28"/>
       <c r="DC75" s="28" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="DD75" s="28"/>
       <c r="DE75" s="28"/>
-      <c r="DF75" s="90"/>
+      <c r="DF75" s="89"/>
       <c r="DG75" s="28"/>
       <c r="DH75" s="28"/>
       <c r="DI75" s="28"/>
@@ -16775,14 +17029,14 @@
         <v>68</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C76" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="28"/>
@@ -16791,18 +17045,18 @@
       <c r="J76" s="28"/>
       <c r="K76" s="28"/>
       <c r="L76" s="28" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M76" s="32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N76" s="28"/>
       <c r="O76" s="30"/>
       <c r="P76" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q76" s="30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="R76" s="31" t="s">
         <v>345</v>
@@ -16825,23 +17079,23 @@
         <v>23</v>
       </c>
       <c r="AD76" s="32" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AE76" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF76" s="30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AG76" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AH76" s="28"/>
       <c r="AI76" s="21" t="s">
         <v>406</v>
       </c>
       <c r="AJ76" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AK76" s="28"/>
       <c r="AL76" s="28" t="s">
@@ -16857,10 +17111,10 @@
         <v>44915</v>
       </c>
       <c r="AP76" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AQ76" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AR76" s="30">
         <v>44915</v>
@@ -16927,18 +17181,18 @@
         <v>332</v>
       </c>
       <c r="CX76" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="CY76" s="30"/>
       <c r="CZ76" s="28"/>
       <c r="DA76" s="28"/>
       <c r="DB76" s="28"/>
       <c r="DC76" s="28" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="DD76" s="28"/>
       <c r="DE76" s="28"/>
-      <c r="DF76" s="90"/>
+      <c r="DF76" s="89"/>
       <c r="DG76" s="28"/>
       <c r="DH76" s="28"/>
       <c r="DI76" s="28"/>
@@ -16948,14 +17202,14 @@
         <v>69</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C77" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="28"/>
@@ -16964,18 +17218,18 @@
       <c r="J77" s="28"/>
       <c r="K77" s="28"/>
       <c r="L77" s="28" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M77" s="32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N77" s="28"/>
       <c r="O77" s="30"/>
       <c r="P77" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q77" s="30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="R77" s="31" t="s">
         <v>345</v>
@@ -16998,13 +17252,13 @@
         <v>23</v>
       </c>
       <c r="AD77" s="32" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AE77" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AF77" s="30" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG77" s="30"/>
       <c r="AH77" s="28"/>
@@ -17012,17 +17266,17 @@
         <v>406</v>
       </c>
       <c r="AJ77" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AK77" s="28"/>
       <c r="AL77" s="28" t="s">
         <v>21</v>
       </c>
       <c r="AM77" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AN77" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AO77" s="30">
         <v>44915</v>
@@ -17092,18 +17346,18 @@
         <v>332</v>
       </c>
       <c r="CX77" s="30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="CY77" s="30"/>
       <c r="CZ77" s="28"/>
       <c r="DA77" s="28"/>
       <c r="DB77" s="28"/>
       <c r="DC77" s="28" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="DD77" s="28"/>
       <c r="DE77" s="28"/>
-      <c r="DF77" s="90"/>
+      <c r="DF77" s="89"/>
       <c r="DG77" s="28"/>
       <c r="DH77" s="28"/>
       <c r="DI77" s="28"/>
@@ -17113,14 +17367,14 @@
         <v>70</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C78" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
@@ -17129,10 +17383,10 @@
       <c r="J78" s="21"/>
       <c r="K78" s="21"/>
       <c r="L78" s="21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N78" s="21"/>
       <c r="O78" s="22"/>
@@ -17169,7 +17423,7 @@
         <v>23</v>
       </c>
       <c r="AD78" s="24" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AE78" s="21" t="s">
         <v>29</v>
@@ -17225,10 +17479,10 @@
       <c r="BH78" s="21"/>
       <c r="BI78" s="21"/>
       <c r="BJ78" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="BK78" s="21" t="s">
         <v>589</v>
-      </c>
-      <c r="BK78" s="21" t="s">
-        <v>591</v>
       </c>
       <c r="BL78" s="21"/>
       <c r="BM78" s="21"/>
@@ -17284,7 +17538,7 @@
       </c>
       <c r="DD78" s="21"/>
       <c r="DE78" s="21"/>
-      <c r="DF78" s="88"/>
+      <c r="DF78" s="87"/>
       <c r="DG78" s="21"/>
       <c r="DH78" s="21"/>
       <c r="DI78" s="21"/>
@@ -17294,14 +17548,14 @@
         <v>71</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
@@ -17310,7 +17564,7 @@
       <c r="J79" s="21"/>
       <c r="K79" s="21"/>
       <c r="L79" s="21" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M79" s="21"/>
       <c r="N79" s="21"/>
@@ -17348,7 +17602,7 @@
         <v>23</v>
       </c>
       <c r="AD79" s="24" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AE79" s="21" t="s">
         <v>29</v>
@@ -17404,10 +17658,10 @@
       <c r="BH79" s="21"/>
       <c r="BI79" s="21"/>
       <c r="BJ79" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="BK79" s="21" t="s">
         <v>589</v>
-      </c>
-      <c r="BK79" s="21" t="s">
-        <v>591</v>
       </c>
       <c r="BL79" s="21"/>
       <c r="BM79" s="21"/>
@@ -17465,7 +17719,7 @@
       </c>
       <c r="DD79" s="21"/>
       <c r="DE79" s="21"/>
-      <c r="DF79" s="88"/>
+      <c r="DF79" s="87"/>
       <c r="DG79" s="21"/>
       <c r="DH79" s="21"/>
       <c r="DI79" s="21"/>
@@ -17475,14 +17729,14 @@
         <v>72</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
@@ -17491,7 +17745,7 @@
       <c r="J80" s="21"/>
       <c r="K80" s="21"/>
       <c r="L80" s="21" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M80" s="21"/>
       <c r="N80" s="21"/>
@@ -17592,7 +17846,7 @@
       <c r="DC80" s="21"/>
       <c r="DD80" s="21"/>
       <c r="DE80" s="21"/>
-      <c r="DF80" s="88"/>
+      <c r="DF80" s="87"/>
       <c r="DG80" s="21"/>
       <c r="DH80" s="21"/>
       <c r="DI80" s="21"/>
@@ -17602,14 +17856,14 @@
         <v>73</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C81" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
@@ -17618,7 +17872,7 @@
       <c r="J81" s="21"/>
       <c r="K81" s="21"/>
       <c r="L81" s="21" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M81" s="21"/>
       <c r="N81" s="21"/>
@@ -17719,7 +17973,7 @@
       <c r="DC81" s="21"/>
       <c r="DD81" s="21"/>
       <c r="DE81" s="21"/>
-      <c r="DF81" s="88"/>
+      <c r="DF81" s="87"/>
       <c r="DG81" s="21"/>
       <c r="DH81" s="21"/>
       <c r="DI81" s="21"/>
@@ -17729,14 +17983,14 @@
         <v>74</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C82" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
@@ -17745,7 +17999,7 @@
       <c r="J82" s="21"/>
       <c r="K82" s="21"/>
       <c r="L82" s="21" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M82" s="21"/>
       <c r="N82" s="21"/>
@@ -17768,7 +18022,7 @@
         <v>8</v>
       </c>
       <c r="Y82" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Z82" s="21"/>
       <c r="AA82" s="21"/>
@@ -17825,10 +18079,10 @@
       <c r="BH82" s="21"/>
       <c r="BI82" s="21"/>
       <c r="BJ82" s="21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="BK82" s="21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="BL82" s="21"/>
       <c r="BM82" s="21"/>
@@ -17884,7 +18138,7 @@
       </c>
       <c r="DD82" s="21"/>
       <c r="DE82" s="21"/>
-      <c r="DF82" s="88"/>
+      <c r="DF82" s="87"/>
       <c r="DG82" s="21"/>
       <c r="DH82" s="21"/>
       <c r="DI82" s="21"/>
@@ -17894,14 +18148,14 @@
         <v>75</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C83" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
@@ -17910,7 +18164,7 @@
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
       <c r="L83" s="21" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M83" s="21"/>
       <c r="N83" s="21"/>
@@ -17942,7 +18196,7 @@
         <v>23</v>
       </c>
       <c r="AD83" s="24" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AE83" s="21" t="s">
         <v>29</v>
@@ -17992,10 +18246,10 @@
       <c r="BH83" s="21"/>
       <c r="BI83" s="21"/>
       <c r="BJ83" s="21" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="BK83" s="21" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="BL83" s="21"/>
       <c r="BM83" s="21"/>
@@ -18053,7 +18307,7 @@
       </c>
       <c r="DD83" s="21"/>
       <c r="DE83" s="21"/>
-      <c r="DF83" s="88"/>
+      <c r="DF83" s="87"/>
       <c r="DG83" s="21"/>
       <c r="DH83" s="21"/>
       <c r="DI83" s="21"/>
@@ -18063,14 +18317,14 @@
         <v>76</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
@@ -18079,10 +18333,10 @@
       <c r="J84" s="21"/>
       <c r="K84" s="21"/>
       <c r="L84" s="21" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="M84" s="21" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N84" s="21"/>
       <c r="O84" s="22"/>
@@ -18101,7 +18355,7 @@
       <c r="AB84" s="21"/>
       <c r="AC84" s="21"/>
       <c r="AD84" s="24" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AE84" s="21"/>
       <c r="AF84" s="22"/>
@@ -18135,10 +18389,10 @@
       <c r="BH84" s="21"/>
       <c r="BI84" s="21"/>
       <c r="BJ84" s="21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="BK84" s="21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="BL84" s="21"/>
       <c r="BM84" s="21"/>
@@ -18196,7 +18450,7 @@
       </c>
       <c r="DD84" s="21"/>
       <c r="DE84" s="21"/>
-      <c r="DF84" s="88"/>
+      <c r="DF84" s="87"/>
       <c r="DG84" s="21"/>
       <c r="DH84" s="21"/>
       <c r="DI84" s="21"/>
@@ -18206,14 +18460,14 @@
         <v>77</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C85" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
@@ -18222,15 +18476,15 @@
       <c r="J85" s="21"/>
       <c r="K85" s="21"/>
       <c r="L85" s="21" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="M85" s="21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="N85" s="21"/>
       <c r="O85" s="22"/>
       <c r="P85" s="21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q85" s="22">
         <v>44928</v>
@@ -18247,7 +18501,7 @@
         <v>8</v>
       </c>
       <c r="Y85" s="21" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="Z85" s="21"/>
       <c r="AA85" s="21"/>
@@ -18256,7 +18510,7 @@
         <v>11010</v>
       </c>
       <c r="AD85" s="24" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AE85" s="21" t="s">
         <v>29</v>
@@ -18304,10 +18558,10 @@
       <c r="BH85" s="21"/>
       <c r="BI85" s="21"/>
       <c r="BJ85" s="21" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="BK85" s="21" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="BL85" s="21"/>
       <c r="BM85" s="21"/>
@@ -18365,7 +18619,7 @@
       </c>
       <c r="DD85" s="21"/>
       <c r="DE85" s="21"/>
-      <c r="DF85" s="88"/>
+      <c r="DF85" s="87"/>
       <c r="DG85" s="21"/>
       <c r="DH85" s="21"/>
       <c r="DI85" s="21"/>
@@ -18375,35 +18629,35 @@
         <v>78</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C86" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F86" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="H86" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="G86" s="24" t="s">
+      <c r="I86" s="24" t="s">
         <v>621</v>
-      </c>
-      <c r="H86" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="I86" s="24" t="s">
-        <v>623</v>
       </c>
       <c r="J86" s="24" t="s">
         <v>431</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="L86" s="21" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="M86" s="21"/>
       <c r="N86" s="21"/>
@@ -18502,7 +18756,7 @@
       <c r="DC86" s="21"/>
       <c r="DD86" s="21"/>
       <c r="DE86" s="21"/>
-      <c r="DF86" s="88"/>
+      <c r="DF86" s="87"/>
       <c r="DG86" s="21"/>
       <c r="DH86" s="21"/>
       <c r="DI86" s="21"/>
@@ -18512,17 +18766,17 @@
         <v>79</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C87" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G87" s="24"/>
       <c r="H87" s="24"/>
@@ -18530,7 +18784,7 @@
       <c r="J87" s="24"/>
       <c r="K87" s="24"/>
       <c r="L87" s="21" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="M87" s="21" t="s">
         <v>441</v>
@@ -18635,9 +18889,9 @@
       <c r="DC87" s="21"/>
       <c r="DD87" s="21"/>
       <c r="DE87" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="DF87" s="88"/>
+        <v>627</v>
+      </c>
+      <c r="DF87" s="87"/>
       <c r="DG87" s="21"/>
       <c r="DH87" s="21"/>
       <c r="DI87" s="21"/>
@@ -18647,17 +18901,17 @@
         <v>80</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
@@ -18665,7 +18919,7 @@
       <c r="J88" s="24"/>
       <c r="K88" s="24"/>
       <c r="L88" s="21" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="M88" s="21" t="s">
         <v>430</v>
@@ -18770,7 +19024,7 @@
       <c r="DC88" s="21"/>
       <c r="DD88" s="21"/>
       <c r="DE88" s="22"/>
-      <c r="DF88" s="88"/>
+      <c r="DF88" s="87"/>
       <c r="DG88" s="21"/>
       <c r="DH88" s="21"/>
       <c r="DI88" s="21"/>
@@ -18780,17 +19034,17 @@
         <v>81</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="C89" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="G89" s="24"/>
       <c r="H89" s="24"/>
@@ -18798,13 +19052,13 @@
       <c r="J89" s="24"/>
       <c r="K89" s="24"/>
       <c r="L89" s="21" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="M89" s="21"/>
       <c r="N89" s="21"/>
       <c r="O89" s="22"/>
       <c r="P89" s="21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q89" s="22">
         <v>44930</v>
@@ -18821,7 +19075,7 @@
         <v>8</v>
       </c>
       <c r="Y89" s="21" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="Z89" s="21"/>
       <c r="AA89" s="21"/>
@@ -18830,7 +19084,7 @@
         <v>23</v>
       </c>
       <c r="AD89" s="24" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="AE89" s="21" t="s">
         <v>29</v>
@@ -18941,7 +19195,7 @@
       </c>
       <c r="DD89" s="21"/>
       <c r="DE89" s="22"/>
-      <c r="DF89" s="88"/>
+      <c r="DF89" s="87"/>
       <c r="DG89" s="21"/>
       <c r="DH89" s="21"/>
       <c r="DI89" s="21"/>
@@ -18951,14 +19205,14 @@
         <v>82</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
@@ -18967,10 +19221,10 @@
       <c r="J90" s="21"/>
       <c r="K90" s="21"/>
       <c r="L90" s="21" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="M90" s="32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N90" s="21"/>
       <c r="O90" s="22"/>
@@ -19130,7 +19384,7 @@
       </c>
       <c r="DD90" s="28"/>
       <c r="DE90" s="28"/>
-      <c r="DF90" s="90"/>
+      <c r="DF90" s="89"/>
       <c r="DG90" s="28"/>
       <c r="DH90" s="28"/>
       <c r="DI90" s="28"/>
@@ -19150,8 +19404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
-    <sheetView topLeftCell="E27" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19223,10 +19477,10 @@
         <v>411</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -19378,23 +19632,23 @@
       <c r="BD1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BE1" s="94" t="s">
-        <v>532</v>
-      </c>
-      <c r="BF1" s="94" t="s">
-        <v>534</v>
-      </c>
-      <c r="BG1" s="95" t="s">
+      <c r="BE1" s="93" t="s">
+        <v>531</v>
+      </c>
+      <c r="BF1" s="93" t="s">
+        <v>533</v>
+      </c>
+      <c r="BG1" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="BH1" s="95" t="s">
+      <c r="BH1" s="94" t="s">
         <v>309</v>
       </c>
-      <c r="BI1" s="95" t="s">
+      <c r="BI1" s="94" t="s">
         <v>339</v>
       </c>
-      <c r="BJ1" s="95" t="s">
-        <v>548</v>
+      <c r="BJ1" s="94" t="s">
+        <v>547</v>
       </c>
       <c r="BK1" s="13"/>
       <c r="BL1" s="13"/>
@@ -19413,7 +19667,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>46</v>
@@ -19481,7 +19735,7 @@
       <c r="BA2" s="13"/>
       <c r="BB2" s="13"/>
       <c r="BC2" s="13"/>
-      <c r="BD2" s="92"/>
+      <c r="BD2" s="91"/>
       <c r="BE2" s="13"/>
       <c r="BF2" s="13"/>
       <c r="BG2" s="13"/>
@@ -19505,7 +19759,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>46</v>
@@ -19575,7 +19829,7 @@
       <c r="BA3" s="13"/>
       <c r="BB3" s="13"/>
       <c r="BC3" s="13"/>
-      <c r="BD3" s="92"/>
+      <c r="BD3" s="91"/>
       <c r="BE3" s="13"/>
       <c r="BF3" s="13"/>
       <c r="BG3" s="13"/>
@@ -19599,7 +19853,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>46</v>
@@ -19671,7 +19925,7 @@
       <c r="BA4" s="13"/>
       <c r="BB4" s="13"/>
       <c r="BC4" s="13"/>
-      <c r="BD4" s="92"/>
+      <c r="BD4" s="91"/>
       <c r="BE4" s="13"/>
       <c r="BF4" s="13"/>
       <c r="BG4" s="13"/>
@@ -19695,7 +19949,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>46</v>
@@ -19763,7 +20017,7 @@
       <c r="BA5" s="13"/>
       <c r="BB5" s="13"/>
       <c r="BC5" s="13"/>
-      <c r="BD5" s="92"/>
+      <c r="BD5" s="91"/>
       <c r="BE5" s="13"/>
       <c r="BF5" s="13"/>
       <c r="BG5" s="13"/>
@@ -19787,7 +20041,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>46</v>
@@ -19861,7 +20115,7 @@
       <c r="BA6" s="13"/>
       <c r="BB6" s="13"/>
       <c r="BC6" s="13"/>
-      <c r="BD6" s="92"/>
+      <c r="BD6" s="91"/>
       <c r="BE6" s="13"/>
       <c r="BF6" s="13"/>
       <c r="BG6" s="13"/>
@@ -19885,7 +20139,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>46</v>
@@ -19959,7 +20213,7 @@
       <c r="BA7" s="13"/>
       <c r="BB7" s="13"/>
       <c r="BC7" s="13"/>
-      <c r="BD7" s="92"/>
+      <c r="BD7" s="91"/>
       <c r="BE7" s="13"/>
       <c r="BF7" s="13"/>
       <c r="BG7" s="13"/>
@@ -19983,7 +20237,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>46</v>
@@ -20049,7 +20303,7 @@
       <c r="BA8" s="13"/>
       <c r="BB8" s="13"/>
       <c r="BC8" s="13"/>
-      <c r="BD8" s="92"/>
+      <c r="BD8" s="91"/>
       <c r="BE8" s="13"/>
       <c r="BF8" s="13"/>
       <c r="BG8" s="13"/>
@@ -20073,7 +20327,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>46</v>
@@ -20151,7 +20405,7 @@
       <c r="BA9" s="13"/>
       <c r="BB9" s="13"/>
       <c r="BC9" s="13"/>
-      <c r="BD9" s="92"/>
+      <c r="BD9" s="91"/>
       <c r="BE9" s="13"/>
       <c r="BF9" s="13"/>
       <c r="BG9" s="13"/>
@@ -20175,7 +20429,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>46</v>
@@ -20245,7 +20499,7 @@
       <c r="BA10" s="13"/>
       <c r="BB10" s="13"/>
       <c r="BC10" s="13"/>
-      <c r="BD10" s="92"/>
+      <c r="BD10" s="91"/>
       <c r="BE10" s="13"/>
       <c r="BF10" s="13"/>
       <c r="BG10" s="13"/>
@@ -20269,7 +20523,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>46</v>
@@ -20335,7 +20589,7 @@
       <c r="BA11" s="13"/>
       <c r="BB11" s="13"/>
       <c r="BC11" s="13"/>
-      <c r="BD11" s="92"/>
+      <c r="BD11" s="91"/>
       <c r="BE11" s="13"/>
       <c r="BF11" s="13"/>
       <c r="BG11" s="13"/>
@@ -20359,7 +20613,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>46</v>
@@ -20431,7 +20685,7 @@
       <c r="BA12" s="13"/>
       <c r="BB12" s="13"/>
       <c r="BC12" s="13"/>
-      <c r="BD12" s="92"/>
+      <c r="BD12" s="91"/>
       <c r="BE12" s="13"/>
       <c r="BF12" s="13"/>
       <c r="BG12" s="13"/>
@@ -20445,7 +20699,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="78" t="s">
         <v>175</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -20457,7 +20711,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>46</v>
@@ -20531,7 +20785,7 @@
       <c r="BA13" s="13"/>
       <c r="BB13" s="13"/>
       <c r="BC13" s="13"/>
-      <c r="BD13" s="92"/>
+      <c r="BD13" s="91"/>
       <c r="BE13" s="13"/>
       <c r="BF13" s="13"/>
       <c r="BG13" s="13"/>
@@ -20555,7 +20809,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>46</v>
@@ -20627,7 +20881,7 @@
       <c r="BA14" s="13"/>
       <c r="BB14" s="13"/>
       <c r="BC14" s="13"/>
-      <c r="BD14" s="92"/>
+      <c r="BD14" s="91"/>
       <c r="BE14" s="13"/>
       <c r="BF14" s="13"/>
       <c r="BG14" s="13"/>
@@ -20651,7 +20905,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
       <c r="G15" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H15" s="34" t="s">
         <v>46</v>
@@ -20775,7 +21029,7 @@
       <c r="BC15" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="BD15" s="93" t="s">
+      <c r="BD15" s="92" t="s">
         <v>56</v>
       </c>
       <c r="BE15" s="34"/>
@@ -20801,7 +21055,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>46</v>
@@ -20887,7 +21141,7 @@
       <c r="BA16" s="13"/>
       <c r="BB16" s="13"/>
       <c r="BC16" s="13"/>
-      <c r="BD16" s="92"/>
+      <c r="BD16" s="91"/>
       <c r="BE16" s="13"/>
       <c r="BF16" s="13"/>
       <c r="BG16" s="13"/>
@@ -20902,7 +21156,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>139</v>
@@ -20911,7 +21165,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>46</v>
@@ -20925,7 +21179,7 @@
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>133</v>
@@ -20985,7 +21239,7 @@
       <c r="BA17" s="13"/>
       <c r="BB17" s="13"/>
       <c r="BC17" s="13"/>
-      <c r="BD17" s="92"/>
+      <c r="BD17" s="91"/>
       <c r="BE17" s="13"/>
       <c r="BF17" s="13"/>
       <c r="BG17" s="13"/>
@@ -21000,7 +21254,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>124</v>
@@ -21009,7 +21263,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>46</v>
@@ -21041,7 +21295,7 @@
       </c>
       <c r="V18" s="13"/>
       <c r="W18" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X18" s="15" t="s">
         <v>185</v>
@@ -21081,7 +21335,7 @@
       <c r="BA18" s="13"/>
       <c r="BB18" s="13"/>
       <c r="BC18" s="13"/>
-      <c r="BD18" s="92"/>
+      <c r="BD18" s="91"/>
       <c r="BE18" s="13"/>
       <c r="BF18" s="13"/>
       <c r="BG18" s="13"/>
@@ -21096,7 +21350,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>124</v>
@@ -21105,10 +21359,10 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="W19" s="57" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="BE19" s="13"/>
       <c r="BF19" s="13"/>
@@ -21124,7 +21378,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>124</v>
@@ -21133,10 +21387,10 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="W20" s="57" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BE20" s="13"/>
       <c r="BF20" s="13"/>
@@ -21152,7 +21406,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>124</v>
@@ -21161,10 +21415,10 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="W21" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BE21" s="13"/>
       <c r="BF21" s="13"/>
@@ -21179,8 +21433,8 @@
       <c r="A22" s="56">
         <v>21</v>
       </c>
-      <c r="B22" s="80" t="s">
-        <v>531</v>
+      <c r="B22" s="79" t="s">
+        <v>530</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>124</v>
@@ -21189,13 +21443,13 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="W22" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BE22" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="BF22" s="13" t="s">
         <v>98</v>
@@ -21212,7 +21466,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>124</v>
@@ -21221,7 +21475,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>46</v>
@@ -21239,7 +21493,7 @@
         <v>169</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N23" s="22" t="s">
         <v>343</v>
@@ -21307,7 +21561,7 @@
       <c r="BA23" s="13"/>
       <c r="BB23" s="13"/>
       <c r="BC23" s="13"/>
-      <c r="BD23" s="92"/>
+      <c r="BD23" s="91"/>
       <c r="BE23" s="13"/>
       <c r="BF23" s="13"/>
       <c r="BG23" s="13"/>
@@ -21322,7 +21576,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>124</v>
@@ -21331,7 +21585,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>46</v>
@@ -21349,7 +21603,7 @@
         <v>169</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>343</v>
@@ -21417,7 +21671,7 @@
       <c r="BA24" s="13"/>
       <c r="BB24" s="13"/>
       <c r="BC24" s="13"/>
-      <c r="BD24" s="92"/>
+      <c r="BD24" s="91"/>
       <c r="BE24" s="13"/>
       <c r="BF24" s="13"/>
       <c r="BG24" s="13"/>
@@ -21432,7 +21686,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>124</v>
@@ -21441,7 +21695,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>46</v>
@@ -21453,7 +21707,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>343</v>
@@ -21465,7 +21719,7 @@
         <v>382</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R25" s="22" t="s">
         <v>382</v>
@@ -21521,7 +21775,7 @@
       <c r="BA25" s="13"/>
       <c r="BB25" s="13"/>
       <c r="BC25" s="13"/>
-      <c r="BD25" s="92"/>
+      <c r="BD25" s="91"/>
       <c r="BE25" s="13"/>
       <c r="BF25" s="13"/>
       <c r="BG25" s="13"/>
@@ -21536,7 +21790,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>124</v>
@@ -21545,10 +21799,10 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="M26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="BE26" s="13"/>
       <c r="BF26" s="13"/>
@@ -21564,7 +21818,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>124</v>
@@ -21573,7 +21827,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="BE27" s="13"/>
       <c r="BF27" s="13"/>
@@ -21589,7 +21843,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>124</v>
@@ -21604,18 +21858,18 @@
         <v>27</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="BE28" s="13"/>
       <c r="BF28" s="13"/>
       <c r="BG28" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="BH28" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="BH28" s="15" t="s">
+      <c r="BI28" s="15" t="s">
         <v>546</v>
-      </c>
-      <c r="BI28" s="15" t="s">
-        <v>547</v>
       </c>
       <c r="BJ28" s="13" t="s">
         <v>349</v>
@@ -21628,7 +21882,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>124</v>
@@ -21637,10 +21891,10 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13" t="s">
@@ -21650,7 +21904,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="22" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O29" s="13"/>
       <c r="P29" s="22"/>
@@ -21661,17 +21915,17 @@
       <c r="U29" s="14"/>
       <c r="V29" s="13"/>
       <c r="W29" s="15" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AB29" s="13"/>
       <c r="AC29" s="14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
@@ -21701,7 +21955,7 @@
       <c r="BA29" s="13"/>
       <c r="BB29" s="13"/>
       <c r="BC29" s="13"/>
-      <c r="BD29" s="92"/>
+      <c r="BD29" s="91"/>
       <c r="BE29" s="13"/>
       <c r="BF29" s="13"/>
       <c r="BG29" s="13"/>
@@ -21825,7 +22079,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="13" t="s">
@@ -21866,7 +22120,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="13" t="s">
@@ -21916,7 +22170,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="13" t="s">
@@ -21963,7 +22217,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="13" t="s">
@@ -22004,7 +22258,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="13" t="s">
@@ -22045,7 +22299,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>328</v>
@@ -22076,7 +22330,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>328</v>
@@ -22107,7 +22361,7 @@
         <v>83</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
@@ -22154,7 +22408,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
@@ -22195,12 +22449,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22438,20 +22692,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22477,9 +22729,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4583C1E7-B168-4C3A-A9A2-620CB4FFEC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3BB445-D534-4E11-9EE0-62DE01321DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="700">
   <si>
     <t>UserName</t>
   </si>
@@ -2365,6 +2365,9 @@
   </si>
   <si>
     <t>2023_01_23_11_55_53</t>
+  </si>
+  <si>
+    <t>Celeberations@2023</t>
   </si>
 </sst>
 </file>
@@ -2632,7 +2635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2813,6 +2816,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3234,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,7 +3295,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>8</v>
@@ -3321,7 +3327,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>8</v>
@@ -3348,7 +3354,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>8</v>
@@ -3377,7 +3383,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>8</v>
@@ -3404,7 +3410,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>8</v>
@@ -3428,7 +3434,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>8</v>
@@ -3452,7 +3458,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>8</v>
@@ -3479,7 +3485,7 @@
         <v>74</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>8</v>
@@ -3503,7 +3509,7 @@
         <v>92</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>8</v>
@@ -3530,7 +3536,7 @@
         <v>95</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>8</v>
@@ -3557,7 +3563,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>8</v>
@@ -3584,7 +3590,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>8</v>
@@ -3608,7 +3614,7 @@
         <v>358</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>8</v>
@@ -3632,7 +3638,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>8</v>
@@ -3659,7 +3665,7 @@
         <v>89</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>8</v>
@@ -3686,7 +3692,7 @@
         <v>188</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="70" t="s">
         <v>8</v>
@@ -3710,7 +3716,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>8</v>
@@ -3734,7 +3740,7 @@
         <v>108</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>8</v>
@@ -3758,7 +3764,7 @@
         <v>359</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>8</v>
@@ -3782,7 +3788,7 @@
         <v>344</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="64" t="s">
         <v>8</v>
@@ -3809,7 +3815,7 @@
         <v>256</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>8</v>
@@ -3836,7 +3842,7 @@
         <v>255</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>8</v>
@@ -3863,7 +3869,7 @@
         <v>245</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>8</v>
@@ -3890,7 +3896,7 @@
         <v>257</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>8</v>
@@ -3917,7 +3923,7 @@
         <v>258</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>8</v>
@@ -3944,7 +3950,7 @@
         <v>259</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>8</v>
@@ -3971,7 +3977,7 @@
         <v>263</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>8</v>
@@ -3996,7 +4002,7 @@
         <v>291</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="70" t="s">
         <v>8</v>
@@ -4020,7 +4026,7 @@
         <v>408</v>
       </c>
       <c r="C30" s="99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="64" t="s">
         <v>8</v>
@@ -4045,7 +4051,7 @@
         <v>50</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="62" t="s">
         <v>47</v>
@@ -4070,7 +4076,7 @@
         <v>126</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="62" t="s">
         <v>47</v>
@@ -4095,7 +4101,7 @@
         <v>131</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="62" t="s">
         <v>47</v>
@@ -4120,7 +4126,7 @@
         <v>138</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="62" t="s">
         <v>47</v>
@@ -4145,7 +4151,7 @@
         <v>143</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="62" t="s">
         <v>47</v>
@@ -4170,7 +4176,7 @@
         <v>148</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="62" t="s">
         <v>47</v>
@@ -4195,7 +4201,7 @@
         <v>152</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="62" t="s">
         <v>47</v>
@@ -4220,7 +4226,7 @@
         <v>157</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="62" t="s">
         <v>47</v>
@@ -4245,7 +4251,7 @@
         <v>160</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="62" t="s">
         <v>47</v>
@@ -4270,7 +4276,7 @@
         <v>163</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="62" t="s">
         <v>47</v>
@@ -4295,7 +4301,7 @@
         <v>168</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="62" t="s">
         <v>47</v>
@@ -4320,7 +4326,7 @@
         <v>175</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="62" t="s">
         <v>47</v>
@@ -4345,7 +4351,7 @@
         <v>182</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="62" t="s">
         <v>47</v>
@@ -4370,7 +4376,7 @@
         <v>372</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="62" t="s">
         <v>47</v>
@@ -4395,7 +4401,7 @@
         <v>265</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="62" t="s">
         <v>47</v>
@@ -4420,7 +4426,7 @@
         <v>303</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="62" t="s">
         <v>301</v>
@@ -4447,7 +4453,7 @@
         <v>307</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="62" t="s">
         <v>301</v>
@@ -4474,7 +4480,7 @@
         <v>306</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="62" t="s">
         <v>301</v>
@@ -4501,7 +4507,7 @@
         <v>321</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="62" t="s">
         <v>301</v>
@@ -4528,7 +4534,7 @@
         <v>331</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" s="62" t="s">
         <v>301</v>
@@ -4555,7 +4561,7 @@
         <v>330</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="62" t="s">
         <v>301</v>
@@ -4580,7 +4586,7 @@
         <v>327</v>
       </c>
       <c r="C52" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="62" t="s">
         <v>301</v>
@@ -4605,7 +4611,7 @@
         <v>337</v>
       </c>
       <c r="C53" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" s="62" t="s">
         <v>301</v>
@@ -4632,7 +4638,7 @@
         <v>338</v>
       </c>
       <c r="C54" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" s="62" t="s">
         <v>301</v>
@@ -4659,7 +4665,7 @@
         <v>424</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>8</v>
@@ -4686,7 +4692,7 @@
         <v>427</v>
       </c>
       <c r="C56" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>8</v>
@@ -4711,7 +4717,7 @@
         <v>434</v>
       </c>
       <c r="C57" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>8</v>
@@ -4736,7 +4742,7 @@
         <v>435</v>
       </c>
       <c r="C58" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>8</v>
@@ -4763,7 +4769,7 @@
         <v>439</v>
       </c>
       <c r="C59" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>8</v>
@@ -4788,7 +4794,7 @@
         <v>442</v>
       </c>
       <c r="C60" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>8</v>
@@ -4813,7 +4819,7 @@
         <v>443</v>
       </c>
       <c r="C61" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>8</v>
@@ -4838,7 +4844,7 @@
         <v>448</v>
       </c>
       <c r="C62" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>8</v>
@@ -4865,7 +4871,7 @@
         <v>450</v>
       </c>
       <c r="C63" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>8</v>
@@ -4890,7 +4896,7 @@
         <v>451</v>
       </c>
       <c r="C64" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>8</v>
@@ -4915,7 +4921,7 @@
         <v>454</v>
       </c>
       <c r="C65" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>8</v>
@@ -4942,7 +4948,7 @@
         <v>457</v>
       </c>
       <c r="C66" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>8</v>
@@ -4969,7 +4975,7 @@
         <v>459</v>
       </c>
       <c r="C67" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>8</v>
@@ -4994,7 +5000,7 @@
         <v>460</v>
       </c>
       <c r="C68" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>8</v>
@@ -5021,7 +5027,7 @@
         <v>465</v>
       </c>
       <c r="C69" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>8</v>
@@ -5048,7 +5054,7 @@
         <v>464</v>
       </c>
       <c r="C70" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>8</v>
@@ -5073,7 +5079,7 @@
         <v>469</v>
       </c>
       <c r="C71" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>8</v>
@@ -5098,7 +5104,7 @@
         <v>470</v>
       </c>
       <c r="C72" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>8</v>
@@ -5123,7 +5129,7 @@
         <v>471</v>
       </c>
       <c r="C73" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>8</v>
@@ -5148,7 +5154,7 @@
         <v>474</v>
       </c>
       <c r="C74" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>8</v>
@@ -5173,7 +5179,7 @@
         <v>477</v>
       </c>
       <c r="C75" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>8</v>
@@ -5198,7 +5204,7 @@
         <v>478</v>
       </c>
       <c r="C76" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>8</v>
@@ -5225,7 +5231,7 @@
         <v>480</v>
       </c>
       <c r="C77" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>8</v>
@@ -5252,7 +5258,7 @@
         <v>483</v>
       </c>
       <c r="C78" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D78" s="25" t="s">
         <v>8</v>
@@ -5277,7 +5283,7 @@
         <v>488</v>
       </c>
       <c r="C79" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>8</v>
@@ -5302,7 +5308,7 @@
         <v>490</v>
       </c>
       <c r="C80" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>8</v>
@@ -5327,7 +5333,7 @@
         <v>491</v>
       </c>
       <c r="C81" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>8</v>
@@ -5352,7 +5358,7 @@
         <v>494</v>
       </c>
       <c r="C82" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>8</v>
@@ -5379,7 +5385,7 @@
         <v>496</v>
       </c>
       <c r="C83" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D83" s="25" t="s">
         <v>8</v>
@@ -5404,7 +5410,7 @@
         <v>498</v>
       </c>
       <c r="C84" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D84" s="25" t="s">
         <v>8</v>
@@ -5431,7 +5437,7 @@
         <v>502</v>
       </c>
       <c r="C85" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D85" s="25" t="s">
         <v>8</v>
@@ -5458,7 +5464,7 @@
         <v>505</v>
       </c>
       <c r="C86" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>8</v>
@@ -5483,7 +5489,7 @@
         <v>506</v>
       </c>
       <c r="C87" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>8</v>
@@ -5508,7 +5514,7 @@
         <v>508</v>
       </c>
       <c r="C88" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>8</v>
@@ -5533,7 +5539,7 @@
         <v>509</v>
       </c>
       <c r="C89" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>8</v>
@@ -5560,7 +5566,7 @@
         <v>511</v>
       </c>
       <c r="C90" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D90" s="25" t="s">
         <v>8</v>
@@ -5585,7 +5591,7 @@
         <v>513</v>
       </c>
       <c r="C91" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D91" s="25" t="s">
         <v>8</v>
@@ -5612,7 +5618,7 @@
         <v>515</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>8</v>
@@ -5639,7 +5645,7 @@
         <v>517</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D93" s="25" t="s">
         <v>8</v>
@@ -5666,7 +5672,7 @@
         <v>520</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D94" s="25" t="s">
         <v>8</v>
@@ -5691,7 +5697,7 @@
         <v>517</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D95" s="25" t="s">
         <v>47</v>
@@ -5714,7 +5720,7 @@
         <v>521</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D96" s="62" t="s">
         <v>47</v>
@@ -5739,7 +5745,7 @@
         <v>524</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D97" s="62" t="s">
         <v>47</v>
@@ -5764,7 +5770,7 @@
         <v>523</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D98" s="62" t="s">
         <v>47</v>
@@ -5789,7 +5795,7 @@
         <v>527</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D99" s="25" t="s">
         <v>8</v>
@@ -5814,7 +5820,7 @@
         <v>528</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D100" s="62" t="s">
         <v>47</v>
@@ -5839,7 +5845,7 @@
         <v>530</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D101" s="25" t="s">
         <v>47</v>
@@ -5864,7 +5870,7 @@
         <v>534</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D102" s="62" t="s">
         <v>47</v>
@@ -5889,7 +5895,7 @@
         <v>535</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D103" s="62" t="s">
         <v>47</v>
@@ -5914,7 +5920,7 @@
         <v>536</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D104" s="62" t="s">
         <v>47</v>
@@ -5939,7 +5945,7 @@
         <v>541</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D105" s="62" t="s">
         <v>47</v>
@@ -5964,7 +5970,7 @@
         <v>542</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D106" s="62" t="s">
         <v>47</v>
@@ -5989,7 +5995,7 @@
         <v>543</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D107" s="25" t="s">
         <v>47</v>
@@ -6014,7 +6020,7 @@
         <v>559</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>8</v>
@@ -6041,7 +6047,7 @@
         <v>565</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>8</v>
@@ -6066,7 +6072,7 @@
         <v>563</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>8</v>
@@ -6093,7 +6099,7 @@
         <v>569</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>8</v>
@@ -6120,7 +6126,7 @@
         <v>572</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>8</v>
@@ -6145,7 +6151,7 @@
         <v>580</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D113" s="95" t="s">
         <v>47</v>
@@ -6170,7 +6176,7 @@
         <v>591</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>8</v>
@@ -6193,7 +6199,7 @@
         <v>590</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>8</v>
@@ -6216,7 +6222,7 @@
         <v>594</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>8</v>
@@ -6239,7 +6245,7 @@
         <v>596</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>8</v>
@@ -6262,7 +6268,7 @@
         <v>601</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>8</v>
@@ -6285,7 +6291,7 @@
         <v>600</v>
       </c>
       <c r="C119" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>8</v>
@@ -6308,7 +6314,7 @@
         <v>607</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>8</v>
@@ -6331,7 +6337,7 @@
         <v>610</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>8</v>
@@ -6354,7 +6360,7 @@
         <v>616</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>8</v>
@@ -6377,7 +6383,7 @@
         <v>628</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>8</v>
@@ -6400,7 +6406,7 @@
         <v>638</v>
       </c>
       <c r="C124" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>8</v>
@@ -6423,7 +6429,7 @@
         <v>639</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>8</v>
@@ -6446,7 +6452,7 @@
         <v>644</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>8</v>
@@ -6479,8 +6485,8 @@
   <dimension ref="A1:EP90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10897,7 +10903,9 @@
         <v>630</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23"/>
+      <c r="E23" s="100" t="s">
+        <v>699</v>
+      </c>
       <c r="F23" s="39" t="s">
         <v>249</v>
       </c>
@@ -11030,7 +11038,9 @@
         <v>630</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24"/>
+      <c r="E24" s="100" t="s">
+        <v>699</v>
+      </c>
       <c r="F24" s="39" t="s">
         <v>249</v>
       </c>
@@ -11163,7 +11173,9 @@
         <v>630</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25"/>
+      <c r="E25" s="100" t="s">
+        <v>699</v>
+      </c>
       <c r="F25" s="39" t="s">
         <v>249</v>
       </c>
@@ -11296,7 +11308,9 @@
         <v>630</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26"/>
+      <c r="E26" s="100" t="s">
+        <v>699</v>
+      </c>
       <c r="F26" s="39" t="s">
         <v>249</v>
       </c>
@@ -11429,7 +11443,9 @@
         <v>630</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27"/>
+      <c r="E27" s="100" t="s">
+        <v>699</v>
+      </c>
       <c r="F27" s="39" t="s">
         <v>249</v>
       </c>
@@ -11564,7 +11580,9 @@
         <v>630</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28"/>
+      <c r="E28" s="100" t="s">
+        <v>699</v>
+      </c>
       <c r="F28" s="39" t="s">
         <v>249</v>
       </c>
@@ -19394,9 +19412,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="CJ22" r:id="rId1" xr:uid="{16A04B90-4C95-42FB-B108-D3A9617D5B2D}"/>
+    <hyperlink ref="E23" r:id="rId2" xr:uid="{2A122FB2-868D-450B-B003-F771A658C71E}"/>
+    <hyperlink ref="E24:E28" r:id="rId3" display="Celeberations@2023" xr:uid="{D7158371-AAF5-4F67-93A6-5BB9331F7DC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -19404,7 +19424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -22458,6 +22478,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22691,15 +22720,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
   <ds:schemaRefs>
@@ -22709,6 +22729,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22726,14 +22756,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CRM_Testdata.xlsx
+++ b/data/CRM_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8658E2C-470F-47E4-9CFD-055D8AADCC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B04C9-39BC-452F-BE89-4CBEF257C181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -2216,9 +2216,6 @@
     <t>Create Member without error</t>
   </si>
   <si>
-    <t>Premier@2023</t>
-  </si>
-  <si>
     <t>2000568635</t>
   </si>
   <si>
@@ -2388,6 +2385,9 @@
   </si>
   <si>
     <t>2023_04_05_10_09_33</t>
+  </si>
+  <si>
+    <t>Premier@2023a</t>
   </si>
 </sst>
 </file>
@@ -3274,7 +3274,7 @@
   <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,13 +3337,13 @@
         <v>61</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I2" s="43" t="s">
         <v>407</v>
@@ -3375,7 +3375,7 @@
         <v>416</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J3" s="73"/>
     </row>
@@ -3402,7 +3402,7 @@
         <v>416</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J4" s="72" t="s">
         <v>414</v>
@@ -3431,7 +3431,7 @@
         <v>416</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J5" s="73"/>
     </row>
@@ -3506,7 +3506,7 @@
         <v>416</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J8" s="73"/>
     </row>
@@ -3557,7 +3557,7 @@
         <v>416</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J10" s="73"/>
     </row>
@@ -3584,7 +3584,7 @@
         <v>416</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J11" s="73"/>
     </row>
@@ -3611,7 +3611,7 @@
         <v>416</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J12" s="73"/>
     </row>
@@ -3686,7 +3686,7 @@
         <v>416</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J15" s="73"/>
     </row>
@@ -3713,7 +3713,7 @@
         <v>416</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J16" s="73"/>
     </row>
@@ -3836,7 +3836,7 @@
         <v>416</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J21" s="75"/>
     </row>
@@ -3863,7 +3863,7 @@
         <v>416</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J22" s="73"/>
     </row>
@@ -3890,7 +3890,7 @@
         <v>416</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J23" s="73"/>
     </row>
@@ -3917,7 +3917,7 @@
         <v>416</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J24" s="73"/>
     </row>
@@ -3944,7 +3944,7 @@
         <v>416</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J25" s="73"/>
     </row>
@@ -3971,7 +3971,7 @@
         <v>416</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J26" s="73"/>
     </row>
@@ -3998,7 +3998,7 @@
         <v>416</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J27" s="73"/>
     </row>
@@ -4474,7 +4474,7 @@
         <v>416</v>
       </c>
       <c r="H46" s="62" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I46" s="62"/>
     </row>
@@ -4501,7 +4501,7 @@
         <v>416</v>
       </c>
       <c r="H47" s="62" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I47" s="62"/>
     </row>
@@ -4528,7 +4528,7 @@
         <v>416</v>
       </c>
       <c r="H48" s="62" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I48" s="62"/>
     </row>
@@ -4555,7 +4555,7 @@
         <v>416</v>
       </c>
       <c r="H49" s="62" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I49" s="62"/>
     </row>
@@ -4582,7 +4582,7 @@
         <v>416</v>
       </c>
       <c r="H50" s="62" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I50" s="62"/>
     </row>
@@ -4659,7 +4659,7 @@
         <v>416</v>
       </c>
       <c r="H53" s="62" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I53" s="62"/>
     </row>
@@ -4686,7 +4686,7 @@
         <v>416</v>
       </c>
       <c r="H54" s="61" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I54" s="61"/>
     </row>
@@ -4713,7 +4713,7 @@
         <v>416</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I55" s="34"/>
     </row>
@@ -4790,7 +4790,7 @@
         <v>416</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I58" s="34"/>
     </row>
@@ -4892,7 +4892,7 @@
         <v>416</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I62" s="34"/>
     </row>
@@ -4969,7 +4969,7 @@
         <v>416</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I65" s="34"/>
     </row>
@@ -4996,7 +4996,7 @@
         <v>416</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I66" s="34"/>
     </row>
@@ -5048,7 +5048,7 @@
         <v>416</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I68" s="34"/>
     </row>
@@ -5075,7 +5075,7 @@
         <v>416</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I69" s="34"/>
     </row>
@@ -5252,7 +5252,7 @@
         <v>416</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I76" s="34"/>
     </row>
@@ -5279,7 +5279,7 @@
         <v>416</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I77" s="34"/>
     </row>
@@ -5406,7 +5406,7 @@
         <v>416</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I82" s="34"/>
     </row>
@@ -5458,7 +5458,7 @@
         <v>416</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I84" s="34"/>
     </row>
@@ -5485,7 +5485,7 @@
         <v>416</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I85" s="34"/>
     </row>
@@ -5587,7 +5587,7 @@
         <v>416</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I89" s="34"/>
     </row>
@@ -5639,7 +5639,7 @@
         <v>416</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I91" s="34"/>
     </row>
@@ -5666,7 +5666,7 @@
         <v>416</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I92" s="34"/>
     </row>
@@ -5693,7 +5693,7 @@
         <v>416</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I93" s="34"/>
     </row>
@@ -6068,7 +6068,7 @@
         <v>416</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J108" s="73"/>
     </row>
@@ -6120,7 +6120,7 @@
         <v>416</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J110" s="73"/>
     </row>
@@ -6147,7 +6147,7 @@
         <v>416</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J111" s="73"/>
     </row>
@@ -6518,8 +6518,8 @@
   <dimension ref="A1:EP90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
@@ -7358,7 +7358,7 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>408</v>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -8854,7 +8854,7 @@
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -9425,7 +9425,7 @@
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -9809,7 +9809,7 @@
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>409</v>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
@@ -10893,10 +10893,10 @@
         <v>56</v>
       </c>
       <c r="CR22" s="13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="CS22" s="13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="CT22" s="26" t="s">
         <v>56</v>
@@ -11739,7 +11739,7 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>479</v>
@@ -11995,7 +11995,7 @@
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="DG31" s="26"/>
       <c r="DH31" s="26"/>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="L32" s="21" t="s">
         <v>419</v>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F33" s="49" t="s">
         <v>425</v>
@@ -12342,7 +12342,7 @@
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F34" s="49" t="s">
         <v>425</v>
@@ -12481,7 +12481,7 @@
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>430</v>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F36" s="49" t="s">
         <v>434</v>
@@ -12700,7 +12700,7 @@
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F37" s="49" t="s">
         <v>425</v>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F38" s="49" t="s">
         <v>438</v>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F39" s="49" t="s">
         <v>483</v>
@@ -12965,7 +12965,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F40" s="49" t="s">
         <v>438</v>
@@ -12989,7 +12989,7 @@
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -13204,7 +13204,7 @@
         <v>4</v>
       </c>
       <c r="Q42" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R42" s="23" t="s">
         <v>339</v>
@@ -13233,17 +13233,17 @@
         <v>29</v>
       </c>
       <c r="AF42" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG42" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH42" s="26"/>
       <c r="AI42" s="21" t="s">
         <v>401</v>
       </c>
       <c r="AJ42" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AK42" s="26"/>
       <c r="AL42" s="21" t="s">
@@ -13256,7 +13256,7 @@
         <v>36</v>
       </c>
       <c r="AO42" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AP42" s="22" t="s">
         <v>76</v>
@@ -13265,7 +13265,7 @@
         <v>76</v>
       </c>
       <c r="AR42" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AS42" s="26"/>
       <c r="AT42" s="26"/>
@@ -13343,10 +13343,10 @@
         <v>326</v>
       </c>
       <c r="CX42" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="CY42" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="CZ42" s="23" t="s">
         <v>255</v>
@@ -13362,7 +13362,7 @@
         <v>76</v>
       </c>
       <c r="DE42" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="DF42" s="88" t="s">
         <v>356</v>
@@ -13383,7 +13383,7 @@
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -13430,7 +13430,7 @@
         <v>23</v>
       </c>
       <c r="AD43" s="24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AE43" s="21" t="s">
         <v>29</v>
@@ -13564,7 +13564,7 @@
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="DG44" s="26"/>
       <c r="DH44" s="26"/>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -13629,7 +13629,7 @@
         <v>23</v>
       </c>
       <c r="AD45" s="24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AE45" s="21" t="s">
         <v>29</v>
@@ -13766,7 +13766,7 @@
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -13815,7 +13815,7 @@
         <v>23</v>
       </c>
       <c r="AD46" s="24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AE46" s="21" t="s">
         <v>29</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F47" s="49" t="s">
         <v>460</v>
@@ -13987,7 +13987,7 @@
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F48" s="49" t="s">
         <v>460</v>
@@ -14008,7 +14008,7 @@
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F49" s="49" t="s">
         <v>460</v>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F50" s="49"/>
       <c r="DG50" s="26"/>
@@ -14050,7 +14050,7 @@
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F51" s="49" t="s">
         <v>470</v>
@@ -14074,7 +14074,7 @@
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -14474,7 +14474,7 @@
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F54" s="24" t="s">
         <v>475</v>
@@ -14664,7 +14664,7 @@
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F55" s="49" t="s">
         <v>478</v>
@@ -14685,7 +14685,7 @@
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F56" s="49" t="s">
         <v>475</v>
@@ -14706,7 +14706,7 @@
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F57" s="49" t="s">
         <v>475</v>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F58" s="49" t="s">
         <v>486</v>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F60" s="49" t="s">
         <v>491</v>
@@ -15116,7 +15116,7 @@
         <v>83</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F61" s="24" t="s">
         <v>494</v>
@@ -15308,7 +15308,7 @@
         <v>83</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F62" s="49" t="s">
         <v>497</v>
@@ -15522,7 +15522,7 @@
         <v>83</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F63" s="49" t="s">
         <v>497</v>
@@ -15676,7 +15676,7 @@
         <v>83</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F64" s="49" t="s">
         <v>501</v>
@@ -15696,7 +15696,7 @@
         <v>83</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F65" s="49" t="s">
         <v>497</v>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -15908,7 +15908,7 @@
         <v>83</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F67" s="49" t="s">
         <v>506</v>
@@ -15929,7 +15929,7 @@
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
@@ -16118,7 +16118,7 @@
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -16307,7 +16307,7 @@
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
@@ -16505,7 +16505,7 @@
         <v>27</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F71" s="49" t="s">
         <v>483</v>
@@ -16525,7 +16525,7 @@
         <v>83</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F72" s="49" t="s">
         <v>497</v>
@@ -16547,7 +16547,7 @@
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="28"/>
@@ -16734,7 +16734,7 @@
       </c>
       <c r="D74" s="26"/>
       <c r="E74" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F74" s="39" t="s">
         <v>560</v>
@@ -16894,7 +16894,7 @@
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="28"/>
@@ -17248,7 +17248,7 @@
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="28"/>
@@ -17413,7 +17413,7 @@
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
@@ -17594,7 +17594,7 @@
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
@@ -17902,7 +17902,7 @@
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
@@ -18194,7 +18194,7 @@
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
@@ -18363,7 +18363,7 @@
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
@@ -18506,7 +18506,7 @@
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F86" s="24" t="s">
         <v>612</v>
@@ -18812,7 +18812,7 @@
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F87" s="24" t="s">
         <v>619</v>
@@ -18947,10 +18947,10 @@
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
@@ -19080,7 +19080,7 @@
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F89" s="24" t="s">
         <v>635</v>
@@ -19251,7 +19251,7 @@
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
@@ -19443,8 +19443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19706,7 +19706,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>46</v>
@@ -19798,7 +19798,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>46</v>
@@ -19892,7 +19892,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>46</v>
@@ -19988,7 +19988,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>46</v>
@@ -20080,7 +20080,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>46</v>
@@ -20178,7 +20178,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>46</v>
@@ -20276,7 +20276,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>46</v>
@@ -20366,7 +20366,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>46</v>
@@ -20468,7 +20468,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>46</v>
@@ -20562,7 +20562,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>46</v>
@@ -20652,7 +20652,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>46</v>
@@ -20684,17 +20684,17 @@
       </c>
       <c r="V12" s="13"/>
       <c r="W12" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="X12" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15" t="s">
         <v>169</v>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
@@ -20750,7 +20750,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>46</v>
@@ -20782,10 +20782,10 @@
       </c>
       <c r="V13" s="13"/>
       <c r="W13" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="X13" s="15" t="s">
         <v>688</v>
-      </c>
-      <c r="X13" s="15" t="s">
-        <v>689</v>
       </c>
       <c r="Y13" s="15" t="s">
         <v>21</v>
@@ -20794,7 +20794,7 @@
         <v>175</v>
       </c>
       <c r="AA13" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
@@ -20848,7 +20848,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>46</v>
@@ -20944,7 +20944,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
       <c r="G15" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H15" s="34" t="s">
         <v>46</v>
@@ -21094,7 +21094,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>46</v>
@@ -21204,7 +21204,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>46</v>
@@ -21302,7 +21302,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>46</v>
@@ -21398,7 +21398,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="W19" s="57" t="s">
         <v>519</v>
@@ -21426,7 +21426,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="W20" s="57" t="s">
         <v>520</v>
@@ -21454,7 +21454,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="W21" s="57" t="s">
         <v>523</v>
@@ -21482,7 +21482,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="W22" s="57" t="s">
         <v>523</v>
@@ -21514,7 +21514,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>46</v>
@@ -21624,7 +21624,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>46</v>
@@ -21734,7 +21734,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>46</v>
@@ -21838,7 +21838,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="M26" t="s">
         <v>571</v>
@@ -21866,7 +21866,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="BE27" s="13"/>
       <c r="BF27" s="13"/>
@@ -21897,7 +21897,7 @@
         <v>27</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="BE28" s="13"/>
       <c r="BF28" s="13"/>
@@ -21930,7 +21930,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>576</v>
@@ -22022,7 +22022,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22118,7 +22118,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="13" t="s">
@@ -22159,7 +22159,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="13" t="s">
@@ -22209,7 +22209,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="13" t="s">
@@ -22256,7 +22256,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="13" t="s">
@@ -22297,7 +22297,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="13" t="s">
@@ -22338,7 +22338,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>322</v>
@@ -22369,7 +22369,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>322</v>
@@ -22400,7 +22400,7 @@
         <v>83</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
@@ -22447,7 +22447,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
@@ -22497,15 +22497,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22739,6 +22730,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
   <ds:schemaRefs>
@@ -22748,16 +22748,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22775,4 +22765,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>